--- a/SPOT.xlsx
+++ b/SPOT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70D41A5-DB16-4999-9C18-3FA1378E78AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB9C35E-E093-45FA-82C0-F258DF7F1462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$10:$X$10</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$9:$X$9</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$21</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$22</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$21:$X$21</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$22:$X$22</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$22</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$21:$X$21</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$22:$X$22</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$10</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$9</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$10:$X$10</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$9:$X$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1552,7 +1552,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="156">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1715,6 +1715,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="12" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1772,17 +1773,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2223,7 +2213,7 @@
                   <c:v>0.15950726468730259</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-1</c:v>
+                  <c:v>0.26232741617357003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2858,7 +2848,7 @@
                   <c:v>0.12961541741280813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>0.25009436098739335</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4138,7 +4128,7 @@
                   <c:v>0.23720930232558146</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1</c:v>
+                  <c:v>-2.4238884634586468</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7722,18 +7712,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7777,7 +7767,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7797,7 +7787,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7828,18 +7818,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -7883,7 +7873,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7903,7 +7893,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -13805,7 +13795,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="15">
-        <f>Model!F35+Model!F39</f>
+        <f>Model!F38+Model!F42</f>
         <v>2790</v>
       </c>
       <c r="E10" s="5"/>
@@ -13904,9 +13894,9 @@
       <c r="E17" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="128"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="130"/>
+      <c r="L17" s="129"/>
+      <c r="M17" s="130"/>
+      <c r="N17" s="131"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -13919,9 +13909,9 @@
       <c r="E18" t="s">
         <v>137</v>
       </c>
-      <c r="L18" s="131"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="133"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="134"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -13934,9 +13924,9 @@
       <c r="E19" t="s">
         <v>138</v>
       </c>
-      <c r="L19" s="131"/>
-      <c r="M19" s="132"/>
-      <c r="N19" s="133"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="133"/>
+      <c r="N19" s="134"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -13946,9 +13936,9 @@
         <f>Model!G8/Model!F7-1</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L20" s="131"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="133"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="134"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -13958,9 +13948,9 @@
         <f>Model!H8/Model!G8-1</f>
         <v>-1</v>
       </c>
-      <c r="L21" s="131"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="133"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="134"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -13970,9 +13960,9 @@
         <f>Model!F12+Model!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L22" s="131"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="133"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="134"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -13982,9 +13972,9 @@
         <f>Model!F12</f>
         <v>1387</v>
       </c>
-      <c r="L23" s="131"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="133"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="133"/>
+      <c r="N23" s="134"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -13994,9 +13984,9 @@
         <f>Model!F16</f>
         <v>289</v>
       </c>
-      <c r="L24" s="131"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="133"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="133"/>
+      <c r="N24" s="134"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -14006,9 +13996,9 @@
         <f>Model!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L25" s="131"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="133"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="133"/>
+      <c r="N25" s="134"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -14018,24 +14008,24 @@
         <f>C12/C23</f>
         <v>42120.794431627626</v>
       </c>
-      <c r="L26" s="131"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="133"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="133"/>
+      <c r="N26" s="134"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>82</v>
       </c>
       <c r="C27" s="124" t="e">
-        <f>Model!Q39/Model!Q43</f>
+        <f>Model!Q42/Model!Q46</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E27" t="s">
         <v>75</v>
       </c>
-      <c r="L27" s="131"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="133"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="133"/>
+      <c r="N27" s="134"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -14045,16 +14035,16 @@
         <f>C22/-Model!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="L28" s="134"/>
-      <c r="M28" s="135"/>
-      <c r="N28" s="136"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="137"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
         <v>84</v>
       </c>
       <c r="C29" s="36" t="e">
-        <f>Model!Q30/Model!Q38</f>
+        <f>Model!Q30/Model!Q41</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14063,7 +14053,7 @@
         <v>85</v>
       </c>
       <c r="C30" s="36" t="e">
-        <f>(Model!Q24+Model!Q25)/Model!Q38</f>
+        <f>(Model!Q24+Model!Q25)/Model!Q41</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14072,7 +14062,7 @@
         <v>86</v>
       </c>
       <c r="C31" s="6" t="e">
-        <f>(Model!Q30-Model!Q38)/Model!Q34</f>
+        <f>(Model!Q30-Model!Q41)/Model!Q37</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14081,7 +14071,7 @@
         <v>87</v>
       </c>
       <c r="C32" s="36">
-        <f>(Model!Q34-Model!Q42)/Main!C7</f>
+        <f>(Model!Q37-Model!Q45)/Main!C7</f>
         <v>0</v>
       </c>
     </row>
@@ -14090,7 +14080,7 @@
         <v>88</v>
       </c>
       <c r="C33" s="36" t="e">
-        <f>Model!Q7/Model!Q34</f>
+        <f>Model!Q7/Model!Q37</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14099,7 +14089,7 @@
         <v>89</v>
       </c>
       <c r="C34" s="39" t="e">
-        <f>Model!Q14/Model!Q34</f>
+        <f>Model!Q14/Model!Q37</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14108,7 +14098,7 @@
         <v>90</v>
       </c>
       <c r="C35" s="39" t="e">
-        <f>Model!Q14/Model!Q43</f>
+        <f>Model!Q14/Model!Q46</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14221,13 +14211,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:Y83"/>
+  <dimension ref="A1:Y86"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W11" sqref="W11"/>
+      <selection pane="bottomRight" activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14448,37 +14438,37 @@
         <f>SUM(T7:W7)</f>
         <v>11566</v>
       </c>
-      <c r="L7" s="149">
+      <c r="L7" s="10">
         <v>1931</v>
       </c>
-      <c r="M7" s="149">
+      <c r="M7" s="10">
         <v>2056</v>
       </c>
-      <c r="N7" s="149">
+      <c r="N7" s="10">
         <v>2178</v>
       </c>
-      <c r="O7" s="149">
+      <c r="O7" s="10">
         <v>2295</v>
       </c>
-      <c r="P7" s="149">
+      <c r="P7" s="10">
         <v>2379</v>
       </c>
-      <c r="Q7" s="149">
+      <c r="Q7" s="10">
         <v>2504</v>
       </c>
-      <c r="R7" s="149">
+      <c r="R7" s="10">
         <v>2651</v>
       </c>
-      <c r="S7" s="149">
+      <c r="S7" s="10">
         <v>2717</v>
       </c>
-      <c r="T7" s="149">
+      <c r="T7" s="10">
         <v>2713</v>
       </c>
-      <c r="U7" s="149">
+      <c r="U7" s="10">
         <v>2773</v>
       </c>
-      <c r="V7" s="149">
+      <c r="V7" s="10">
         <v>2910</v>
       </c>
       <c r="W7" s="15">
@@ -14502,28 +14492,28 @@
       <c r="N8">
         <v>323</v>
       </c>
-      <c r="O8" s="149">
+      <c r="O8" s="10">
         <v>394</v>
       </c>
-      <c r="P8" s="149">
+      <c r="P8" s="10">
         <v>282</v>
       </c>
-      <c r="Q8" s="149">
+      <c r="Q8" s="10">
         <v>360</v>
       </c>
-      <c r="R8" s="149">
+      <c r="R8" s="10">
         <v>385</v>
       </c>
-      <c r="S8" s="149">
+      <c r="S8" s="10">
         <v>449</v>
       </c>
-      <c r="T8" s="149">
+      <c r="T8" s="10">
         <v>329</v>
       </c>
-      <c r="U8" s="149">
+      <c r="U8" s="10">
         <v>404</v>
       </c>
-      <c r="V8" s="149">
+      <c r="V8" s="10">
         <v>447</v>
       </c>
       <c r="W8" s="15">
@@ -14553,51 +14543,51 @@
       <c r="H9" s="44"/>
       <c r="I9" s="44"/>
       <c r="L9" s="11">
-        <f>SUM(L7:L8)</f>
+        <f t="shared" ref="L9:W9" si="0">SUM(L7:L8)</f>
         <v>2147</v>
       </c>
       <c r="M9" s="11">
-        <f>SUM(M7:M8)</f>
+        <f t="shared" si="0"/>
         <v>2331</v>
       </c>
       <c r="N9" s="11">
-        <f>SUM(N7:N8)</f>
+        <f t="shared" si="0"/>
         <v>2501</v>
       </c>
       <c r="O9" s="11">
-        <f>SUM(O7:O8)</f>
+        <f t="shared" si="0"/>
         <v>2689</v>
       </c>
       <c r="P9" s="11">
-        <f>SUM(P7:P8)</f>
+        <f t="shared" si="0"/>
         <v>2661</v>
       </c>
       <c r="Q9" s="11">
-        <f>SUM(Q7:Q8)</f>
+        <f t="shared" si="0"/>
         <v>2864</v>
       </c>
       <c r="R9" s="11">
-        <f>SUM(R7:R8)</f>
+        <f t="shared" si="0"/>
         <v>3036</v>
       </c>
       <c r="S9" s="11">
-        <f>SUM(S7:S8)</f>
+        <f t="shared" si="0"/>
         <v>3166</v>
       </c>
       <c r="T9" s="11">
-        <f>SUM(T7:T8)</f>
+        <f t="shared" si="0"/>
         <v>3042</v>
       </c>
       <c r="U9" s="11">
-        <f>SUM(U7:U8)</f>
+        <f t="shared" si="0"/>
         <v>3177</v>
       </c>
       <c r="V9" s="11">
-        <f>SUM(V7:V8)</f>
+        <f t="shared" si="0"/>
         <v>3357</v>
       </c>
       <c r="W9" s="14">
-        <f>SUM(W7:W8)</f>
+        <f t="shared" si="0"/>
         <v>3671</v>
       </c>
       <c r="X9" s="11"/>
@@ -14611,8 +14601,12 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
+      <c r="H10" s="43">
+        <v>16560</v>
+      </c>
+      <c r="I10" s="43">
+        <v>18840</v>
+      </c>
       <c r="L10" s="41"/>
       <c r="M10" s="41"/>
       <c r="N10" s="41"/>
@@ -14625,68 +14619,72 @@
       <c r="U10" s="41"/>
       <c r="V10" s="41"/>
       <c r="W10" s="15"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="41"/>
-    </row>
-    <row r="11" spans="1:25" s="148" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="148" t="s">
+      <c r="X10" s="10">
+        <v>3840</v>
+      </c>
+      <c r="Y10" s="41">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="149">
+      <c r="C11" s="10">
         <v>5042</v>
       </c>
-      <c r="D11" s="149">
+      <c r="D11" s="10">
         <v>5865</v>
       </c>
-      <c r="E11" s="149">
+      <c r="E11" s="10">
         <v>7077</v>
       </c>
-      <c r="F11" s="149">
+      <c r="F11" s="10">
         <v>8801</v>
       </c>
-      <c r="G11" s="150">
+      <c r="G11" s="15">
         <v>9850</v>
       </c>
-      <c r="H11" s="149"/>
-      <c r="I11" s="149"/>
-      <c r="L11" s="149">
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="L11" s="10">
         <v>1599</v>
       </c>
-      <c r="M11" s="149">
+      <c r="M11" s="10">
         <v>1668</v>
       </c>
-      <c r="N11" s="149">
+      <c r="N11" s="10">
         <v>1833</v>
       </c>
-      <c r="O11" s="149">
+      <c r="O11" s="10">
         <v>1977</v>
       </c>
-      <c r="P11" s="149">
+      <c r="P11" s="10">
         <v>1990</v>
       </c>
-      <c r="Q11" s="149">
+      <c r="Q11" s="10">
         <v>2160</v>
       </c>
-      <c r="R11" s="149">
+      <c r="R11" s="10">
         <v>2286</v>
       </c>
-      <c r="S11" s="149">
+      <c r="S11" s="10">
         <v>2365</v>
       </c>
-      <c r="T11" s="149">
+      <c r="T11" s="10">
         <v>2276</v>
       </c>
-      <c r="U11" s="149">
+      <c r="U11" s="10">
         <v>2411</v>
       </c>
-      <c r="V11" s="149">
+      <c r="V11" s="10">
         <v>2472</v>
       </c>
-      <c r="W11" s="150">
+      <c r="W11" s="15">
         <v>2691</v>
       </c>
-      <c r="X11" s="149"/>
-      <c r="Y11" s="149"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -14867,89 +14865,89 @@
         <v>23</v>
       </c>
       <c r="C15" s="11">
-        <f>C9-SUM(C11:C14)</f>
+        <f t="shared" ref="C15:I15" si="1">C9-SUM(C11:C14)</f>
         <v>-73</v>
       </c>
       <c r="D15" s="11">
-        <f>D9-SUM(D11:D14)</f>
+        <f t="shared" si="1"/>
         <v>-293</v>
       </c>
       <c r="E15" s="11">
-        <f>E9-SUM(E11:E14)</f>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="F15" s="11">
-        <f>F9-SUM(F11:F14)</f>
+        <f t="shared" si="1"/>
         <v>-659</v>
       </c>
       <c r="G15" s="14">
-        <f>G9-SUM(G11:G14)</f>
+        <f t="shared" si="1"/>
         <v>-446</v>
       </c>
       <c r="H15" s="11">
-        <f>H9-SUM(H11:H14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="11">
-        <f>I9-SUM(I11:I14)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11">
-        <f>L9-SUM(L11:L14)</f>
+        <f t="shared" ref="L15:Y15" si="2">L9-SUM(L11:L14)</f>
         <v>14</v>
       </c>
       <c r="M15" s="11">
-        <f>M9-SUM(M11:M14)</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="N15" s="11">
-        <f>N9-SUM(N11:N14)</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="O15" s="11">
-        <f>O9-SUM(O11:O14)</f>
+        <f t="shared" si="2"/>
         <v>-7</v>
       </c>
       <c r="P15" s="11">
-        <f>P9-SUM(P11:P14)</f>
+        <f t="shared" si="2"/>
         <v>-6</v>
       </c>
       <c r="Q15" s="11">
-        <f>Q9-SUM(Q11:Q14)</f>
+        <f t="shared" si="2"/>
         <v>-194</v>
       </c>
       <c r="R15" s="11">
-        <f>R9-SUM(R11:R14)</f>
+        <f t="shared" si="2"/>
         <v>-228</v>
       </c>
       <c r="S15" s="11">
-        <f>S9-SUM(S11:S14)</f>
+        <f t="shared" si="2"/>
         <v>-231</v>
       </c>
       <c r="T15" s="11">
-        <f>T9-SUM(T11:T14)</f>
+        <f t="shared" si="2"/>
         <v>-156</v>
       </c>
       <c r="U15" s="11">
-        <f>U9-SUM(U11:U14)</f>
+        <f t="shared" si="2"/>
         <v>-247</v>
       </c>
       <c r="V15" s="11">
-        <f>V9-SUM(V11:V14)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="W15" s="14">
-        <f>W9-SUM(W11:W14)</f>
+        <f t="shared" si="2"/>
         <v>-75</v>
       </c>
       <c r="X15" s="11">
-        <f>X9-SUM(X11:X14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Y15" s="11">
-        <f>Y9-SUM(Y11:Y14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -15033,87 +15031,87 @@
         <v>19</v>
       </c>
       <c r="C17" s="11">
-        <f>C15+SUM(C16:C16)</f>
+        <f t="shared" ref="C17:I17" si="3">C15+SUM(C16:C16)</f>
         <v>-131</v>
       </c>
       <c r="D17" s="11">
-        <f>D15+SUM(D16:D16)</f>
+        <f t="shared" si="3"/>
         <v>-709</v>
       </c>
       <c r="E17" s="11">
-        <f>E15+SUM(E16:E16)</f>
+        <f t="shared" si="3"/>
         <v>249</v>
       </c>
       <c r="F17" s="11">
-        <f>F15+SUM(F16:F16)</f>
+        <f t="shared" si="3"/>
         <v>-370</v>
       </c>
       <c r="G17" s="14">
-        <f>G15+SUM(G16:G16)</f>
+        <f t="shared" si="3"/>
         <v>-505</v>
       </c>
       <c r="H17" s="11">
-        <f>H15+SUM(H16:H16)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I17" s="11">
-        <f>I15+SUM(I16:I16)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L17" s="11">
-        <f>L15+SUM(L16:L16)</f>
+        <f t="shared" ref="L17:Y17" si="4">L15+SUM(L16:L16)</f>
         <v>87</v>
       </c>
       <c r="M17" s="11">
-        <f>M15+SUM(M16:M16)</f>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="N17" s="11">
-        <f>N15+SUM(N16:N16)</f>
+        <f t="shared" si="4"/>
         <v>162</v>
       </c>
       <c r="O17" s="11">
-        <f>O15+SUM(O16:O16)</f>
+        <f t="shared" si="4"/>
         <v>-8</v>
       </c>
       <c r="P17" s="11">
-        <f>P15+SUM(P16:P16)</f>
+        <f t="shared" si="4"/>
         <v>155</v>
       </c>
       <c r="Q17" s="11">
-        <f>Q15+SUM(Q16:Q16)</f>
+        <f t="shared" si="4"/>
         <v>-90</v>
       </c>
       <c r="R17" s="11">
-        <f>R15+SUM(R16:R16)</f>
+        <f t="shared" si="4"/>
         <v>-144</v>
       </c>
       <c r="S17" s="11">
-        <f>S15+SUM(S16:S16)</f>
+        <f t="shared" si="4"/>
         <v>-291</v>
       </c>
       <c r="T17" s="11">
-        <f>T15+SUM(T16:T16)</f>
+        <f t="shared" si="4"/>
         <v>-206</v>
       </c>
       <c r="U17" s="11">
-        <f>U15+SUM(U16:U16)</f>
+        <f t="shared" si="4"/>
         <v>-241</v>
       </c>
       <c r="V17" s="11">
-        <f>V15+SUM(V16:V16)</f>
+        <f t="shared" si="4"/>
         <v>73</v>
       </c>
       <c r="W17" s="14">
-        <f>W15+SUM(W16:W16)</f>
+        <f t="shared" si="4"/>
         <v>-131</v>
       </c>
       <c r="X17" s="11">
-        <f>X15+SUM(X16:X16)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y17" s="11">
-        <f>Y15+SUM(Y16:Y16)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -15202,59 +15200,59 @@
       <c r="H19" s="59"/>
       <c r="I19" s="59"/>
       <c r="L19" s="11">
-        <f>L17-SUM(L18:L18)</f>
+        <f t="shared" ref="L19:Y19" si="5">L17-SUM(L18:L18)</f>
         <v>23</v>
       </c>
       <c r="M19" s="11">
-        <f>M17-SUM(M18:M18)</f>
+        <f t="shared" si="5"/>
         <v>-20</v>
       </c>
       <c r="N19" s="11">
-        <f>N17-SUM(N18:N18)</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="O19" s="11">
-        <f>O17-SUM(O18:O18)</f>
+        <f t="shared" si="5"/>
         <v>-39</v>
       </c>
       <c r="P19" s="11">
-        <f>P17-SUM(P18:P18)</f>
+        <f t="shared" si="5"/>
         <v>131</v>
       </c>
       <c r="Q19" s="11">
-        <f>Q17-SUM(Q18:Q18)</f>
+        <f t="shared" si="5"/>
         <v>-125</v>
       </c>
       <c r="R19" s="11">
-        <f>R17-SUM(R18:R18)</f>
+        <f t="shared" si="5"/>
         <v>-166</v>
       </c>
       <c r="S19" s="11">
-        <f>S17-SUM(S18:S18)</f>
+        <f t="shared" si="5"/>
         <v>-270</v>
       </c>
       <c r="T19" s="11">
-        <f>T17-SUM(T18:T18)</f>
+        <f t="shared" si="5"/>
         <v>-225</v>
       </c>
       <c r="U19" s="11">
-        <f>U17-SUM(U18:U18)</f>
+        <f t="shared" si="5"/>
         <v>-302</v>
       </c>
       <c r="V19" s="11">
-        <f>V17-SUM(V18:V18)</f>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="W19" s="14">
-        <f>W17-SUM(W18:W18)</f>
+        <f t="shared" si="5"/>
         <v>-70</v>
       </c>
       <c r="X19" s="11">
-        <f>X17-SUM(X18:X18)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y19" s="11">
-        <f>Y17-SUM(Y18:Y18)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -15338,54 +15336,54 @@
         <f>F19/F20</f>
         <v>-2.2287314772588895</v>
       </c>
-      <c r="G21" s="153">
+      <c r="G21" s="35">
         <f>G19/G20</f>
         <v>-2.7319555567934941</v>
       </c>
       <c r="H21" s="56"/>
       <c r="I21" s="57"/>
-      <c r="L21" s="151">
-        <f t="shared" ref="L21:V21" si="0">L19/L20</f>
+      <c r="L21" s="51">
+        <f t="shared" ref="L21:V21" si="6">L19/L20</f>
         <v>0.1206934751118536</v>
       </c>
-      <c r="M21" s="151">
-        <f t="shared" si="0"/>
+      <c r="M21" s="51">
+        <f t="shared" si="6"/>
         <v>-0.10461731337236389</v>
       </c>
-      <c r="N21" s="151">
-        <f t="shared" si="0"/>
+      <c r="N21" s="51">
+        <f t="shared" si="6"/>
         <v>1.0444656551048131E-2</v>
       </c>
-      <c r="O21" s="151">
-        <f t="shared" si="0"/>
+      <c r="O21" s="51">
+        <f t="shared" si="6"/>
         <v>-0.20317529329252246</v>
       </c>
-      <c r="P21" s="151">
-        <f t="shared" si="0"/>
+      <c r="P21" s="51">
+        <f t="shared" si="6"/>
         <v>0.6806042572928902</v>
       </c>
-      <c r="Q21" s="151">
-        <f t="shared" si="0"/>
+      <c r="Q21" s="51">
+        <f t="shared" si="6"/>
         <v>-0.64784283469654669</v>
       </c>
-      <c r="R21" s="151">
-        <f t="shared" si="0"/>
+      <c r="R21" s="51">
+        <f t="shared" si="6"/>
         <v>-0.85975912636125373</v>
       </c>
-      <c r="S21" s="151">
-        <f t="shared" si="0"/>
+      <c r="S21" s="51">
+        <f t="shared" si="6"/>
         <v>-1.3973113628237002</v>
       </c>
-      <c r="T21" s="151">
-        <f t="shared" si="0"/>
+      <c r="T21" s="51">
+        <f t="shared" si="6"/>
         <v>-1.16241546875964</v>
       </c>
-      <c r="U21" s="151">
-        <f t="shared" si="0"/>
+      <c r="U21" s="51">
+        <f t="shared" si="6"/>
         <v>-1.5533371112686438</v>
       </c>
-      <c r="V21" s="151">
-        <f t="shared" si="0"/>
+      <c r="V21" s="51">
+        <f t="shared" si="6"/>
         <v>0.33353563894752719</v>
       </c>
       <c r="W21" s="50">
@@ -15404,8 +15402,12 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="35"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="46"/>
+      <c r="H22" s="45">
+        <v>3.89</v>
+      </c>
+      <c r="I22" s="46">
+        <v>5.7</v>
+      </c>
       <c r="L22" s="52"/>
       <c r="M22" s="52"/>
       <c r="N22" s="52"/>
@@ -15418,8 +15420,12 @@
       <c r="U22" s="52"/>
       <c r="V22" s="52"/>
       <c r="W22" s="50"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
+      <c r="X22" s="51">
+        <v>0.73</v>
+      </c>
+      <c r="Y22" s="51">
+        <v>0.81</v>
+      </c>
     </row>
     <row r="23" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -15448,51 +15454,51 @@
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
       <c r="L23" s="3">
-        <f>1-L11/L9</f>
+        <f t="shared" ref="L23:W23" si="7">1-L11/L9</f>
         <v>0.25523986958546807</v>
       </c>
       <c r="M23" s="3">
-        <f>1-M11/M9</f>
+        <f t="shared" si="7"/>
         <v>0.28442728442728438</v>
       </c>
       <c r="N23" s="3">
-        <f>1-N11/N9</f>
+        <f t="shared" si="7"/>
         <v>0.26709316273490602</v>
       </c>
       <c r="O23" s="3">
-        <f>1-O11/O9</f>
+        <f t="shared" si="7"/>
         <v>0.26478244700632203</v>
       </c>
       <c r="P23" s="3">
-        <f>1-P11/P9</f>
+        <f t="shared" si="7"/>
         <v>0.25216084178880116</v>
       </c>
       <c r="Q23" s="3">
-        <f>1-Q11/Q9</f>
+        <f t="shared" si="7"/>
         <v>0.24581005586592175</v>
       </c>
       <c r="R23" s="3">
-        <f>1-R11/R9</f>
+        <f t="shared" si="7"/>
         <v>0.24703557312252966</v>
       </c>
       <c r="S23" s="3">
-        <f>1-S11/S9</f>
+        <f t="shared" si="7"/>
         <v>0.25300063171193932</v>
       </c>
       <c r="T23" s="3">
-        <f>1-T11/T9</f>
+        <f t="shared" si="7"/>
         <v>0.2518080210387903</v>
       </c>
       <c r="U23" s="3">
-        <f>1-U11/U9</f>
+        <f t="shared" si="7"/>
         <v>0.24110796348756691</v>
       </c>
       <c r="V23" s="3">
-        <f>1-V11/V9</f>
+        <f t="shared" si="7"/>
         <v>0.26362823949955316</v>
       </c>
       <c r="W23" s="6">
-        <f>1-W11/W9</f>
+        <f t="shared" si="7"/>
         <v>0.26695723236175428</v>
       </c>
     </row>
@@ -15520,60 +15526,60 @@
         <f>G19/G9</f>
         <v>-4.0160036234619161E-2</v>
       </c>
-      <c r="H24" s="48" t="e">
+      <c r="H24" s="48">
         <f>H19/H10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I24" s="48" t="e">
+        <v>0</v>
+      </c>
+      <c r="I24" s="48">
         <f>I19/I10</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="L24" s="4">
-        <f>L19/L9</f>
+        <f t="shared" ref="L24:W24" si="8">L19/L9</f>
         <v>1.0712622263623661E-2</v>
       </c>
       <c r="M24" s="4">
-        <f>M19/M9</f>
+        <f t="shared" si="8"/>
         <v>-8.5800085800085794E-3</v>
       </c>
       <c r="N24" s="4">
-        <f>N19/N9</f>
+        <f t="shared" si="8"/>
         <v>7.9968012794882047E-4</v>
       </c>
       <c r="O24" s="4">
-        <f>O19/O9</f>
+        <f t="shared" si="8"/>
         <v>-1.4503532911863145E-2</v>
       </c>
       <c r="P24" s="4">
-        <f>P19/P9</f>
+        <f t="shared" si="8"/>
         <v>4.9229612927470877E-2</v>
       </c>
       <c r="Q24" s="4">
-        <f>Q19/Q9</f>
+        <f t="shared" si="8"/>
         <v>-4.3645251396648044E-2</v>
       </c>
       <c r="R24" s="4">
-        <f>R19/R9</f>
+        <f t="shared" si="8"/>
         <v>-5.4677206851119896E-2</v>
       </c>
       <c r="S24" s="4">
-        <f>S19/S9</f>
+        <f t="shared" si="8"/>
         <v>-8.5281111813013261E-2</v>
       </c>
       <c r="T24" s="4">
-        <f>T19/T9</f>
+        <f t="shared" si="8"/>
         <v>-7.3964497041420121E-2</v>
       </c>
       <c r="U24" s="4">
-        <f>U19/U9</f>
+        <f t="shared" si="8"/>
         <v>-9.5058231035568153E-2</v>
       </c>
       <c r="V24" s="4">
-        <f>V19/V9</f>
+        <f t="shared" si="8"/>
         <v>1.9362526064938934E-2</v>
       </c>
       <c r="W24" s="7">
-        <f>W19/W9</f>
+        <f t="shared" si="8"/>
         <v>-1.9068373740125308E-2</v>
       </c>
     </row>
@@ -15600,55 +15606,55 @@
       </c>
       <c r="H25" s="49">
         <f>H10/G9-1</f>
-        <v>-1</v>
-      </c>
-      <c r="I25" s="49" t="e">
+        <v>0.25009436098739335</v>
+      </c>
+      <c r="I25" s="49">
         <f>I10/H10-1</f>
-        <v>#DIV/0!</v>
+        <v>0.1376811594202898</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4">
-        <f>P9/L9-1</f>
+        <f t="shared" ref="P25:W25" si="9">P9/L9-1</f>
         <v>0.23940381928272014</v>
       </c>
       <c r="Q25" s="4">
-        <f>Q9/M9-1</f>
+        <f t="shared" si="9"/>
         <v>0.2286572286572286</v>
       </c>
       <c r="R25" s="4">
-        <f>R9/N9-1</f>
+        <f t="shared" si="9"/>
         <v>0.21391443422630951</v>
       </c>
       <c r="S25" s="4">
-        <f>S9/O9-1</f>
+        <f t="shared" si="9"/>
         <v>0.17738936407586459</v>
       </c>
       <c r="T25" s="4">
-        <f>T9/P9-1</f>
+        <f t="shared" si="9"/>
         <v>0.14317925591882741</v>
       </c>
       <c r="U25" s="4">
-        <f>U9/Q9-1</f>
+        <f t="shared" si="9"/>
         <v>0.10928770949720668</v>
       </c>
       <c r="V25" s="4">
-        <f>V9/R9-1</f>
+        <f t="shared" si="9"/>
         <v>0.10573122529644263</v>
       </c>
       <c r="W25" s="7">
-        <f>W9/S9-1</f>
+        <f t="shared" si="9"/>
         <v>0.15950726468730259</v>
       </c>
       <c r="X25" s="37">
         <f>X10/T9-1</f>
-        <v>-1</v>
+        <v>0.26232741617357003</v>
       </c>
       <c r="Y25" s="37">
         <f>Y10/U9-1</f>
-        <v>-1</v>
+        <v>0.25904941768964429</v>
       </c>
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.25">
@@ -15678,51 +15684,51 @@
       <c r="H26" s="125"/>
       <c r="I26" s="125"/>
       <c r="L26" s="4">
-        <f>L12/L9</f>
+        <f t="shared" ref="L26:W26" si="10">L12/L9</f>
         <v>9.1290172333488587E-2</v>
       </c>
       <c r="M26" s="4">
-        <f>M12/M9</f>
+        <f t="shared" si="10"/>
         <v>0.10939510939510939</v>
       </c>
       <c r="N26" s="4">
-        <f>N12/N9</f>
+        <f t="shared" si="10"/>
         <v>8.3166733306677329E-2</v>
       </c>
       <c r="O26" s="4">
-        <f>O12/O9</f>
+        <f t="shared" si="10"/>
         <v>9.4087021197471185E-2</v>
       </c>
       <c r="P26" s="4">
-        <f>P12/P9</f>
+        <f t="shared" si="10"/>
         <v>9.3949642991356636E-2</v>
       </c>
       <c r="Q26" s="4">
-        <f>Q12/Q9</f>
+        <f t="shared" si="10"/>
         <v>0.11731843575418995</v>
       </c>
       <c r="R26" s="4">
-        <f>R12/R9</f>
+        <f t="shared" si="10"/>
         <v>0.12714097496706192</v>
       </c>
       <c r="S26" s="4">
-        <f>S12/S9</f>
+        <f t="shared" si="10"/>
         <v>0.13108022741629816</v>
       </c>
       <c r="T26" s="4">
-        <f>T12/T9</f>
+        <f t="shared" si="10"/>
         <v>0.14299802761341224</v>
       </c>
       <c r="U26" s="4">
-        <f>U12/U9</f>
+        <f t="shared" si="10"/>
         <v>0.14258734655335223</v>
       </c>
       <c r="V26" s="4">
-        <f>V12/V9</f>
+        <f t="shared" si="10"/>
         <v>0.10991957104557641</v>
       </c>
       <c r="W26" s="7">
-        <f>W12/W9</f>
+        <f t="shared" si="10"/>
         <v>0.1274856987196949</v>
       </c>
       <c r="X26" s="4"/>
@@ -15754,51 +15760,51 @@
       <c r="H27" s="125"/>
       <c r="I27" s="125"/>
       <c r="L27" s="4">
-        <f>L13/L9</f>
+        <f t="shared" ref="L27:W27" si="11">L13/L9</f>
         <v>0.10992081974848626</v>
       </c>
       <c r="M27" s="4">
-        <f>M13/M9</f>
+        <f t="shared" si="11"/>
         <v>0.11969111969111969</v>
       </c>
       <c r="N27" s="4">
-        <f>N13/N9</f>
+        <f t="shared" si="11"/>
         <v>0.11195521791283487</v>
       </c>
       <c r="O27" s="4">
-        <f>O13/O9</f>
+        <f t="shared" si="11"/>
         <v>0.12644105615470436</v>
       </c>
       <c r="P27" s="4">
-        <f>P13/P9</f>
+        <f t="shared" si="11"/>
         <v>0.11123637730176625</v>
       </c>
       <c r="Q27" s="4">
-        <f>Q13/Q9</f>
+        <f t="shared" si="11"/>
         <v>0.13652234636871508</v>
       </c>
       <c r="R27" s="4">
-        <f>R13/R9</f>
+        <f t="shared" si="11"/>
         <v>0.14229249011857709</v>
       </c>
       <c r="S27" s="4">
-        <f>S13/S9</f>
+        <f t="shared" si="11"/>
         <v>0.14308275426405559</v>
       </c>
       <c r="T27" s="4">
-        <f>T13/T9</f>
+        <f t="shared" si="11"/>
         <v>0.11406969099276791</v>
       </c>
       <c r="U27" s="4">
-        <f>U13/U9</f>
+        <f t="shared" si="11"/>
         <v>0.12559017941454201</v>
       </c>
       <c r="V27" s="4">
-        <f>V13/V9</f>
+        <f t="shared" si="11"/>
         <v>0.10574918081620495</v>
       </c>
       <c r="W27" s="7">
-        <f>W13/W9</f>
+        <f t="shared" si="11"/>
         <v>0.1176791065104876</v>
       </c>
       <c r="X27" s="4"/>
@@ -15808,15 +15814,15 @@
         <v>135</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" ref="C28:E28" si="1">C14/C9</f>
+        <f t="shared" ref="C28:E28" si="12">C14/C9</f>
         <v>5.2335895919574216E-2</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>5.6091370558375632E-2</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>4.6545304095986763E-2</v>
       </c>
       <c r="F28" s="4">
@@ -15829,47 +15835,47 @@
       </c>
       <c r="H28" s="125"/>
       <c r="I28" s="125"/>
-      <c r="L28" s="152">
-        <f t="shared" ref="L28:U28" si="2">L14/L9</f>
+      <c r="L28" s="4">
+        <f t="shared" ref="L28:U28" si="13">L14/L9</f>
         <v>4.7508150908244062E-2</v>
       </c>
-      <c r="M28" s="152">
-        <f t="shared" si="2"/>
+      <c r="M28" s="4">
+        <f t="shared" si="13"/>
         <v>5.019305019305019E-2</v>
       </c>
-      <c r="N28" s="152">
-        <f t="shared" si="2"/>
+      <c r="N28" s="4">
+        <f t="shared" si="13"/>
         <v>4.1983206717313072E-2</v>
       </c>
-      <c r="O28" s="152">
-        <f t="shared" si="2"/>
+      <c r="O28" s="4">
+        <f t="shared" si="13"/>
         <v>4.6857567869096318E-2</v>
       </c>
-      <c r="P28" s="152">
-        <f t="shared" si="2"/>
+      <c r="P28" s="4">
+        <f t="shared" si="13"/>
         <v>4.9229612927470877E-2</v>
       </c>
-      <c r="Q28" s="152">
-        <f t="shared" si="2"/>
+      <c r="Q28" s="4">
+        <f t="shared" si="13"/>
         <v>5.9706703910614528E-2</v>
       </c>
-      <c r="R28" s="152">
-        <f t="shared" si="2"/>
+      <c r="R28" s="4">
+        <f t="shared" si="13"/>
         <v>5.2700922266139656E-2</v>
       </c>
-      <c r="S28" s="152">
-        <f t="shared" si="2"/>
+      <c r="S28" s="4">
+        <f t="shared" si="13"/>
         <v>5.1800379027163612E-2</v>
       </c>
-      <c r="T28" s="152">
-        <f t="shared" si="2"/>
+      <c r="T28" s="4">
+        <f t="shared" si="13"/>
         <v>4.6022353714661408E-2</v>
       </c>
-      <c r="U28" s="152">
-        <f t="shared" si="2"/>
+      <c r="U28" s="4">
+        <f t="shared" si="13"/>
         <v>5.0676739062008182E-2</v>
       </c>
-      <c r="V28" s="152">
+      <c r="V28" s="4">
         <f>V14/V9</f>
         <v>3.8427167113494191E-2</v>
       </c>
@@ -15886,15 +15892,15 @@
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="e">
-        <f>E7/D7-1</f>
+        <f t="shared" ref="E29:G30" si="14">E7/D7-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="4" t="e">
-        <f>F7/E7-1</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G29" s="7" t="e">
-        <f>G7/F7-1</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="125"/>
@@ -15903,14 +15909,38 @@
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="7"/>
+      <c r="P29" s="4">
+        <f t="shared" ref="P29:V29" si="15">P7/L7-1</f>
+        <v>0.2320041429311237</v>
+      </c>
+      <c r="Q29" s="4">
+        <f t="shared" si="15"/>
+        <v>0.21789883268482479</v>
+      </c>
+      <c r="R29" s="4">
+        <f t="shared" si="15"/>
+        <v>0.21717171717171713</v>
+      </c>
+      <c r="S29" s="4">
+        <f t="shared" si="15"/>
+        <v>0.18387799564270146</v>
+      </c>
+      <c r="T29" s="4">
+        <f t="shared" si="15"/>
+        <v>0.14039512400168142</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" si="15"/>
+        <v>0.10742811501597438</v>
+      </c>
+      <c r="V29" s="4">
+        <f t="shared" si="15"/>
+        <v>9.7698981516408878E-2</v>
+      </c>
+      <c r="W29" s="7">
+        <f>W7/S7-1</f>
+        <v>0.1667280088332721</v>
+      </c>
       <c r="X29" s="4"/>
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.25">
@@ -15920,15 +15950,15 @@
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="e">
-        <f>E8/D8-1</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="4" t="e">
-        <f>F8/E8-1</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G30" s="7" t="e">
-        <f>G8/F8-1</f>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H30" s="125"/>
@@ -15937,14 +15967,38 @@
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="7"/>
+      <c r="P30" s="4">
+        <f>P8/L8-1</f>
+        <v>0.30555555555555558</v>
+      </c>
+      <c r="Q30" s="4">
+        <f t="shared" ref="Q30:W30" si="16">Q8/M8-1</f>
+        <v>0.30909090909090908</v>
+      </c>
+      <c r="R30" s="4">
+        <f t="shared" si="16"/>
+        <v>0.19195046439628483</v>
+      </c>
+      <c r="S30" s="4">
+        <f t="shared" si="16"/>
+        <v>0.13959390862944154</v>
+      </c>
+      <c r="T30" s="4">
+        <f t="shared" si="16"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="U30" s="4">
+        <f t="shared" si="16"/>
+        <v>0.12222222222222223</v>
+      </c>
+      <c r="V30" s="4">
+        <f t="shared" si="16"/>
+        <v>0.16103896103896109</v>
+      </c>
+      <c r="W30" s="7">
+        <f t="shared" si="16"/>
+        <v>0.11581291759465473</v>
+      </c>
       <c r="X30" s="4"/>
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.25">
@@ -15969,35 +16023,35 @@
         <v>0.23720930232558146</v>
       </c>
       <c r="H31" s="58">
-        <f>H21/G21-1</f>
-        <v>-1</v>
-      </c>
-      <c r="I31" s="58" t="e">
-        <f>I21/H21-1</f>
-        <v>#DIV/0!</v>
+        <f>H22/G21-1</f>
+        <v>-2.4238884634586468</v>
+      </c>
+      <c r="I31" s="58">
+        <f>I22/H22-1</f>
+        <v>0.46529562982005146</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4">
-        <f t="shared" ref="P31:X31" si="3">P19/L19-1</f>
+        <f t="shared" ref="P31:X31" si="17">P19/L19-1</f>
         <v>4.6956521739130439</v>
       </c>
       <c r="Q31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>5.25</v>
       </c>
       <c r="R31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>-84</v>
       </c>
       <c r="S31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>5.9230769230769234</v>
       </c>
       <c r="T31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>-2.717557251908397</v>
       </c>
       <c r="U31" s="4">
@@ -16005,1489 +16059,1627 @@
         <v>1.4159999999999999</v>
       </c>
       <c r="V31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>-1.3915662650602409</v>
       </c>
       <c r="W31" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>-0.7407407407407407</v>
       </c>
       <c r="X31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="17"/>
         <v>-1</v>
       </c>
     </row>
-    <row r="34" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="58"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="4"/>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="L33" s="18">
+        <f t="shared" ref="L33:O33" si="18">SUM(L3:L4)/L7</f>
+        <v>0.26618332470222683</v>
+      </c>
+      <c r="M33" s="18">
+        <f t="shared" si="18"/>
+        <v>0.25778210116731515</v>
+      </c>
+      <c r="N33" s="18">
+        <f t="shared" si="18"/>
+        <v>0.25390266299357206</v>
+      </c>
+      <c r="O33" s="18">
+        <f t="shared" si="18"/>
+        <v>0.25533769063180828</v>
+      </c>
+      <c r="P33" s="18">
+        <f t="shared" ref="P33:V33" si="19">SUM(P3:P4)/P7</f>
+        <v>0.25388818831441784</v>
+      </c>
+      <c r="Q33" s="18">
+        <f t="shared" si="19"/>
+        <v>0.2480031948881789</v>
+      </c>
+      <c r="R33" s="18">
+        <f t="shared" si="19"/>
+        <v>0.24556771029800076</v>
+      </c>
+      <c r="S33" s="18">
+        <f t="shared" si="19"/>
+        <v>0.25542878174457123</v>
+      </c>
+      <c r="T33" s="18">
+        <f t="shared" si="19"/>
+        <v>0.26723184666420935</v>
+      </c>
+      <c r="U33" s="18">
+        <f t="shared" si="19"/>
+        <v>0.27803822574828707</v>
+      </c>
+      <c r="V33" s="18">
+        <f t="shared" si="19"/>
+        <v>0.27491408934707906</v>
+      </c>
+      <c r="W33" s="53">
+        <f>SUM(W3:W4)/W7</f>
+        <v>0.26435331230283909</v>
+      </c>
+      <c r="X33" s="4"/>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="L34" s="18">
+        <f t="shared" ref="L34:O34" si="20">L8/L5</f>
+        <v>1.0384615384615385</v>
+      </c>
+      <c r="M34" s="18">
+        <f t="shared" si="20"/>
+        <v>1.3095238095238095</v>
+      </c>
+      <c r="N34" s="18">
+        <f t="shared" si="20"/>
+        <v>1.4681818181818183</v>
+      </c>
+      <c r="O34" s="18">
+        <f t="shared" si="20"/>
+        <v>1.6694915254237288</v>
+      </c>
+      <c r="P34" s="18">
+        <f t="shared" ref="P34:V34" si="21">P8/P5</f>
+        <v>1.1190476190476191</v>
+      </c>
+      <c r="Q34" s="18">
+        <f t="shared" si="21"/>
+        <v>1.40625</v>
+      </c>
+      <c r="R34" s="18">
+        <f t="shared" si="21"/>
+        <v>1.4102564102564104</v>
+      </c>
+      <c r="S34" s="18">
+        <f t="shared" si="21"/>
+        <v>1.5220338983050847</v>
+      </c>
+      <c r="T34" s="18">
+        <f t="shared" si="21"/>
+        <v>1.0378548895899053</v>
+      </c>
+      <c r="U34" s="18">
+        <f t="shared" si="21"/>
+        <v>1.1778425655976676</v>
+      </c>
+      <c r="V34" s="18">
+        <f t="shared" si="21"/>
+        <v>1.2382271468144044</v>
+      </c>
+      <c r="W34" s="53">
+        <f>W8/W5</f>
+        <v>1.3218997361477574</v>
+      </c>
+      <c r="X34" s="4"/>
+    </row>
+    <row r="37" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="11">
-        <f>C35+C37-C49-C50-C58</f>
+      <c r="C37" s="11">
+        <f>C38+C40-C52-C53-C61</f>
         <v>0</v>
       </c>
-      <c r="D34" s="154">
-        <f>D35+D36-D56-D54-D49</f>
+      <c r="D37" s="11">
+        <f>D38+D39-D59-D57-D52</f>
         <v>1004</v>
       </c>
-      <c r="E34" s="154">
-        <f>E35+E36-E56-E54-E49</f>
+      <c r="E37" s="11">
+        <f>E38+E39-E59-E57-E52</f>
         <v>1416</v>
       </c>
-      <c r="F34" s="154">
-        <f>F35+F36-F56-F54-F49</f>
+      <c r="F37" s="11">
+        <f>F38+F39-F59-F57-F52</f>
         <v>1356</v>
       </c>
-      <c r="G34" s="14">
-        <f>G35+G36-G56-G54-G49</f>
+      <c r="G37" s="14">
+        <f>G38+G39-G59-G57-G52</f>
         <v>2016</v>
       </c>
-      <c r="L34" s="11">
-        <f>L35+L37-L49-L50-L58</f>
+      <c r="L37" s="11">
+        <f t="shared" ref="L37:W37" si="22">L38+L40-L52-L53-L61</f>
         <v>0</v>
       </c>
-      <c r="M34" s="11">
-        <f>M35+M37-M49-M50-M58</f>
+      <c r="M37" s="11">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="N34" s="11">
-        <f>N35+N37-N49-N50-N58</f>
+      <c r="N37" s="11">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="O34" s="11">
-        <f>O35+O37-O49-O50-O58</f>
+      <c r="O37" s="11">
+        <f t="shared" si="22"/>
         <v>1896</v>
       </c>
-      <c r="P34" s="11">
-        <f>P35+P37-P49-P50-P58</f>
+      <c r="P37" s="11">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="11">
-        <f>Q35+Q37-Q49-Q50-Q58</f>
+      <c r="Q37" s="11">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="R34" s="11">
-        <f>R35+R37-R49-R50-R58</f>
+      <c r="R37" s="11">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="S34" s="11">
-        <f>S35+S37-S49-S50-S58</f>
+      <c r="S37" s="11">
+        <f t="shared" si="22"/>
         <v>1604</v>
       </c>
-      <c r="T34" s="11">
-        <f>T35+T37-T49-T50-T58</f>
+      <c r="T37" s="11">
+        <f t="shared" si="22"/>
         <v>1572</v>
       </c>
-      <c r="U34" s="11">
-        <f>U35+U37-U49-U50-U58</f>
+      <c r="U37" s="11">
+        <f t="shared" si="22"/>
         <v>1640</v>
       </c>
-      <c r="V34" s="11">
-        <f>V35+V37-V49-V50-V58</f>
+      <c r="V37" s="11">
+        <f t="shared" si="22"/>
         <v>1659</v>
       </c>
-      <c r="W34" s="14">
-        <f>W35+W37-W49-W50-W58</f>
+      <c r="W37" s="14">
+        <f t="shared" si="22"/>
         <v>2118</v>
       </c>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>24</v>
-      </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10">
-        <v>1151</v>
-      </c>
-      <c r="E35" s="10">
-        <v>2744</v>
-      </c>
-      <c r="F35" s="10">
-        <v>2483</v>
-      </c>
-      <c r="G35" s="15">
-        <v>3114</v>
-      </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10">
-        <f>E35</f>
-        <v>2744</v>
-      </c>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10">
-        <f>F35</f>
-        <v>2483</v>
-      </c>
-      <c r="T35" s="10">
-        <v>2443</v>
-      </c>
-      <c r="U35" s="10">
-        <v>2550</v>
-      </c>
-      <c r="V35" s="10">
-        <v>2618</v>
-      </c>
-      <c r="W35" s="15">
-        <f>G35</f>
-        <v>3114</v>
-      </c>
-    </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>144</v>
-      </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10">
-        <v>596</v>
-      </c>
-      <c r="E36" s="10">
-        <v>756</v>
-      </c>
-      <c r="F36" s="10">
-        <v>867</v>
-      </c>
-      <c r="G36" s="15">
-        <v>1100</v>
-      </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10">
-        <f t="shared" ref="O36:O60" si="4">E36</f>
-        <v>756</v>
-      </c>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10">
-        <f t="shared" ref="S36:S60" si="5">F36</f>
-        <v>867</v>
-      </c>
-      <c r="T36" s="10">
-        <v>995</v>
-      </c>
-      <c r="U36" s="10">
-        <v>866</v>
-      </c>
-      <c r="V36" s="10">
-        <v>1097</v>
-      </c>
-      <c r="W36" s="15">
-        <f t="shared" ref="W36:W60" si="6">G36</f>
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10">
-        <v>4</v>
-      </c>
-      <c r="E37" s="10">
-        <v>5</v>
-      </c>
-      <c r="F37" s="10">
-        <v>5</v>
-      </c>
-      <c r="G37" s="15">
-        <v>20</v>
-      </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="T37" s="10">
-        <v>5</v>
-      </c>
-      <c r="U37" s="10">
-        <v>8</v>
-      </c>
-      <c r="V37" s="10">
-        <v>8</v>
-      </c>
-      <c r="W37" s="15">
-        <f t="shared" si="6"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>146</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10">
-        <v>464</v>
+        <v>1151</v>
       </c>
       <c r="E38" s="10">
-        <v>621</v>
+        <v>2744</v>
       </c>
       <c r="F38" s="10">
-        <v>690</v>
+        <v>2483</v>
       </c>
       <c r="G38" s="15">
-        <v>858</v>
+        <v>3114</v>
       </c>
       <c r="L38" s="10"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10">
-        <f t="shared" si="4"/>
-        <v>621</v>
+        <f>E38</f>
+        <v>2744</v>
       </c>
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
       <c r="S38" s="10">
-        <f t="shared" si="5"/>
-        <v>690</v>
+        <f>F38</f>
+        <v>2483</v>
       </c>
       <c r="T38" s="10">
-        <v>555</v>
+        <v>2443</v>
       </c>
       <c r="U38" s="10">
-        <v>632</v>
+        <v>2550</v>
       </c>
       <c r="V38" s="10">
-        <v>747</v>
+        <v>2618</v>
       </c>
       <c r="W38" s="15">
-        <f t="shared" si="6"/>
-        <v>858</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+        <f>G38</f>
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>25</v>
+        <v>144</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10">
-        <v>151</v>
+        <v>596</v>
       </c>
       <c r="E39" s="10">
-        <v>246</v>
+        <v>756</v>
       </c>
       <c r="F39" s="10">
-        <v>307</v>
+        <v>867</v>
       </c>
       <c r="G39" s="15">
-        <v>168</v>
+        <v>1100</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
       <c r="O39" s="10">
-        <f t="shared" si="4"/>
-        <v>246</v>
+        <f t="shared" ref="O39:O63" si="23">E39</f>
+        <v>756</v>
       </c>
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
       <c r="S39" s="10">
-        <f t="shared" si="5"/>
-        <v>307</v>
+        <f t="shared" ref="S39:S63" si="24">F39</f>
+        <v>867</v>
       </c>
       <c r="T39" s="10">
-        <v>295</v>
+        <v>995</v>
       </c>
       <c r="U39" s="10">
-        <v>273</v>
+        <v>866</v>
       </c>
       <c r="V39" s="10">
-        <v>225</v>
+        <v>1097</v>
       </c>
       <c r="W39" s="15">
-        <f t="shared" si="6"/>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="11">
-        <f>SUM(C35:C39)</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="11">
-        <f>SUM(D35:D39)</f>
-        <v>2366</v>
-      </c>
-      <c r="E40" s="11">
-        <f>SUM(E35:E39)</f>
-        <v>4372</v>
-      </c>
-      <c r="F40" s="11">
-        <f>SUM(F35:F39)</f>
-        <v>4352</v>
-      </c>
-      <c r="G40" s="14">
-        <f>SUM(G35:G39)</f>
-        <v>5260</v>
-      </c>
-      <c r="L40" s="11">
-        <f>SUM(L35:L39)</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="11">
-        <f>SUM(M35:M39)</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="11">
-        <f>SUM(N35:N39)</f>
-        <v>0</v>
-      </c>
-      <c r="O40" s="11">
-        <f>SUM(O35:O39)</f>
-        <v>4372</v>
-      </c>
-      <c r="P40" s="11">
-        <f>SUM(P35:P39)</f>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="11">
-        <f>SUM(Q35:Q39)</f>
-        <v>0</v>
-      </c>
-      <c r="R40" s="11">
-        <f>SUM(R35:R39)</f>
-        <v>0</v>
-      </c>
-      <c r="S40" s="11">
-        <f>SUM(S35:S39)</f>
-        <v>4352</v>
-      </c>
-      <c r="T40" s="11">
-        <f>SUM(T35:T39)</f>
-        <v>4293</v>
-      </c>
-      <c r="U40" s="11">
-        <f>SUM(U35:U39)</f>
-        <v>4329</v>
-      </c>
-      <c r="V40" s="11">
-        <f>SUM(V35:V39)</f>
-        <v>4695</v>
-      </c>
-      <c r="W40" s="14">
-        <f>SUM(W35:W39)</f>
-        <v>5260</v>
-      </c>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.25">
+        <f t="shared" ref="W39:W63" si="25">G39</f>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10">
+        <v>4</v>
+      </c>
+      <c r="E40" s="10">
+        <v>5</v>
+      </c>
+      <c r="F40" s="10">
+        <v>5</v>
+      </c>
+      <c r="G40" s="15">
+        <v>20</v>
+      </c>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="T40" s="10">
+        <v>5</v>
+      </c>
+      <c r="U40" s="10">
+        <v>8</v>
+      </c>
+      <c r="V40" s="10">
+        <v>8</v>
+      </c>
+      <c r="W40" s="15">
+        <f t="shared" si="25"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="E41" s="10">
-        <v>437</v>
+        <v>621</v>
       </c>
       <c r="F41" s="10">
-        <v>417</v>
+        <v>690</v>
       </c>
       <c r="G41" s="15">
-        <v>300</v>
+        <v>858</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
       <c r="O41" s="10">
-        <f t="shared" si="4"/>
-        <v>437</v>
+        <f t="shared" si="23"/>
+        <v>621</v>
       </c>
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
       <c r="S41" s="10">
-        <f t="shared" si="5"/>
-        <v>417</v>
+        <f t="shared" si="24"/>
+        <v>690</v>
       </c>
       <c r="T41" s="10">
-        <v>413</v>
+        <v>555</v>
       </c>
       <c r="U41" s="10">
-        <v>344</v>
+        <v>632</v>
       </c>
       <c r="V41" s="10">
-        <v>343</v>
+        <v>747</v>
       </c>
       <c r="W41" s="15">
-        <f t="shared" si="6"/>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="25"/>
+        <v>858</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10">
-        <v>313</v>
+        <v>151</v>
       </c>
       <c r="E42" s="10">
-        <v>372</v>
+        <v>246</v>
       </c>
       <c r="F42" s="10">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="G42" s="15">
-        <v>247</v>
+        <v>168</v>
       </c>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="10">
-        <f t="shared" si="4"/>
-        <v>372</v>
+        <f t="shared" si="23"/>
+        <v>246</v>
       </c>
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
       <c r="S42" s="10">
-        <f t="shared" si="5"/>
-        <v>348</v>
+        <f t="shared" si="24"/>
+        <v>307</v>
       </c>
       <c r="T42" s="10">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="U42" s="10">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="V42" s="10">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="W42" s="15">
-        <f t="shared" si="6"/>
-        <v>247</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10">
-        <v>736</v>
-      </c>
-      <c r="E43" s="10">
-        <v>894</v>
-      </c>
-      <c r="F43" s="10">
-        <v>1168</v>
-      </c>
-      <c r="G43" s="15">
-        <v>1137</v>
-      </c>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10">
-        <f t="shared" si="4"/>
-        <v>894</v>
-      </c>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10">
-        <f t="shared" si="5"/>
-        <v>1168</v>
-      </c>
-      <c r="T43" s="10">
-        <v>1155</v>
-      </c>
-      <c r="U43" s="10">
-        <v>1148</v>
-      </c>
-      <c r="V43" s="10">
-        <v>1180</v>
-      </c>
-      <c r="W43" s="15">
-        <f t="shared" si="6"/>
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="25"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="11">
+        <f>SUM(C38:C42)</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="11">
+        <f>SUM(D38:D42)</f>
+        <v>2366</v>
+      </c>
+      <c r="E43" s="11">
+        <f>SUM(E38:E42)</f>
+        <v>4372</v>
+      </c>
+      <c r="F43" s="11">
+        <f>SUM(F38:F42)</f>
+        <v>4352</v>
+      </c>
+      <c r="G43" s="14">
+        <f>SUM(G38:G42)</f>
+        <v>5260</v>
+      </c>
+      <c r="L43" s="11">
+        <f t="shared" ref="L43:W43" si="26">SUM(L38:L42)</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="11">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="11">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="11">
+        <f t="shared" si="26"/>
+        <v>4372</v>
+      </c>
+      <c r="P43" s="11">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="11">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="11">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="11">
+        <f t="shared" si="26"/>
+        <v>4352</v>
+      </c>
+      <c r="T43" s="11">
+        <f t="shared" si="26"/>
+        <v>4293</v>
+      </c>
+      <c r="U43" s="11">
+        <f t="shared" si="26"/>
+        <v>4329</v>
+      </c>
+      <c r="V43" s="11">
+        <f t="shared" si="26"/>
+        <v>4695</v>
+      </c>
+      <c r="W43" s="14">
+        <f t="shared" si="26"/>
+        <v>5260</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>78</v>
+        <v>147</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10">
-        <v>97</v>
+        <v>444</v>
       </c>
       <c r="E44" s="10">
-        <v>89</v>
+        <v>437</v>
       </c>
       <c r="F44" s="10">
-        <v>127</v>
+        <v>417</v>
       </c>
       <c r="G44" s="15">
-        <v>84</v>
+        <v>300</v>
       </c>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10">
-        <f t="shared" si="4"/>
-        <v>89</v>
+        <f t="shared" si="23"/>
+        <v>437</v>
       </c>
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
       <c r="S44" s="10">
-        <f t="shared" si="5"/>
-        <v>127</v>
+        <f t="shared" si="24"/>
+        <v>417</v>
       </c>
       <c r="T44" s="10">
-        <v>115</v>
+        <v>413</v>
       </c>
       <c r="U44" s="10">
-        <v>105</v>
+        <v>344</v>
       </c>
       <c r="V44" s="10">
-        <v>98</v>
+        <v>343</v>
       </c>
       <c r="W44" s="15">
-        <f t="shared" si="6"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="25"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10">
-        <v>2277</v>
+        <v>313</v>
       </c>
       <c r="E45" s="10">
-        <v>916</v>
+        <v>372</v>
       </c>
       <c r="F45" s="10">
-        <v>1138</v>
+        <v>348</v>
       </c>
       <c r="G45" s="15">
-        <v>1215</v>
+        <v>247</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10">
-        <f t="shared" si="4"/>
-        <v>916</v>
+        <f t="shared" si="23"/>
+        <v>372</v>
       </c>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
       <c r="S45" s="10">
-        <f t="shared" si="5"/>
-        <v>1138</v>
+        <f t="shared" si="24"/>
+        <v>348</v>
       </c>
       <c r="T45" s="10">
-        <v>1134</v>
+        <v>331</v>
       </c>
       <c r="U45" s="10">
-        <v>1015</v>
+        <v>280</v>
       </c>
       <c r="V45" s="10">
-        <v>903</v>
+        <v>275</v>
       </c>
       <c r="W45" s="15">
-        <f t="shared" si="6"/>
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="25"/>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10">
-        <v>78</v>
+        <v>736</v>
       </c>
       <c r="E46" s="10">
-        <v>77</v>
+        <v>894</v>
       </c>
       <c r="F46" s="10">
-        <v>78</v>
+        <v>1168</v>
       </c>
       <c r="G46" s="15">
-        <v>75</v>
+        <v>1137</v>
       </c>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
       <c r="O46" s="10">
-        <f t="shared" si="4"/>
-        <v>77</v>
+        <f t="shared" si="23"/>
+        <v>894</v>
       </c>
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
       <c r="S46" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
+        <v>1168</v>
+      </c>
+      <c r="T46" s="10">
+        <v>1155</v>
+      </c>
+      <c r="U46" s="10">
+        <v>1148</v>
+      </c>
+      <c r="V46" s="10">
+        <v>1180</v>
+      </c>
+      <c r="W46" s="15">
+        <f t="shared" si="25"/>
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>78</v>
-      </c>
-      <c r="T46" s="10">
-        <v>77</v>
-      </c>
-      <c r="U46" s="10">
-        <v>76</v>
-      </c>
-      <c r="V46" s="10">
-        <v>75</v>
-      </c>
-      <c r="W46" s="15">
-        <f t="shared" si="6"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>149</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="E47" s="10">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="F47" s="10">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="G47" s="15">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10">
-        <f t="shared" si="4"/>
-        <v>13</v>
+        <f t="shared" si="23"/>
+        <v>89</v>
       </c>
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
       <c r="S47" s="10">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f t="shared" si="24"/>
+        <v>127</v>
       </c>
       <c r="T47" s="10">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="U47" s="10">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="V47" s="10">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="W47" s="15">
-        <f t="shared" si="6"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B48" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="11">
-        <f>SUM(C40:C47)</f>
-        <v>0</v>
-      </c>
-      <c r="D48" s="11">
-        <f>SUM(D40:D47)</f>
-        <v>6326</v>
-      </c>
-      <c r="E48" s="11">
-        <f>SUM(E40:E47)</f>
-        <v>7170</v>
-      </c>
-      <c r="F48" s="11">
-        <f>SUM(F40:F47)</f>
-        <v>7636</v>
-      </c>
-      <c r="G48" s="14">
-        <f>SUM(G40:G47)</f>
-        <v>8346</v>
-      </c>
-      <c r="L48" s="11">
-        <f t="shared" ref="L48:W48" si="7">SUM(L40:L47)</f>
-        <v>0</v>
-      </c>
-      <c r="M48" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N48" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O48" s="11">
-        <f t="shared" si="7"/>
-        <v>7170</v>
-      </c>
-      <c r="P48" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R48" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="S48" s="11">
-        <f t="shared" si="7"/>
-        <v>7636</v>
-      </c>
-      <c r="T48" s="11">
-        <f t="shared" si="7"/>
-        <v>7529</v>
-      </c>
-      <c r="U48" s="11">
-        <f t="shared" si="7"/>
-        <v>7312</v>
-      </c>
-      <c r="V48" s="11">
-        <f t="shared" si="7"/>
-        <v>7592</v>
-      </c>
-      <c r="W48" s="14">
-        <f t="shared" si="7"/>
-        <v>8346</v>
-      </c>
-    </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="25"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10">
+        <v>2277</v>
+      </c>
+      <c r="E48" s="10">
+        <v>916</v>
+      </c>
+      <c r="F48" s="10">
+        <v>1138</v>
+      </c>
+      <c r="G48" s="15">
+        <v>1215</v>
+      </c>
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10">
+        <f t="shared" si="23"/>
+        <v>916</v>
+      </c>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="10"/>
+      <c r="S48" s="10">
+        <f t="shared" si="24"/>
+        <v>1138</v>
+      </c>
+      <c r="T48" s="10">
+        <v>1134</v>
+      </c>
+      <c r="U48" s="10">
+        <v>1015</v>
+      </c>
+      <c r="V48" s="10">
+        <v>903</v>
+      </c>
+      <c r="W48" s="15">
+        <f t="shared" si="25"/>
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="49" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>150</v>
+        <v>76</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10">
-        <v>638</v>
+        <v>78</v>
       </c>
       <c r="E49" s="10">
-        <v>793</v>
+        <v>77</v>
       </c>
       <c r="F49" s="10">
-        <v>845</v>
+        <v>78</v>
       </c>
       <c r="G49" s="15">
-        <v>978</v>
+        <v>75</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10">
-        <f t="shared" si="4"/>
-        <v>793</v>
+        <f t="shared" si="23"/>
+        <v>77</v>
       </c>
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
       <c r="S49" s="10">
-        <f t="shared" si="5"/>
-        <v>845</v>
+        <f t="shared" si="24"/>
+        <v>78</v>
       </c>
       <c r="T49" s="10">
-        <v>850</v>
+        <v>77</v>
       </c>
       <c r="U49" s="10">
-        <v>893</v>
+        <v>76</v>
       </c>
       <c r="V49" s="10">
-        <v>945</v>
+        <v>75</v>
       </c>
       <c r="W49" s="15">
-        <f t="shared" si="6"/>
-        <v>978</v>
-      </c>
-    </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
+        <f t="shared" si="25"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E50" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F50" s="10">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G50" s="15">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10">
-        <f t="shared" si="4"/>
-        <v>23</v>
+        <f t="shared" si="23"/>
+        <v>13</v>
       </c>
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
       <c r="S50" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="24"/>
+        <v>8</v>
+      </c>
+      <c r="T50" s="10">
         <v>11</v>
       </c>
-      <c r="T50" s="10">
-        <v>9</v>
-      </c>
       <c r="U50" s="10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="V50" s="10">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="W50" s="15">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="25"/>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>152</v>
-      </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10">
-        <v>380</v>
-      </c>
-      <c r="E51" s="10">
-        <v>458</v>
-      </c>
-      <c r="F51" s="10">
-        <v>520</v>
-      </c>
-      <c r="G51" s="15">
-        <v>622</v>
-      </c>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10">
-        <f t="shared" si="4"/>
-        <v>458</v>
-      </c>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10">
-        <f t="shared" si="5"/>
-        <v>520</v>
-      </c>
-      <c r="T51" s="10">
-        <v>524</v>
-      </c>
-      <c r="U51" s="10">
-        <v>536</v>
-      </c>
-      <c r="V51" s="10">
-        <v>599</v>
-      </c>
-      <c r="W51" s="15">
-        <f t="shared" si="6"/>
-        <v>622</v>
+      <c r="B51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="11">
+        <f>SUM(C43:C50)</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="11">
+        <f>SUM(D43:D50)</f>
+        <v>6326</v>
+      </c>
+      <c r="E51" s="11">
+        <f>SUM(E43:E50)</f>
+        <v>7170</v>
+      </c>
+      <c r="F51" s="11">
+        <f>SUM(F43:F50)</f>
+        <v>7636</v>
+      </c>
+      <c r="G51" s="14">
+        <f>SUM(G43:G50)</f>
+        <v>8346</v>
+      </c>
+      <c r="L51" s="11">
+        <f t="shared" ref="L51:W51" si="27">SUM(L43:L50)</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="11">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="11">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="11">
+        <f t="shared" si="27"/>
+        <v>7170</v>
+      </c>
+      <c r="P51" s="11">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="11">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="11">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="11">
+        <f t="shared" si="27"/>
+        <v>7636</v>
+      </c>
+      <c r="T51" s="11">
+        <f t="shared" si="27"/>
+        <v>7529</v>
+      </c>
+      <c r="U51" s="11">
+        <f t="shared" si="27"/>
+        <v>7312</v>
+      </c>
+      <c r="V51" s="11">
+        <f t="shared" si="27"/>
+        <v>7592</v>
+      </c>
+      <c r="W51" s="14">
+        <f t="shared" si="27"/>
+        <v>8346</v>
       </c>
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10">
-        <v>1748</v>
+        <v>638</v>
       </c>
       <c r="E52" s="10">
-        <v>1841</v>
+        <v>793</v>
       </c>
       <c r="F52" s="10">
-        <v>2093</v>
+        <v>845</v>
       </c>
       <c r="G52" s="15">
-        <v>2440</v>
+        <v>978</v>
       </c>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
       <c r="O52" s="10">
-        <f t="shared" si="4"/>
-        <v>1841</v>
+        <f t="shared" si="23"/>
+        <v>793</v>
       </c>
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
       <c r="S52" s="10">
-        <f t="shared" si="5"/>
-        <v>2093</v>
+        <f t="shared" si="24"/>
+        <v>845</v>
       </c>
       <c r="T52" s="10">
-        <v>2025</v>
+        <v>850</v>
       </c>
       <c r="U52" s="10">
-        <v>2053</v>
+        <v>893</v>
       </c>
       <c r="V52" s="10">
-        <v>2108</v>
+        <v>945</v>
       </c>
       <c r="W52" s="15">
-        <f t="shared" si="6"/>
-        <v>2440</v>
+        <f t="shared" si="25"/>
+        <v>978</v>
       </c>
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E53" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F53" s="10">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="G53" s="15">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
       <c r="O53" s="10">
-        <f t="shared" si="4"/>
-        <v>22</v>
+        <f t="shared" si="23"/>
+        <v>23</v>
       </c>
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
       <c r="S53" s="10">
-        <f t="shared" si="5"/>
-        <v>26</v>
+        <f t="shared" si="24"/>
+        <v>11</v>
       </c>
       <c r="T53" s="10">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="U53" s="10">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="V53" s="10">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="W53" s="15">
-        <f t="shared" si="6"/>
-        <v>21</v>
+        <f t="shared" si="25"/>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10">
-        <v>105</v>
+        <v>380</v>
       </c>
       <c r="E54" s="10">
-        <v>89</v>
+        <v>458</v>
       </c>
       <c r="F54" s="10">
-        <v>21</v>
+        <v>520</v>
       </c>
       <c r="G54" s="15">
-        <v>17</v>
+        <v>622</v>
       </c>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
       <c r="O54" s="10">
-        <f t="shared" si="4"/>
-        <v>89</v>
+        <f t="shared" si="23"/>
+        <v>458</v>
       </c>
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
       <c r="S54" s="10">
-        <f t="shared" si="5"/>
-        <v>21</v>
+        <f t="shared" si="24"/>
+        <v>520</v>
       </c>
       <c r="T54" s="10">
-        <v>24</v>
+        <v>524</v>
       </c>
       <c r="U54" s="10">
-        <v>28</v>
+        <v>536</v>
       </c>
       <c r="V54" s="10">
-        <v>17</v>
+        <v>599</v>
       </c>
       <c r="W54" s="15">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C55" s="11">
-        <f>SUM(C49:C54)</f>
-        <v>0</v>
-      </c>
-      <c r="D55" s="11">
-        <f>SUM(D49:D54)</f>
-        <v>2900</v>
-      </c>
-      <c r="E55" s="11">
-        <f>SUM(E49:E54)</f>
-        <v>3226</v>
-      </c>
-      <c r="F55" s="11">
-        <f>SUM(F49:F54)</f>
-        <v>3516</v>
-      </c>
-      <c r="G55" s="14">
-        <f>SUM(G49:G54)</f>
-        <v>4090</v>
-      </c>
-      <c r="L55" s="11">
-        <f t="shared" ref="L55:W55" si="8">SUM(L49:L54)</f>
-        <v>0</v>
-      </c>
-      <c r="M55" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N55" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O55" s="11">
-        <f t="shared" si="8"/>
-        <v>3226</v>
-      </c>
-      <c r="P55" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="Q55" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R55" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S55" s="11">
-        <f t="shared" si="8"/>
-        <v>3516</v>
-      </c>
-      <c r="T55" s="11">
-        <f t="shared" si="8"/>
-        <v>3459</v>
-      </c>
-      <c r="U55" s="11">
-        <f t="shared" si="8"/>
-        <v>3546</v>
-      </c>
-      <c r="V55" s="11">
-        <f t="shared" si="8"/>
-        <v>3701</v>
-      </c>
-      <c r="W55" s="14">
-        <f t="shared" si="8"/>
-        <v>4090</v>
-      </c>
-      <c r="X55" s="11"/>
-      <c r="Y55" s="11"/>
+        <f t="shared" si="25"/>
+        <v>622</v>
+      </c>
+    </row>
+    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10">
+        <v>1748</v>
+      </c>
+      <c r="E55" s="10">
+        <v>1841</v>
+      </c>
+      <c r="F55" s="10">
+        <v>2093</v>
+      </c>
+      <c r="G55" s="15">
+        <v>2440</v>
+      </c>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10">
+        <f t="shared" si="23"/>
+        <v>1841</v>
+      </c>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10">
+        <f t="shared" si="24"/>
+        <v>2093</v>
+      </c>
+      <c r="T55" s="10">
+        <v>2025</v>
+      </c>
+      <c r="U55" s="10">
+        <v>2053</v>
+      </c>
+      <c r="V55" s="10">
+        <v>2108</v>
+      </c>
+      <c r="W55" s="15">
+        <f t="shared" si="25"/>
+        <v>2440</v>
+      </c>
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E56" s="10">
-        <v>1202</v>
-      </c>
-      <c r="F56" s="147">
-        <v>1128</v>
+        <v>22</v>
+      </c>
+      <c r="F56" s="10">
+        <v>26</v>
       </c>
       <c r="G56" s="15">
-        <v>1203</v>
+        <v>21</v>
       </c>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10">
-        <f t="shared" si="4"/>
-        <v>1202</v>
+        <f t="shared" si="23"/>
+        <v>22</v>
       </c>
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
       <c r="S56" s="10">
-        <f t="shared" si="5"/>
-        <v>1128</v>
+        <f t="shared" si="24"/>
+        <v>26</v>
       </c>
       <c r="T56" s="10">
-        <v>1156</v>
+        <v>27</v>
       </c>
       <c r="U56" s="10">
-        <v>1167</v>
+        <v>25</v>
       </c>
       <c r="V56" s="10">
-        <v>1209</v>
+        <v>24</v>
       </c>
       <c r="W56" s="15">
-        <f t="shared" si="6"/>
-        <v>1203</v>
+        <f t="shared" si="25"/>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10">
-        <v>577</v>
+        <v>105</v>
       </c>
       <c r="E57" s="10">
-        <v>579</v>
-      </c>
-      <c r="F57" s="147">
-        <v>555</v>
+        <v>89</v>
+      </c>
+      <c r="F57" s="10">
+        <v>21</v>
       </c>
       <c r="G57" s="15">
-        <v>493</v>
+        <v>17</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
       <c r="O57" s="10">
-        <f t="shared" si="4"/>
-        <v>579</v>
+        <f t="shared" si="23"/>
+        <v>89</v>
       </c>
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
       <c r="S57" s="10">
-        <f t="shared" si="5"/>
-        <v>555</v>
+        <f t="shared" si="24"/>
+        <v>21</v>
       </c>
       <c r="T57" s="10">
-        <v>546</v>
+        <v>24</v>
       </c>
       <c r="U57" s="10">
-        <v>522</v>
+        <v>28</v>
       </c>
       <c r="V57" s="10">
-        <v>520</v>
+        <v>17</v>
       </c>
       <c r="W57" s="15">
-        <f t="shared" si="6"/>
-        <v>493</v>
-      </c>
-    </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>158</v>
-      </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10">
-        <v>42</v>
-      </c>
-      <c r="E58" s="10">
-        <v>37</v>
-      </c>
-      <c r="F58" s="147">
-        <v>28</v>
-      </c>
-      <c r="G58" s="15">
-        <v>26</v>
-      </c>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10">
-        <f t="shared" si="4"/>
-        <v>37</v>
-      </c>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="T58" s="10">
+        <f t="shared" si="25"/>
         <v>17</v>
       </c>
-      <c r="U58" s="10">
-        <v>14</v>
-      </c>
-      <c r="V58" s="10">
-        <v>14</v>
-      </c>
-      <c r="W58" s="15">
-        <f t="shared" si="6"/>
-        <v>26</v>
-      </c>
+    </row>
+    <row r="58" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="11">
+        <f>SUM(C52:C57)</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="11">
+        <f>SUM(D52:D57)</f>
+        <v>2900</v>
+      </c>
+      <c r="E58" s="11">
+        <f>SUM(E52:E57)</f>
+        <v>3226</v>
+      </c>
+      <c r="F58" s="11">
+        <f>SUM(F52:F57)</f>
+        <v>3516</v>
+      </c>
+      <c r="G58" s="14">
+        <f>SUM(G52:G57)</f>
+        <v>4090</v>
+      </c>
+      <c r="L58" s="11">
+        <f t="shared" ref="L58:W58" si="28">SUM(L52:L57)</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="11">
+        <f t="shared" si="28"/>
+        <v>3226</v>
+      </c>
+      <c r="P58" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="R58" s="11">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="11">
+        <f t="shared" si="28"/>
+        <v>3516</v>
+      </c>
+      <c r="T58" s="11">
+        <f t="shared" si="28"/>
+        <v>3459</v>
+      </c>
+      <c r="U58" s="11">
+        <f t="shared" si="28"/>
+        <v>3546</v>
+      </c>
+      <c r="V58" s="11">
+        <f t="shared" si="28"/>
+        <v>3701</v>
+      </c>
+      <c r="W58" s="14">
+        <f t="shared" si="28"/>
+        <v>4090</v>
+      </c>
+      <c r="X58" s="11"/>
+      <c r="Y58" s="11"/>
     </row>
     <row r="59" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E59" s="10">
-        <v>7</v>
-      </c>
-      <c r="F59" s="147">
-        <v>3</v>
+        <v>1202</v>
+      </c>
+      <c r="F59" s="10">
+        <v>1128</v>
       </c>
       <c r="G59" s="15">
-        <v>3</v>
+        <v>1203</v>
       </c>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
       <c r="O59" s="10">
-        <f t="shared" si="4"/>
-        <v>7</v>
+        <f t="shared" si="23"/>
+        <v>1202</v>
       </c>
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
       <c r="S59" s="10">
-        <f t="shared" si="5"/>
-        <v>3</v>
+        <f t="shared" si="24"/>
+        <v>1128</v>
       </c>
       <c r="T59" s="10">
-        <v>3</v>
+        <v>1156</v>
       </c>
       <c r="U59" s="10">
-        <v>3</v>
+        <v>1167</v>
       </c>
       <c r="V59" s="10">
-        <v>3</v>
+        <v>1209</v>
       </c>
       <c r="W59" s="15">
-        <f t="shared" si="6"/>
-        <v>3</v>
+        <f t="shared" si="25"/>
+        <v>1203</v>
       </c>
     </row>
     <row r="60" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="147">
-        <v>5</v>
+      <c r="D60" s="10">
+        <v>577</v>
+      </c>
+      <c r="E60" s="10">
+        <v>579</v>
+      </c>
+      <c r="F60" s="10">
+        <v>555</v>
       </c>
       <c r="G60" s="15">
-        <v>8</v>
+        <v>493</v>
       </c>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
       <c r="O60" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="23"/>
+        <v>579</v>
       </c>
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
       <c r="S60" s="10">
-        <f t="shared" si="5"/>
-        <v>5</v>
+        <f t="shared" si="24"/>
+        <v>555</v>
       </c>
       <c r="T60" s="10">
-        <v>6</v>
+        <v>546</v>
       </c>
       <c r="U60" s="10">
-        <v>6</v>
+        <v>522</v>
       </c>
       <c r="V60" s="10">
-        <v>6</v>
+        <v>520</v>
       </c>
       <c r="W60" s="15">
-        <f t="shared" si="6"/>
-        <v>8</v>
+        <f t="shared" si="25"/>
+        <v>493</v>
       </c>
     </row>
     <row r="61" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B61" s="1" t="s">
+      <c r="B61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10">
+        <v>42</v>
+      </c>
+      <c r="E61" s="10">
+        <v>37</v>
+      </c>
+      <c r="F61" s="10">
         <v>28</v>
       </c>
-      <c r="C61" s="11">
-        <f>SUM(C55:C60)</f>
-        <v>0</v>
-      </c>
-      <c r="D61" s="11">
-        <f>SUM(D55:D60)</f>
-        <v>3521</v>
-      </c>
-      <c r="E61" s="11">
-        <f>SUM(E55:E60)</f>
-        <v>5051</v>
-      </c>
-      <c r="F61" s="11">
-        <f>SUM(F55:F60)</f>
-        <v>5235</v>
-      </c>
-      <c r="G61" s="14">
-        <f>SUM(G55:G60)</f>
-        <v>5823</v>
-      </c>
-      <c r="L61" s="11">
-        <f t="shared" ref="L61:W61" si="9">SUM(L55:L60)</f>
-        <v>0</v>
-      </c>
-      <c r="M61" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N61" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="O61" s="11">
-        <f t="shared" si="9"/>
-        <v>5051</v>
-      </c>
-      <c r="P61" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Q61" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="R61" s="11">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S61" s="11">
-        <f t="shared" si="9"/>
-        <v>5235</v>
-      </c>
-      <c r="T61" s="11">
-        <f t="shared" si="9"/>
-        <v>5187</v>
-      </c>
-      <c r="U61" s="11">
-        <f t="shared" si="9"/>
-        <v>5258</v>
-      </c>
-      <c r="V61" s="11">
-        <f t="shared" si="9"/>
-        <v>5453</v>
-      </c>
-      <c r="W61" s="14">
-        <f t="shared" si="9"/>
-        <v>5823</v>
+      <c r="G61" s="15">
+        <v>26</v>
+      </c>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10">
+        <f t="shared" si="23"/>
+        <v>37</v>
+      </c>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="T61" s="10">
+        <v>17</v>
+      </c>
+      <c r="U61" s="10">
+        <v>14</v>
+      </c>
+      <c r="V61" s="10">
+        <v>14</v>
+      </c>
+      <c r="W61" s="15">
+        <f t="shared" si="25"/>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10">
+        <v>2</v>
+      </c>
+      <c r="E62" s="10">
+        <v>7</v>
+      </c>
+      <c r="F62" s="10">
+        <v>3</v>
+      </c>
+      <c r="G62" s="15">
+        <v>3</v>
+      </c>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10">
+        <f t="shared" si="23"/>
+        <v>7</v>
+      </c>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10">
+        <f t="shared" si="24"/>
+        <v>3</v>
+      </c>
+      <c r="T62" s="10">
+        <v>3</v>
+      </c>
+      <c r="U62" s="10">
+        <v>3</v>
+      </c>
+      <c r="V62" s="10">
+        <v>3</v>
+      </c>
+      <c r="W62" s="15">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10">
+        <v>5</v>
+      </c>
+      <c r="G63" s="15">
+        <v>8</v>
+      </c>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10">
+        <f t="shared" si="24"/>
+        <v>5</v>
+      </c>
+      <c r="T63" s="10">
+        <v>6</v>
+      </c>
+      <c r="U63" s="10">
+        <v>6</v>
+      </c>
+      <c r="V63" s="10">
+        <v>6</v>
+      </c>
+      <c r="W63" s="15">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="11">
+        <f>SUM(C58:C63)</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="11">
+        <f>SUM(D58:D63)</f>
+        <v>3521</v>
+      </c>
+      <c r="E64" s="11">
+        <f>SUM(E58:E63)</f>
+        <v>5051</v>
+      </c>
+      <c r="F64" s="11">
+        <f>SUM(F58:F63)</f>
+        <v>5235</v>
+      </c>
+      <c r="G64" s="14">
+        <f>SUM(G58:G63)</f>
+        <v>5823</v>
+      </c>
+      <c r="L64" s="11">
+        <f t="shared" ref="L64:W64" si="29">SUM(L58:L63)</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="11">
+        <f t="shared" si="29"/>
+        <v>5051</v>
+      </c>
+      <c r="P64" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Q64" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="R64" s="11">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="S64" s="11">
+        <f t="shared" si="29"/>
+        <v>5235</v>
+      </c>
+      <c r="T64" s="11">
+        <f t="shared" si="29"/>
+        <v>5187</v>
+      </c>
+      <c r="U64" s="11">
+        <f t="shared" si="29"/>
+        <v>5258</v>
+      </c>
+      <c r="V64" s="11">
+        <f t="shared" si="29"/>
+        <v>5453</v>
+      </c>
+      <c r="W64" s="14">
+        <f t="shared" si="29"/>
+        <v>5823</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
         <v>79</v>
       </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="147">
-        <f>D48-D61</f>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10">
+        <f>D51-D64</f>
         <v>2805</v>
       </c>
-      <c r="E62" s="147">
-        <f>E48-E61</f>
+      <c r="E65" s="10">
+        <f>E51-E64</f>
         <v>2119</v>
       </c>
-      <c r="F62" s="147">
-        <f>F48-F61</f>
+      <c r="F65" s="10">
+        <f>F51-F64</f>
         <v>2401</v>
       </c>
-      <c r="G62" s="15">
-        <f>G48-G61</f>
+      <c r="G65" s="15">
+        <f>G51-G64</f>
         <v>2523</v>
       </c>
-      <c r="O62" s="10">
-        <f t="shared" ref="O62:U62" si="10">O48-O61</f>
+      <c r="O65" s="10">
+        <f t="shared" ref="O65:U65" si="30">O51-O64</f>
         <v>2119</v>
       </c>
-      <c r="P62" s="10">
-        <f t="shared" si="10"/>
+      <c r="P65" s="10">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="Q62" s="10">
-        <f t="shared" si="10"/>
+      <c r="Q65" s="10">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="R62" s="10">
-        <f t="shared" si="10"/>
+      <c r="R65" s="10">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="S62" s="10">
-        <f t="shared" si="10"/>
+      <c r="S65" s="10">
+        <f t="shared" si="30"/>
         <v>2401</v>
       </c>
-      <c r="T62" s="10">
-        <f t="shared" si="10"/>
+      <c r="T65" s="10">
+        <f t="shared" si="30"/>
         <v>2342</v>
       </c>
-      <c r="U62" s="10">
-        <f t="shared" si="10"/>
+      <c r="U65" s="10">
+        <f t="shared" si="30"/>
         <v>2054</v>
       </c>
-      <c r="V62" s="10">
-        <f>V48-V61</f>
+      <c r="V65" s="10">
+        <f>V51-V64</f>
         <v>2139</v>
       </c>
-      <c r="W62" s="15">
-        <f>W48-W61</f>
+      <c r="W65" s="15">
+        <f>W51-W64</f>
         <v>2523</v>
       </c>
     </row>
-    <row r="64" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C64" s="54"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="55"/>
-      <c r="W64" s="16"/>
-    </row>
-    <row r="82" spans="7:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G82" s="42"/>
-      <c r="W82" s="42"/>
-    </row>
-    <row r="83" spans="7:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G83" s="16"/>
-      <c r="W83" s="16"/>
+    <row r="67" spans="2:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="55"/>
+      <c r="W67" s="16"/>
+    </row>
+    <row r="85" spans="7:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G85" s="42"/>
+      <c r="W85" s="42"/>
+    </row>
+    <row r="86" spans="7:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G86" s="16"/>
+      <c r="W86" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -17497,7 +17689,7 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C55" formula="1"/>
+    <ignoredError sqref="C58" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -17506,7 +17698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48E03BE-2423-4BDB-9A98-002F9CED8953}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
@@ -27143,8 +27335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
   <dimension ref="A1:M317"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27172,14 +27364,14 @@
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="137" t="s">
+      <c r="H1" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="140"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
@@ -27188,7 +27380,7 @@
       <c r="C2" s="17">
         <v>290.51998900000001</v>
       </c>
-      <c r="D2" s="155">
+      <c r="D2" s="128">
         <f>C2/C3-1</f>
         <v>-3.3050499595253857E-2</v>
       </c>
@@ -27206,7 +27398,7 @@
       <c r="C3" s="17">
         <v>300.45001200000002</v>
       </c>
-      <c r="D3" s="155">
+      <c r="D3" s="128">
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
         <v>-3.1774632024585969E-2</v>
       </c>
@@ -27236,7 +27428,7 @@
       <c r="C4" s="17">
         <v>310.30999800000001</v>
       </c>
-      <c r="D4" s="155">
+      <c r="D4" s="128">
         <f t="shared" si="0"/>
         <v>0.17586208812115411</v>
       </c>
@@ -27272,7 +27464,7 @@
       <c r="C5" s="17">
         <v>263.89999399999999</v>
       </c>
-      <c r="D5" s="155">
+      <c r="D5" s="128">
         <f t="shared" si="0"/>
         <v>-3.9630796468883567E-3</v>
       </c>
@@ -27308,7 +27500,7 @@
       <c r="C6" s="17">
         <v>264.95001200000002</v>
       </c>
-      <c r="D6" s="155">
+      <c r="D6" s="128">
         <f t="shared" si="0"/>
         <v>3.9468056963663178E-2</v>
       </c>
@@ -27344,7 +27536,7 @@
       <c r="C7" s="17">
         <v>254.88999899999999</v>
       </c>
-      <c r="D7" s="155">
+      <c r="D7" s="128">
         <f t="shared" si="0"/>
         <v>-1.7386257148487072E-2</v>
       </c>
@@ -27380,7 +27572,7 @@
       <c r="C8" s="17">
         <v>259.39999399999999</v>
       </c>
-      <c r="D8" s="155">
+      <c r="D8" s="128">
         <f t="shared" si="0"/>
         <v>-1.649291374407591E-2</v>
       </c>
@@ -27416,7 +27608,7 @@
       <c r="C9" s="17">
         <v>263.75</v>
       </c>
-      <c r="D9" s="155">
+      <c r="D9" s="128">
         <f t="shared" si="0"/>
         <v>2.9871119956162762E-2</v>
       </c>
@@ -27452,7 +27644,7 @@
       <c r="C10" s="17">
         <v>256.10000600000001</v>
       </c>
-      <c r="D10" s="155">
+      <c r="D10" s="128">
         <f t="shared" si="0"/>
         <v>4.0000024365482334E-2</v>
       </c>
@@ -27488,7 +27680,7 @@
       <c r="C11" s="17">
         <v>246.25</v>
       </c>
-      <c r="D11" s="155">
+      <c r="D11" s="128">
         <f t="shared" si="0"/>
         <v>2.2760293678443455E-2</v>
       </c>
@@ -27524,7 +27716,7 @@
       <c r="C12" s="17">
         <v>240.770004</v>
       </c>
-      <c r="D12" s="155">
+      <c r="D12" s="128">
         <f t="shared" si="0"/>
         <v>8.2258295130766879E-2</v>
       </c>
@@ -27560,7 +27752,7 @@
       <c r="C13" s="17">
         <v>222.470001</v>
       </c>
-      <c r="D13" s="155">
+      <c r="D13" s="128">
         <f t="shared" si="0"/>
         <v>3.8172608461469304E-2</v>
       </c>
@@ -27596,7 +27788,7 @@
       <c r="C14" s="17">
         <v>214.28999300000001</v>
       </c>
-      <c r="D14" s="155">
+      <c r="D14" s="128">
         <f t="shared" si="0"/>
         <v>4.6797839247790352E-2</v>
       </c>
@@ -27632,7 +27824,7 @@
       <c r="C15" s="17">
         <v>204.71000699999999</v>
       </c>
-      <c r="D15" s="155">
+      <c r="D15" s="128">
         <f t="shared" si="0"/>
         <v>8.2746786596792354E-3</v>
       </c>
@@ -27664,7 +27856,7 @@
       <c r="C16" s="17">
         <v>203.029999</v>
       </c>
-      <c r="D16" s="155">
+      <c r="D16" s="128">
         <f t="shared" si="0"/>
         <v>4.9142180670893376E-2</v>
       </c>
@@ -27678,14 +27870,14 @@
       <c r="C17" s="17">
         <v>193.520004</v>
       </c>
-      <c r="D17" s="155">
+      <c r="D17" s="128">
         <f t="shared" si="0"/>
         <v>2.9854717048486856E-2</v>
       </c>
-      <c r="H17" s="140" t="s">
+      <c r="H17" s="141" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="141"/>
+      <c r="I17" s="142"/>
       <c r="M17" s="88"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -27695,12 +27887,12 @@
       <c r="C18" s="17">
         <v>187.91000399999999</v>
       </c>
-      <c r="D18" s="155">
+      <c r="D18" s="128">
         <f t="shared" si="0"/>
         <v>-8.8611848485931066E-3</v>
       </c>
-      <c r="H18" s="142"/>
-      <c r="I18" s="143"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="144"/>
       <c r="M18" s="88"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -27710,7 +27902,7 @@
       <c r="C19" s="17">
         <v>189.58999600000001</v>
       </c>
-      <c r="D19" s="155">
+      <c r="D19" s="128">
         <f t="shared" si="0"/>
         <v>-1.3425623285899024E-2</v>
       </c>
@@ -27730,7 +27922,7 @@
       <c r="C20" s="17">
         <v>192.16999799999999</v>
       </c>
-      <c r="D20" s="155">
+      <c r="D20" s="128">
         <f t="shared" si="0"/>
         <v>-2.9689497151888511E-2</v>
       </c>
@@ -27750,7 +27942,7 @@
       <c r="C21" s="17">
         <v>198.050003</v>
       </c>
-      <c r="D21" s="155">
+      <c r="D21" s="128">
         <f t="shared" si="0"/>
         <v>9.6076156997330742E-2</v>
       </c>
@@ -27770,7 +27962,7 @@
       <c r="C22" s="17">
         <v>180.69000199999999</v>
       </c>
-      <c r="D22" s="155">
+      <c r="D22" s="128">
         <f t="shared" si="0"/>
         <v>-5.5585856724037486E-3</v>
       </c>
@@ -27790,7 +27982,7 @@
       <c r="C23" s="17">
         <v>181.699997</v>
       </c>
-      <c r="D23" s="155">
+      <c r="D23" s="128">
         <f t="shared" si="0"/>
         <v>3.2093120725479318E-2</v>
       </c>
@@ -27810,7 +28002,7 @@
       <c r="C24" s="17">
         <v>176.050003</v>
       </c>
-      <c r="D24" s="155">
+      <c r="D24" s="128">
         <f t="shared" si="0"/>
         <v>2.9652632580480454E-2</v>
       </c>
@@ -27830,7 +28022,7 @@
       <c r="C25" s="17">
         <v>170.979996</v>
       </c>
-      <c r="D25" s="155">
+      <c r="D25" s="128">
         <f t="shared" si="0"/>
         <v>5.8830452025659952E-3</v>
       </c>
@@ -27850,7 +28042,7 @@
       <c r="C26" s="17">
         <v>169.979996</v>
       </c>
-      <c r="D26" s="155">
+      <c r="D26" s="128">
         <f t="shared" si="0"/>
         <v>6.6708438027921924E-2</v>
       </c>
@@ -27870,7 +28062,7 @@
       <c r="C27" s="17">
         <v>159.35000600000001</v>
       </c>
-      <c r="D27" s="155">
+      <c r="D27" s="128">
         <f t="shared" si="0"/>
         <v>6.2900267648082542E-2</v>
       </c>
@@ -27890,7 +28082,7 @@
       <c r="C28" s="17">
         <v>149.91999799999999</v>
       </c>
-      <c r="D28" s="155">
+      <c r="D28" s="128">
         <f t="shared" si="0"/>
         <v>-2.3704089915395854E-2</v>
       </c>
@@ -27910,7 +28102,7 @@
       <c r="C29" s="17">
         <v>153.55999800000001</v>
       </c>
-      <c r="D29" s="155">
+      <c r="D29" s="128">
         <f t="shared" si="0"/>
         <v>-4.3418682136788678E-2</v>
       </c>
@@ -27930,7 +28122,7 @@
       <c r="C30" s="17">
         <v>160.529999</v>
       </c>
-      <c r="D30" s="155">
+      <c r="D30" s="128">
         <f t="shared" si="0"/>
         <v>3.8088463774498704E-2</v>
       </c>
@@ -27950,7 +28142,7 @@
       <c r="C31" s="17">
         <v>154.63999899999999</v>
       </c>
-      <c r="D31" s="155">
+      <c r="D31" s="128">
         <f t="shared" si="0"/>
         <v>-1.0937044671427865E-2</v>
       </c>
@@ -27970,7 +28162,7 @@
       <c r="C32" s="17">
         <v>156.35000600000001</v>
       </c>
-      <c r="D32" s="155">
+      <c r="D32" s="128">
         <f t="shared" si="0"/>
         <v>-1.4062277537365664E-2</v>
       </c>
@@ -27984,7 +28176,7 @@
       <c r="C33" s="17">
         <v>158.58000200000001</v>
       </c>
-      <c r="D33" s="155">
+      <c r="D33" s="128">
         <f t="shared" si="0"/>
         <v>2.0003865568895218E-2</v>
       </c>
@@ -28010,7 +28202,7 @@
       <c r="C34" s="17">
         <v>155.470001</v>
       </c>
-      <c r="D34" s="155">
+      <c r="D34" s="128">
         <f t="shared" si="0"/>
         <v>-1.3264769145275079E-2</v>
       </c>
@@ -28042,7 +28234,7 @@
       <c r="C35" s="17">
         <v>157.55999800000001</v>
       </c>
-      <c r="D35" s="155">
+      <c r="D35" s="128">
         <f t="shared" si="0"/>
         <v>0.1482290981764387</v>
       </c>
@@ -28074,7 +28266,7 @@
       <c r="C36" s="17">
         <v>137.220001</v>
       </c>
-      <c r="D36" s="155">
+      <c r="D36" s="128">
         <f t="shared" si="0"/>
         <v>4.0570305625627689E-2</v>
       </c>
@@ -28105,7 +28297,7 @@
       <c r="C37" s="17">
         <v>131.86999499999999</v>
       </c>
-      <c r="D37" s="155">
+      <c r="D37" s="128">
         <f t="shared" si="0"/>
         <v>-4.9105843263202442E-2</v>
       </c>
@@ -28123,7 +28315,7 @@
       <c r="C38" s="17">
         <v>138.679993</v>
       </c>
-      <c r="D38" s="155">
+      <c r="D38" s="128">
         <f t="shared" si="0"/>
         <v>-3.7746337695890086E-2</v>
       </c>
@@ -28153,7 +28345,7 @@
       <c r="C39" s="17">
         <v>144.11999499999999</v>
       </c>
-      <c r="D39" s="155">
+      <c r="D39" s="128">
         <f t="shared" si="0"/>
         <v>-3.0148121259160776E-2</v>
       </c>
@@ -28187,7 +28379,7 @@
       <c r="C40" s="17">
         <v>148.60000600000001</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="128">
         <f t="shared" si="0"/>
         <v>-0.13458738604559017</v>
       </c>
@@ -28221,7 +28413,7 @@
       <c r="C41" s="17">
         <v>171.71000699999999</v>
       </c>
-      <c r="D41" s="155">
+      <c r="D41" s="128">
         <f t="shared" si="0"/>
         <v>-1.860094180434313E-3</v>
       </c>
@@ -28255,7 +28447,7 @@
       <c r="C42" s="17">
         <v>172.029999</v>
       </c>
-      <c r="D42" s="155">
+      <c r="D42" s="128">
         <f t="shared" si="0"/>
         <v>9.5941886373562602E-2</v>
       </c>
@@ -28269,18 +28461,18 @@
       <c r="C43" s="17">
         <v>156.970001</v>
       </c>
-      <c r="D43" s="155">
+      <c r="D43" s="128">
         <f t="shared" si="0"/>
         <v>-2.229836146437203E-2</v>
       </c>
-      <c r="H43" s="144" t="s">
+      <c r="H43" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="I43" s="145"/>
-      <c r="J43" s="145"/>
-      <c r="K43" s="145"/>
-      <c r="L43" s="145"/>
-      <c r="M43" s="146"/>
+      <c r="I43" s="146"/>
+      <c r="J43" s="146"/>
+      <c r="K43" s="146"/>
+      <c r="L43" s="146"/>
+      <c r="M43" s="147"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
@@ -28289,7 +28481,7 @@
       <c r="C44" s="17">
         <v>160.550003</v>
       </c>
-      <c r="D44" s="155">
+      <c r="D44" s="128">
         <f t="shared" si="0"/>
         <v>1.9429791750911418E-2</v>
       </c>
@@ -28322,7 +28514,7 @@
       <c r="C45" s="17">
         <v>157.490005</v>
       </c>
-      <c r="D45" s="155">
+      <c r="D45" s="128">
         <f t="shared" si="0"/>
         <v>-1.5625976135196673E-2</v>
       </c>
@@ -28355,7 +28547,7 @@
       <c r="C46" s="17">
         <v>159.990005</v>
       </c>
-      <c r="D46" s="155">
+      <c r="D46" s="128">
         <f t="shared" si="0"/>
         <v>6.3197828633647646E-2</v>
       </c>
@@ -28388,7 +28580,7 @@
       <c r="C47" s="17">
         <v>150.479996</v>
       </c>
-      <c r="D47" s="155">
+      <c r="D47" s="128">
         <f t="shared" si="0"/>
         <v>-8.3037363811869769E-3</v>
       </c>
@@ -28421,7 +28613,7 @@
       <c r="C48" s="17">
         <v>151.740005</v>
       </c>
-      <c r="D48" s="155">
+      <c r="D48" s="128">
         <f t="shared" si="0"/>
         <v>9.5137184420692744E-3</v>
       </c>
@@ -28454,7 +28646,7 @@
       <c r="C49" s="17">
         <v>150.30999800000001</v>
       </c>
-      <c r="D49" s="155">
+      <c r="D49" s="128">
         <f t="shared" si="0"/>
         <v>5.8890787741656681E-3</v>
       </c>
@@ -28487,7 +28679,7 @@
       <c r="C50" s="17">
         <v>149.429993</v>
       </c>
-      <c r="D50" s="155">
+      <c r="D50" s="128">
         <f t="shared" si="0"/>
         <v>4.8410819114648174E-2</v>
       </c>
@@ -28520,7 +28712,7 @@
       <c r="C51" s="17">
         <v>142.529999</v>
       </c>
-      <c r="D51" s="155">
+      <c r="D51" s="128">
         <f t="shared" si="0"/>
         <v>5.5026384479717194E-3</v>
       </c>
@@ -28553,7 +28745,7 @@
       <c r="C52" s="17">
         <v>141.75</v>
       </c>
-      <c r="D52" s="155">
+      <c r="D52" s="128">
         <f t="shared" si="0"/>
         <v>6.1002946362143096E-2</v>
       </c>
@@ -28586,7 +28778,7 @@
       <c r="C53" s="17">
         <v>133.60000600000001</v>
       </c>
-      <c r="D53" s="155">
+      <c r="D53" s="128">
         <f t="shared" si="0"/>
         <v>-1.1960900566719834E-3</v>
       </c>
@@ -28619,7 +28811,7 @@
       <c r="C54" s="17">
         <v>133.759995</v>
       </c>
-      <c r="D54" s="155">
+      <c r="D54" s="128">
         <f t="shared" si="0"/>
         <v>-7.2733409799116133E-3</v>
       </c>
@@ -28652,7 +28844,7 @@
       <c r="C55" s="17">
         <v>134.740005</v>
       </c>
-      <c r="D55" s="155">
+      <c r="D55" s="128">
         <f t="shared" si="0"/>
         <v>1.7059247193817795E-2</v>
       </c>
@@ -28685,7 +28877,7 @@
       <c r="C56" s="17">
         <v>132.479996</v>
       </c>
-      <c r="D56" s="155">
+      <c r="D56" s="128">
         <f t="shared" si="0"/>
         <v>-8.5316497729249763E-3</v>
       </c>
@@ -28718,7 +28910,7 @@
       <c r="C57" s="17">
         <v>133.61999499999999</v>
       </c>
-      <c r="D57" s="155">
+      <c r="D57" s="128">
         <f t="shared" si="0"/>
         <v>4.1465252342979264E-2</v>
       </c>
@@ -28746,7 +28938,7 @@
       <c r="C58" s="17">
         <v>128.300003</v>
       </c>
-      <c r="D58" s="155">
+      <c r="D58" s="128">
         <f t="shared" si="0"/>
         <v>9.5208674017110972E-3</v>
       </c>
@@ -28774,7 +28966,7 @@
       <c r="C59" s="17">
         <v>127.089996</v>
       </c>
-      <c r="D59" s="155">
+      <c r="D59" s="128">
         <f t="shared" si="0"/>
         <v>4.4632515382787563E-2</v>
       </c>
@@ -28786,7 +28978,7 @@
       <c r="C60" s="17">
         <v>121.660004</v>
       </c>
-      <c r="D60" s="155">
+      <c r="D60" s="128">
         <f t="shared" si="0"/>
         <v>-1.680939092951983E-2</v>
       </c>
@@ -28802,7 +28994,7 @@
       <c r="C61" s="17">
         <v>123.739998</v>
       </c>
-      <c r="D61" s="155">
+      <c r="D61" s="128">
         <f t="shared" si="0"/>
         <v>5.6342829574379527E-2</v>
       </c>
@@ -28818,7 +29010,7 @@
       <c r="C62" s="17">
         <v>117.139999</v>
       </c>
-      <c r="D62" s="155">
+      <c r="D62" s="128">
         <f t="shared" si="0"/>
         <v>-6.5347505539814721E-2</v>
       </c>
@@ -28831,7 +29023,7 @@
       <c r="C63" s="17">
         <v>125.33000199999999</v>
       </c>
-      <c r="D63" s="155">
+      <c r="D63" s="128">
         <f t="shared" si="0"/>
         <v>1.3582454024210211E-3</v>
       </c>
@@ -28847,7 +29039,7 @@
       <c r="C64" s="17">
         <v>125.160004</v>
       </c>
-      <c r="D64" s="155">
+      <c r="D64" s="128">
         <f t="shared" si="0"/>
         <v>3.2928992868350049E-2</v>
       </c>
@@ -28866,7 +29058,7 @@
       <c r="C65" s="17">
         <v>121.16999800000001</v>
       </c>
-      <c r="D65" s="155">
+      <c r="D65" s="128">
         <f t="shared" si="0"/>
         <v>0.18515258578154525</v>
       </c>
@@ -28885,7 +29077,7 @@
       <c r="C66" s="17">
         <v>102.239998</v>
       </c>
-      <c r="D66" s="155">
+      <c r="D66" s="128">
         <f t="shared" si="0"/>
         <v>4.4224224523573774E-2</v>
       </c>
@@ -28897,7 +29089,7 @@
       <c r="C67" s="17">
         <v>97.910004000000001</v>
       </c>
-      <c r="D67" s="155">
+      <c r="D67" s="128">
         <f t="shared" ref="D67:D130" si="10">C67/C68-1</f>
         <v>6.3545580350762298E-2</v>
       </c>
@@ -28909,7 +29101,7 @@
       <c r="C68" s="17">
         <v>92.059997999999993</v>
       </c>
-      <c r="D68" s="155">
+      <c r="D68" s="128">
         <f t="shared" si="10"/>
         <v>0.10198703492953021</v>
       </c>
@@ -28921,7 +29113,7 @@
       <c r="C69" s="17">
         <v>83.540001000000004</v>
       </c>
-      <c r="D69" s="155">
+      <c r="D69" s="128">
         <f t="shared" si="10"/>
         <v>5.813811493875054E-2</v>
       </c>
@@ -28933,7 +29125,7 @@
       <c r="C70" s="17">
         <v>78.949996999999996</v>
       </c>
-      <c r="D70" s="155">
+      <c r="D70" s="128">
         <f t="shared" si="10"/>
         <v>1.6087516708655825E-2</v>
       </c>
@@ -28945,7 +29137,7 @@
       <c r="C71" s="17">
         <v>77.699996999999996</v>
       </c>
-      <c r="D71" s="155">
+      <c r="D71" s="128">
         <f t="shared" si="10"/>
         <v>3.9603948076102347E-2</v>
       </c>
@@ -28957,7 +29149,7 @@
       <c r="C72" s="17">
         <v>74.739998</v>
       </c>
-      <c r="D72" s="155">
+      <c r="D72" s="128">
         <f t="shared" si="10"/>
         <v>-4.3878726976557036E-2</v>
       </c>
@@ -28969,7 +29161,7 @@
       <c r="C73" s="17">
         <v>78.169998000000007</v>
       </c>
-      <c r="D73" s="155">
+      <c r="D73" s="128">
         <f t="shared" si="10"/>
         <v>-2.6646744531110378E-2</v>
       </c>
@@ -28981,7 +29173,7 @@
       <c r="C74" s="17">
         <v>80.309997999999993</v>
       </c>
-      <c r="D74" s="155">
+      <c r="D74" s="128">
         <f t="shared" si="10"/>
         <v>2.0068524575059365E-2</v>
       </c>
@@ -28993,7 +29185,7 @@
       <c r="C75" s="17">
         <v>78.730002999999996</v>
       </c>
-      <c r="D75" s="155">
+      <c r="D75" s="128">
         <f t="shared" si="10"/>
         <v>2.2600403236794353E-2</v>
       </c>
@@ -29005,7 +29197,7 @@
       <c r="C76" s="17">
         <v>76.989998</v>
       </c>
-      <c r="D76" s="155">
+      <c r="D76" s="128">
         <f t="shared" si="10"/>
         <v>-8.0277160199225372E-2</v>
       </c>
@@ -29017,7 +29209,7 @@
       <c r="C77" s="17">
         <v>83.709998999999996</v>
       </c>
-      <c r="D77" s="155">
+      <c r="D77" s="128">
         <f t="shared" si="10"/>
         <v>0.17818431337715768</v>
       </c>
@@ -29029,7 +29221,7 @@
       <c r="C78" s="17">
         <v>71.050003000000004</v>
       </c>
-      <c r="D78" s="155">
+      <c r="D78" s="128">
         <f t="shared" si="10"/>
         <v>-0.14767271895786083</v>
       </c>
@@ -29041,7 +29233,7 @@
       <c r="C79" s="17">
         <v>83.360000999999997</v>
       </c>
-      <c r="D79" s="155">
+      <c r="D79" s="128">
         <f t="shared" si="10"/>
         <v>-6.0202888169207047E-2</v>
       </c>
@@ -29053,7 +29245,7 @@
       <c r="C80" s="17">
         <v>88.699996999999996</v>
       </c>
-      <c r="D80" s="155">
+      <c r="D80" s="128">
         <f t="shared" si="10"/>
         <v>8.4484605887215958E-2</v>
       </c>
@@ -29065,7 +29257,7 @@
       <c r="C81" s="17">
         <v>81.790001000000004</v>
       </c>
-      <c r="D81" s="155">
+      <c r="D81" s="128">
         <f t="shared" si="10"/>
         <v>-7.0673796825956203E-2</v>
       </c>
@@ -29077,7 +29269,7 @@
       <c r="C82" s="17">
         <v>88.010002</v>
       </c>
-      <c r="D82" s="155">
+      <c r="D82" s="128">
         <f t="shared" si="10"/>
         <v>1.9814587955460317E-2</v>
       </c>
@@ -29089,7 +29281,7 @@
       <c r="C83" s="17">
         <v>86.300003000000004</v>
       </c>
-      <c r="D83" s="155">
+      <c r="D83" s="128">
         <f t="shared" si="10"/>
         <v>-3.4027234565804032E-2</v>
       </c>
@@ -29101,7 +29293,7 @@
       <c r="C84" s="17">
         <v>89.339995999999999</v>
       </c>
-      <c r="D84" s="155">
+      <c r="D84" s="128">
         <f t="shared" si="10"/>
         <v>-0.10962727166144193</v>
       </c>
@@ -29113,7 +29305,7 @@
       <c r="C85" s="17">
         <v>100.339996</v>
       </c>
-      <c r="D85" s="155">
+      <c r="D85" s="128">
         <f t="shared" si="10"/>
         <v>-9.0134231865562575E-2</v>
       </c>
@@ -29125,7 +29317,7 @@
       <c r="C86" s="17">
         <v>110.279999</v>
       </c>
-      <c r="D86" s="155">
+      <c r="D86" s="128">
         <f t="shared" si="10"/>
         <v>5.6119527985434292E-2</v>
       </c>
@@ -29137,7 +29329,7 @@
       <c r="C87" s="17">
         <v>104.41999800000001</v>
       </c>
-      <c r="D87" s="155">
+      <c r="D87" s="128">
         <f t="shared" si="10"/>
         <v>-4.473515771173997E-2</v>
       </c>
@@ -29149,7 +29341,7 @@
       <c r="C88" s="17">
         <v>109.30999799999999</v>
       </c>
-      <c r="D88" s="155">
+      <c r="D88" s="128">
         <f t="shared" si="10"/>
         <v>-1.9025415058781414E-2</v>
       </c>
@@ -29161,7 +29353,7 @@
       <c r="C89" s="17">
         <v>111.43</v>
       </c>
-      <c r="D89" s="155">
+      <c r="D89" s="128">
         <f t="shared" si="10"/>
         <v>-9.8681527914297296E-2</v>
       </c>
@@ -29173,7 +29365,7 @@
       <c r="C90" s="17">
         <v>123.629997</v>
       </c>
-      <c r="D90" s="155">
+      <c r="D90" s="128">
         <f t="shared" si="10"/>
         <v>4.12700570722635E-2</v>
       </c>
@@ -29185,7 +29377,7 @@
       <c r="C91" s="17">
         <v>118.730003</v>
       </c>
-      <c r="D91" s="155">
+      <c r="D91" s="128">
         <f t="shared" si="10"/>
         <v>5.0522085927855676E-2</v>
       </c>
@@ -29197,7 +29389,7 @@
       <c r="C92" s="17">
         <v>113.019997</v>
       </c>
-      <c r="D92" s="155">
+      <c r="D92" s="128">
         <f t="shared" si="10"/>
         <v>1.2270443129951847E-2</v>
       </c>
@@ -29209,7 +29401,7 @@
       <c r="C93" s="17">
         <v>111.650002</v>
       </c>
-      <c r="D93" s="155">
+      <c r="D93" s="128">
         <f t="shared" si="10"/>
         <v>9.1077883493054346E-2</v>
       </c>
@@ -29221,7 +29413,7 @@
       <c r="C94" s="17">
         <v>102.33000199999999</v>
       </c>
-      <c r="D94" s="155">
+      <c r="D94" s="128">
         <f t="shared" si="10"/>
         <v>-1.8323062515791744E-2</v>
       </c>
@@ -29233,7 +29425,7 @@
       <c r="C95" s="17">
         <v>104.239998</v>
       </c>
-      <c r="D95" s="155">
+      <c r="D95" s="128">
         <f t="shared" si="10"/>
         <v>6.8908954129684785E-2</v>
       </c>
@@ -29245,7 +29437,7 @@
       <c r="C96" s="17">
         <v>97.519997000000004</v>
       </c>
-      <c r="D96" s="155">
+      <c r="D96" s="128">
         <f t="shared" si="10"/>
         <v>-8.859815887850464E-2</v>
       </c>
@@ -29257,7 +29449,7 @@
       <c r="C97" s="17">
         <v>107</v>
       </c>
-      <c r="D97" s="155">
+      <c r="D97" s="128">
         <f t="shared" si="10"/>
         <v>7.7868472182989867E-2</v>
       </c>
@@ -29269,7 +29461,7 @@
       <c r="C98" s="17">
         <v>99.269997000000004</v>
       </c>
-      <c r="D98" s="155">
+      <c r="D98" s="128">
         <f t="shared" si="10"/>
         <v>-2.8954376534646054E-2</v>
       </c>
@@ -29281,7 +29473,7 @@
       <c r="C99" s="17">
         <v>102.230003</v>
       </c>
-      <c r="D99" s="155">
+      <c r="D99" s="128">
         <f t="shared" si="10"/>
         <v>-8.91027330721893E-2</v>
       </c>
@@ -29293,7 +29485,7 @@
       <c r="C100" s="17">
         <v>112.230003</v>
       </c>
-      <c r="D100" s="155">
+      <c r="D100" s="128">
         <f t="shared" si="10"/>
         <v>-6.550393851904146E-3</v>
       </c>
@@ -29305,7 +29497,7 @@
       <c r="C101" s="17">
         <v>112.970001</v>
       </c>
-      <c r="D101" s="155">
+      <c r="D101" s="128">
         <f t="shared" si="10"/>
         <v>5.3136982934752774E-2</v>
       </c>
@@ -29317,7 +29509,7 @@
       <c r="C102" s="17">
         <v>107.269997</v>
       </c>
-      <c r="D102" s="155">
+      <c r="D102" s="128">
         <f t="shared" si="10"/>
         <v>1.1122641573103609E-2</v>
       </c>
@@ -29329,7 +29521,7 @@
       <c r="C103" s="17">
         <v>106.089996</v>
       </c>
-      <c r="D103" s="155">
+      <c r="D103" s="128">
         <f t="shared" si="10"/>
         <v>1.3469583492548676E-2</v>
       </c>
@@ -29341,7 +29533,7 @@
       <c r="C104" s="17">
         <v>104.68</v>
       </c>
-      <c r="D104" s="155">
+      <c r="D104" s="128">
         <f t="shared" si="10"/>
         <v>2.9808145011153142E-2</v>
       </c>
@@ -29353,7 +29545,7 @@
       <c r="C105" s="17">
         <v>101.650002</v>
       </c>
-      <c r="D105" s="155">
+      <c r="D105" s="128">
         <f t="shared" si="10"/>
         <v>-7.7669876396605275E-2</v>
       </c>
@@ -29365,7 +29557,7 @@
       <c r="C106" s="17">
         <v>110.209999</v>
       </c>
-      <c r="D106" s="155">
+      <c r="D106" s="128">
         <f t="shared" si="10"/>
         <v>-0.1912380144936372</v>
       </c>
@@ -29377,7 +29569,7 @@
       <c r="C107" s="17">
         <v>136.270004</v>
       </c>
-      <c r="D107" s="155">
+      <c r="D107" s="128">
         <f t="shared" si="10"/>
         <v>-3.5461459764025038E-2</v>
       </c>
@@ -29389,7 +29581,7 @@
       <c r="C108" s="17">
         <v>141.279999</v>
       </c>
-      <c r="D108" s="155">
+      <c r="D108" s="128">
         <f t="shared" si="10"/>
         <v>-8.0806754992974961E-2</v>
       </c>
@@ -29401,7 +29593,7 @@
       <c r="C109" s="17">
         <v>153.699997</v>
       </c>
-      <c r="D109" s="155">
+      <c r="D109" s="128">
         <f t="shared" si="10"/>
         <v>5.2451413086550769E-2</v>
       </c>
@@ -29413,7 +29605,7 @@
       <c r="C110" s="17">
         <v>146.03999300000001</v>
       </c>
-      <c r="D110" s="155">
+      <c r="D110" s="128">
         <f t="shared" si="10"/>
         <v>8.7028181289046103E-3</v>
       </c>
@@ -29425,7 +29617,7 @@
       <c r="C111" s="17">
         <v>144.779999</v>
       </c>
-      <c r="D111" s="155">
+      <c r="D111" s="128">
         <f t="shared" si="10"/>
         <v>0.16485636684482774</v>
       </c>
@@ -29437,7 +29629,7 @@
       <c r="C112" s="17">
         <v>124.290001</v>
       </c>
-      <c r="D112" s="155">
+      <c r="D112" s="128">
         <f t="shared" si="10"/>
         <v>-8.0491212258507194E-2</v>
       </c>
@@ -29449,7 +29641,7 @@
       <c r="C113" s="17">
         <v>135.16999799999999</v>
       </c>
-      <c r="D113" s="155">
+      <c r="D113" s="128">
         <f t="shared" si="10"/>
         <v>-0.11019686366409409</v>
       </c>
@@ -29461,7 +29653,7 @@
       <c r="C114" s="17">
         <v>151.91000399999999</v>
       </c>
-      <c r="D114" s="155">
+      <c r="D114" s="128">
         <f t="shared" si="10"/>
         <v>-2.3642213866363893E-3</v>
       </c>
@@ -29473,7 +29665,7 @@
       <c r="C115" s="17">
         <v>152.270004</v>
       </c>
-      <c r="D115" s="155">
+      <c r="D115" s="128">
         <f t="shared" si="10"/>
         <v>-5.9655341305424492E-2</v>
       </c>
@@ -29485,7 +29677,7 @@
       <c r="C116" s="17">
         <v>161.929993</v>
       </c>
-      <c r="D116" s="155">
+      <c r="D116" s="128">
         <f t="shared" si="10"/>
         <v>-7.1661987626176149E-2</v>
       </c>
@@ -29497,7 +29689,7 @@
       <c r="C117" s="17">
         <v>174.429993</v>
       </c>
-      <c r="D117" s="155">
+      <c r="D117" s="128">
         <f t="shared" si="10"/>
         <v>8.3824548128674792E-3</v>
       </c>
@@ -29509,7 +29701,7 @@
       <c r="C118" s="17">
         <v>172.979996</v>
       </c>
-      <c r="D118" s="155">
+      <c r="D118" s="128">
         <f t="shared" si="10"/>
         <v>-0.1153275871494277</v>
       </c>
@@ -29521,7 +29713,7 @@
       <c r="C119" s="17">
         <v>195.529999</v>
       </c>
-      <c r="D119" s="155">
+      <c r="D119" s="128">
         <f t="shared" si="10"/>
         <v>-0.10537151908282871</v>
       </c>
@@ -29533,7 +29725,7 @@
       <c r="C120" s="17">
         <v>218.55999800000001</v>
       </c>
-      <c r="D120" s="155">
+      <c r="D120" s="128">
         <f t="shared" si="10"/>
         <v>-2.2452831000511431E-2</v>
       </c>
@@ -29545,7 +29737,7 @@
       <c r="C121" s="17">
         <v>223.58000200000001</v>
       </c>
-      <c r="D121" s="155">
+      <c r="D121" s="128">
         <f t="shared" si="10"/>
         <v>-4.4652382364023357E-2</v>
       </c>
@@ -29557,7 +29749,7 @@
       <c r="C122" s="17">
         <v>234.029999</v>
       </c>
-      <c r="D122" s="155">
+      <c r="D122" s="128">
         <f t="shared" si="10"/>
         <v>-1.0987642923812713E-2</v>
       </c>
@@ -29569,7 +29761,7 @@
       <c r="C123" s="17">
         <v>236.63000500000001</v>
       </c>
-      <c r="D123" s="155">
+      <c r="D123" s="128">
         <f t="shared" si="10"/>
         <v>5.737869796573758E-3</v>
       </c>
@@ -29581,7 +29773,7 @@
       <c r="C124" s="17">
         <v>235.279999</v>
       </c>
-      <c r="D124" s="155">
+      <c r="D124" s="128">
         <f t="shared" si="10"/>
         <v>8.6598818627257046E-3</v>
       </c>
@@ -29593,7 +29785,7 @@
       <c r="C125" s="17">
         <v>233.259995</v>
       </c>
-      <c r="D125" s="155">
+      <c r="D125" s="128">
         <f t="shared" si="10"/>
         <v>1.9492971772382406E-2</v>
       </c>
@@ -29605,7 +29797,7 @@
       <c r="C126" s="17">
         <v>228.800003</v>
       </c>
-      <c r="D126" s="155">
+      <c r="D126" s="128">
         <f t="shared" si="10"/>
         <v>-8.8046538674504848E-2</v>
       </c>
@@ -29617,7 +29809,7 @@
       <c r="C127" s="17">
         <v>250.88999899999999</v>
       </c>
-      <c r="D127" s="155">
+      <c r="D127" s="128">
         <f t="shared" si="10"/>
         <v>-3.3365399346502733E-2</v>
       </c>
@@ -29629,7 +29821,7 @@
       <c r="C128" s="17">
         <v>259.54998799999998</v>
       </c>
-      <c r="D128" s="155">
+      <c r="D128" s="128">
         <f t="shared" si="10"/>
         <v>-7.4885978577744483E-2</v>
       </c>
@@ -29641,7 +29833,7 @@
       <c r="C129" s="17">
         <v>280.55999800000001</v>
       </c>
-      <c r="D129" s="155">
+      <c r="D129" s="128">
         <f t="shared" si="10"/>
         <v>-2.9372047578151039E-2</v>
       </c>
@@ -29653,7 +29845,7 @@
       <c r="C130" s="17">
         <v>289.04998799999998</v>
       </c>
-      <c r="D130" s="155">
+      <c r="D130" s="128">
         <f t="shared" si="10"/>
         <v>-1.2094195136714836E-3</v>
       </c>
@@ -29665,7 +29857,7 @@
       <c r="C131" s="17">
         <v>289.39999399999999</v>
       </c>
-      <c r="D131" s="155">
+      <c r="D131" s="128">
         <f t="shared" ref="D131:D194" si="11">C131/C132-1</f>
         <v>0.14405434057408129</v>
       </c>
@@ -29677,7 +29869,7 @@
       <c r="C132" s="17">
         <v>252.96000699999999</v>
       </c>
-      <c r="D132" s="155">
+      <c r="D132" s="128">
         <f t="shared" si="11"/>
         <v>2.2473779849808695E-2</v>
       </c>
@@ -29689,7 +29881,7 @@
       <c r="C133" s="17">
         <v>247.39999399999999</v>
       </c>
-      <c r="D133" s="155">
+      <c r="D133" s="128">
         <f t="shared" si="11"/>
         <v>6.2349659430829929E-2</v>
       </c>
@@ -29701,7 +29893,7 @@
       <c r="C134" s="17">
         <v>232.88000500000001</v>
       </c>
-      <c r="D134" s="155">
+      <c r="D134" s="128">
         <f t="shared" si="11"/>
         <v>1.547988910757514E-2</v>
       </c>
@@ -29713,7 +29905,7 @@
       <c r="C135" s="17">
         <v>229.33000200000001</v>
       </c>
-      <c r="D135" s="155">
+      <c r="D135" s="128">
         <f t="shared" si="11"/>
         <v>-3.7793006574191601E-3</v>
       </c>
@@ -29725,7 +29917,7 @@
       <c r="C136" s="17">
         <v>230.199997</v>
       </c>
-      <c r="D136" s="155">
+      <c r="D136" s="128">
         <f t="shared" si="11"/>
         <v>-7.2148361818258122E-2</v>
       </c>
@@ -29737,7 +29929,7 @@
       <c r="C137" s="17">
         <v>248.10000600000001</v>
       </c>
-      <c r="D137" s="155">
+      <c r="D137" s="128">
         <f t="shared" si="11"/>
         <v>1.3723401955993975E-3</v>
       </c>
@@ -29749,7 +29941,7 @@
       <c r="C138" s="17">
         <v>247.759995</v>
       </c>
-      <c r="D138" s="155">
+      <c r="D138" s="128">
         <f t="shared" si="11"/>
         <v>-5.1397287021286431E-3</v>
       </c>
@@ -29761,7 +29953,7 @@
       <c r="C139" s="17">
         <v>249.03999300000001</v>
       </c>
-      <c r="D139" s="155">
+      <c r="D139" s="128">
         <f t="shared" si="11"/>
         <v>0.1018493433882075</v>
       </c>
@@ -29773,7 +29965,7 @@
       <c r="C140" s="17">
         <v>226.020004</v>
       </c>
-      <c r="D140" s="155">
+      <c r="D140" s="128">
         <f t="shared" si="11"/>
         <v>4.329765991182466E-2</v>
       </c>
@@ -29785,7 +29977,7 @@
       <c r="C141" s="17">
         <v>216.63999899999999</v>
       </c>
-      <c r="D141" s="155">
+      <c r="D141" s="128">
         <f t="shared" si="11"/>
         <v>2.4399485046330271E-2</v>
       </c>
@@ -29797,7 +29989,7 @@
       <c r="C142" s="17">
         <v>211.479996</v>
       </c>
-      <c r="D142" s="155">
+      <c r="D142" s="128">
         <f t="shared" si="11"/>
         <v>-4.7258660867420588E-2</v>
       </c>
@@ -29809,7 +30001,7 @@
       <c r="C143" s="17">
         <v>221.970001</v>
       </c>
-      <c r="D143" s="155">
+      <c r="D143" s="128">
         <f t="shared" si="11"/>
         <v>-2.929985157038395E-2</v>
       </c>
@@ -29821,7 +30013,7 @@
       <c r="C144" s="17">
         <v>228.66999799999999</v>
       </c>
-      <c r="D144" s="155">
+      <c r="D144" s="128">
         <f t="shared" si="11"/>
         <v>-6.1443117145965842E-2</v>
       </c>
@@ -29833,7 +30025,7 @@
       <c r="C145" s="17">
         <v>243.63999899999999</v>
       </c>
-      <c r="D145" s="155">
+      <c r="D145" s="128">
         <f t="shared" si="11"/>
         <v>1.6444416698642161E-3</v>
       </c>
@@ -29845,7 +30037,7 @@
       <c r="C146" s="17">
         <v>243.240005</v>
       </c>
-      <c r="D146" s="155">
+      <c r="D146" s="128">
         <f t="shared" si="11"/>
         <v>-7.4534805649859148E-2</v>
       </c>
@@ -29857,7 +30049,7 @@
       <c r="C147" s="17">
         <v>262.82998700000002</v>
       </c>
-      <c r="D147" s="155">
+      <c r="D147" s="128">
         <f t="shared" si="11"/>
         <v>-1.8668559320058509E-2</v>
       </c>
@@ -29869,7 +30061,7 @@
       <c r="C148" s="17">
         <v>267.82998700000002</v>
       </c>
-      <c r="D148" s="155">
+      <c r="D148" s="128">
         <f t="shared" si="11"/>
         <v>5.443283928161291E-3</v>
       </c>
@@ -29881,7 +30073,7 @@
       <c r="C149" s="17">
         <v>266.38000499999998</v>
       </c>
-      <c r="D149" s="155">
+      <c r="D149" s="128">
         <f t="shared" si="11"/>
         <v>7.5674390549484771E-2</v>
       </c>
@@ -29893,7 +30085,7 @@
       <c r="C150" s="17">
         <v>247.63999899999999</v>
       </c>
-      <c r="D150" s="155">
+      <c r="D150" s="128">
         <f t="shared" si="11"/>
         <v>1.633421544226854E-2</v>
       </c>
@@ -29905,7 +30097,7 @@
       <c r="C151" s="17">
         <v>243.66000399999999</v>
       </c>
-      <c r="D151" s="155">
+      <c r="D151" s="128">
         <f t="shared" si="11"/>
         <v>3.1714468659986172E-2</v>
       </c>
@@ -29917,7 +30109,7 @@
       <c r="C152" s="17">
         <v>236.16999799999999</v>
       </c>
-      <c r="D152" s="155">
+      <c r="D152" s="128">
         <f t="shared" si="11"/>
         <v>-2.235380570237766E-2</v>
       </c>
@@ -29929,7 +30121,7 @@
       <c r="C153" s="17">
         <v>241.570007</v>
       </c>
-      <c r="D153" s="155">
+      <c r="D153" s="128">
         <f t="shared" si="11"/>
         <v>5.4246347448050791E-2</v>
       </c>
@@ -29941,7 +30133,7 @@
       <c r="C154" s="17">
         <v>229.13999899999999</v>
       </c>
-      <c r="D154" s="155">
+      <c r="D154" s="128">
         <f t="shared" si="11"/>
         <v>2.482223310205689E-2</v>
       </c>
@@ -29953,7 +30145,7 @@
       <c r="C155" s="17">
         <v>223.58999600000001</v>
       </c>
-      <c r="D155" s="155">
+      <c r="D155" s="128">
         <f t="shared" si="11"/>
         <v>-6.6079143459685907E-2</v>
       </c>
@@ -29965,7 +30157,7 @@
       <c r="C156" s="17">
         <v>239.41000399999999</v>
       </c>
-      <c r="D156" s="155">
+      <c r="D156" s="128">
         <f t="shared" si="11"/>
         <v>-5.0412467285666951E-2</v>
       </c>
@@ -29977,7 +30169,7 @@
       <c r="C157" s="17">
         <v>252.11999499999999</v>
       </c>
-      <c r="D157" s="155">
+      <c r="D157" s="128">
         <f t="shared" si="11"/>
         <v>-0.11259720421300934</v>
       </c>
@@ -29989,7 +30181,7 @@
       <c r="C158" s="17">
         <v>284.10998499999999</v>
       </c>
-      <c r="D158" s="155">
+      <c r="D158" s="128">
         <f t="shared" si="11"/>
         <v>-2.7087200527221467E-2</v>
       </c>
@@ -30001,7 +30193,7 @@
       <c r="C159" s="17">
         <v>292.01998900000001</v>
       </c>
-      <c r="D159" s="155">
+      <c r="D159" s="128">
         <f t="shared" si="11"/>
         <v>4.591682109240014E-2</v>
       </c>
@@ -30013,7 +30205,7 @@
       <c r="C160" s="17">
         <v>279.20001200000002</v>
       </c>
-      <c r="D160" s="155">
+      <c r="D160" s="128">
         <f t="shared" si="11"/>
         <v>2.2336162087085443E-2</v>
       </c>
@@ -30025,7 +30217,7 @@
       <c r="C161" s="17">
         <v>273.10000600000001</v>
       </c>
-      <c r="D161" s="155">
+      <c r="D161" s="128">
         <f t="shared" si="11"/>
         <v>4.5118855345136932E-2</v>
       </c>
@@ -30037,7 +30229,7 @@
       <c r="C162" s="17">
         <v>261.30999800000001</v>
       </c>
-      <c r="D162" s="155">
+      <c r="D162" s="128">
         <f t="shared" si="11"/>
         <v>-3.968978573130999E-2</v>
       </c>
@@ -30049,7 +30241,7 @@
       <c r="C163" s="17">
         <v>272.10998499999999</v>
       </c>
-      <c r="D163" s="155">
+      <c r="D163" s="128">
         <f t="shared" si="11"/>
         <v>-2.779674008735189E-2</v>
       </c>
@@ -30061,7 +30253,7 @@
       <c r="C164" s="17">
         <v>279.89001500000001</v>
       </c>
-      <c r="D164" s="155">
+      <c r="D164" s="128">
         <f t="shared" si="11"/>
         <v>1.7855857893612548E-2</v>
       </c>
@@ -30073,7 +30265,7 @@
       <c r="C165" s="17">
         <v>274.98001099999999</v>
       </c>
-      <c r="D165" s="155">
+      <c r="D165" s="128">
         <f t="shared" si="11"/>
         <v>-0.10540696685849815</v>
       </c>
@@ -30085,7 +30277,7 @@
       <c r="C166" s="17">
         <v>307.38000499999998</v>
       </c>
-      <c r="D166" s="155">
+      <c r="D166" s="128">
         <f t="shared" si="11"/>
         <v>-0.15691596485823489</v>
       </c>
@@ -30097,7 +30289,7 @@
       <c r="C167" s="17">
         <v>364.58999599999999</v>
       </c>
-      <c r="D167" s="155">
+      <c r="D167" s="128">
         <f t="shared" si="11"/>
         <v>7.3270483134395548E-2</v>
       </c>
@@ -30109,7 +30301,7 @@
       <c r="C168" s="17">
         <v>339.70001200000002</v>
       </c>
-      <c r="D168" s="155">
+      <c r="D168" s="128">
         <f t="shared" si="11"/>
         <v>9.3091431039050487E-2</v>
       </c>
@@ -30121,7 +30313,7 @@
       <c r="C169" s="17">
         <v>310.76998900000001</v>
       </c>
-      <c r="D169" s="155">
+      <c r="D169" s="128">
         <f t="shared" si="11"/>
         <v>-1.3428606349206285E-2</v>
       </c>
@@ -30133,7 +30325,7 @@
       <c r="C170" s="17">
         <v>315</v>
       </c>
-      <c r="D170" s="155">
+      <c r="D170" s="128">
         <f t="shared" si="11"/>
         <v>-7.068678202791201E-2</v>
       </c>
@@ -30145,7 +30337,7 @@
       <c r="C171" s="17">
         <v>338.959991</v>
       </c>
-      <c r="D171" s="155">
+      <c r="D171" s="128">
         <f t="shared" si="11"/>
         <v>5.9846112128938866E-2</v>
       </c>
@@ -30157,7 +30349,7 @@
       <c r="C172" s="17">
         <v>319.82000699999998</v>
       </c>
-      <c r="D172" s="155">
+      <c r="D172" s="128">
         <f t="shared" si="11"/>
         <v>-9.4276512741490515E-2</v>
       </c>
@@ -30169,7 +30361,7 @@
       <c r="C173" s="17">
         <v>353.10998499999999</v>
       </c>
-      <c r="D173" s="155">
+      <c r="D173" s="128">
         <f t="shared" si="11"/>
         <v>0.12219532355945684</v>
       </c>
@@ -30181,7 +30373,7 @@
       <c r="C174" s="17">
         <v>314.66000400000001</v>
       </c>
-      <c r="D174" s="155">
+      <c r="D174" s="128">
         <f t="shared" si="11"/>
         <v>-4.1810074523733531E-2</v>
       </c>
@@ -30193,7 +30385,7 @@
       <c r="C175" s="17">
         <v>328.39001500000001</v>
       </c>
-      <c r="D175" s="155">
+      <c r="D175" s="128">
         <f t="shared" si="11"/>
         <v>-2.2939574121876083E-2</v>
       </c>
@@ -30205,7 +30397,7 @@
       <c r="C176" s="17">
         <v>336.10000600000001</v>
       </c>
-      <c r="D176" s="155">
+      <c r="D176" s="128">
         <f t="shared" si="11"/>
         <v>-1.5004967425693239E-2</v>
       </c>
@@ -30217,7 +30409,7 @@
       <c r="C177" s="17">
         <v>341.22000100000002</v>
       </c>
-      <c r="D177" s="155">
+      <c r="D177" s="128">
         <f t="shared" si="11"/>
         <v>6.7079503198782087E-2</v>
       </c>
@@ -30229,7 +30421,7 @@
       <c r="C178" s="17">
         <v>319.76998900000001</v>
       </c>
-      <c r="D178" s="155">
+      <c r="D178" s="128">
         <f t="shared" si="11"/>
         <v>0.15182621842493726</v>
       </c>
@@ -30241,7 +30433,7 @@
       <c r="C179" s="17">
         <v>277.61999500000002</v>
       </c>
-      <c r="D179" s="155">
+      <c r="D179" s="128">
         <f t="shared" si="11"/>
         <v>6.7769211538461605E-2</v>
       </c>
@@ -30253,7 +30445,7 @@
       <c r="C180" s="17">
         <v>260</v>
       </c>
-      <c r="D180" s="155">
+      <c r="D180" s="128">
         <f t="shared" si="11"/>
         <v>2.564102564102555E-2</v>
       </c>
@@ -30265,7 +30457,7 @@
       <c r="C181" s="17">
         <v>253.5</v>
       </c>
-      <c r="D181" s="155">
+      <c r="D181" s="128">
         <f t="shared" si="11"/>
         <v>-8.1854420531957572E-2</v>
       </c>
@@ -30277,7 +30469,7 @@
       <c r="C182" s="17">
         <v>276.10000600000001</v>
       </c>
-      <c r="D182" s="155">
+      <c r="D182" s="128">
         <f t="shared" si="11"/>
         <v>0.15094421255969093</v>
       </c>
@@ -30289,7 +30481,7 @@
       <c r="C183" s="17">
         <v>239.88999899999999</v>
       </c>
-      <c r="D183" s="155">
+      <c r="D183" s="128">
         <f t="shared" si="11"/>
         <v>-0.15379728575248808</v>
       </c>
@@ -30301,7 +30493,7 @@
       <c r="C184" s="17">
         <v>283.48998999999998</v>
       </c>
-      <c r="D184" s="155">
+      <c r="D184" s="128">
         <f t="shared" si="11"/>
         <v>7.9756248170157917E-2</v>
       </c>
@@ -30313,7 +30505,7 @@
       <c r="C185" s="17">
         <v>262.54998799999998</v>
       </c>
-      <c r="D185" s="155">
+      <c r="D185" s="128">
         <f t="shared" si="11"/>
         <v>5.0199952000000048E-2</v>
       </c>
@@ -30325,7 +30517,7 @@
       <c r="C186" s="17">
         <v>250</v>
       </c>
-      <c r="D186" s="155">
+      <c r="D186" s="128">
         <f t="shared" si="11"/>
         <v>4.0452809390930655E-2</v>
       </c>
@@ -30337,7 +30529,7 @@
       <c r="C187" s="17">
         <v>240.279999</v>
       </c>
-      <c r="D187" s="155">
+      <c r="D187" s="128">
         <f t="shared" si="11"/>
         <v>1.8221896232255119E-2</v>
       </c>
@@ -30349,7 +30541,7 @@
       <c r="C188" s="17">
         <v>235.979996</v>
       </c>
-      <c r="D188" s="155">
+      <c r="D188" s="128">
         <f t="shared" si="11"/>
         <v>8.935811744562816E-3</v>
       </c>
@@ -30361,7 +30553,7 @@
       <c r="C189" s="17">
         <v>233.88999899999999</v>
       </c>
-      <c r="D189" s="155">
+      <c r="D189" s="128">
         <f t="shared" si="11"/>
         <v>-3.1912279836615598E-2</v>
       </c>
@@ -30373,7 +30565,7 @@
       <c r="C190" s="17">
         <v>241.60000600000001</v>
       </c>
-      <c r="D190" s="155">
+      <c r="D190" s="128">
         <f t="shared" si="11"/>
         <v>-2.6630678915374961E-2</v>
       </c>
@@ -30385,7 +30577,7 @@
       <c r="C191" s="17">
         <v>248.21000699999999</v>
       </c>
-      <c r="D191" s="155">
+      <c r="D191" s="128">
         <f t="shared" si="11"/>
         <v>-0.11150479550605652</v>
       </c>
@@ -30397,7 +30589,7 @@
       <c r="C192" s="17">
         <v>279.35998499999999</v>
       </c>
-      <c r="D192" s="155">
+      <c r="D192" s="128">
         <f t="shared" si="11"/>
         <v>3.0924694294148569E-2</v>
       </c>
@@ -30409,7 +30601,7 @@
       <c r="C193" s="17">
         <v>270.98001099999999</v>
       </c>
-      <c r="D193" s="155">
+      <c r="D193" s="128">
         <f t="shared" si="11"/>
         <v>7.8226975379640074E-2</v>
       </c>
@@ -30421,7 +30613,7 @@
       <c r="C194" s="17">
         <v>251.320007</v>
       </c>
-      <c r="D194" s="155">
+      <c r="D194" s="128">
         <f t="shared" si="11"/>
         <v>-3.173044644872336E-3</v>
       </c>
@@ -30433,7 +30625,7 @@
       <c r="C195" s="17">
         <v>252.11999499999999</v>
       </c>
-      <c r="D195" s="155">
+      <c r="D195" s="128">
         <f t="shared" ref="D195:D258" si="12">C195/C196-1</f>
         <v>-2.2108493698085985E-2</v>
       </c>
@@ -30445,7 +30637,7 @@
       <c r="C196" s="17">
         <v>257.82000699999998</v>
       </c>
-      <c r="D196" s="155">
+      <c r="D196" s="128">
         <f t="shared" si="12"/>
         <v>-4.0634008358785723E-2</v>
       </c>
@@ -30457,7 +30649,7 @@
       <c r="C197" s="17">
         <v>268.73998999999998</v>
       </c>
-      <c r="D197" s="155">
+      <c r="D197" s="128">
         <f t="shared" si="12"/>
         <v>2.0932183906644308E-2</v>
       </c>
@@ -30469,7 +30661,7 @@
       <c r="C198" s="17">
         <v>263.23001099999999</v>
       </c>
-      <c r="D198" s="155">
+      <c r="D198" s="128">
         <f t="shared" si="12"/>
         <v>-5.3946159931934967E-2</v>
       </c>
@@ -30481,7 +30673,7 @@
       <c r="C199" s="17">
         <v>278.23998999999998</v>
       </c>
-      <c r="D199" s="155">
+      <c r="D199" s="128">
         <f t="shared" si="12"/>
         <v>2.486279512552203E-2</v>
       </c>
@@ -30493,7 +30685,7 @@
       <c r="C200" s="17">
         <v>271.48998999999998</v>
       </c>
-      <c r="D200" s="155">
+      <c r="D200" s="128">
         <f t="shared" si="12"/>
         <v>2.4683818470632835E-2</v>
       </c>
@@ -30505,7 +30697,7 @@
       <c r="C201" s="17">
         <v>264.95001200000002</v>
       </c>
-      <c r="D201" s="155">
+      <c r="D201" s="128">
         <f t="shared" si="12"/>
         <v>0.14553167027853209</v>
       </c>
@@ -30517,7 +30709,7 @@
       <c r="C202" s="17">
         <v>231.28999300000001</v>
       </c>
-      <c r="D202" s="155">
+      <c r="D202" s="128">
         <f t="shared" si="12"/>
         <v>0.28444484927464897</v>
       </c>
@@ -30529,7 +30721,7 @@
       <c r="C203" s="17">
         <v>180.070007</v>
       </c>
-      <c r="D203" s="155">
+      <c r="D203" s="128">
         <f t="shared" si="12"/>
         <v>-2.2845626344940473E-2</v>
       </c>
@@ -30541,7 +30733,7 @@
       <c r="C204" s="17">
         <v>184.279999</v>
       </c>
-      <c r="D204" s="155">
+      <c r="D204" s="128">
         <f t="shared" si="12"/>
         <v>1.8515481841642423E-2</v>
       </c>
@@ -30553,7 +30745,7 @@
       <c r="C205" s="17">
         <v>180.929993</v>
       </c>
-      <c r="D205" s="155">
+      <c r="D205" s="128">
         <f t="shared" si="12"/>
         <v>-4.8588132182659005E-2</v>
       </c>
@@ -30565,7 +30757,7 @@
       <c r="C206" s="17">
         <v>190.16999799999999</v>
       </c>
-      <c r="D206" s="155">
+      <c r="D206" s="128">
         <f t="shared" si="12"/>
         <v>0.19731785938024471</v>
       </c>
@@ -30577,7 +30769,7 @@
       <c r="C207" s="17">
         <v>158.83000200000001</v>
       </c>
-      <c r="D207" s="155">
+      <c r="D207" s="128">
         <f t="shared" si="12"/>
         <v>4.3904096374791868E-2</v>
       </c>
@@ -30589,7 +30781,7 @@
       <c r="C208" s="17">
         <v>152.14999399999999</v>
       </c>
-      <c r="D208" s="155">
+      <c r="D208" s="128">
         <f t="shared" si="12"/>
         <v>5.0469471153534062E-2</v>
       </c>
@@ -30601,7 +30793,7 @@
       <c r="C209" s="17">
         <v>144.83999600000001</v>
       </c>
-      <c r="D209" s="155">
+      <c r="D209" s="128">
         <f t="shared" si="12"/>
         <v>5.0783518594994748E-2</v>
       </c>
@@ -30613,7 +30805,7 @@
       <c r="C210" s="17">
         <v>137.83999600000001</v>
       </c>
-      <c r="D210" s="155">
+      <c r="D210" s="128">
         <f t="shared" si="12"/>
         <v>-2.8337832875103386E-2</v>
       </c>
@@ -30625,7 +30817,7 @@
       <c r="C211" s="17">
         <v>141.86000100000001</v>
       </c>
-      <c r="D211" s="155">
+      <c r="D211" s="128">
         <f t="shared" si="12"/>
         <v>7.5838009435476916E-2</v>
       </c>
@@ -30637,7 +30829,7 @@
       <c r="C212" s="17">
         <v>131.86000100000001</v>
       </c>
-      <c r="D212" s="155">
+      <c r="D212" s="128">
         <f t="shared" si="12"/>
         <v>7.9757597123544244E-2</v>
       </c>
@@ -30649,7 +30841,7 @@
       <c r="C213" s="17">
         <v>122.120003</v>
       </c>
-      <c r="D213" s="155">
+      <c r="D213" s="128">
         <f t="shared" si="12"/>
         <v>-3.4274359113152242E-3</v>
       </c>
@@ -30661,7 +30853,7 @@
       <c r="C214" s="17">
         <v>122.540001</v>
       </c>
-      <c r="D214" s="155">
+      <c r="D214" s="128">
         <f t="shared" si="12"/>
         <v>-1.4634930728249174E-2</v>
       </c>
@@ -30673,7 +30865,7 @@
       <c r="C215" s="17">
         <v>124.360001</v>
       </c>
-      <c r="D215" s="155">
+      <c r="D215" s="128">
         <f t="shared" si="12"/>
         <v>-5.4727858843537036E-2</v>
       </c>
@@ -30685,7 +30877,7 @@
       <c r="C216" s="17">
         <v>131.55999800000001</v>
       </c>
-      <c r="D216" s="155">
+      <c r="D216" s="128">
         <f t="shared" si="12"/>
         <v>-9.3564841487975947E-2</v>
       </c>
@@ -30697,7 +30889,7 @@
       <c r="C217" s="17">
         <v>145.13999899999999</v>
       </c>
-      <c r="D217" s="155">
+      <c r="D217" s="128">
         <f t="shared" si="12"/>
         <v>5.8488946123430141E-2</v>
       </c>
@@ -30709,7 +30901,7 @@
       <c r="C218" s="17">
         <v>137.11999499999999</v>
       </c>
-      <c r="D218" s="155">
+      <c r="D218" s="128">
         <f t="shared" si="12"/>
         <v>-6.6893516166591005E-2</v>
       </c>
@@ -30721,7 +30913,7 @@
       <c r="C219" s="17">
         <v>146.949997</v>
       </c>
-      <c r="D219" s="155">
+      <c r="D219" s="128">
         <f t="shared" si="12"/>
         <v>4.2198560283687847E-2</v>
       </c>
@@ -30733,7 +30925,7 @@
       <c r="C220" s="17">
         <v>141</v>
       </c>
-      <c r="D220" s="155">
+      <c r="D220" s="128">
         <f t="shared" si="12"/>
         <v>-8.7673909653693149E-2</v>
       </c>
@@ -30745,7 +30937,7 @@
       <c r="C221" s="17">
         <v>154.550003</v>
       </c>
-      <c r="D221" s="155">
+      <c r="D221" s="128">
         <f t="shared" si="12"/>
         <v>9.3772114074194279E-2</v>
       </c>
@@ -30757,7 +30949,7 @@
       <c r="C222" s="17">
         <v>141.300003</v>
       </c>
-      <c r="D222" s="155">
+      <c r="D222" s="128">
         <f t="shared" si="12"/>
         <v>-3.6350008990315485E-2</v>
       </c>
@@ -30769,7 +30961,7 @@
       <c r="C223" s="17">
         <v>146.63000500000001</v>
       </c>
-      <c r="D223" s="155">
+      <c r="D223" s="128">
         <f t="shared" si="12"/>
         <v>-1.1527511433935822E-2</v>
       </c>
@@ -30781,7 +30973,7 @@
       <c r="C224" s="17">
         <v>148.33999600000001</v>
       </c>
-      <c r="D224" s="155">
+      <c r="D224" s="128">
         <f t="shared" si="12"/>
         <v>-4.934630444388699E-2</v>
       </c>
@@ -30793,7 +30985,7 @@
       <c r="C225" s="17">
         <v>156.03999300000001</v>
       </c>
-      <c r="D225" s="155">
+      <c r="D225" s="128">
         <f t="shared" si="12"/>
         <v>2.3213068852458996E-2</v>
       </c>
@@ -30805,7 +30997,7 @@
       <c r="C226" s="17">
         <v>152.5</v>
       </c>
-      <c r="D226" s="155">
+      <c r="D226" s="128">
         <f t="shared" si="12"/>
         <v>-4.3742117173625195E-3</v>
       </c>
@@ -30817,7 +31009,7 @@
       <c r="C227" s="17">
         <v>153.16999799999999</v>
       </c>
-      <c r="D227" s="155">
+      <c r="D227" s="128">
         <f t="shared" si="12"/>
         <v>1.9027343743295067E-2</v>
       </c>
@@ -30829,7 +31021,7 @@
       <c r="C228" s="17">
         <v>150.30999800000001</v>
       </c>
-      <c r="D228" s="155">
+      <c r="D228" s="128">
         <f t="shared" si="12"/>
         <v>2.1127724615374932E-2</v>
       </c>
@@ -30841,7 +31033,7 @@
       <c r="C229" s="17">
         <v>147.199997</v>
       </c>
-      <c r="D229" s="155">
+      <c r="D229" s="128">
         <f t="shared" si="12"/>
         <v>-6.0098522792857434E-3</v>
       </c>
@@ -30853,7 +31045,7 @@
       <c r="C230" s="17">
         <v>148.08999600000001</v>
       </c>
-      <c r="D230" s="155">
+      <c r="D230" s="128">
         <f t="shared" si="12"/>
         <v>3.8863506723321617E-2</v>
       </c>
@@ -30865,7 +31057,7 @@
       <c r="C231" s="17">
         <v>142.550003</v>
       </c>
-      <c r="D231" s="155">
+      <c r="D231" s="128">
         <f t="shared" si="12"/>
         <v>1.1782269939543566E-2</v>
       </c>
@@ -30877,7 +31069,7 @@
       <c r="C232" s="17">
         <v>140.88999899999999</v>
       </c>
-      <c r="D232" s="155">
+      <c r="D232" s="128">
         <f t="shared" si="12"/>
         <v>-4.4878287739078426E-2</v>
       </c>
@@ -30889,7 +31081,7 @@
       <c r="C233" s="17">
         <v>147.509995</v>
       </c>
-      <c r="D233" s="155">
+      <c r="D233" s="128">
         <f t="shared" si="12"/>
         <v>-2.299702307756446E-3</v>
       </c>
@@ -30901,7 +31093,7 @@
       <c r="C234" s="17">
         <v>147.85000600000001</v>
       </c>
-      <c r="D234" s="155">
+      <c r="D234" s="128">
         <f t="shared" si="12"/>
         <v>6.3300300344411031E-3</v>
       </c>
@@ -30913,7 +31105,7 @@
       <c r="C235" s="17">
         <v>146.91999799999999</v>
       </c>
-      <c r="D235" s="155">
+      <c r="D235" s="128">
         <f t="shared" si="12"/>
         <v>0.21733362801667688</v>
       </c>
@@ -30925,7 +31117,7 @@
       <c r="C236" s="17">
         <v>120.69000200000001</v>
       </c>
-      <c r="D236" s="155">
+      <c r="D236" s="128">
         <f t="shared" si="12"/>
         <v>4.6475330851030616E-2</v>
       </c>
@@ -30937,7 +31129,7 @@
       <c r="C237" s="17">
         <v>115.33000199999999</v>
       </c>
-      <c r="D237" s="155">
+      <c r="D237" s="128">
         <f t="shared" si="12"/>
         <v>-1.3853667224066335E-3</v>
       </c>
@@ -30949,7 +31141,7 @@
       <c r="C238" s="17">
         <v>115.489998</v>
       </c>
-      <c r="D238" s="155">
+      <c r="D238" s="128">
         <f t="shared" si="12"/>
         <v>-7.9883182956248522E-3</v>
       </c>
@@ -30961,7 +31153,7 @@
       <c r="C239" s="17">
         <v>116.41999800000001</v>
       </c>
-      <c r="D239" s="155">
+      <c r="D239" s="128">
         <f t="shared" si="12"/>
         <v>3.7241625752701957E-2</v>
       </c>
@@ -30973,7 +31165,7 @@
       <c r="C240" s="17">
         <v>112.239998</v>
       </c>
-      <c r="D240" s="155">
+      <c r="D240" s="128">
         <f t="shared" si="12"/>
         <v>-7.0091128502679179E-2</v>
       </c>
@@ -30985,7 +31177,7 @@
       <c r="C241" s="17">
         <v>120.699997</v>
       </c>
-      <c r="D241" s="155">
+      <c r="D241" s="128">
         <f t="shared" si="12"/>
         <v>-7.6016287375936464E-2</v>
       </c>
@@ -30997,7 +31189,7 @@
       <c r="C242" s="17">
         <v>130.63000500000001</v>
       </c>
-      <c r="D242" s="155">
+      <c r="D242" s="128">
         <f t="shared" si="12"/>
         <v>-3.9908812875331656E-2</v>
       </c>
@@ -31009,7 +31201,7 @@
       <c r="C243" s="17">
         <v>136.05999800000001</v>
       </c>
-      <c r="D243" s="155">
+      <c r="D243" s="128">
         <f t="shared" si="12"/>
         <v>8.2252762110102129E-3</v>
       </c>
@@ -31021,7 +31213,7 @@
       <c r="C244" s="17">
         <v>134.949997</v>
       </c>
-      <c r="D244" s="155">
+      <c r="D244" s="128">
         <f t="shared" si="12"/>
         <v>-2.2243203238858089E-2</v>
       </c>
@@ -31033,7 +31225,7 @@
       <c r="C245" s="17">
         <v>138.020004</v>
       </c>
-      <c r="D245" s="155">
+      <c r="D245" s="128">
         <f t="shared" si="12"/>
         <v>-6.5791259449327844E-2</v>
       </c>
@@ -31045,7 +31237,7 @@
       <c r="C246" s="17">
         <v>147.740005</v>
       </c>
-      <c r="D246" s="155">
+      <c r="D246" s="128">
         <f t="shared" si="12"/>
         <v>-4.690013698794071E-2</v>
       </c>
@@ -31057,7 +31249,7 @@
       <c r="C247" s="17">
         <v>155.009995</v>
       </c>
-      <c r="D247" s="155">
+      <c r="D247" s="128">
         <f t="shared" si="12"/>
         <v>1.0034495275724975E-2</v>
       </c>
@@ -31069,7 +31261,7 @@
       <c r="C248" s="17">
         <v>153.470001</v>
       </c>
-      <c r="D248" s="155">
+      <c r="D248" s="128">
         <f t="shared" si="12"/>
         <v>-1.2292469677807061E-2</v>
       </c>
@@ -31081,7 +31273,7 @@
       <c r="C249" s="17">
         <v>155.38000500000001</v>
       </c>
-      <c r="D249" s="155">
+      <c r="D249" s="128">
         <f t="shared" si="12"/>
         <v>7.8204176821843108E-2</v>
       </c>
@@ -31093,7 +31285,7 @@
       <c r="C250" s="17">
         <v>144.11000100000001</v>
       </c>
-      <c r="D250" s="155">
+      <c r="D250" s="128">
         <f t="shared" si="12"/>
         <v>-5.3775455276911521E-2</v>
       </c>
@@ -31105,7 +31297,7 @@
       <c r="C251" s="17">
         <v>152.300003</v>
       </c>
-      <c r="D251" s="155">
+      <c r="D251" s="128">
         <f t="shared" si="12"/>
         <v>4.0940503601127665E-2</v>
       </c>
@@ -31117,7 +31309,7 @@
       <c r="C252" s="17">
         <v>146.30999800000001</v>
       </c>
-      <c r="D252" s="155">
+      <c r="D252" s="128">
         <f t="shared" si="12"/>
         <v>6.1549035278707365E-4</v>
       </c>
@@ -31129,7 +31321,7 @@
       <c r="C253" s="17">
         <v>146.220001</v>
       </c>
-      <c r="D253" s="155">
+      <c r="D253" s="128">
         <f t="shared" si="12"/>
         <v>-1.4092084338103827E-2</v>
       </c>
@@ -31141,7 +31333,7 @@
       <c r="C254" s="17">
         <v>148.30999800000001</v>
       </c>
-      <c r="D254" s="155">
+      <c r="D254" s="128">
         <f t="shared" si="12"/>
         <v>2.5727934870404034E-2</v>
       </c>
@@ -31153,7 +31345,7 @@
       <c r="C255" s="17">
         <v>144.58999600000001</v>
       </c>
-      <c r="D255" s="155">
+      <c r="D255" s="128">
         <f t="shared" si="12"/>
         <v>3.2195844771618409E-2</v>
       </c>
@@ -31165,7 +31357,7 @@
       <c r="C256" s="17">
         <v>140.08000200000001</v>
       </c>
-      <c r="D256" s="155">
+      <c r="D256" s="128">
         <f t="shared" si="12"/>
         <v>0.11546424406013323</v>
       </c>
@@ -31177,7 +31369,7 @@
       <c r="C257" s="17">
         <v>125.58000199999999</v>
       </c>
-      <c r="D257" s="155">
+      <c r="D257" s="128">
         <f t="shared" si="12"/>
         <v>7.4608903736719245E-3</v>
       </c>
@@ -31189,7 +31381,7 @@
       <c r="C258" s="17">
         <v>124.650002</v>
       </c>
-      <c r="D258" s="155">
+      <c r="D258" s="128">
         <f t="shared" si="12"/>
         <v>-6.1087626585101917E-2</v>
       </c>
@@ -31201,7 +31393,7 @@
       <c r="C259" s="17">
         <v>132.759995</v>
       </c>
-      <c r="D259" s="155">
+      <c r="D259" s="128">
         <f t="shared" ref="D259:D316" si="13">C259/C260-1</f>
         <v>-3.692427115309671E-2</v>
       </c>
@@ -31213,7 +31405,7 @@
       <c r="C260" s="17">
         <v>137.85000600000001</v>
       </c>
-      <c r="D260" s="155">
+      <c r="D260" s="128">
         <f t="shared" si="13"/>
         <v>1.2337578208674316E-2</v>
       </c>
@@ -31225,7 +31417,7 @@
       <c r="C261" s="17">
         <v>136.16999799999999</v>
       </c>
-      <c r="D261" s="155">
+      <c r="D261" s="128">
         <f t="shared" si="13"/>
         <v>-1.5045222423146543E-2</v>
       </c>
@@ -31237,7 +31429,7 @@
       <c r="C262" s="17">
         <v>138.25</v>
       </c>
-      <c r="D262" s="155">
+      <c r="D262" s="128">
         <f t="shared" si="13"/>
         <v>-1.0025020122807815E-2</v>
       </c>
@@ -31249,7 +31441,7 @@
       <c r="C263" s="17">
         <v>139.64999399999999</v>
       </c>
-      <c r="D263" s="155">
+      <c r="D263" s="128">
         <f t="shared" si="13"/>
         <v>-3.6564353982014963E-2</v>
       </c>
@@ -31261,7 +31453,7 @@
       <c r="C264" s="17">
         <v>144.949997</v>
       </c>
-      <c r="D264" s="155">
+      <c r="D264" s="128">
         <f t="shared" si="13"/>
         <v>2.7067185323206067E-2</v>
       </c>
@@ -31273,7 +31465,7 @@
       <c r="C265" s="17">
         <v>141.13000500000001</v>
       </c>
-      <c r="D265" s="155">
+      <c r="D265" s="128">
         <f t="shared" si="13"/>
         <v>1.6786757562246013E-2</v>
       </c>
@@ -31285,7 +31477,7 @@
       <c r="C266" s="17">
         <v>138.800003</v>
       </c>
-      <c r="D266" s="155">
+      <c r="D266" s="128">
         <f t="shared" si="13"/>
         <v>-1.4388273381295003E-3</v>
       </c>
@@ -31297,7 +31489,7 @@
       <c r="C267" s="17">
         <v>139</v>
       </c>
-      <c r="D267" s="155">
+      <c r="D267" s="128">
         <f t="shared" si="13"/>
         <v>-2.0505982087069663E-2</v>
       </c>
@@ -31309,7 +31501,7 @@
       <c r="C268" s="17">
         <v>141.91000399999999</v>
       </c>
-      <c r="D268" s="155">
+      <c r="D268" s="128">
         <f t="shared" si="13"/>
         <v>1.2341354589737952E-2</v>
       </c>
@@ -31321,7 +31513,7 @@
       <c r="C269" s="17">
         <v>140.179993</v>
       </c>
-      <c r="D269" s="155">
+      <c r="D269" s="128">
         <f t="shared" si="13"/>
         <v>1.5797050724637662E-2</v>
       </c>
@@ -31333,7 +31525,7 @@
       <c r="C270" s="17">
         <v>138</v>
       </c>
-      <c r="D270" s="155">
+      <c r="D270" s="128">
         <f t="shared" si="13"/>
         <v>-8.7241231731711943E-2</v>
       </c>
@@ -31345,7 +31537,7 @@
       <c r="C271" s="17">
         <v>151.19000199999999</v>
       </c>
-      <c r="D271" s="155">
+      <c r="D271" s="128">
         <f t="shared" si="13"/>
         <v>1.7977362833898169E-2</v>
       </c>
@@ -31357,7 +31549,7 @@
       <c r="C272" s="17">
         <v>148.520004</v>
       </c>
-      <c r="D272" s="155">
+      <c r="D272" s="128">
         <f t="shared" si="13"/>
         <v>0.10251648936518887</v>
       </c>
@@ -31369,7 +31561,7 @@
       <c r="C273" s="17">
         <v>134.71000699999999</v>
       </c>
-      <c r="D273" s="155">
+      <c r="D273" s="128">
         <f t="shared" si="13"/>
         <v>-1.8220245408193891E-2</v>
       </c>
@@ -31381,7 +31573,7 @@
       <c r="C274" s="17">
         <v>137.21000699999999</v>
       </c>
-      <c r="D274" s="155">
+      <c r="D274" s="128">
         <f t="shared" si="13"/>
         <v>1.8860986394311885E-2</v>
       </c>
@@ -31393,7 +31585,7 @@
       <c r="C275" s="17">
         <v>134.66999799999999</v>
       </c>
-      <c r="D275" s="155">
+      <c r="D275" s="128">
         <f t="shared" si="13"/>
         <v>7.5564414916522438E-3</v>
       </c>
@@ -31405,7 +31597,7 @@
       <c r="C276" s="17">
         <v>133.66000399999999</v>
       </c>
-      <c r="D276" s="155">
+      <c r="D276" s="128">
         <f t="shared" si="13"/>
         <v>0.10902760809063072</v>
       </c>
@@ -31417,7 +31609,7 @@
       <c r="C277" s="17">
         <v>120.519997</v>
       </c>
-      <c r="D277" s="155">
+      <c r="D277" s="128">
         <f t="shared" si="13"/>
         <v>1.6960551565934567E-2</v>
       </c>
@@ -31429,7 +31621,7 @@
       <c r="C278" s="17">
         <v>118.510002</v>
       </c>
-      <c r="D278" s="155">
+      <c r="D278" s="128">
         <f t="shared" si="13"/>
         <v>5.661552936463865E-2</v>
       </c>
@@ -31441,7 +31633,7 @@
       <c r="C279" s="17">
         <v>112.160004</v>
       </c>
-      <c r="D279" s="155">
+      <c r="D279" s="128">
         <f t="shared" si="13"/>
         <v>4.979416135507897E-2</v>
       </c>
@@ -31453,7 +31645,7 @@
       <c r="C280" s="17">
         <v>106.839996</v>
       </c>
-      <c r="D280" s="155">
+      <c r="D280" s="128">
         <f t="shared" si="13"/>
         <v>-0.14990455124124769</v>
       </c>
@@ -31465,7 +31657,7 @@
       <c r="C281" s="17">
         <v>125.68</v>
       </c>
-      <c r="D281" s="155">
+      <c r="D281" s="128">
         <f t="shared" si="13"/>
         <v>-7.1169892412532576E-2</v>
       </c>
@@ -31477,7 +31669,7 @@
       <c r="C282" s="17">
         <v>135.30999800000001</v>
       </c>
-      <c r="D282" s="155">
+      <c r="D282" s="128">
         <f t="shared" si="13"/>
         <v>-7.84577621917526E-3</v>
       </c>
@@ -31489,7 +31681,7 @@
       <c r="C283" s="17">
         <v>136.38000500000001</v>
       </c>
-      <c r="D283" s="155">
+      <c r="D283" s="128">
         <f t="shared" si="13"/>
         <v>5.3859831423852089E-2</v>
       </c>
@@ -31501,7 +31693,7 @@
       <c r="C284" s="17">
         <v>129.41000399999999</v>
       </c>
-      <c r="D284" s="155">
+      <c r="D284" s="128">
         <f t="shared" si="13"/>
         <v>-3.5764866624289793E-2</v>
       </c>
@@ -31513,7 +31705,7 @@
       <c r="C285" s="17">
         <v>134.21000699999999</v>
       </c>
-      <c r="D285" s="155">
+      <c r="D285" s="128">
         <f t="shared" si="13"/>
         <v>-2.7886361406437299E-2</v>
       </c>
@@ -31525,7 +31717,7 @@
       <c r="C286" s="17">
         <v>138.05999800000001</v>
       </c>
-      <c r="D286" s="155">
+      <c r="D286" s="128">
         <f t="shared" si="13"/>
         <v>-6.69117898081939E-3</v>
       </c>
@@ -31537,7 +31729,7 @@
       <c r="C287" s="17">
         <v>138.990005</v>
       </c>
-      <c r="D287" s="155">
+      <c r="D287" s="128">
         <f t="shared" si="13"/>
         <v>-4.9576037692285357E-2</v>
       </c>
@@ -31549,7 +31741,7 @@
       <c r="C288" s="17">
         <v>146.240005</v>
       </c>
-      <c r="D288" s="155">
+      <c r="D288" s="128">
         <f t="shared" si="13"/>
         <v>-1.8062097135799871E-2</v>
       </c>
@@ -31561,7 +31753,7 @@
       <c r="C289" s="17">
         <v>148.929993</v>
       </c>
-      <c r="D289" s="155">
+      <c r="D289" s="128">
         <f t="shared" si="13"/>
         <v>-6.0319336856604955E-2</v>
       </c>
@@ -31573,7 +31765,7 @@
       <c r="C290" s="17">
         <v>158.490005</v>
       </c>
-      <c r="D290" s="155">
+      <c r="D290" s="128">
         <f t="shared" si="13"/>
         <v>-3.5831608594974917E-2</v>
       </c>
@@ -31585,7 +31777,7 @@
       <c r="C291" s="17">
         <v>164.38000500000001</v>
       </c>
-      <c r="D291" s="155">
+      <c r="D291" s="128">
         <f t="shared" si="13"/>
         <v>-9.0969401194830435E-2</v>
       </c>
@@ -31597,7 +31789,7 @@
       <c r="C292" s="17">
         <v>180.83000200000001</v>
       </c>
-      <c r="D292" s="155">
+      <c r="D292" s="128">
         <f t="shared" si="13"/>
         <v>3.3196193961919862E-2</v>
       </c>
@@ -31609,7 +31801,7 @@
       <c r="C293" s="17">
         <v>175.020004</v>
       </c>
-      <c r="D293" s="155">
+      <c r="D293" s="128">
         <f t="shared" si="13"/>
         <v>-3.1057968469856423E-2</v>
       </c>
@@ -31621,7 +31813,7 @@
       <c r="C294" s="17">
         <v>180.63000500000001</v>
       </c>
-      <c r="D294" s="155">
+      <c r="D294" s="128">
         <f t="shared" si="13"/>
         <v>1.5916771384981487E-2</v>
       </c>
@@ -31633,7 +31825,7 @@
       <c r="C295" s="17">
         <v>177.800003</v>
       </c>
-      <c r="D295" s="155">
+      <c r="D295" s="128">
         <f t="shared" si="13"/>
         <v>-6.1840442975085619E-2</v>
       </c>
@@ -31645,7 +31837,7 @@
       <c r="C296" s="17">
         <v>189.520004</v>
       </c>
-      <c r="D296" s="155">
+      <c r="D296" s="128">
         <f t="shared" si="13"/>
         <v>-1.4866415041417724E-2</v>
       </c>
@@ -31657,7 +31849,7 @@
       <c r="C297" s="17">
         <v>192.38000500000001</v>
       </c>
-      <c r="D297" s="155">
+      <c r="D297" s="128">
         <f t="shared" si="13"/>
         <v>2.1287944505174572E-2</v>
       </c>
@@ -31669,7 +31861,7 @@
       <c r="C298" s="17">
         <v>188.36999499999999</v>
       </c>
-      <c r="D298" s="155">
+      <c r="D298" s="128">
         <f t="shared" si="13"/>
         <v>-3.6496509430832269E-3</v>
       </c>
@@ -31681,7 +31873,7 @@
       <c r="C299" s="17">
         <v>189.05999800000001</v>
       </c>
-      <c r="D299" s="155">
+      <c r="D299" s="128">
         <f t="shared" si="13"/>
         <v>7.7264945868945833E-2</v>
       </c>
@@ -31693,7 +31885,7 @@
       <c r="C300" s="17">
         <v>175.5</v>
       </c>
-      <c r="D300" s="155">
+      <c r="D300" s="128">
         <f t="shared" si="13"/>
         <v>-5.7819314804975264E-2</v>
       </c>
@@ -31705,7 +31897,7 @@
       <c r="C301" s="17">
         <v>186.270004</v>
       </c>
-      <c r="D301" s="155">
+      <c r="D301" s="128">
         <f t="shared" si="13"/>
         <v>1.9038301511396183E-2</v>
       </c>
@@ -31717,7 +31909,7 @@
       <c r="C302" s="17">
         <v>182.78999300000001</v>
       </c>
-      <c r="D302" s="155">
+      <c r="D302" s="128">
         <f t="shared" si="13"/>
         <v>-2.360992380070781E-2</v>
       </c>
@@ -31729,7 +31921,7 @@
       <c r="C303" s="17">
         <v>187.21000699999999</v>
       </c>
-      <c r="D303" s="155">
+      <c r="D303" s="128">
         <f t="shared" si="13"/>
         <v>6.5509449041140311E-2</v>
       </c>
@@ -31741,7 +31933,7 @@
       <c r="C304" s="17">
         <v>175.699997</v>
       </c>
-      <c r="D304" s="155">
+      <c r="D304" s="128">
         <f t="shared" si="13"/>
         <v>4.4341368154381611E-2</v>
       </c>
@@ -31753,7 +31945,7 @@
       <c r="C305" s="17">
         <v>168.240005</v>
       </c>
-      <c r="D305" s="155">
+      <c r="D305" s="128">
         <f t="shared" si="13"/>
         <v>-7.0188995576555779E-2</v>
       </c>
@@ -31765,7 +31957,7 @@
       <c r="C306" s="17">
         <v>180.94000199999999</v>
       </c>
-      <c r="D306" s="155">
+      <c r="D306" s="128">
         <f t="shared" si="13"/>
         <v>3.3824693547601425E-2</v>
       </c>
@@ -31777,7 +31969,7 @@
       <c r="C307" s="17">
         <v>175.020004</v>
       </c>
-      <c r="D307" s="155">
+      <c r="D307" s="128">
         <f t="shared" si="13"/>
         <v>2.0643853992158956E-2</v>
       </c>
@@ -31789,7 +31981,7 @@
       <c r="C308" s="17">
         <v>171.479996</v>
       </c>
-      <c r="D308" s="155">
+      <c r="D308" s="128">
         <f t="shared" si="13"/>
         <v>7.6865050337068253E-2</v>
       </c>
@@ -31801,7 +31993,7 @@
       <c r="C309" s="17">
         <v>159.240005</v>
       </c>
-      <c r="D309" s="155">
+      <c r="D309" s="128">
         <f t="shared" si="13"/>
         <v>1.6858230516287431E-2</v>
       </c>
@@ -31813,7 +32005,7 @@
       <c r="C310" s="17">
         <v>156.60000600000001</v>
       </c>
-      <c r="D310" s="155">
+      <c r="D310" s="128">
         <f t="shared" si="13"/>
         <v>3.8461557590287354E-2</v>
       </c>
@@ -31825,7 +32017,7 @@
       <c r="C311" s="17">
         <v>150.800003</v>
       </c>
-      <c r="D311" s="155">
+      <c r="D311" s="128">
         <f t="shared" si="13"/>
         <v>-3.8081270955379942E-2</v>
       </c>
@@ -31837,7 +32029,7 @@
       <c r="C312" s="17">
         <v>156.770004</v>
       </c>
-      <c r="D312" s="155">
+      <c r="D312" s="128">
         <f t="shared" si="13"/>
         <v>1.6271289260705535E-2</v>
       </c>
@@ -31849,7 +32041,7 @@
       <c r="C313" s="17">
         <v>154.259995</v>
       </c>
-      <c r="D313" s="155">
+      <c r="D313" s="128">
         <f t="shared" si="13"/>
         <v>-3.575447645341856E-2</v>
       </c>
@@ -31861,7 +32053,7 @@
       <c r="C314" s="17">
         <v>159.979996</v>
       </c>
-      <c r="D314" s="155">
+      <c r="D314" s="128">
         <f t="shared" si="13"/>
         <v>9.6560367874289899E-3</v>
       </c>
@@ -31873,7 +32065,7 @@
       <c r="C315" s="17">
         <v>158.449997</v>
       </c>
-      <c r="D315" s="155">
+      <c r="D315" s="128">
         <f t="shared" si="13"/>
         <v>6.3422798657718049E-2</v>
       </c>
@@ -31885,7 +32077,7 @@
       <c r="C316" s="17">
         <v>149</v>
       </c>
-      <c r="D316" s="155">
+      <c r="D316" s="128">
         <f t="shared" si="13"/>
         <v>7.3012575351711906E-3</v>
       </c>

--- a/SPOT.xlsx
+++ b/SPOT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE48C94-AC9B-46C2-A27C-DEF1B0E7C168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8A4B77-A4F8-4D1C-90A2-B50FBC6DC435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -21,16 +21,16 @@
     <sheet name="DoR" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$10:$X$10</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$2:$X$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$9:$X$9</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$21</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$22</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$21:$X$21</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$22:$X$22</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$21</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$22</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$L$21:$X$21</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$L$22:$X$22</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$10</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$9</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$L$10:$X$10</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$L$2:$X$2</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Model!$L$9:$X$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1579,7 +1579,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1742,6 +1742,15 @@
     <xf numFmtId="165" fontId="12" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1799,29 +1808,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="2" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2627,40 +2613,40 @@
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>Less than -18,67%</c:v>
+                  <c:v>Less than -18,70%</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-18,67% to -14,86%</c:v>
+                  <c:v>-18,70% to -14,88%</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-14,86% to -11,04%</c:v>
+                  <c:v>-14,88% to -11,06%</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-11,04% to -7,22%</c:v>
+                  <c:v>-11,06% to -7,24%</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-7,22% to -3,40%</c:v>
+                  <c:v>-7,24% to -3,42%</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3,40% to 0,41%</c:v>
+                  <c:v>-3,42% to 0,40%</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0,41% to 4,23%</c:v>
+                  <c:v>0,40% to 4,22%</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4,23% to 8,05%</c:v>
+                  <c:v>4,22% to 8,04%</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8,05% to 11,87%</c:v>
+                  <c:v>8,04% to 11,86%</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11,87% to 15,68%</c:v>
+                  <c:v>11,86% to 15,69%</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15,68% to 19,50%</c:v>
+                  <c:v>15,69% to 19,51%</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Greater than 19,50%</c:v>
+                  <c:v>Greater than 19,51%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2681,16 +2667,16 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>47</c:v>
@@ -9442,18 +9428,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -9497,7 +9483,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -9517,7 +9503,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -9548,18 +9534,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -9603,7 +9589,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -9623,7 +9609,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -17174,7 +17160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
@@ -17452,9 +17438,9 @@
       <c r="E17" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="128"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="130"/>
+      <c r="L17" s="133"/>
+      <c r="M17" s="134"/>
+      <c r="N17" s="135"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -17467,9 +17453,9 @@
       <c r="E18" t="s">
         <v>135</v>
       </c>
-      <c r="L18" s="131"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="133"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="138"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -17482,9 +17468,9 @@
       <c r="E19" t="s">
         <v>136</v>
       </c>
-      <c r="L19" s="131"/>
-      <c r="M19" s="132"/>
-      <c r="N19" s="133"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="138"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -17494,9 +17480,9 @@
         <f>Model!H10/Model!G9-1</f>
         <v>0.25009436098739335</v>
       </c>
-      <c r="L20" s="131"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="133"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="138"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -17506,9 +17492,9 @@
         <f>Model!I10/Model!H10-1</f>
         <v>0.1376811594202898</v>
       </c>
-      <c r="L21" s="131"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="133"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="138"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -17518,9 +17504,9 @@
         <f>Model!G15</f>
         <v>-446</v>
       </c>
-      <c r="L22" s="131"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="133"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="138"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -17530,9 +17516,9 @@
         <f>Model!G17</f>
         <v>-505</v>
       </c>
-      <c r="L23" s="131"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="133"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="137"/>
+      <c r="N23" s="138"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -17542,9 +17528,9 @@
         <f>Model!X23</f>
         <v>0.27612761276127618</v>
       </c>
-      <c r="L24" s="131"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="133"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="137"/>
+      <c r="N24" s="138"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -17554,9 +17540,9 @@
         <f>Model!X24</f>
         <v>5.4180418041804179E-2</v>
       </c>
-      <c r="L25" s="131"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="133"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="138"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -17566,9 +17552,9 @@
         <f>C12/C23</f>
         <v>-115.67957386138615</v>
       </c>
-      <c r="L26" s="131"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="133"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="137"/>
+      <c r="N26" s="138"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
@@ -17581,9 +17567,9 @@
       <c r="E27" t="s">
         <v>75</v>
       </c>
-      <c r="L27" s="131"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="133"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="137"/>
+      <c r="N27" s="138"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -17592,9 +17578,9 @@
       <c r="C28" s="36">
         <v>0</v>
       </c>
-      <c r="L28" s="134"/>
-      <c r="M28" s="135"/>
-      <c r="N28" s="136"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="140"/>
+      <c r="N28" s="141"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
@@ -17782,7 +17768,6 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="13"/>
-    <col min="23" max="23" width="11.42578125" style="148"/>
     <col min="24" max="24" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
@@ -17846,7 +17831,7 @@
       <c r="V2" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="148" t="s">
+      <c r="W2" t="s">
         <v>41</v>
       </c>
       <c r="X2" s="13" t="s">
@@ -17866,11 +17851,11 @@
       <c r="B3" t="s">
         <v>135</v>
       </c>
-      <c r="E3" s="148">
+      <c r="E3">
         <f>AVERAGE(L3:O3)</f>
         <v>377</v>
       </c>
-      <c r="F3" s="148">
+      <c r="F3">
         <f>AVERAGE(P3:S3)</f>
         <v>450</v>
       </c>
@@ -17911,13 +17896,13 @@
       <c r="V3">
         <v>574</v>
       </c>
-      <c r="W3" s="148">
+      <c r="W3">
         <v>602</v>
       </c>
-      <c r="X3" s="158">
+      <c r="X3" s="13">
         <v>615</v>
       </c>
-      <c r="Y3" s="149">
+      <c r="Y3" s="9">
         <v>631</v>
       </c>
     </row>
@@ -17928,11 +17913,11 @@
       <c r="B4" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="148">
+      <c r="E4">
         <f>AVERAGE(L4:O4)</f>
         <v>168.75</v>
       </c>
-      <c r="F4" s="148">
+      <c r="F4">
         <f>AVERAGE(P4:S4)</f>
         <v>192.5</v>
       </c>
@@ -17973,13 +17958,13 @@
       <c r="V4">
         <v>226</v>
       </c>
-      <c r="W4" s="148">
+      <c r="W4">
         <v>236</v>
       </c>
-      <c r="X4" s="158">
+      <c r="X4" s="13">
         <v>239</v>
       </c>
-      <c r="Y4" s="149">
+      <c r="Y4" s="9">
         <v>245</v>
       </c>
     </row>
@@ -17990,11 +17975,11 @@
       <c r="B5" t="s">
         <v>139</v>
       </c>
-      <c r="E5" s="148">
+      <c r="E5">
         <f>AVERAGE(L5:O5)</f>
         <v>218.5</v>
       </c>
-      <c r="F5" s="148">
+      <c r="F5">
         <f>AVERAGE(P5:S5)</f>
         <v>269</v>
       </c>
@@ -18035,10 +18020,10 @@
       <c r="V5">
         <v>361</v>
       </c>
-      <c r="W5" s="148">
+      <c r="W5">
         <v>379</v>
       </c>
-      <c r="X5" s="158">
+      <c r="X5" s="13">
         <v>388</v>
       </c>
       <c r="Y5" s="9">
@@ -18090,10 +18075,10 @@
       <c r="V7" s="10">
         <v>2910</v>
       </c>
-      <c r="W7" s="152">
+      <c r="W7" s="10">
         <v>3170</v>
       </c>
-      <c r="X7" s="159">
+      <c r="X7" s="15">
         <v>3247</v>
       </c>
       <c r="Y7" s="9"/>
@@ -18139,10 +18124,10 @@
       <c r="V8" s="10">
         <v>447</v>
       </c>
-      <c r="W8" s="152">
+      <c r="W8" s="10">
         <v>501</v>
       </c>
-      <c r="X8" s="159">
+      <c r="X8" s="15">
         <v>389</v>
       </c>
       <c r="Y8" s="9"/>
@@ -18217,7 +18202,7 @@
         <f t="shared" si="0"/>
         <v>3357</v>
       </c>
-      <c r="W9" s="153">
+      <c r="W9" s="11">
         <f t="shared" si="0"/>
         <v>3671</v>
       </c>
@@ -18225,7 +18210,7 @@
         <f t="shared" si="0"/>
         <v>3636</v>
       </c>
-      <c r="Y9" s="150">
+      <c r="Y9" s="128">
         <v>3800</v>
       </c>
     </row>
@@ -18255,7 +18240,7 @@
       <c r="T10" s="40"/>
       <c r="U10" s="40"/>
       <c r="V10" s="40"/>
-      <c r="W10" s="152"/>
+      <c r="W10" s="10"/>
       <c r="X10" s="15"/>
       <c r="Y10" s="40">
         <v>3800</v>
@@ -18315,7 +18300,7 @@
       <c r="V11" s="10">
         <v>2472</v>
       </c>
-      <c r="W11" s="152">
+      <c r="W11" s="10">
         <v>2691</v>
       </c>
       <c r="X11" s="15">
@@ -18377,7 +18362,7 @@
       <c r="V12" s="10">
         <v>369</v>
       </c>
-      <c r="W12" s="152">
+      <c r="W12" s="10">
         <v>468</v>
       </c>
       <c r="X12" s="13">
@@ -18439,7 +18424,7 @@
       <c r="V13" s="10">
         <v>355</v>
       </c>
-      <c r="W13" s="152">
+      <c r="W13" s="10">
         <v>432</v>
       </c>
       <c r="X13" s="13">
@@ -18501,7 +18486,7 @@
       <c r="V14" s="10">
         <v>129</v>
       </c>
-      <c r="W14" s="152">
+      <c r="W14" s="10">
         <v>155</v>
       </c>
       <c r="X14" s="13">
@@ -18587,11 +18572,11 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="W15" s="153">
+      <c r="W15" s="11">
         <f t="shared" si="2"/>
         <v>-75</v>
       </c>
-      <c r="X15" s="163">
+      <c r="X15" s="132">
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
@@ -18670,7 +18655,7 @@
         <f>55-14</f>
         <v>41</v>
       </c>
-      <c r="W16" s="152">
+      <c r="W16" s="10">
         <f>46-102</f>
         <v>-56</v>
       </c>
@@ -18756,7 +18741,7 @@
         <f t="shared" si="4"/>
         <v>73</v>
       </c>
-      <c r="W17" s="153">
+      <c r="W17" s="11">
         <f t="shared" si="4"/>
         <v>-131</v>
       </c>
@@ -18823,7 +18808,7 @@
       <c r="V18" s="10">
         <v>8</v>
       </c>
-      <c r="W18" s="152">
+      <c r="W18" s="10">
         <v>-61</v>
       </c>
       <c r="X18" s="13">
@@ -18901,7 +18886,7 @@
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="W19" s="153">
+      <c r="W19" s="11">
         <f t="shared" si="5"/>
         <v>-70</v>
       </c>
@@ -18968,7 +18953,7 @@
       <c r="V20" s="10">
         <v>194.88172299999999</v>
       </c>
-      <c r="W20" s="152">
+      <c r="W20" s="10">
         <v>196.03608</v>
       </c>
       <c r="X20" s="15">
@@ -19046,7 +19031,7 @@
         <f t="shared" si="6"/>
         <v>0.33353563894752719</v>
       </c>
-      <c r="W21" s="154">
+      <c r="W21" s="50">
         <f>W19/W20</f>
         <v>-0.35707712580255635</v>
       </c>
@@ -19054,7 +19039,7 @@
         <f>X19/X20</f>
         <v>0.99482159505796064</v>
       </c>
-      <c r="Y21" s="151"/>
+      <c r="Y21" s="129"/>
     </row>
     <row r="22" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
@@ -19082,11 +19067,11 @@
       <c r="T22" s="51"/>
       <c r="U22" s="51"/>
       <c r="V22" s="51"/>
-      <c r="W22" s="154"/>
-      <c r="X22" s="160">
+      <c r="W22" s="50"/>
+      <c r="X22" s="130">
         <v>0.73</v>
       </c>
-      <c r="Y22" s="151">
+      <c r="Y22" s="129">
         <v>0.81</v>
       </c>
     </row>
@@ -19168,7 +19153,7 @@
         <f t="shared" si="7"/>
         <v>0.27612761276127618</v>
       </c>
-      <c r="Y23" s="150"/>
+      <c r="Y23" s="128"/>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -19246,7 +19231,7 @@
         <f t="shared" si="8"/>
         <v>1.9362526064938934E-2</v>
       </c>
-      <c r="W24" s="155">
+      <c r="W24" s="4">
         <f t="shared" si="8"/>
         <v>-1.9068373740125308E-2</v>
       </c>
@@ -19317,11 +19302,11 @@
         <f t="shared" si="9"/>
         <v>0.10573122529644263</v>
       </c>
-      <c r="W25" s="155">
+      <c r="W25" s="4">
         <f t="shared" si="9"/>
         <v>0.15950726468730259</v>
       </c>
-      <c r="X25" s="161">
+      <c r="X25" s="7">
         <f>X9/T9-1</f>
         <v>0.19526627218934922</v>
       </c>
@@ -19329,7 +19314,7 @@
         <f>Y10/U9-1</f>
         <v>0.1960969468051621</v>
       </c>
-      <c r="Z25" s="162"/>
+      <c r="Z25" s="131"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -19401,7 +19386,7 @@
         <f t="shared" si="10"/>
         <v>0.10991957104557641</v>
       </c>
-      <c r="W26" s="155">
+      <c r="W26" s="4">
         <f t="shared" si="10"/>
         <v>0.1274856987196949</v>
       </c>
@@ -19438,7 +19423,7 @@
       <c r="H27" s="124"/>
       <c r="I27" s="124"/>
       <c r="L27" s="4">
-        <f t="shared" ref="L27:X27" si="11">L13/L9</f>
+        <f t="shared" ref="L27:W27" si="11">L13/L9</f>
         <v>0.10992081974848626</v>
       </c>
       <c r="M27" s="4">
@@ -19481,7 +19466,7 @@
         <f t="shared" si="11"/>
         <v>0.10574918081620495</v>
       </c>
-      <c r="W27" s="155">
+      <c r="W27" s="4">
         <f t="shared" si="11"/>
         <v>0.1176791065104876</v>
       </c>
@@ -19561,7 +19546,7 @@
         <f>V14/V9</f>
         <v>3.8427167113494191E-2</v>
       </c>
-      <c r="W28" s="155">
+      <c r="W28" s="4">
         <f>W14/W9</f>
         <v>4.2222827567420324E-2</v>
       </c>
@@ -19623,7 +19608,7 @@
         <f t="shared" si="15"/>
         <v>9.7698981516408878E-2</v>
       </c>
-      <c r="W29" s="155">
+      <c r="W29" s="4">
         <f>W7/S7-1</f>
         <v>0.1667280088332721</v>
       </c>
@@ -19685,7 +19670,7 @@
         <f t="shared" si="16"/>
         <v>0.16103896103896109</v>
       </c>
-      <c r="W30" s="155">
+      <c r="W30" s="4">
         <f>W8/S8-1</f>
         <v>0.11581291759465473</v>
       </c>
@@ -19729,7 +19714,7 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4">
-        <f t="shared" ref="P31:X31" si="17">P19/L19-1</f>
+        <f t="shared" ref="P31:T31" si="17">P19/L19-1</f>
         <v>4.6956521739130439</v>
       </c>
       <c r="Q31" s="4">
@@ -19755,7 +19740,7 @@
       <c r="V31" s="4">
         <v>1</v>
       </c>
-      <c r="W31" s="155">
+      <c r="W31" s="4">
         <f>W19/S19-1</f>
         <v>-0.7407407407407407</v>
       </c>
@@ -19783,7 +19768,7 @@
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
-      <c r="W32" s="155"/>
+      <c r="W32" s="4"/>
       <c r="X32" s="7"/>
       <c r="Y32" s="9"/>
     </row>
@@ -19793,8 +19778,8 @@
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
       <c r="G33" s="52"/>
       <c r="H33" s="57"/>
       <c r="I33" s="57"/>
@@ -19803,7 +19788,7 @@
         <v>0.26618332470222683</v>
       </c>
       <c r="M33" s="18">
-        <f t="shared" ref="L33:O33" si="18">SUM(M3:M4)/M7</f>
+        <f t="shared" ref="M33:O33" si="18">SUM(M3:M4)/M7</f>
         <v>0.25778210116731515</v>
       </c>
       <c r="N33" s="18">
@@ -19842,7 +19827,7 @@
         <f t="shared" si="19"/>
         <v>0.27491408934707906</v>
       </c>
-      <c r="W33" s="147">
+      <c r="W33" s="18">
         <f>SUM(W3:W4)/W7</f>
         <v>0.26435331230283909</v>
       </c>
@@ -19857,8 +19842,8 @@
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
       <c r="G34" s="52"/>
       <c r="H34" s="57"/>
       <c r="I34" s="57"/>
@@ -19867,7 +19852,7 @@
         <v>1.0384615384615385</v>
       </c>
       <c r="M34" s="18">
-        <f t="shared" ref="L34:O34" si="20">M8/M5</f>
+        <f t="shared" ref="M34:O34" si="20">M8/M5</f>
         <v>1.3095238095238095</v>
       </c>
       <c r="N34" s="18">
@@ -19906,7 +19891,7 @@
         <f t="shared" si="21"/>
         <v>1.2382271468144044</v>
       </c>
-      <c r="W34" s="147">
+      <c r="W34" s="18">
         <f>W8/W5</f>
         <v>1.3218997361477574</v>
       </c>
@@ -19923,11 +19908,11 @@
       <c r="D35" s="3"/>
       <c r="E35" s="39"/>
       <c r="F35" s="39">
-        <f>F3/E3-1</f>
+        <f t="shared" ref="F35:G37" si="22">F3/E3-1</f>
         <v>0.19363395225464197</v>
       </c>
       <c r="G35" s="6">
-        <f>G3/F3-1</f>
+        <f t="shared" si="22"/>
         <v>0.24555555555555553</v>
       </c>
       <c r="H35" s="57"/>
@@ -19941,35 +19926,35 @@
         <v>0.18539325842696619</v>
       </c>
       <c r="Q35" s="39">
-        <f t="shared" ref="Q35:U35" si="22">Q3/M3-1</f>
+        <f t="shared" ref="Q35:U35" si="23">Q3/M3-1</f>
         <v>0.1863013698630136</v>
       </c>
       <c r="R35" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.1968503937007875</v>
       </c>
       <c r="S35" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.20443349753694573</v>
       </c>
       <c r="T35" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.22037914691943139</v>
       </c>
       <c r="U35" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.27251732101616621</v>
       </c>
       <c r="V35" s="39">
-        <f>V3/R3-1</f>
+        <f t="shared" ref="V35:X37" si="24">V3/R3-1</f>
         <v>0.25877192982456143</v>
       </c>
       <c r="W35" s="39">
-        <f>W3/S3-1</f>
+        <f t="shared" si="24"/>
         <v>0.23108384458077702</v>
       </c>
       <c r="X35" s="6">
-        <f>X3/T3-1</f>
+        <f t="shared" si="24"/>
         <v>0.19417475728155331</v>
       </c>
     </row>
@@ -19981,11 +19966,11 @@
       <c r="D36" s="3"/>
       <c r="E36" s="39"/>
       <c r="F36" s="39">
-        <f>F4/E4-1</f>
+        <f t="shared" si="22"/>
         <v>0.14074074074074083</v>
       </c>
       <c r="G36" s="6">
-        <f>G4/F4-1</f>
+        <f t="shared" si="22"/>
         <v>0.15844155844155838</v>
       </c>
       <c r="H36" s="57"/>
@@ -19999,35 +19984,35 @@
         <v>0.15189873417721511</v>
       </c>
       <c r="Q36" s="39">
-        <f t="shared" ref="Q36:U36" si="23">Q4/M4-1</f>
+        <f t="shared" ref="Q36:U36" si="25">Q4/M4-1</f>
         <v>0.1393939393939394</v>
       </c>
       <c r="R36" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.13372093023255816</v>
       </c>
       <c r="S36" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.13888888888888884</v>
       </c>
       <c r="T36" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.15384615384615374</v>
       </c>
       <c r="U36" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0.17021276595744683</v>
       </c>
       <c r="V36" s="39">
-        <f>V4/R4-1</f>
+        <f t="shared" si="24"/>
         <v>0.15897435897435908</v>
       </c>
       <c r="W36" s="39">
-        <f>W4/S4-1</f>
+        <f t="shared" si="24"/>
         <v>0.15121951219512186</v>
       </c>
       <c r="X36" s="6">
-        <f>X4/T4-1</f>
+        <f t="shared" si="24"/>
         <v>0.13809523809523805</v>
       </c>
     </row>
@@ -20039,11 +20024,11 @@
       <c r="D37" s="3"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39">
-        <f>F5/E5-1</f>
+        <f t="shared" si="22"/>
         <v>0.23112128146453093</v>
       </c>
       <c r="G37" s="6">
-        <f>G5/F5-1</f>
+        <f t="shared" si="22"/>
         <v>0.3011152416356877</v>
       </c>
       <c r="H37" s="57"/>
@@ -20057,35 +20042,35 @@
         <v>0.21153846153846145</v>
       </c>
       <c r="Q37" s="39">
-        <f t="shared" ref="Q37:U37" si="24">Q5/M5-1</f>
+        <f t="shared" ref="Q37:U37" si="26">Q5/M5-1</f>
         <v>0.21904761904761916</v>
       </c>
       <c r="R37" s="39">
+        <f t="shared" si="26"/>
+        <v>0.24090909090909096</v>
+      </c>
+      <c r="S37" s="39">
+        <f t="shared" si="26"/>
+        <v>0.25</v>
+      </c>
+      <c r="T37" s="39">
+        <f t="shared" si="26"/>
+        <v>0.25793650793650791</v>
+      </c>
+      <c r="U37" s="39">
+        <f t="shared" si="26"/>
+        <v>0.33984375</v>
+      </c>
+      <c r="V37" s="39">
         <f t="shared" si="24"/>
-        <v>0.24090909090909096</v>
-      </c>
-      <c r="S37" s="39">
+        <v>0.32234432234432231</v>
+      </c>
+      <c r="W37" s="39">
         <f t="shared" si="24"/>
-        <v>0.25</v>
-      </c>
-      <c r="T37" s="39">
+        <v>0.28474576271186436</v>
+      </c>
+      <c r="X37" s="6">
         <f t="shared" si="24"/>
-        <v>0.25793650793650791</v>
-      </c>
-      <c r="U37" s="39">
-        <f t="shared" si="24"/>
-        <v>0.33984375</v>
-      </c>
-      <c r="V37" s="39">
-        <f>V5/R5-1</f>
-        <v>0.32234432234432231</v>
-      </c>
-      <c r="W37" s="39">
-        <f>W5/S5-1</f>
-        <v>0.28474576271186436</v>
-      </c>
-      <c r="X37" s="6">
-        <f>X5/T5-1</f>
         <v>0.22397476340694</v>
       </c>
       <c r="Y37" s="4">
@@ -20111,83 +20096,83 @@
       <c r="T38" s="18"/>
       <c r="U38" s="18"/>
       <c r="V38" s="18"/>
-      <c r="W38" s="147"/>
+      <c r="W38" s="18"/>
       <c r="X38" s="52"/>
     </row>
     <row r="41" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="153">
-        <f t="shared" ref="C41:G41" si="25">C42+C43-C56-C63</f>
+      <c r="C41" s="11">
+        <f t="shared" ref="C41:G41" si="27">C42+C43-C56-C63</f>
         <v>0</v>
       </c>
-      <c r="D41" s="153">
-        <f t="shared" si="25"/>
+      <c r="D41" s="11">
+        <f t="shared" si="27"/>
         <v>1109</v>
       </c>
-      <c r="E41" s="153">
-        <f t="shared" si="25"/>
+      <c r="E41" s="11">
+        <f t="shared" si="27"/>
         <v>1505</v>
       </c>
-      <c r="F41" s="153">
-        <f t="shared" si="25"/>
+      <c r="F41" s="11">
+        <f t="shared" si="27"/>
         <v>1377</v>
       </c>
       <c r="G41" s="14">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>2033</v>
       </c>
-      <c r="L41" s="153">
-        <f t="shared" ref="L41:S41" si="26">L42+L43-L56-L63</f>
+      <c r="L41" s="11">
+        <f t="shared" ref="L41:S41" si="28">L42+L43-L56-L63</f>
         <v>0</v>
       </c>
-      <c r="M41" s="153">
-        <f t="shared" si="26"/>
+      <c r="M41" s="11">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="N41" s="153">
-        <f t="shared" si="26"/>
+      <c r="N41" s="11">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="O41" s="153">
-        <f t="shared" si="26"/>
+      <c r="O41" s="11">
+        <f t="shared" si="28"/>
         <v>1505</v>
       </c>
-      <c r="P41" s="153">
-        <f t="shared" si="26"/>
+      <c r="P41" s="11">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="Q41" s="153">
-        <f t="shared" si="26"/>
+      <c r="Q41" s="11">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="R41" s="153">
-        <f t="shared" si="26"/>
+      <c r="R41" s="11">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="S41" s="153">
-        <f t="shared" si="26"/>
+      <c r="S41" s="11">
+        <f t="shared" si="28"/>
         <v>1377</v>
       </c>
-      <c r="T41" s="153">
-        <f t="shared" ref="T41:X41" si="27">T42+T43-T56-T63</f>
+      <c r="T41" s="11">
+        <f t="shared" ref="T41:X41" si="29">T42+T43-T56-T63</f>
         <v>1432</v>
       </c>
-      <c r="U41" s="153">
-        <f t="shared" si="27"/>
+      <c r="U41" s="11">
+        <f t="shared" si="29"/>
         <v>1356</v>
       </c>
-      <c r="V41" s="153">
-        <f t="shared" si="27"/>
+      <c r="V41" s="11">
+        <f t="shared" si="29"/>
         <v>1561</v>
       </c>
-      <c r="W41" s="153">
+      <c r="W41" s="11">
         <f>W42+W43-W56-W63</f>
         <v>2033</v>
       </c>
       <c r="X41" s="14">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>2353</v>
       </c>
     </row>
@@ -20231,7 +20216,7 @@
       <c r="V42" s="10">
         <v>2618</v>
       </c>
-      <c r="W42" s="152">
+      <c r="W42" s="10">
         <f>G42</f>
         <v>3114</v>
       </c>
@@ -20260,14 +20245,14 @@
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="10">
-        <f t="shared" ref="O43:O67" si="28">E43</f>
+        <f t="shared" ref="O43:O67" si="30">E43</f>
         <v>756</v>
       </c>
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
       <c r="S43" s="10">
-        <f t="shared" ref="S43:S67" si="29">F43</f>
+        <f t="shared" ref="S43:S67" si="31">F43</f>
         <v>867</v>
       </c>
       <c r="T43" s="10">
@@ -20279,8 +20264,8 @@
       <c r="V43" s="10">
         <v>1097</v>
       </c>
-      <c r="W43" s="152">
-        <f t="shared" ref="W43:W67" si="30">G43</f>
+      <c r="W43" s="10">
+        <f t="shared" ref="W43:W67" si="32">G43</f>
         <v>1100</v>
       </c>
       <c r="X43" s="15">
@@ -20308,14 +20293,14 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
       <c r="S44" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="T44" s="10">
@@ -20327,8 +20312,8 @@
       <c r="V44" s="10">
         <v>8</v>
       </c>
-      <c r="W44" s="152">
-        <f t="shared" si="30"/>
+      <c r="W44" s="10">
+        <f t="shared" si="32"/>
         <v>20</v>
       </c>
       <c r="X44" s="15">
@@ -20356,14 +20341,14 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>621</v>
       </c>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
       <c r="S45" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>690</v>
       </c>
       <c r="T45" s="10">
@@ -20375,8 +20360,8 @@
       <c r="V45" s="10">
         <v>747</v>
       </c>
-      <c r="W45" s="152">
-        <f t="shared" si="30"/>
+      <c r="W45" s="10">
+        <f t="shared" si="32"/>
         <v>858</v>
       </c>
       <c r="X45" s="15">
@@ -20404,14 +20389,14 @@
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
       <c r="O46" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>246</v>
       </c>
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
       <c r="S46" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>307</v>
       </c>
       <c r="T46" s="10">
@@ -20423,8 +20408,8 @@
       <c r="V46" s="10">
         <v>225</v>
       </c>
-      <c r="W46" s="152">
-        <f t="shared" si="30"/>
+      <c r="W46" s="10">
+        <f t="shared" si="32"/>
         <v>168</v>
       </c>
       <c r="X46" s="15">
@@ -20456,55 +20441,55 @@
         <v>5260</v>
       </c>
       <c r="L47" s="11">
-        <f t="shared" ref="L47:W47" si="31">SUM(L42:L46)</f>
+        <f t="shared" ref="L47:W47" si="33">SUM(L42:L46)</f>
         <v>0</v>
       </c>
       <c r="M47" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="N47" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="O47" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4372</v>
       </c>
       <c r="P47" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q47" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="R47" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S47" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4352</v>
       </c>
       <c r="T47" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4293</v>
       </c>
       <c r="U47" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4329</v>
       </c>
       <c r="V47" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>4695</v>
       </c>
-      <c r="W47" s="153">
-        <f t="shared" si="31"/>
+      <c r="W47" s="11">
+        <f t="shared" si="33"/>
         <v>5260</v>
       </c>
       <c r="X47" s="14">
-        <f t="shared" ref="X47" si="32">SUM(X42:X46)</f>
+        <f t="shared" ref="X47" si="34">SUM(X42:X46)</f>
         <v>5644</v>
       </c>
     </row>
@@ -20529,14 +20514,14 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>437</v>
       </c>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
       <c r="S48" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>417</v>
       </c>
       <c r="T48" s="10">
@@ -20548,8 +20533,8 @@
       <c r="V48" s="10">
         <v>343</v>
       </c>
-      <c r="W48" s="152">
-        <f t="shared" si="30"/>
+      <c r="W48" s="10">
+        <f t="shared" si="32"/>
         <v>300</v>
       </c>
       <c r="X48" s="15">
@@ -20577,14 +20562,14 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>372</v>
       </c>
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
       <c r="S49" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>348</v>
       </c>
       <c r="T49" s="10">
@@ -20596,8 +20581,8 @@
       <c r="V49" s="10">
         <v>275</v>
       </c>
-      <c r="W49" s="152">
-        <f t="shared" si="30"/>
+      <c r="W49" s="10">
+        <f t="shared" si="32"/>
         <v>247</v>
       </c>
       <c r="X49" s="15">
@@ -20625,14 +20610,14 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>894</v>
       </c>
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
       <c r="S50" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1168</v>
       </c>
       <c r="T50" s="10">
@@ -20644,8 +20629,8 @@
       <c r="V50" s="10">
         <v>1180</v>
       </c>
-      <c r="W50" s="152">
-        <f t="shared" si="30"/>
+      <c r="W50" s="10">
+        <f t="shared" si="32"/>
         <v>1137</v>
       </c>
       <c r="X50" s="15">
@@ -20673,14 +20658,14 @@
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
       <c r="O51" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>89</v>
       </c>
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
       <c r="S51" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>127</v>
       </c>
       <c r="T51" s="10">
@@ -20692,8 +20677,8 @@
       <c r="V51" s="10">
         <v>98</v>
       </c>
-      <c r="W51" s="152">
-        <f t="shared" si="30"/>
+      <c r="W51" s="10">
+        <f t="shared" si="32"/>
         <v>84</v>
       </c>
       <c r="X51" s="15">
@@ -20721,14 +20706,14 @@
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
       <c r="O52" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>916</v>
       </c>
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
       <c r="S52" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1138</v>
       </c>
       <c r="T52" s="10">
@@ -20740,8 +20725,8 @@
       <c r="V52" s="10">
         <v>903</v>
       </c>
-      <c r="W52" s="152">
-        <f t="shared" si="30"/>
+      <c r="W52" s="10">
+        <f t="shared" si="32"/>
         <v>1215</v>
       </c>
       <c r="X52" s="15">
@@ -20769,14 +20754,14 @@
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
       <c r="O53" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>77</v>
       </c>
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
       <c r="S53" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>78</v>
       </c>
       <c r="T53" s="10">
@@ -20788,8 +20773,8 @@
       <c r="V53" s="10">
         <v>75</v>
       </c>
-      <c r="W53" s="152">
-        <f t="shared" si="30"/>
+      <c r="W53" s="10">
+        <f t="shared" si="32"/>
         <v>75</v>
       </c>
       <c r="X53" s="15">
@@ -20818,14 +20803,14 @@
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
       <c r="O54" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>13</v>
       </c>
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
       <c r="S54" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>8</v>
       </c>
       <c r="T54" s="10">
@@ -20837,8 +20822,8 @@
       <c r="V54" s="10">
         <v>23</v>
       </c>
-      <c r="W54" s="152">
-        <f t="shared" si="30"/>
+      <c r="W54" s="10">
+        <f t="shared" si="32"/>
         <v>28</v>
       </c>
       <c r="X54" s="15">
@@ -20870,55 +20855,55 @@
         <v>8346</v>
       </c>
       <c r="L55" s="11">
-        <f t="shared" ref="L55:W55" si="33">SUM(L47:L54)</f>
+        <f t="shared" ref="L55:W55" si="35">SUM(L47:L54)</f>
         <v>0</v>
       </c>
       <c r="M55" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="N55" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O55" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7170</v>
       </c>
       <c r="P55" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Q55" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="R55" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="S55" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7636</v>
       </c>
       <c r="T55" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7529</v>
       </c>
       <c r="U55" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7312</v>
       </c>
       <c r="V55" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>7592</v>
       </c>
-      <c r="W55" s="153">
-        <f t="shared" si="33"/>
+      <c r="W55" s="11">
+        <f t="shared" si="35"/>
         <v>8346</v>
       </c>
       <c r="X55" s="14">
-        <f t="shared" ref="X55" si="34">SUM(X47:X54)</f>
+        <f t="shared" ref="X55" si="36">SUM(X47:X54)</f>
         <v>9075</v>
       </c>
     </row>
@@ -20943,14 +20928,14 @@
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>793</v>
       </c>
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
       <c r="S56" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>845</v>
       </c>
       <c r="T56" s="10">
@@ -20962,8 +20947,8 @@
       <c r="V56" s="10">
         <v>945</v>
       </c>
-      <c r="W56" s="152">
-        <f t="shared" si="30"/>
+      <c r="W56" s="10">
+        <f t="shared" si="32"/>
         <v>978</v>
       </c>
       <c r="X56" s="15">
@@ -20991,14 +20976,14 @@
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
       <c r="O57" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>23</v>
       </c>
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
       <c r="S57" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>11</v>
       </c>
       <c r="T57" s="10">
@@ -21010,8 +20995,8 @@
       <c r="V57" s="10">
         <v>8</v>
       </c>
-      <c r="W57" s="152">
-        <f t="shared" si="30"/>
+      <c r="W57" s="10">
+        <f t="shared" si="32"/>
         <v>12</v>
       </c>
       <c r="X57" s="15">
@@ -21039,14 +21024,14 @@
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
       <c r="O58" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>458</v>
       </c>
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="10"/>
       <c r="S58" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>520</v>
       </c>
       <c r="T58" s="10">
@@ -21058,8 +21043,8 @@
       <c r="V58" s="10">
         <v>599</v>
       </c>
-      <c r="W58" s="152">
-        <f t="shared" si="30"/>
+      <c r="W58" s="10">
+        <f t="shared" si="32"/>
         <v>622</v>
       </c>
       <c r="X58" s="15">
@@ -21087,14 +21072,14 @@
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
       <c r="O59" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1841</v>
       </c>
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
       <c r="S59" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2093</v>
       </c>
       <c r="T59" s="10">
@@ -21106,8 +21091,8 @@
       <c r="V59" s="10">
         <v>2108</v>
       </c>
-      <c r="W59" s="152">
-        <f t="shared" si="30"/>
+      <c r="W59" s="10">
+        <f t="shared" si="32"/>
         <v>2440</v>
       </c>
       <c r="X59" s="15">
@@ -21135,14 +21120,14 @@
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
       <c r="O60" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>22</v>
       </c>
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
       <c r="S60" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>26</v>
       </c>
       <c r="T60" s="10">
@@ -21154,8 +21139,8 @@
       <c r="V60" s="10">
         <v>24</v>
       </c>
-      <c r="W60" s="152">
-        <f t="shared" si="30"/>
+      <c r="W60" s="10">
+        <f t="shared" si="32"/>
         <v>21</v>
       </c>
       <c r="X60" s="15">
@@ -21183,14 +21168,14 @@
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
       <c r="O61" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>89</v>
       </c>
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
       <c r="S61" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>21</v>
       </c>
       <c r="T61" s="10">
@@ -21202,8 +21187,8 @@
       <c r="V61" s="10">
         <v>17</v>
       </c>
-      <c r="W61" s="152">
-        <f t="shared" si="30"/>
+      <c r="W61" s="10">
+        <f t="shared" si="32"/>
         <v>17</v>
       </c>
       <c r="X61" s="15">
@@ -21235,55 +21220,55 @@
         <v>4090</v>
       </c>
       <c r="L62" s="11">
-        <f t="shared" ref="L62:W62" si="35">SUM(L56:L61)</f>
+        <f t="shared" ref="L62:W62" si="37">SUM(L56:L61)</f>
         <v>0</v>
       </c>
       <c r="M62" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="N62" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O62" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3226</v>
       </c>
       <c r="P62" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="Q62" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="R62" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="S62" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3516</v>
       </c>
       <c r="T62" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3459</v>
       </c>
       <c r="U62" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3546</v>
       </c>
       <c r="V62" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>3701</v>
       </c>
-      <c r="W62" s="153">
-        <f t="shared" si="35"/>
+      <c r="W62" s="11">
+        <f t="shared" si="37"/>
         <v>4090</v>
       </c>
       <c r="X62" s="14">
-        <f t="shared" ref="X62" si="36">SUM(X56:X61)</f>
+        <f t="shared" ref="X62" si="38">SUM(X56:X61)</f>
         <v>3966</v>
       </c>
       <c r="Y62" s="11"/>
@@ -21309,14 +21294,14 @@
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
       <c r="O63" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1202</v>
       </c>
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
       <c r="R63" s="10"/>
       <c r="S63" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1128</v>
       </c>
       <c r="T63" s="10">
@@ -21328,8 +21313,8 @@
       <c r="V63" s="10">
         <v>1209</v>
       </c>
-      <c r="W63" s="152">
-        <f t="shared" si="30"/>
+      <c r="W63" s="10">
+        <f t="shared" si="32"/>
         <v>1203</v>
       </c>
       <c r="X63" s="15">
@@ -21357,14 +21342,14 @@
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
       <c r="O64" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>579</v>
       </c>
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
       <c r="R64" s="10"/>
       <c r="S64" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>555</v>
       </c>
       <c r="T64" s="10">
@@ -21376,8 +21361,8 @@
       <c r="V64" s="10">
         <v>520</v>
       </c>
-      <c r="W64" s="152">
-        <f t="shared" si="30"/>
+      <c r="W64" s="10">
+        <f t="shared" si="32"/>
         <v>493</v>
       </c>
       <c r="X64" s="15">
@@ -21405,14 +21390,14 @@
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
       <c r="O65" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>37</v>
       </c>
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
       <c r="R65" s="10"/>
       <c r="S65" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>28</v>
       </c>
       <c r="T65" s="10">
@@ -21424,8 +21409,8 @@
       <c r="V65" s="10">
         <v>14</v>
       </c>
-      <c r="W65" s="152">
-        <f t="shared" si="30"/>
+      <c r="W65" s="10">
+        <f t="shared" si="32"/>
         <v>26</v>
       </c>
       <c r="X65" s="15">
@@ -21453,14 +21438,14 @@
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
       <c r="O66" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
       <c r="R66" s="10"/>
       <c r="S66" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="T66" s="10">
@@ -21472,8 +21457,8 @@
       <c r="V66" s="10">
         <v>3</v>
       </c>
-      <c r="W66" s="152">
-        <f t="shared" si="30"/>
+      <c r="W66" s="10">
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="X66" s="15">
@@ -21497,14 +21482,14 @@
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
       <c r="O67" s="10">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
       <c r="R67" s="10"/>
       <c r="S67" s="10">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>5</v>
       </c>
       <c r="T67" s="10">
@@ -21516,8 +21501,8 @@
       <c r="V67" s="10">
         <v>6</v>
       </c>
-      <c r="W67" s="152">
-        <f t="shared" si="30"/>
+      <c r="W67" s="10">
+        <f t="shared" si="32"/>
         <v>8</v>
       </c>
       <c r="X67" s="15">
@@ -21549,55 +21534,55 @@
         <v>5823</v>
       </c>
       <c r="L68" s="11">
-        <f t="shared" ref="L68:W68" si="37">SUM(L62:L67)</f>
+        <f t="shared" ref="L68:W68" si="39">SUM(L62:L67)</f>
         <v>0</v>
       </c>
       <c r="M68" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="N68" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O68" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5051</v>
       </c>
       <c r="P68" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q68" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="R68" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="S68" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5235</v>
       </c>
       <c r="T68" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5187</v>
       </c>
       <c r="U68" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5258</v>
       </c>
       <c r="V68" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>5453</v>
       </c>
-      <c r="W68" s="153">
-        <f t="shared" si="37"/>
+      <c r="W68" s="11">
+        <f t="shared" si="39"/>
         <v>5823</v>
       </c>
       <c r="X68" s="14">
-        <f t="shared" ref="X68" si="38">SUM(X62:X67)</f>
+        <f t="shared" ref="X68" si="40">SUM(X62:X67)</f>
         <v>5766</v>
       </c>
     </row>
@@ -21623,38 +21608,38 @@
         <v>2523</v>
       </c>
       <c r="O69" s="10">
-        <f t="shared" ref="O69:U69" si="39">O55-O68</f>
+        <f t="shared" ref="O69:U69" si="41">O55-O68</f>
         <v>2119</v>
       </c>
       <c r="P69" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Q69" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="R69" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="S69" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2401</v>
       </c>
       <c r="T69" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2342</v>
       </c>
       <c r="U69" s="10">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2054</v>
       </c>
       <c r="V69" s="10">
         <f>V55-V68</f>
         <v>2139</v>
       </c>
-      <c r="W69" s="152">
+      <c r="W69" s="10">
         <f>W55-W68</f>
         <v>2523</v>
       </c>
@@ -21669,17 +21654,14 @@
       <c r="E71" s="53"/>
       <c r="F71" s="53"/>
       <c r="G71" s="54"/>
-      <c r="W71" s="156"/>
       <c r="X71" s="16"/>
     </row>
     <row r="89" spans="7:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G89" s="41"/>
-      <c r="W89" s="157"/>
       <c r="X89" s="41"/>
     </row>
     <row r="90" spans="7:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G90" s="16"/>
-      <c r="W90" s="156"/>
       <c r="X90" s="16"/>
     </row>
   </sheetData>
@@ -31335,10 +31317,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
-  <dimension ref="A1:M317"/>
+  <dimension ref="A1:M318"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31366,25 +31348,25 @@
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="137" t="s">
+      <c r="H1" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="138"/>
-      <c r="J1" s="138"/>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="139"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="144"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
-        <v>45397</v>
-      </c>
-      <c r="C2" s="17">
-        <v>290.51998900000001</v>
+        <v>45404</v>
+      </c>
+      <c r="C2" s="18">
+        <v>281.23</v>
       </c>
       <c r="D2" s="127">
         <f>C2/C3-1</f>
-        <v>-3.3050499595253857E-2</v>
+        <v>1.9577275858318588E-2</v>
       </c>
       <c r="H2" s="64"/>
       <c r="I2" s="65"/>
@@ -31395,14 +31377,14 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
-        <v>45390</v>
-      </c>
-      <c r="C3" s="17">
-        <v>300.45001200000002</v>
+        <v>45397</v>
+      </c>
+      <c r="C3" s="18">
+        <v>275.83</v>
       </c>
       <c r="D3" s="127">
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
-        <v>-3.1774632024585969E-2</v>
+        <v>-8.1943787707354221E-2</v>
       </c>
       <c r="H3" s="67" t="s">
         <v>94</v>
@@ -31425,22 +31407,22 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="12">
-        <v>45383</v>
-      </c>
-      <c r="C4" s="17">
-        <v>310.30999800000001</v>
+        <v>45390</v>
+      </c>
+      <c r="C4" s="18">
+        <v>300.45001200000002</v>
       </c>
       <c r="D4" s="127">
         <f t="shared" si="0"/>
-        <v>0.17586208812115411</v>
+        <v>-3.1774632024585969E-2</v>
       </c>
       <c r="H4" s="72">
         <f>$I$19-3*$I$23</f>
-        <v>-0.1867372124935977</v>
+        <v>-0.1870086680028957</v>
       </c>
       <c r="I4" s="73">
         <f>H4</f>
-        <v>-0.1867372124935977</v>
+        <v>-0.1870086680028957</v>
       </c>
       <c r="J4" s="74">
         <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
@@ -31448,35 +31430,35 @@
       </c>
       <c r="K4" s="74" t="str">
         <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
-        <v>Less than -18,67%</v>
+        <v>Less than -18,70%</v>
       </c>
       <c r="L4" s="75">
         <f>J4/$I$31</f>
-        <v>3.1746031746031746E-3</v>
+        <v>3.1645569620253164E-3</v>
       </c>
       <c r="M4" s="76">
         <f>L4</f>
-        <v>3.1746031746031746E-3</v>
+        <v>3.1645569620253164E-3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="12">
-        <v>45376</v>
-      </c>
-      <c r="C5" s="17">
-        <v>263.89999399999999</v>
+        <v>45383</v>
+      </c>
+      <c r="C5" s="18">
+        <v>310.30999800000001</v>
       </c>
       <c r="D5" s="127">
         <f t="shared" si="0"/>
-        <v>-3.9630796468883567E-3</v>
+        <v>0.17586208812115411</v>
       </c>
       <c r="H5" s="77">
         <f>$I$19-2.4*$I$23</f>
-        <v>-0.14856340517697827</v>
+        <v>-0.14880173910108965</v>
       </c>
       <c r="I5" s="78">
         <f>H5</f>
-        <v>-0.14856340517697827</v>
+        <v>-0.14880173910108965</v>
       </c>
       <c r="J5" s="79">
         <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
@@ -31484,35 +31466,35 @@
       </c>
       <c r="K5" s="80" t="str">
         <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
-        <v>-18,67% to -14,86%</v>
+        <v>-18,70% to -14,88%</v>
       </c>
       <c r="L5" s="81">
         <f>J5/$I$31</f>
-        <v>9.5238095238095247E-3</v>
+        <v>9.4936708860759497E-3</v>
       </c>
       <c r="M5" s="82">
         <f>M4+L5</f>
-        <v>1.2698412698412698E-2</v>
+        <v>1.2658227848101266E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="12">
-        <v>45369</v>
-      </c>
-      <c r="C6" s="17">
-        <v>264.95001200000002</v>
+        <v>45376</v>
+      </c>
+      <c r="C6" s="18">
+        <v>263.89999399999999</v>
       </c>
       <c r="D6" s="127">
         <f t="shared" si="0"/>
-        <v>3.9468056963663178E-2</v>
+        <v>-3.9630796468883567E-3</v>
       </c>
       <c r="H6" s="77">
         <f>$I$19-1.8*$I$23</f>
-        <v>-0.11038959786035886</v>
+        <v>-0.11059481019928361</v>
       </c>
       <c r="I6" s="78">
         <f t="shared" ref="I6:I14" si="2">H6</f>
-        <v>-0.11038959786035886</v>
+        <v>-0.11059481019928361</v>
       </c>
       <c r="J6" s="79">
         <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
@@ -31520,71 +31502,71 @@
       </c>
       <c r="K6" s="80" t="str">
         <f t="shared" si="1"/>
-        <v>-14,86% to -11,04%</v>
+        <v>-14,88% to -11,06%</v>
       </c>
       <c r="L6" s="81">
         <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
-        <v>1.5873015873015872E-2</v>
+        <v>1.5822784810126583E-2</v>
       </c>
       <c r="M6" s="82">
         <f t="shared" ref="M6:M15" si="5">M5+L6</f>
-        <v>2.8571428571428571E-2</v>
+        <v>2.8481012658227847E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="12">
-        <v>45362</v>
-      </c>
-      <c r="C7" s="17">
-        <v>254.88999899999999</v>
+        <v>45369</v>
+      </c>
+      <c r="C7" s="18">
+        <v>264.95001200000002</v>
       </c>
       <c r="D7" s="127">
         <f t="shared" si="0"/>
-        <v>-1.7386257148487072E-2</v>
+        <v>3.9468056963663178E-2</v>
       </c>
       <c r="H7" s="77">
         <f>$I$19-1.2*$I$23</f>
-        <v>-7.221579054373943E-2</v>
+        <v>-7.2387881297477544E-2</v>
       </c>
       <c r="I7" s="78">
         <f t="shared" si="2"/>
-        <v>-7.221579054373943E-2</v>
+        <v>-7.2387881297477544E-2</v>
       </c>
       <c r="J7" s="79">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7" s="80" t="str">
         <f t="shared" si="1"/>
-        <v>-11,04% to -7,22%</v>
+        <v>-11,06% to -7,24%</v>
       </c>
       <c r="L7" s="81">
         <f t="shared" si="4"/>
-        <v>6.9841269841269843E-2</v>
+        <v>7.2784810126582278E-2</v>
       </c>
       <c r="M7" s="82">
         <f t="shared" si="5"/>
-        <v>9.841269841269841E-2</v>
+        <v>0.10126582278481013</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="12">
-        <v>45355</v>
-      </c>
-      <c r="C8" s="17">
-        <v>259.39999399999999</v>
+        <v>45362</v>
+      </c>
+      <c r="C8" s="18">
+        <v>254.88999899999999</v>
       </c>
       <c r="D8" s="127">
         <f t="shared" si="0"/>
-        <v>-1.649291374407591E-2</v>
+        <v>-1.7386257148487072E-2</v>
       </c>
       <c r="H8" s="77">
         <f>$I$19-0.6*$I$23</f>
-        <v>-3.4041983227120015E-2</v>
+        <v>-3.4180952395671475E-2</v>
       </c>
       <c r="I8" s="78">
         <f t="shared" si="2"/>
-        <v>-3.4041983227120015E-2</v>
+        <v>-3.4180952395671475E-2</v>
       </c>
       <c r="J8" s="79">
         <f t="shared" si="3"/>
@@ -31592,107 +31574,107 @@
       </c>
       <c r="K8" s="80" t="str">
         <f t="shared" si="1"/>
-        <v>-7,22% to -3,40%</v>
+        <v>-7,24% to -3,42%</v>
       </c>
       <c r="L8" s="81">
         <f t="shared" si="4"/>
-        <v>0.14603174603174604</v>
+        <v>0.14556962025316456</v>
       </c>
       <c r="M8" s="82">
         <f t="shared" si="5"/>
-        <v>0.24444444444444446</v>
+        <v>0.24683544303797467</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="12">
-        <v>45348</v>
-      </c>
-      <c r="C9" s="17">
-        <v>263.75</v>
+        <v>45355</v>
+      </c>
+      <c r="C9" s="18">
+        <v>259.39999399999999</v>
       </c>
       <c r="D9" s="127">
         <f t="shared" si="0"/>
-        <v>2.9871119956162762E-2</v>
+        <v>-1.649291374407591E-2</v>
       </c>
       <c r="H9" s="77">
         <f>$I$19</f>
-        <v>4.1318240894993993E-3</v>
+        <v>4.0259765061345853E-3</v>
       </c>
       <c r="I9" s="78">
         <f t="shared" si="2"/>
-        <v>4.1318240894993993E-3</v>
+        <v>4.0259765061345853E-3</v>
       </c>
       <c r="J9" s="79">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K9" s="80" t="str">
         <f t="shared" si="1"/>
-        <v>-3,40% to 0,41%</v>
+        <v>-3,42% to 0,40%</v>
       </c>
       <c r="L9" s="81">
         <f t="shared" si="4"/>
-        <v>0.24761904761904763</v>
+        <v>0.24367088607594936</v>
       </c>
       <c r="M9" s="82">
         <f t="shared" si="5"/>
-        <v>0.49206349206349209</v>
+        <v>0.490506329113924</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
-        <v>45341</v>
-      </c>
-      <c r="C10" s="17">
-        <v>256.10000600000001</v>
+        <v>45348</v>
+      </c>
+      <c r="C10" s="18">
+        <v>263.75</v>
       </c>
       <c r="D10" s="127">
         <f t="shared" si="0"/>
-        <v>4.0000024365482334E-2</v>
+        <v>2.9871119956162762E-2</v>
       </c>
       <c r="H10" s="77">
         <f>$I$19+0.6*$I$23</f>
-        <v>4.2305631406118815E-2</v>
+        <v>4.2232905407940648E-2</v>
       </c>
       <c r="I10" s="78">
         <f t="shared" si="2"/>
-        <v>4.2305631406118815E-2</v>
+        <v>4.2232905407940648E-2</v>
       </c>
       <c r="J10" s="79">
         <f t="shared" si="3"/>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K10" s="80" t="str">
         <f t="shared" si="1"/>
-        <v>0,41% to 4,23%</v>
+        <v>0,40% to 4,22%</v>
       </c>
       <c r="L10" s="81">
         <f t="shared" si="4"/>
-        <v>0.27936507936507937</v>
+        <v>0.28164556962025317</v>
       </c>
       <c r="M10" s="82">
         <f t="shared" si="5"/>
-        <v>0.77142857142857146</v>
+        <v>0.77215189873417711</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12">
-        <v>45334</v>
-      </c>
-      <c r="C11" s="17">
-        <v>246.25</v>
+        <v>45341</v>
+      </c>
+      <c r="C11" s="18">
+        <v>256.10000600000001</v>
       </c>
       <c r="D11" s="127">
         <f t="shared" si="0"/>
-        <v>2.2760293678443455E-2</v>
+        <v>4.0000024365482334E-2</v>
       </c>
       <c r="H11" s="77">
         <f>$I$19+1.2*$I$23</f>
-        <v>8.0479438722738231E-2</v>
+        <v>8.0439834309746702E-2</v>
       </c>
       <c r="I11" s="78">
         <f t="shared" si="2"/>
-        <v>8.0479438722738231E-2</v>
+        <v>8.0439834309746702E-2</v>
       </c>
       <c r="J11" s="79">
         <f t="shared" si="3"/>
@@ -31700,35 +31682,35 @@
       </c>
       <c r="K11" s="80" t="str">
         <f t="shared" si="1"/>
-        <v>4,23% to 8,05%</v>
+        <v>4,22% to 8,04%</v>
       </c>
       <c r="L11" s="81">
         <f t="shared" si="4"/>
-        <v>0.1492063492063492</v>
+        <v>0.14873417721518986</v>
       </c>
       <c r="M11" s="82">
         <f t="shared" si="5"/>
-        <v>0.92063492063492069</v>
+        <v>0.920886075949367</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="12">
-        <v>45327</v>
-      </c>
-      <c r="C12" s="17">
-        <v>240.770004</v>
+        <v>45334</v>
+      </c>
+      <c r="C12" s="18">
+        <v>246.25</v>
       </c>
       <c r="D12" s="127">
         <f t="shared" si="0"/>
-        <v>8.2258295130766879E-2</v>
+        <v>2.2760293678443455E-2</v>
       </c>
       <c r="H12" s="77">
         <f>$I$19+1.8*$I$23</f>
-        <v>0.11865324603935766</v>
+        <v>0.11864676321155276</v>
       </c>
       <c r="I12" s="78">
         <f t="shared" si="2"/>
-        <v>0.11865324603935766</v>
+        <v>0.11864676321155276</v>
       </c>
       <c r="J12" s="79">
         <f t="shared" si="3"/>
@@ -31736,35 +31718,35 @@
       </c>
       <c r="K12" s="80" t="str">
         <f t="shared" si="1"/>
-        <v>8,05% to 11,87%</v>
+        <v>8,04% to 11,86%</v>
       </c>
       <c r="L12" s="81">
         <f t="shared" si="4"/>
-        <v>3.8095238095238099E-2</v>
+        <v>3.7974683544303799E-2</v>
       </c>
       <c r="M12" s="82">
         <f t="shared" si="5"/>
-        <v>0.95873015873015877</v>
+        <v>0.95886075949367078</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" s="12">
-        <v>45320</v>
-      </c>
-      <c r="C13" s="17">
-        <v>222.470001</v>
+        <v>45327</v>
+      </c>
+      <c r="C13" s="18">
+        <v>240.770004</v>
       </c>
       <c r="D13" s="127">
         <f t="shared" si="0"/>
-        <v>3.8172608461469304E-2</v>
+        <v>8.2258295130766879E-2</v>
       </c>
       <c r="H13" s="77">
         <f>$I$19+2.4*$I$23</f>
-        <v>0.15682705335597705</v>
+        <v>0.15685369211335884</v>
       </c>
       <c r="I13" s="78">
         <f t="shared" si="2"/>
-        <v>0.15682705335597705</v>
+        <v>0.15685369211335884</v>
       </c>
       <c r="J13" s="79">
         <f t="shared" si="3"/>
@@ -31772,35 +31754,35 @@
       </c>
       <c r="K13" s="80" t="str">
         <f t="shared" si="1"/>
-        <v>11,87% to 15,68%</v>
+        <v>11,86% to 15,69%</v>
       </c>
       <c r="L13" s="81">
         <f t="shared" si="4"/>
-        <v>1.9047619047619049E-2</v>
+        <v>1.8987341772151899E-2</v>
       </c>
       <c r="M13" s="82">
         <f t="shared" si="5"/>
-        <v>0.97777777777777786</v>
+        <v>0.97784810126582267</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" s="12">
-        <v>45313</v>
-      </c>
-      <c r="C14" s="17">
-        <v>214.28999300000001</v>
+        <v>45320</v>
+      </c>
+      <c r="C14" s="18">
+        <v>222.470001</v>
       </c>
       <c r="D14" s="127">
         <f t="shared" si="0"/>
-        <v>4.6797839247790352E-2</v>
+        <v>3.8172608461469304E-2</v>
       </c>
       <c r="H14" s="77">
         <f>$I$19+3*$I$23</f>
-        <v>0.19500086067259648</v>
+        <v>0.19506062101516489</v>
       </c>
       <c r="I14" s="78">
         <f t="shared" si="2"/>
-        <v>0.19500086067259648</v>
+        <v>0.19506062101516489</v>
       </c>
       <c r="J14" s="79">
         <f t="shared" si="3"/>
@@ -31808,27 +31790,27 @@
       </c>
       <c r="K14" s="80" t="str">
         <f t="shared" si="1"/>
-        <v>15,68% to 19,50%</v>
+        <v>15,69% to 19,51%</v>
       </c>
       <c r="L14" s="81">
         <f t="shared" si="4"/>
-        <v>1.2698412698412698E-2</v>
+        <v>1.2658227848101266E-2</v>
       </c>
       <c r="M14" s="82">
         <f t="shared" si="5"/>
-        <v>0.99047619047619051</v>
+        <v>0.99050632911392389</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
-        <v>45306</v>
-      </c>
-      <c r="C15" s="17">
-        <v>204.71000699999999</v>
+        <v>45313</v>
+      </c>
+      <c r="C15" s="18">
+        <v>214.28999300000001</v>
       </c>
       <c r="D15" s="127">
         <f t="shared" si="0"/>
-        <v>8.2746786596792354E-3</v>
+        <v>4.6797839247790352E-2</v>
       </c>
       <c r="H15" s="83"/>
       <c r="I15" s="84" t="s">
@@ -31840,133 +31822,133 @@
       </c>
       <c r="K15" s="84" t="str">
         <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
-        <v>Greater than 19,50%</v>
+        <v>Greater than 19,51%</v>
       </c>
       <c r="L15" s="85">
         <f t="shared" si="4"/>
-        <v>9.5238095238095247E-3</v>
+        <v>9.4936708860759497E-3</v>
       </c>
       <c r="M15" s="85">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
-        <v>45299</v>
-      </c>
-      <c r="C16" s="17">
-        <v>203.029999</v>
+        <v>45306</v>
+      </c>
+      <c r="C16" s="18">
+        <v>204.71000699999999</v>
       </c>
       <c r="D16" s="127">
         <f t="shared" si="0"/>
-        <v>4.9142180670893376E-2</v>
+        <v>8.2746786596792354E-3</v>
       </c>
       <c r="H16" s="86"/>
       <c r="M16" s="87"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
-        <v>45292</v>
-      </c>
-      <c r="C17" s="17">
-        <v>193.520004</v>
+        <v>45299</v>
+      </c>
+      <c r="C17" s="18">
+        <v>203.029999</v>
       </c>
       <c r="D17" s="127">
         <f t="shared" si="0"/>
-        <v>2.9854717048486856E-2</v>
-      </c>
-      <c r="H17" s="140" t="s">
+        <v>4.9142180670893376E-2</v>
+      </c>
+      <c r="H17" s="145" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="141"/>
+      <c r="I17" s="146"/>
       <c r="M17" s="87"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
-        <v>45285</v>
-      </c>
-      <c r="C18" s="17">
-        <v>187.91000399999999</v>
+        <v>45292</v>
+      </c>
+      <c r="C18" s="18">
+        <v>193.520004</v>
       </c>
       <c r="D18" s="127">
         <f t="shared" si="0"/>
-        <v>-8.8611848485931066E-3</v>
-      </c>
-      <c r="H18" s="142"/>
-      <c r="I18" s="143"/>
+        <v>2.9854717048486856E-2</v>
+      </c>
+      <c r="H18" s="147"/>
+      <c r="I18" s="148"/>
       <c r="M18" s="87"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
-        <v>45278</v>
-      </c>
-      <c r="C19" s="17">
-        <v>189.58999600000001</v>
+        <v>45285</v>
+      </c>
+      <c r="C19" s="18">
+        <v>187.91000399999999</v>
       </c>
       <c r="D19" s="127">
         <f t="shared" si="0"/>
-        <v>-1.3425623285899024E-2</v>
+        <v>-8.8611848485931066E-3</v>
       </c>
       <c r="H19" s="88" t="s">
         <v>101</v>
       </c>
       <c r="I19" s="125">
         <f>AVERAGE(D:D)</f>
-        <v>4.1318240894993993E-3</v>
+        <v>4.0259765061345853E-3</v>
       </c>
       <c r="M19" s="87"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
-        <v>45271</v>
-      </c>
-      <c r="C20" s="17">
-        <v>192.16999799999999</v>
+        <v>45278</v>
+      </c>
+      <c r="C20" s="18">
+        <v>189.58999600000001</v>
       </c>
       <c r="D20" s="127">
         <f t="shared" si="0"/>
-        <v>-2.9689497151888511E-2</v>
+        <v>-1.3425623285899024E-2</v>
       </c>
       <c r="H20" s="88" t="s">
         <v>102</v>
       </c>
       <c r="I20" s="125">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
-        <v>3.584750630314164E-3</v>
+        <v>3.5821794532469014E-3</v>
       </c>
       <c r="M20" s="87"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
-        <v>45264</v>
-      </c>
-      <c r="C21" s="17">
-        <v>198.050003</v>
+        <v>45271</v>
+      </c>
+      <c r="C21" s="18">
+        <v>192.16999799999999</v>
       </c>
       <c r="D21" s="127">
         <f t="shared" si="0"/>
-        <v>9.6076156997330742E-2</v>
+        <v>-2.9689497151888511E-2</v>
       </c>
       <c r="H21" s="88" t="s">
         <v>103</v>
       </c>
       <c r="I21" s="125">
         <f>MEDIAN(D:D)</f>
-        <v>5.737869796573758E-3</v>
+        <v>5.8104574995698766E-3</v>
       </c>
       <c r="M21" s="87"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
-        <v>45257</v>
-      </c>
-      <c r="C22" s="17">
-        <v>180.69000199999999</v>
+        <v>45264</v>
+      </c>
+      <c r="C22" s="18">
+        <v>198.050003</v>
       </c>
       <c r="D22" s="127">
         <f t="shared" si="0"/>
-        <v>-5.5585856724037486E-3</v>
+        <v>9.6076156997330742E-2</v>
       </c>
       <c r="H22" s="88" t="s">
         <v>104</v>
@@ -31979,94 +31961,94 @@
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
-        <v>45250</v>
-      </c>
-      <c r="C23" s="17">
-        <v>181.699997</v>
+        <v>45257</v>
+      </c>
+      <c r="C23" s="18">
+        <v>180.69000199999999</v>
       </c>
       <c r="D23" s="127">
         <f t="shared" si="0"/>
-        <v>3.2093120725479318E-2</v>
+        <v>-5.5585856724037486E-3</v>
       </c>
       <c r="H23" s="88" t="s">
         <v>105</v>
       </c>
       <c r="I23" s="125">
         <f>_xlfn.STDEV.S(D:D)</f>
-        <v>6.3623012194365697E-2</v>
+        <v>6.3678214836343436E-2</v>
       </c>
       <c r="M23" s="87"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
-        <v>45243</v>
-      </c>
-      <c r="C24" s="17">
-        <v>176.050003</v>
+        <v>45250</v>
+      </c>
+      <c r="C24" s="18">
+        <v>181.699997</v>
       </c>
       <c r="D24" s="127">
         <f t="shared" si="0"/>
-        <v>2.9652632580480454E-2</v>
+        <v>3.2093120725479318E-2</v>
       </c>
       <c r="H24" s="88" t="s">
         <v>106</v>
       </c>
       <c r="I24" s="125">
         <f>_xlfn.VAR.S(D:D)</f>
-        <v>4.0478876806844064E-3</v>
+        <v>4.0549150447435093E-3</v>
       </c>
       <c r="M24" s="87"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
-        <v>45236</v>
-      </c>
-      <c r="C25" s="17">
-        <v>170.979996</v>
+        <v>45243</v>
+      </c>
+      <c r="C25" s="18">
+        <v>176.050003</v>
       </c>
       <c r="D25" s="127">
         <f t="shared" si="0"/>
-        <v>5.8830452025659952E-3</v>
+        <v>2.9652632580480454E-2</v>
       </c>
       <c r="H25" s="88" t="s">
         <v>107</v>
       </c>
       <c r="I25" s="126">
         <f>KURT(D:D)</f>
-        <v>1.7849143888820111</v>
+        <v>1.7662784441271935</v>
       </c>
       <c r="M25" s="87"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
-        <v>45229</v>
-      </c>
-      <c r="C26" s="17">
-        <v>169.979996</v>
+        <v>45236</v>
+      </c>
+      <c r="C26" s="18">
+        <v>170.979996</v>
       </c>
       <c r="D26" s="127">
         <f t="shared" si="0"/>
-        <v>6.6708438027921924E-2</v>
+        <v>5.8830452025659952E-3</v>
       </c>
       <c r="H26" s="88" t="s">
         <v>108</v>
       </c>
       <c r="I26" s="126">
         <f>SKEW(D:D)</f>
-        <v>0.45639967737195436</v>
+        <v>0.45156884074372483</v>
       </c>
       <c r="M26" s="87"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
-        <v>45222</v>
-      </c>
-      <c r="C27" s="17">
-        <v>159.35000600000001</v>
+        <v>45229</v>
+      </c>
+      <c r="C27" s="18">
+        <v>169.979996</v>
       </c>
       <c r="D27" s="127">
         <f t="shared" si="0"/>
-        <v>6.2900267648082542E-2</v>
+        <v>6.6708438027921924E-2</v>
       </c>
       <c r="H27" s="88" t="s">
         <v>97</v>
@@ -32079,14 +32061,14 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
-        <v>45215</v>
-      </c>
-      <c r="C28" s="17">
-        <v>149.91999799999999</v>
+        <v>45222</v>
+      </c>
+      <c r="C28" s="18">
+        <v>159.35000600000001</v>
       </c>
       <c r="D28" s="127">
         <f t="shared" si="0"/>
-        <v>-2.3704089915395854E-2</v>
+        <v>6.2900267648082542E-2</v>
       </c>
       <c r="H28" s="88" t="s">
         <v>109</v>
@@ -32099,14 +32081,14 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
-        <v>45208</v>
-      </c>
-      <c r="C29" s="17">
-        <v>153.55999800000001</v>
+        <v>45215</v>
+      </c>
+      <c r="C29" s="18">
+        <v>149.91999799999999</v>
       </c>
       <c r="D29" s="127">
         <f t="shared" si="0"/>
-        <v>-4.3418682136788678E-2</v>
+        <v>-2.3704089915395854E-2</v>
       </c>
       <c r="H29" s="88" t="s">
         <v>110</v>
@@ -32119,68 +32101,68 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
-        <v>45201</v>
-      </c>
-      <c r="C30" s="17">
-        <v>160.529999</v>
+        <v>45208</v>
+      </c>
+      <c r="C30" s="18">
+        <v>153.55999800000001</v>
       </c>
       <c r="D30" s="127">
         <f t="shared" si="0"/>
-        <v>3.8088463774498704E-2</v>
+        <v>-4.3418682136788678E-2</v>
       </c>
       <c r="H30" s="88" t="s">
         <v>111</v>
       </c>
       <c r="I30" s="126">
         <f>SUM(D:D)</f>
-        <v>1.3015245881923108</v>
+        <v>1.2722085759385291</v>
       </c>
       <c r="M30" s="87"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
-        <v>45194</v>
-      </c>
-      <c r="C31" s="17">
-        <v>154.63999899999999</v>
+        <v>45201</v>
+      </c>
+      <c r="C31" s="18">
+        <v>160.529999</v>
       </c>
       <c r="D31" s="127">
         <f t="shared" si="0"/>
-        <v>-1.0937044671427865E-2</v>
+        <v>3.8088463774498704E-2</v>
       </c>
       <c r="H31" s="89" t="s">
         <v>112</v>
       </c>
       <c r="I31" s="66">
         <f>COUNT(D:D)</f>
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M31" s="87"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
-        <v>45187</v>
-      </c>
-      <c r="C32" s="17">
-        <v>156.35000600000001</v>
+        <v>45194</v>
+      </c>
+      <c r="C32" s="18">
+        <v>154.63999899999999</v>
       </c>
       <c r="D32" s="127">
         <f t="shared" si="0"/>
-        <v>-1.4062277537365664E-2</v>
+        <v>-1.0937044671427865E-2</v>
       </c>
       <c r="H32" s="91"/>
       <c r="M32" s="87"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
-        <v>45180</v>
-      </c>
-      <c r="C33" s="17">
-        <v>158.58000200000001</v>
+        <v>45187</v>
+      </c>
+      <c r="C33" s="18">
+        <v>156.35000600000001</v>
       </c>
       <c r="D33" s="127">
         <f t="shared" si="0"/>
-        <v>2.0003865568895218E-2</v>
+        <v>-1.4062277537365664E-2</v>
       </c>
       <c r="H33" s="92"/>
       <c r="I33" s="93" t="s">
@@ -32199,53 +32181,53 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
-        <v>45173</v>
-      </c>
-      <c r="C34" s="17">
-        <v>155.470001</v>
+        <v>45180</v>
+      </c>
+      <c r="C34" s="18">
+        <v>158.58000200000001</v>
       </c>
       <c r="D34" s="127">
         <f t="shared" si="0"/>
-        <v>-1.3264769145275079E-2</v>
+        <v>2.0003865568895218E-2</v>
       </c>
       <c r="H34" s="95" t="s">
         <v>116</v>
       </c>
       <c r="I34" s="81">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
-        <v>4.9551844016394196E-2</v>
+        <v>4.9370179966951318E-2</v>
       </c>
       <c r="J34" s="79">
         <f>COUNTIF(D:D,"&gt;0")</f>
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K34" s="81">
         <f>J34/$I$31</f>
-        <v>0.52063492063492067</v>
+        <v>0.52215189873417722</v>
       </c>
       <c r="L34" s="82">
         <f>K34*I34</f>
-        <v>2.5798420376789363E-2</v>
+        <v>2.5778733210591671E-2</v>
       </c>
       <c r="M34" s="87"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
-        <v>45166</v>
-      </c>
-      <c r="C35" s="17">
-        <v>157.55999800000001</v>
+        <v>45173</v>
+      </c>
+      <c r="C35" s="18">
+        <v>155.470001</v>
       </c>
       <c r="D35" s="127">
         <f t="shared" si="0"/>
-        <v>0.1482290981764387</v>
+        <v>-1.3264769145275079E-2</v>
       </c>
       <c r="H35" s="95" t="s">
         <v>117</v>
       </c>
       <c r="I35" s="81">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
-        <v>-4.5198528678783739E-2</v>
+        <v>-4.5522325288797648E-2</v>
       </c>
       <c r="J35" s="79">
         <f>COUNTIF(D:D,"&lt;0")</f>
@@ -32253,24 +32235,24 @@
       </c>
       <c r="K35" s="81">
         <f>J35/$I$31</f>
-        <v>0.47936507936507938</v>
+        <v>0.47784810126582278</v>
       </c>
       <c r="L35" s="82">
         <f t="shared" ref="L35:L36" si="6">K35*I35</f>
-        <v>-2.1666596287289983E-2</v>
+        <v>-2.1752756704457102E-2</v>
       </c>
       <c r="M35" s="87"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
-        <v>45159</v>
-      </c>
-      <c r="C36" s="17">
-        <v>137.220001</v>
+        <v>45166</v>
+      </c>
+      <c r="C36" s="18">
+        <v>157.55999800000001</v>
       </c>
       <c r="D36" s="127">
         <f t="shared" si="0"/>
-        <v>4.0570305625627689E-2</v>
+        <v>0.1482290981764387</v>
       </c>
       <c r="H36" s="96" t="s">
         <v>118</v>
@@ -32294,14 +32276,14 @@
     </row>
     <row r="37" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
-        <v>45152</v>
-      </c>
-      <c r="C37" s="17">
-        <v>131.86999499999999</v>
+        <v>45159</v>
+      </c>
+      <c r="C37" s="18">
+        <v>137.220001</v>
       </c>
       <c r="D37" s="127">
         <f t="shared" si="0"/>
-        <v>-4.9105843263202442E-2</v>
+        <v>4.0570305625627689E-2</v>
       </c>
       <c r="H37" s="91"/>
       <c r="I37" s="98"/>
@@ -32312,14 +32294,14 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
-        <v>45145</v>
-      </c>
-      <c r="C38" s="17">
-        <v>138.679993</v>
+        <v>45152</v>
+      </c>
+      <c r="C38" s="18">
+        <v>131.86999499999999</v>
       </c>
       <c r="D38" s="127">
         <f t="shared" si="0"/>
-        <v>-3.7746337695890086E-2</v>
+        <v>-4.9105843263202442E-2</v>
       </c>
       <c r="H38" s="72" t="s">
         <v>119</v>
@@ -32342,25 +32324,25 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="12">
-        <v>45138</v>
-      </c>
-      <c r="C39" s="17">
-        <v>144.11999499999999</v>
+        <v>45145</v>
+      </c>
+      <c r="C39" s="18">
+        <v>138.679993</v>
       </c>
       <c r="D39" s="127">
         <f t="shared" si="0"/>
-        <v>-3.0148121259160776E-2</v>
+        <v>-3.7746337695890086E-2</v>
       </c>
       <c r="H39" s="99">
         <v>1</v>
       </c>
       <c r="I39" s="81">
         <f>$I$19+($H39*$I$23)</f>
-        <v>6.7754836283865097E-2</v>
+        <v>6.7704191342478015E-2</v>
       </c>
       <c r="J39" s="81">
         <f>$I$19-($H39*$I$23)</f>
-        <v>-5.9491188104866297E-2</v>
+        <v>-5.965223833020885E-2</v>
       </c>
       <c r="K39" s="79">
         <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
@@ -32368,7 +32350,7 @@
       </c>
       <c r="L39" s="81">
         <f>K39/$I$31</f>
-        <v>0.73015873015873012</v>
+        <v>0.72784810126582278</v>
       </c>
       <c r="M39" s="82">
         <v>0.68269999999999997</v>
@@ -32376,33 +32358,33 @@
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="12">
-        <v>45131</v>
-      </c>
-      <c r="C40" s="17">
-        <v>148.60000600000001</v>
+        <v>45138</v>
+      </c>
+      <c r="C40" s="18">
+        <v>144.11999499999999</v>
       </c>
       <c r="D40" s="127">
         <f t="shared" si="0"/>
-        <v>-0.13458738604559017</v>
+        <v>-3.0148121259160776E-2</v>
       </c>
       <c r="H40" s="99">
         <v>2</v>
       </c>
       <c r="I40" s="81">
         <f>$I$19+($H40*$I$23)</f>
-        <v>0.13137784847823078</v>
+        <v>0.13138240617882146</v>
       </c>
       <c r="J40" s="81">
         <f>$I$19-($H40*$I$23)</f>
-        <v>-0.12311420029923199</v>
+        <v>-0.12333045316655229</v>
       </c>
       <c r="K40" s="79">
         <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L40" s="81">
         <f>K40/$I$31</f>
-        <v>0.94285714285714284</v>
+        <v>0.94303797468354433</v>
       </c>
       <c r="M40" s="82">
         <v>0.95450000000000002</v>
@@ -32410,33 +32392,33 @@
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" s="12">
-        <v>45124</v>
-      </c>
-      <c r="C41" s="17">
-        <v>171.71000699999999</v>
+        <v>45131</v>
+      </c>
+      <c r="C41" s="18">
+        <v>148.60000600000001</v>
       </c>
       <c r="D41" s="127">
         <f t="shared" si="0"/>
-        <v>-1.860094180434313E-3</v>
+        <v>-0.13458738604559017</v>
       </c>
       <c r="H41" s="99">
         <v>3</v>
       </c>
       <c r="I41" s="81">
         <f>$I$19+($H41*$I$23)</f>
-        <v>0.19500086067259648</v>
+        <v>0.19506062101516489</v>
       </c>
       <c r="J41" s="81">
         <f>$I$19-($H41*$I$23)</f>
-        <v>-0.1867372124935977</v>
+        <v>-0.1870086680028957</v>
       </c>
       <c r="K41" s="79">
         <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L41" s="81">
         <f>K41/$I$31</f>
-        <v>0.98730158730158735</v>
+        <v>0.98734177215189878</v>
       </c>
       <c r="M41" s="100">
         <v>0.99729999999999996</v>
@@ -32444,484 +32426,484 @@
     </row>
     <row r="42" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
-        <v>45117</v>
-      </c>
-      <c r="C42" s="17">
-        <v>172.029999</v>
+        <v>45124</v>
+      </c>
+      <c r="C42" s="18">
+        <v>171.71000699999999</v>
       </c>
       <c r="D42" s="127">
         <f t="shared" si="0"/>
-        <v>9.5941886373562602E-2</v>
+        <v>-1.860094180434313E-3</v>
       </c>
       <c r="H42" s="77"/>
       <c r="M42" s="100"/>
     </row>
     <row r="43" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
-        <v>45110</v>
-      </c>
-      <c r="C43" s="17">
-        <v>156.970001</v>
+        <v>45117</v>
+      </c>
+      <c r="C43" s="18">
+        <v>172.029999</v>
       </c>
       <c r="D43" s="127">
         <f t="shared" si="0"/>
-        <v>-2.229836146437203E-2</v>
-      </c>
-      <c r="H43" s="144" t="s">
+        <v>9.5941886373562602E-2</v>
+      </c>
+      <c r="H43" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="I43" s="145"/>
-      <c r="J43" s="145"/>
-      <c r="K43" s="145"/>
-      <c r="L43" s="145"/>
-      <c r="M43" s="146"/>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="151"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
-        <v>45103</v>
-      </c>
-      <c r="C44" s="17">
-        <v>160.550003</v>
+        <v>45110</v>
+      </c>
+      <c r="C44" s="18">
+        <v>156.970001</v>
       </c>
       <c r="D44" s="127">
         <f t="shared" si="0"/>
-        <v>1.9429791750911418E-2</v>
+        <v>-2.229836146437203E-2</v>
       </c>
       <c r="H44" s="101">
         <v>0.01</v>
       </c>
       <c r="I44" s="102">
         <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
-        <v>-0.14959209472157353</v>
+        <v>-0.14956977639873967</v>
       </c>
       <c r="J44" s="103">
         <v>0.2</v>
       </c>
       <c r="K44" s="102">
         <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
-        <v>-4.3510691104742351E-2</v>
+        <v>-4.3878726976557036E-2</v>
       </c>
       <c r="L44" s="103">
         <v>0.85</v>
       </c>
       <c r="M44" s="104">
         <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
-        <v>5.8453863004962171E-2</v>
+        <v>5.8401238327260241E-2</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" s="12">
-        <v>45096</v>
-      </c>
-      <c r="C45" s="17">
-        <v>157.490005</v>
+        <v>45103</v>
+      </c>
+      <c r="C45" s="18">
+        <v>160.550003</v>
       </c>
       <c r="D45" s="127">
         <f t="shared" si="0"/>
-        <v>-1.5625976135196673E-2</v>
+        <v>1.9429791750911418E-2</v>
       </c>
       <c r="H45" s="105">
         <v>0.02</v>
       </c>
       <c r="I45" s="106">
         <f t="shared" si="7"/>
-        <v>-0.11456307992723055</v>
+        <v>-0.11450847226850219</v>
       </c>
       <c r="J45" s="107">
         <v>0.25</v>
       </c>
       <c r="K45" s="106">
         <f t="shared" si="8"/>
-        <v>-3.3207949470878295E-2</v>
+        <v>-3.3530858151328058E-2</v>
       </c>
       <c r="L45" s="107">
         <v>0.86</v>
       </c>
       <c r="M45" s="108">
         <f t="shared" si="9"/>
-        <v>6.2371683759520048E-2</v>
+        <v>6.2214988123961215E-2</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="12">
-        <v>45089</v>
-      </c>
-      <c r="C46" s="17">
-        <v>159.990005</v>
+        <v>45096</v>
+      </c>
+      <c r="C46" s="18">
+        <v>157.490005</v>
       </c>
       <c r="D46" s="127">
         <f t="shared" si="0"/>
-        <v>6.3197828633647646E-2</v>
+        <v>-1.5625976135196673E-2</v>
       </c>
       <c r="H46" s="105">
         <v>0.03</v>
       </c>
       <c r="I46" s="106">
         <f t="shared" si="7"/>
-        <v>-0.10995763502298019</v>
+        <v>-0.10994054726290062</v>
       </c>
       <c r="J46" s="107">
         <v>0.3</v>
       </c>
       <c r="K46" s="106">
         <f t="shared" si="8"/>
-        <v>-2.3685256692458245E-2</v>
+        <v>-2.3657006858051832E-2</v>
       </c>
       <c r="L46" s="107">
         <v>0.87</v>
       </c>
       <c r="M46" s="108">
         <f t="shared" si="9"/>
-        <v>6.3444899362466015E-2</v>
+        <v>6.3428937742370267E-2</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" s="12">
-        <v>45082</v>
-      </c>
-      <c r="C47" s="17">
-        <v>150.479996</v>
+        <v>45089</v>
+      </c>
+      <c r="C47" s="18">
+        <v>159.990005</v>
       </c>
       <c r="D47" s="127">
         <f t="shared" si="0"/>
-        <v>-8.3037363811869769E-3</v>
+        <v>6.3197828633647646E-2</v>
       </c>
       <c r="H47" s="105">
         <v>0.04</v>
       </c>
       <c r="I47" s="106">
         <f t="shared" si="7"/>
-        <v>-0.10162512402845111</v>
+        <v>-0.10135752438170986</v>
       </c>
       <c r="J47" s="107">
         <v>0.35</v>
       </c>
       <c r="K47" s="106">
         <f t="shared" si="8"/>
-        <v>-1.6867077551416559E-2</v>
+        <v>-1.673027163315885E-2</v>
       </c>
       <c r="L47" s="107">
         <v>0.88</v>
       </c>
       <c r="M47" s="108">
         <f t="shared" si="9"/>
-        <v>6.6827178882597177E-2</v>
+        <v>6.6782651062093953E-2</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" s="12">
-        <v>45075</v>
-      </c>
-      <c r="C48" s="17">
-        <v>151.740005</v>
+        <v>45082</v>
+      </c>
+      <c r="C48" s="18">
+        <v>150.479996</v>
       </c>
       <c r="D48" s="127">
         <f t="shared" si="0"/>
-        <v>9.5137184420692744E-3</v>
+        <v>-8.3037363811869769E-3</v>
       </c>
       <c r="H48" s="105">
         <v>0.05</v>
       </c>
       <c r="I48" s="106">
         <f t="shared" si="7"/>
-        <v>-9.1748033282774075E-2</v>
+        <v>-9.1618261268116813E-2</v>
       </c>
       <c r="J48" s="107">
         <v>0.4</v>
       </c>
       <c r="K48" s="106">
         <f t="shared" si="8"/>
-        <v>-1.0389829942255827E-2</v>
+        <v>-1.0025020122807815E-2</v>
       </c>
       <c r="L48" s="107">
         <v>0.89</v>
       </c>
       <c r="M48" s="108">
         <f t="shared" si="9"/>
-        <v>7.091525747185165E-2</v>
+        <v>7.0435489281333655E-2</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" s="12">
-        <v>45068</v>
-      </c>
-      <c r="C49" s="17">
-        <v>150.30999800000001</v>
+        <v>45075</v>
+      </c>
+      <c r="C49" s="18">
+        <v>151.740005</v>
       </c>
       <c r="D49" s="127">
         <f t="shared" si="0"/>
-        <v>5.8890787741656681E-3</v>
+        <v>9.5137184420692744E-3</v>
       </c>
       <c r="H49" s="105">
         <v>0.06</v>
       </c>
       <c r="I49" s="106">
         <f t="shared" si="7"/>
-        <v>-8.8678890749494185E-2</v>
+        <v>-8.8648616297873101E-2</v>
       </c>
       <c r="J49" s="107">
         <v>0.45</v>
       </c>
       <c r="K49" s="106">
         <f t="shared" si="8"/>
-        <v>-3.5829864335528237E-3</v>
+        <v>-3.4829896692572249E-3</v>
       </c>
       <c r="L49" s="107">
         <v>0.9</v>
       </c>
       <c r="M49" s="108">
         <f t="shared" si="9"/>
-        <v>7.6454233976431737E-2</v>
+        <v>7.6351529886272584E-2</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" s="12">
-        <v>45061</v>
-      </c>
-      <c r="C50" s="17">
-        <v>149.429993</v>
+        <v>45068</v>
+      </c>
+      <c r="C50" s="18">
+        <v>150.30999800000001</v>
       </c>
       <c r="D50" s="127">
         <f t="shared" si="0"/>
-        <v>4.8410819114648174E-2</v>
+        <v>5.8890787741656681E-3</v>
       </c>
       <c r="H50" s="105">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I50" s="106">
         <f t="shared" si="7"/>
-        <v>-8.7249885290151569E-2</v>
+        <v>-8.6976359530494055E-2</v>
       </c>
       <c r="J50" s="107">
         <v>0.5</v>
       </c>
       <c r="K50" s="106">
         <f t="shared" si="8"/>
-        <v>5.737869796573758E-3</v>
+        <v>5.8104574995698766E-3</v>
       </c>
       <c r="L50" s="107">
         <v>0.91</v>
       </c>
       <c r="M50" s="108">
         <f t="shared" si="9"/>
-        <v>7.811689361574127E-2</v>
+        <v>7.8086680198244482E-2</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" s="12">
-        <v>45054</v>
-      </c>
-      <c r="C51" s="17">
-        <v>142.529999</v>
+        <v>45061</v>
+      </c>
+      <c r="C51" s="18">
+        <v>149.429993</v>
       </c>
       <c r="D51" s="127">
         <f t="shared" si="0"/>
-        <v>5.5026384479717194E-3</v>
+        <v>4.8410819114648174E-2</v>
       </c>
       <c r="H51" s="105">
         <v>0.08</v>
       </c>
       <c r="I51" s="106">
         <f t="shared" si="7"/>
-        <v>-8.0465526011393382E-2</v>
+        <v>-8.074364644608141E-2</v>
       </c>
       <c r="J51" s="107">
         <v>0.55000000000000004</v>
       </c>
       <c r="K51" s="106">
         <f t="shared" si="8"/>
-        <v>9.9209577292361864E-3</v>
+        <v>1.0306531850069633E-2</v>
       </c>
       <c r="L51" s="107">
         <v>0.92</v>
       </c>
       <c r="M51" s="108">
         <f t="shared" si="9"/>
-        <v>7.9757435249137879E-2</v>
+        <v>7.9757327332866973E-2</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" s="12">
-        <v>45047</v>
-      </c>
-      <c r="C52" s="17">
-        <v>141.75</v>
+        <v>45054</v>
+      </c>
+      <c r="C52" s="18">
+        <v>142.529999</v>
       </c>
       <c r="D52" s="127">
         <f t="shared" si="0"/>
-        <v>6.1002946362143096E-2</v>
+        <v>5.5026384479717194E-3</v>
       </c>
       <c r="H52" s="105">
         <v>0.09</v>
       </c>
       <c r="I52" s="106">
         <f t="shared" si="7"/>
-        <v>-7.5722407088406551E-2</v>
+        <v>-7.7091120239371189E-2</v>
       </c>
       <c r="J52" s="107">
         <v>0.6</v>
       </c>
       <c r="K52" s="106">
         <f t="shared" si="8"/>
-        <v>1.7000029817087859E-2</v>
+        <v>1.7059247193817795E-2</v>
       </c>
       <c r="L52" s="107">
         <v>0.93</v>
       </c>
       <c r="M52" s="108">
         <f t="shared" si="9"/>
-        <v>9.111815444397435E-2</v>
+        <v>9.0748219612762346E-2</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="12">
-        <v>45040</v>
-      </c>
-      <c r="C53" s="17">
-        <v>133.60000600000001</v>
+        <v>45047</v>
+      </c>
+      <c r="C53" s="18">
+        <v>141.75</v>
       </c>
       <c r="D53" s="127">
         <f t="shared" si="0"/>
-        <v>-1.1960900566719834E-3</v>
+        <v>6.1002946362143096E-2</v>
       </c>
       <c r="H53" s="105">
         <v>0.1</v>
       </c>
       <c r="I53" s="106">
         <f t="shared" si="7"/>
-        <v>-7.1953812141425336E-2</v>
+        <v>-7.3341583734058635E-2</v>
       </c>
       <c r="J53" s="107">
         <v>0.65</v>
       </c>
       <c r="K53" s="106">
         <f t="shared" si="8"/>
-        <v>2.1143746604354894E-2</v>
+        <v>2.1078839438192276E-2</v>
       </c>
       <c r="L53" s="107">
         <v>0.94</v>
       </c>
       <c r="M53" s="108">
         <f t="shared" si="9"/>
-        <v>9.5963369673365495E-2</v>
+        <v>9.595531343593941E-2</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" s="12">
-        <v>45033</v>
-      </c>
-      <c r="C54" s="17">
-        <v>133.759995</v>
+        <v>45040</v>
+      </c>
+      <c r="C54" s="18">
+        <v>133.60000600000001</v>
       </c>
       <c r="D54" s="127">
         <f t="shared" si="0"/>
-        <v>-7.2733409799116133E-3</v>
+        <v>-1.1960900566719834E-3</v>
       </c>
       <c r="H54" s="105">
         <v>0.11</v>
       </c>
       <c r="I54" s="106">
         <f t="shared" si="7"/>
-        <v>-7.0679770018855878E-2</v>
+        <v>-7.0855870662529213E-2</v>
       </c>
       <c r="J54" s="107">
         <v>0.7</v>
       </c>
       <c r="K54" s="106">
         <f t="shared" si="8"/>
-        <v>2.9845402641020112E-2</v>
+        <v>2.9831431029819999E-2</v>
       </c>
       <c r="L54" s="107">
         <v>0.95</v>
       </c>
       <c r="M54" s="108">
         <f t="shared" si="9"/>
-        <v>0.10214587126022781</v>
+        <v>0.10211939853844487</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" s="12">
-        <v>45026</v>
-      </c>
-      <c r="C55" s="17">
-        <v>134.740005</v>
+        <v>45033</v>
+      </c>
+      <c r="C55" s="18">
+        <v>133.759995</v>
       </c>
       <c r="D55" s="127">
         <f t="shared" si="0"/>
-        <v>1.7059247193817795E-2</v>
+        <v>-7.2733409799116133E-3</v>
       </c>
       <c r="H55" s="105">
         <v>0.12</v>
       </c>
       <c r="I55" s="106">
         <f t="shared" si="7"/>
-        <v>-6.7916752114139223E-2</v>
+        <v>-7.0110701917454499E-2</v>
       </c>
       <c r="J55" s="107">
         <v>0.75</v>
       </c>
       <c r="K55" s="106">
         <f t="shared" si="8"/>
-        <v>3.980198622079234E-2</v>
+        <v>3.9702967148447343E-2</v>
       </c>
       <c r="L55" s="107">
         <v>0.96</v>
       </c>
       <c r="M55" s="108">
         <f t="shared" si="9"/>
-        <v>0.1184259190398356</v>
+        <v>0.11815667585986252</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="12">
-        <v>45019</v>
-      </c>
-      <c r="C56" s="17">
-        <v>132.479996</v>
+        <v>45026</v>
+      </c>
+      <c r="C56" s="18">
+        <v>134.740005</v>
       </c>
       <c r="D56" s="127">
         <f t="shared" si="0"/>
-        <v>-8.5316497729249763E-3</v>
+        <v>1.7059247193817795E-2</v>
       </c>
       <c r="H56" s="105">
         <v>0.13</v>
       </c>
       <c r="I56" s="106">
         <f t="shared" si="7"/>
-        <v>-6.542738124352708E-2</v>
+        <v>-6.5805653649845752E-2</v>
       </c>
       <c r="J56" s="107">
         <v>0.8</v>
       </c>
       <c r="K56" s="106">
         <f t="shared" si="8"/>
-        <v>4.7120435221161945E-2</v>
+        <v>4.6797839247790352E-2</v>
       </c>
       <c r="L56" s="107">
         <v>0.97</v>
       </c>
       <c r="M56" s="108">
         <f t="shared" si="9"/>
-        <v>0.14709617845931788</v>
+        <v>0.14701525562238077</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="12">
-        <v>45012</v>
-      </c>
-      <c r="C57" s="17">
-        <v>133.61999499999999</v>
+        <v>45019</v>
+      </c>
+      <c r="C57" s="18">
+        <v>132.479996</v>
       </c>
       <c r="D57" s="127">
         <f t="shared" si="0"/>
-        <v>4.1465252342979264E-2</v>
+        <v>-8.5316497729249763E-3</v>
       </c>
       <c r="H57" s="105">
         <v>0.14000000000000001</v>
       </c>
       <c r="I57" s="106">
         <f t="shared" si="7"/>
-        <v>-6.1101846207536475E-2</v>
+        <v>-6.1407568089879447E-2</v>
       </c>
       <c r="J57" s="107"/>
       <c r="K57" s="106"/>
@@ -32930,26 +32912,26 @@
       </c>
       <c r="M57" s="108">
         <f t="shared" si="9"/>
-        <v>0.16120792528725802</v>
+        <v>0.16094732231886044</v>
       </c>
     </row>
     <row r="58" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="12">
-        <v>45005</v>
-      </c>
-      <c r="C58" s="17">
-        <v>128.300003</v>
+        <v>45012</v>
+      </c>
+      <c r="C58" s="18">
+        <v>133.61999499999999</v>
       </c>
       <c r="D58" s="127">
         <f t="shared" si="0"/>
-        <v>9.5208674017110972E-3</v>
+        <v>4.1465252342979264E-2</v>
       </c>
       <c r="H58" s="109">
         <v>0.15</v>
       </c>
       <c r="I58" s="110">
         <f t="shared" si="7"/>
-        <v>-5.9471738655379566E-2</v>
+        <v>-6.0066001453261408E-2</v>
       </c>
       <c r="J58" s="111"/>
       <c r="K58" s="90"/>
@@ -32958,31 +32940,31 @@
       </c>
       <c r="M58" s="113">
         <f t="shared" si="9"/>
-        <v>0.1841770276449311</v>
+        <v>0.18410734492088726</v>
       </c>
     </row>
     <row r="59" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="12">
-        <v>44998</v>
-      </c>
-      <c r="C59" s="17">
-        <v>127.089996</v>
+        <v>45005</v>
+      </c>
+      <c r="C59" s="18">
+        <v>128.300003</v>
       </c>
       <c r="D59" s="127">
         <f t="shared" si="0"/>
-        <v>4.4632515382787563E-2</v>
+        <v>9.5208674017110972E-3</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="12">
-        <v>44991</v>
-      </c>
-      <c r="C60" s="17">
-        <v>121.660004</v>
+        <v>44998</v>
+      </c>
+      <c r="C60" s="18">
+        <v>127.089996</v>
       </c>
       <c r="D60" s="127">
         <f t="shared" si="0"/>
-        <v>-1.680939092951983E-2</v>
+        <v>4.4632515382787563E-2</v>
       </c>
       <c r="H60" s="114" t="s">
         <v>126</v>
@@ -32991,14 +32973,14 @@
     </row>
     <row r="61" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
-        <v>44984</v>
-      </c>
-      <c r="C61" s="17">
-        <v>123.739998</v>
+        <v>44991</v>
+      </c>
+      <c r="C61" s="18">
+        <v>121.660004</v>
       </c>
       <c r="D61" s="127">
         <f t="shared" si="0"/>
-        <v>5.6342829574379527E-2</v>
+        <v>-1.680939092951983E-2</v>
       </c>
       <c r="H61" s="116" t="s">
         <v>127</v>
@@ -33007,27 +32989,27 @@
     </row>
     <row r="62" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
-        <v>44977</v>
-      </c>
-      <c r="C62" s="17">
-        <v>117.139999</v>
+        <v>44984</v>
+      </c>
+      <c r="C62" s="18">
+        <v>123.739998</v>
       </c>
       <c r="D62" s="127">
         <f t="shared" si="0"/>
-        <v>-6.5347505539814721E-2</v>
+        <v>5.6342829574379527E-2</v>
       </c>
       <c r="H62" s="118"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="12">
-        <v>44970</v>
-      </c>
-      <c r="C63" s="17">
-        <v>125.33000199999999</v>
+        <v>44977</v>
+      </c>
+      <c r="C63" s="18">
+        <v>117.139999</v>
       </c>
       <c r="D63" s="127">
         <f t="shared" si="0"/>
-        <v>1.3582454024210211E-3</v>
+        <v>-6.5347505539814721E-2</v>
       </c>
       <c r="H63" s="114" t="s">
         <v>128</v>
@@ -33036,14 +33018,14 @@
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="12">
-        <v>44963</v>
-      </c>
-      <c r="C64" s="17">
-        <v>125.160004</v>
+        <v>44970</v>
+      </c>
+      <c r="C64" s="18">
+        <v>125.33000199999999</v>
       </c>
       <c r="D64" s="127">
         <f t="shared" si="0"/>
-        <v>3.2928992868350049E-2</v>
+        <v>1.3582454024210211E-3</v>
       </c>
       <c r="H64" s="120" t="s">
         <v>129</v>
@@ -33055,14 +33037,14 @@
     </row>
     <row r="65" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="12">
-        <v>44956</v>
-      </c>
-      <c r="C65" s="17">
-        <v>121.16999800000001</v>
+        <v>44963</v>
+      </c>
+      <c r="C65" s="18">
+        <v>125.160004</v>
       </c>
       <c r="D65" s="127">
         <f t="shared" si="0"/>
-        <v>0.18515258578154525</v>
+        <v>3.2928992868350049E-2</v>
       </c>
       <c r="H65" s="116" t="s">
         <v>130</v>
@@ -33074,3021 +33056,3033 @@
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="12">
-        <v>44949</v>
-      </c>
-      <c r="C66" s="17">
-        <v>102.239998</v>
+        <v>44956</v>
+      </c>
+      <c r="C66" s="18">
+        <v>121.16999800000001</v>
       </c>
       <c r="D66" s="127">
         <f t="shared" si="0"/>
-        <v>4.4224224523573774E-2</v>
+        <v>0.18515258578154525</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="12">
-        <v>44942</v>
-      </c>
-      <c r="C67" s="17">
-        <v>97.910004000000001</v>
+        <v>44949</v>
+      </c>
+      <c r="C67" s="18">
+        <v>102.239998</v>
       </c>
       <c r="D67" s="127">
         <f t="shared" ref="D67:D130" si="10">C67/C68-1</f>
-        <v>6.3545580350762298E-2</v>
+        <v>4.4224224523573774E-2</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="12">
-        <v>44935</v>
-      </c>
-      <c r="C68" s="17">
-        <v>92.059997999999993</v>
+        <v>44942</v>
+      </c>
+      <c r="C68" s="18">
+        <v>97.910004000000001</v>
       </c>
       <c r="D68" s="127">
         <f t="shared" si="10"/>
-        <v>0.10198703492953021</v>
+        <v>6.3545580350762298E-2</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="12">
-        <v>44928</v>
-      </c>
-      <c r="C69" s="17">
-        <v>83.540001000000004</v>
+        <v>44935</v>
+      </c>
+      <c r="C69" s="18">
+        <v>92.059997999999993</v>
       </c>
       <c r="D69" s="127">
         <f t="shared" si="10"/>
-        <v>5.813811493875054E-2</v>
+        <v>0.10198703492953021</v>
       </c>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="12">
-        <v>44921</v>
-      </c>
-      <c r="C70" s="17">
-        <v>78.949996999999996</v>
+        <v>44928</v>
+      </c>
+      <c r="C70" s="18">
+        <v>83.540001000000004</v>
       </c>
       <c r="D70" s="127">
         <f t="shared" si="10"/>
-        <v>1.6087516708655825E-2</v>
+        <v>5.813811493875054E-2</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="12">
-        <v>44914</v>
-      </c>
-      <c r="C71" s="17">
-        <v>77.699996999999996</v>
+        <v>44921</v>
+      </c>
+      <c r="C71" s="18">
+        <v>78.949996999999996</v>
       </c>
       <c r="D71" s="127">
         <f t="shared" si="10"/>
-        <v>3.9603948076102347E-2</v>
+        <v>1.6087516708655825E-2</v>
       </c>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="12">
-        <v>44907</v>
-      </c>
-      <c r="C72" s="17">
-        <v>74.739998</v>
+        <v>44914</v>
+      </c>
+      <c r="C72" s="18">
+        <v>77.699996999999996</v>
       </c>
       <c r="D72" s="127">
         <f t="shared" si="10"/>
-        <v>-4.3878726976557036E-2</v>
+        <v>3.9603948076102347E-2</v>
       </c>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="12">
-        <v>44900</v>
-      </c>
-      <c r="C73" s="17">
-        <v>78.169998000000007</v>
+        <v>44907</v>
+      </c>
+      <c r="C73" s="18">
+        <v>74.739998</v>
       </c>
       <c r="D73" s="127">
         <f t="shared" si="10"/>
-        <v>-2.6646744531110378E-2</v>
+        <v>-4.3878726976557036E-2</v>
       </c>
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="12">
-        <v>44893</v>
-      </c>
-      <c r="C74" s="17">
-        <v>80.309997999999993</v>
+        <v>44900</v>
+      </c>
+      <c r="C74" s="18">
+        <v>78.169998000000007</v>
       </c>
       <c r="D74" s="127">
         <f t="shared" si="10"/>
-        <v>2.0068524575059365E-2</v>
+        <v>-2.6646744531110378E-2</v>
       </c>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="12">
-        <v>44886</v>
-      </c>
-      <c r="C75" s="17">
-        <v>78.730002999999996</v>
+        <v>44893</v>
+      </c>
+      <c r="C75" s="18">
+        <v>80.309997999999993</v>
       </c>
       <c r="D75" s="127">
         <f t="shared" si="10"/>
-        <v>2.2600403236794353E-2</v>
+        <v>2.0068524575059365E-2</v>
       </c>
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="12">
-        <v>44879</v>
-      </c>
-      <c r="C76" s="17">
-        <v>76.989998</v>
+        <v>44886</v>
+      </c>
+      <c r="C76" s="18">
+        <v>78.730002999999996</v>
       </c>
       <c r="D76" s="127">
         <f t="shared" si="10"/>
-        <v>-8.0277160199225372E-2</v>
+        <v>2.2600403236794353E-2</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="12">
-        <v>44872</v>
-      </c>
-      <c r="C77" s="17">
-        <v>83.709998999999996</v>
+        <v>44879</v>
+      </c>
+      <c r="C77" s="18">
+        <v>76.989998</v>
       </c>
       <c r="D77" s="127">
         <f t="shared" si="10"/>
-        <v>0.17818431337715768</v>
+        <v>-8.0277160199225372E-2</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="12">
-        <v>44865</v>
-      </c>
-      <c r="C78" s="17">
-        <v>71.050003000000004</v>
+        <v>44872</v>
+      </c>
+      <c r="C78" s="18">
+        <v>83.709998999999996</v>
       </c>
       <c r="D78" s="127">
         <f t="shared" si="10"/>
-        <v>-0.14767271895786083</v>
+        <v>0.17818431337715768</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="12">
-        <v>44858</v>
-      </c>
-      <c r="C79" s="17">
-        <v>83.360000999999997</v>
+        <v>44865</v>
+      </c>
+      <c r="C79" s="18">
+        <v>71.050003000000004</v>
       </c>
       <c r="D79" s="127">
         <f t="shared" si="10"/>
-        <v>-6.0202888169207047E-2</v>
+        <v>-0.14767271895786083</v>
       </c>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="12">
-        <v>44851</v>
-      </c>
-      <c r="C80" s="17">
-        <v>88.699996999999996</v>
+        <v>44858</v>
+      </c>
+      <c r="C80" s="18">
+        <v>83.360000999999997</v>
       </c>
       <c r="D80" s="127">
         <f t="shared" si="10"/>
-        <v>8.4484605887215958E-2</v>
+        <v>-6.0202888169207047E-2</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B81" s="12">
-        <v>44844</v>
-      </c>
-      <c r="C81" s="17">
-        <v>81.790001000000004</v>
+        <v>44851</v>
+      </c>
+      <c r="C81" s="18">
+        <v>88.699996999999996</v>
       </c>
       <c r="D81" s="127">
         <f t="shared" si="10"/>
-        <v>-7.0673796825956203E-2</v>
+        <v>8.4484605887215958E-2</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B82" s="12">
-        <v>44837</v>
-      </c>
-      <c r="C82" s="17">
-        <v>88.010002</v>
+        <v>44844</v>
+      </c>
+      <c r="C82" s="18">
+        <v>81.790001000000004</v>
       </c>
       <c r="D82" s="127">
         <f t="shared" si="10"/>
-        <v>1.9814587955460317E-2</v>
+        <v>-7.0673796825956203E-2</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B83" s="12">
-        <v>44830</v>
-      </c>
-      <c r="C83" s="17">
-        <v>86.300003000000004</v>
+        <v>44837</v>
+      </c>
+      <c r="C83" s="18">
+        <v>88.010002</v>
       </c>
       <c r="D83" s="127">
         <f t="shared" si="10"/>
-        <v>-3.4027234565804032E-2</v>
+        <v>1.9814587955460317E-2</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B84" s="12">
-        <v>44823</v>
-      </c>
-      <c r="C84" s="17">
-        <v>89.339995999999999</v>
+        <v>44830</v>
+      </c>
+      <c r="C84" s="18">
+        <v>86.300003000000004</v>
       </c>
       <c r="D84" s="127">
         <f t="shared" si="10"/>
-        <v>-0.10962727166144193</v>
+        <v>-3.4027234565804032E-2</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B85" s="12">
-        <v>44816</v>
-      </c>
-      <c r="C85" s="17">
-        <v>100.339996</v>
+        <v>44823</v>
+      </c>
+      <c r="C85" s="18">
+        <v>89.339995999999999</v>
       </c>
       <c r="D85" s="127">
         <f t="shared" si="10"/>
-        <v>-9.0134231865562575E-2</v>
+        <v>-0.10962727166144193</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="12">
-        <v>44809</v>
-      </c>
-      <c r="C86" s="17">
-        <v>110.279999</v>
+        <v>44816</v>
+      </c>
+      <c r="C86" s="18">
+        <v>100.339996</v>
       </c>
       <c r="D86" s="127">
         <f t="shared" si="10"/>
-        <v>5.6119527985434292E-2</v>
+        <v>-9.0134231865562575E-2</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B87" s="12">
-        <v>44802</v>
-      </c>
-      <c r="C87" s="17">
-        <v>104.41999800000001</v>
+        <v>44809</v>
+      </c>
+      <c r="C87" s="18">
+        <v>110.279999</v>
       </c>
       <c r="D87" s="127">
         <f t="shared" si="10"/>
-        <v>-4.473515771173997E-2</v>
+        <v>5.6119527985434292E-2</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B88" s="12">
-        <v>44795</v>
-      </c>
-      <c r="C88" s="17">
-        <v>109.30999799999999</v>
+        <v>44802</v>
+      </c>
+      <c r="C88" s="18">
+        <v>104.41999800000001</v>
       </c>
       <c r="D88" s="127">
         <f t="shared" si="10"/>
-        <v>-1.9025415058781414E-2</v>
+        <v>-4.473515771173997E-2</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B89" s="12">
-        <v>44788</v>
-      </c>
-      <c r="C89" s="17">
-        <v>111.43</v>
+        <v>44795</v>
+      </c>
+      <c r="C89" s="18">
+        <v>109.30999799999999</v>
       </c>
       <c r="D89" s="127">
         <f t="shared" si="10"/>
-        <v>-9.8681527914297296E-2</v>
+        <v>-1.9025415058781414E-2</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B90" s="12">
-        <v>44781</v>
-      </c>
-      <c r="C90" s="17">
-        <v>123.629997</v>
+        <v>44788</v>
+      </c>
+      <c r="C90" s="18">
+        <v>111.43</v>
       </c>
       <c r="D90" s="127">
         <f t="shared" si="10"/>
-        <v>4.12700570722635E-2</v>
+        <v>-9.8681527914297296E-2</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B91" s="12">
-        <v>44774</v>
-      </c>
-      <c r="C91" s="17">
-        <v>118.730003</v>
+        <v>44781</v>
+      </c>
+      <c r="C91" s="18">
+        <v>123.629997</v>
       </c>
       <c r="D91" s="127">
         <f t="shared" si="10"/>
-        <v>5.0522085927855676E-2</v>
+        <v>4.12700570722635E-2</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B92" s="12">
-        <v>44767</v>
-      </c>
-      <c r="C92" s="17">
-        <v>113.019997</v>
+        <v>44774</v>
+      </c>
+      <c r="C92" s="18">
+        <v>118.730003</v>
       </c>
       <c r="D92" s="127">
         <f t="shared" si="10"/>
-        <v>1.2270443129951847E-2</v>
+        <v>5.0522085927855676E-2</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B93" s="12">
-        <v>44760</v>
-      </c>
-      <c r="C93" s="17">
-        <v>111.650002</v>
+        <v>44767</v>
+      </c>
+      <c r="C93" s="18">
+        <v>113.019997</v>
       </c>
       <c r="D93" s="127">
         <f t="shared" si="10"/>
-        <v>9.1077883493054346E-2</v>
+        <v>1.2270443129951847E-2</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B94" s="12">
-        <v>44753</v>
-      </c>
-      <c r="C94" s="17">
-        <v>102.33000199999999</v>
+        <v>44760</v>
+      </c>
+      <c r="C94" s="18">
+        <v>111.650002</v>
       </c>
       <c r="D94" s="127">
         <f t="shared" si="10"/>
-        <v>-1.8323062515791744E-2</v>
+        <v>9.1077883493054346E-2</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B95" s="12">
-        <v>44746</v>
-      </c>
-      <c r="C95" s="17">
-        <v>104.239998</v>
+        <v>44753</v>
+      </c>
+      <c r="C95" s="18">
+        <v>102.33000199999999</v>
       </c>
       <c r="D95" s="127">
         <f t="shared" si="10"/>
-        <v>6.8908954129684785E-2</v>
+        <v>-1.8323062515791744E-2</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B96" s="12">
-        <v>44739</v>
-      </c>
-      <c r="C96" s="17">
-        <v>97.519997000000004</v>
+        <v>44746</v>
+      </c>
+      <c r="C96" s="18">
+        <v>104.239998</v>
       </c>
       <c r="D96" s="127">
         <f t="shared" si="10"/>
-        <v>-8.859815887850464E-2</v>
+        <v>6.8908954129684785E-2</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B97" s="12">
-        <v>44732</v>
-      </c>
-      <c r="C97" s="17">
-        <v>107</v>
+        <v>44739</v>
+      </c>
+      <c r="C97" s="18">
+        <v>97.519997000000004</v>
       </c>
       <c r="D97" s="127">
         <f t="shared" si="10"/>
-        <v>7.7868472182989867E-2</v>
+        <v>-8.859815887850464E-2</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B98" s="12">
-        <v>44725</v>
-      </c>
-      <c r="C98" s="17">
-        <v>99.269997000000004</v>
+        <v>44732</v>
+      </c>
+      <c r="C98" s="18">
+        <v>107</v>
       </c>
       <c r="D98" s="127">
         <f t="shared" si="10"/>
-        <v>-2.8954376534646054E-2</v>
+        <v>7.7868472182989867E-2</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="12">
-        <v>44718</v>
-      </c>
-      <c r="C99" s="17">
-        <v>102.230003</v>
+        <v>44725</v>
+      </c>
+      <c r="C99" s="18">
+        <v>99.269997000000004</v>
       </c>
       <c r="D99" s="127">
         <f t="shared" si="10"/>
-        <v>-8.91027330721893E-2</v>
+        <v>-2.8954376534646054E-2</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B100" s="12">
-        <v>44711</v>
-      </c>
-      <c r="C100" s="17">
-        <v>112.230003</v>
+        <v>44718</v>
+      </c>
+      <c r="C100" s="18">
+        <v>102.230003</v>
       </c>
       <c r="D100" s="127">
         <f t="shared" si="10"/>
-        <v>-6.550393851904146E-3</v>
+        <v>-8.91027330721893E-2</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B101" s="12">
-        <v>44704</v>
-      </c>
-      <c r="C101" s="17">
-        <v>112.970001</v>
+        <v>44711</v>
+      </c>
+      <c r="C101" s="18">
+        <v>112.230003</v>
       </c>
       <c r="D101" s="127">
         <f t="shared" si="10"/>
-        <v>5.3136982934752774E-2</v>
+        <v>-6.550393851904146E-3</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B102" s="12">
-        <v>44697</v>
-      </c>
-      <c r="C102" s="17">
-        <v>107.269997</v>
+        <v>44704</v>
+      </c>
+      <c r="C102" s="18">
+        <v>112.970001</v>
       </c>
       <c r="D102" s="127">
         <f t="shared" si="10"/>
-        <v>1.1122641573103609E-2</v>
+        <v>5.3136982934752774E-2</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B103" s="12">
-        <v>44690</v>
-      </c>
-      <c r="C103" s="17">
-        <v>106.089996</v>
+        <v>44697</v>
+      </c>
+      <c r="C103" s="18">
+        <v>107.269997</v>
       </c>
       <c r="D103" s="127">
         <f t="shared" si="10"/>
-        <v>1.3469583492548676E-2</v>
+        <v>1.1122641573103609E-2</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B104" s="12">
-        <v>44683</v>
-      </c>
-      <c r="C104" s="17">
-        <v>104.68</v>
+        <v>44690</v>
+      </c>
+      <c r="C104" s="18">
+        <v>106.089996</v>
       </c>
       <c r="D104" s="127">
         <f t="shared" si="10"/>
-        <v>2.9808145011153142E-2</v>
+        <v>1.3469583492548676E-2</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B105" s="12">
-        <v>44676</v>
-      </c>
-      <c r="C105" s="17">
-        <v>101.650002</v>
+        <v>44683</v>
+      </c>
+      <c r="C105" s="18">
+        <v>104.68</v>
       </c>
       <c r="D105" s="127">
         <f t="shared" si="10"/>
-        <v>-7.7669876396605275E-2</v>
+        <v>2.9808145011153142E-2</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B106" s="12">
-        <v>44669</v>
-      </c>
-      <c r="C106" s="17">
-        <v>110.209999</v>
+        <v>44676</v>
+      </c>
+      <c r="C106" s="18">
+        <v>101.650002</v>
       </c>
       <c r="D106" s="127">
         <f t="shared" si="10"/>
-        <v>-0.1912380144936372</v>
+        <v>-7.7669876396605275E-2</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B107" s="12">
-        <v>44662</v>
-      </c>
-      <c r="C107" s="17">
-        <v>136.270004</v>
+        <v>44669</v>
+      </c>
+      <c r="C107" s="18">
+        <v>110.209999</v>
       </c>
       <c r="D107" s="127">
         <f t="shared" si="10"/>
-        <v>-3.5461459764025038E-2</v>
+        <v>-0.1912380144936372</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B108" s="12">
-        <v>44655</v>
-      </c>
-      <c r="C108" s="17">
-        <v>141.279999</v>
+        <v>44662</v>
+      </c>
+      <c r="C108" s="18">
+        <v>136.270004</v>
       </c>
       <c r="D108" s="127">
         <f t="shared" si="10"/>
-        <v>-8.0806754992974961E-2</v>
+        <v>-3.5461459764025038E-2</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B109" s="12">
-        <v>44648</v>
-      </c>
-      <c r="C109" s="17">
-        <v>153.699997</v>
+        <v>44655</v>
+      </c>
+      <c r="C109" s="18">
+        <v>141.279999</v>
       </c>
       <c r="D109" s="127">
         <f t="shared" si="10"/>
-        <v>5.2451413086550769E-2</v>
+        <v>-8.0806754992974961E-2</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B110" s="12">
-        <v>44641</v>
-      </c>
-      <c r="C110" s="17">
-        <v>146.03999300000001</v>
+        <v>44648</v>
+      </c>
+      <c r="C110" s="18">
+        <v>153.699997</v>
       </c>
       <c r="D110" s="127">
         <f t="shared" si="10"/>
-        <v>8.7028181289046103E-3</v>
+        <v>5.2451413086550769E-2</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B111" s="12">
-        <v>44634</v>
-      </c>
-      <c r="C111" s="17">
-        <v>144.779999</v>
+        <v>44641</v>
+      </c>
+      <c r="C111" s="18">
+        <v>146.03999300000001</v>
       </c>
       <c r="D111" s="127">
         <f t="shared" si="10"/>
-        <v>0.16485636684482774</v>
+        <v>8.7028181289046103E-3</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B112" s="12">
-        <v>44627</v>
-      </c>
-      <c r="C112" s="17">
-        <v>124.290001</v>
+        <v>44634</v>
+      </c>
+      <c r="C112" s="18">
+        <v>144.779999</v>
       </c>
       <c r="D112" s="127">
         <f t="shared" si="10"/>
-        <v>-8.0491212258507194E-2</v>
+        <v>0.16485636684482774</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B113" s="12">
-        <v>44620</v>
-      </c>
-      <c r="C113" s="17">
-        <v>135.16999799999999</v>
+        <v>44627</v>
+      </c>
+      <c r="C113" s="18">
+        <v>124.290001</v>
       </c>
       <c r="D113" s="127">
         <f t="shared" si="10"/>
-        <v>-0.11019686366409409</v>
+        <v>-8.0491212258507194E-2</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B114" s="12">
-        <v>44613</v>
-      </c>
-      <c r="C114" s="17">
-        <v>151.91000399999999</v>
+        <v>44620</v>
+      </c>
+      <c r="C114" s="18">
+        <v>135.16999799999999</v>
       </c>
       <c r="D114" s="127">
         <f t="shared" si="10"/>
-        <v>-2.3642213866363893E-3</v>
+        <v>-0.11019686366409409</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B115" s="12">
-        <v>44606</v>
-      </c>
-      <c r="C115" s="17">
-        <v>152.270004</v>
+        <v>44613</v>
+      </c>
+      <c r="C115" s="18">
+        <v>151.91000399999999</v>
       </c>
       <c r="D115" s="127">
         <f t="shared" si="10"/>
-        <v>-5.9655341305424492E-2</v>
+        <v>-2.3642213866363893E-3</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="12">
-        <v>44599</v>
-      </c>
-      <c r="C116" s="17">
-        <v>161.929993</v>
+        <v>44606</v>
+      </c>
+      <c r="C116" s="18">
+        <v>152.270004</v>
       </c>
       <c r="D116" s="127">
         <f t="shared" si="10"/>
-        <v>-7.1661987626176149E-2</v>
+        <v>-5.9655341305424492E-2</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B117" s="12">
-        <v>44592</v>
-      </c>
-      <c r="C117" s="17">
-        <v>174.429993</v>
+        <v>44599</v>
+      </c>
+      <c r="C117" s="18">
+        <v>161.929993</v>
       </c>
       <c r="D117" s="127">
         <f t="shared" si="10"/>
-        <v>8.3824548128674792E-3</v>
+        <v>-7.1661987626176149E-2</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B118" s="12">
-        <v>44585</v>
-      </c>
-      <c r="C118" s="17">
-        <v>172.979996</v>
+        <v>44592</v>
+      </c>
+      <c r="C118" s="18">
+        <v>174.429993</v>
       </c>
       <c r="D118" s="127">
         <f t="shared" si="10"/>
-        <v>-0.1153275871494277</v>
+        <v>8.3824548128674792E-3</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B119" s="12">
-        <v>44578</v>
-      </c>
-      <c r="C119" s="17">
-        <v>195.529999</v>
+        <v>44585</v>
+      </c>
+      <c r="C119" s="18">
+        <v>172.979996</v>
       </c>
       <c r="D119" s="127">
         <f t="shared" si="10"/>
-        <v>-0.10537151908282871</v>
+        <v>-0.1153275871494277</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B120" s="12">
-        <v>44571</v>
-      </c>
-      <c r="C120" s="17">
-        <v>218.55999800000001</v>
+        <v>44578</v>
+      </c>
+      <c r="C120" s="18">
+        <v>195.529999</v>
       </c>
       <c r="D120" s="127">
         <f t="shared" si="10"/>
-        <v>-2.2452831000511431E-2</v>
+        <v>-0.10537151908282871</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B121" s="12">
-        <v>44564</v>
-      </c>
-      <c r="C121" s="17">
-        <v>223.58000200000001</v>
+        <v>44571</v>
+      </c>
+      <c r="C121" s="18">
+        <v>218.55999800000001</v>
       </c>
       <c r="D121" s="127">
         <f t="shared" si="10"/>
-        <v>-4.4652382364023357E-2</v>
+        <v>-2.2452831000511431E-2</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B122" s="12">
-        <v>44557</v>
-      </c>
-      <c r="C122" s="17">
-        <v>234.029999</v>
+        <v>44564</v>
+      </c>
+      <c r="C122" s="18">
+        <v>223.58000200000001</v>
       </c>
       <c r="D122" s="127">
         <f t="shared" si="10"/>
-        <v>-1.0987642923812713E-2</v>
+        <v>-4.4652382364023357E-2</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B123" s="12">
-        <v>44550</v>
-      </c>
-      <c r="C123" s="17">
-        <v>236.63000500000001</v>
+        <v>44557</v>
+      </c>
+      <c r="C123" s="18">
+        <v>234.029999</v>
       </c>
       <c r="D123" s="127">
         <f t="shared" si="10"/>
-        <v>5.737869796573758E-3</v>
+        <v>-1.0987642923812713E-2</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B124" s="12">
-        <v>44543</v>
-      </c>
-      <c r="C124" s="17">
-        <v>235.279999</v>
+        <v>44550</v>
+      </c>
+      <c r="C124" s="18">
+        <v>236.63000500000001</v>
       </c>
       <c r="D124" s="127">
         <f t="shared" si="10"/>
-        <v>8.6598818627257046E-3</v>
+        <v>5.737869796573758E-3</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B125" s="12">
-        <v>44536</v>
-      </c>
-      <c r="C125" s="17">
-        <v>233.259995</v>
+        <v>44543</v>
+      </c>
+      <c r="C125" s="18">
+        <v>235.279999</v>
       </c>
       <c r="D125" s="127">
         <f t="shared" si="10"/>
-        <v>1.9492971772382406E-2</v>
+        <v>8.6598818627257046E-3</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B126" s="12">
-        <v>44529</v>
-      </c>
-      <c r="C126" s="17">
-        <v>228.800003</v>
+        <v>44536</v>
+      </c>
+      <c r="C126" s="18">
+        <v>233.259995</v>
       </c>
       <c r="D126" s="127">
         <f t="shared" si="10"/>
-        <v>-8.8046538674504848E-2</v>
+        <v>1.9492971772382406E-2</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B127" s="12">
-        <v>44522</v>
-      </c>
-      <c r="C127" s="17">
-        <v>250.88999899999999</v>
+        <v>44529</v>
+      </c>
+      <c r="C127" s="18">
+        <v>228.800003</v>
       </c>
       <c r="D127" s="127">
         <f t="shared" si="10"/>
-        <v>-3.3365399346502733E-2</v>
+        <v>-8.8046538674504848E-2</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="12">
-        <v>44515</v>
-      </c>
-      <c r="C128" s="17">
-        <v>259.54998799999998</v>
+        <v>44522</v>
+      </c>
+      <c r="C128" s="18">
+        <v>250.88999899999999</v>
       </c>
       <c r="D128" s="127">
         <f t="shared" si="10"/>
-        <v>-7.4885978577744483E-2</v>
+        <v>-3.3365399346502733E-2</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B129" s="12">
-        <v>44508</v>
-      </c>
-      <c r="C129" s="17">
-        <v>280.55999800000001</v>
+        <v>44515</v>
+      </c>
+      <c r="C129" s="18">
+        <v>259.54998799999998</v>
       </c>
       <c r="D129" s="127">
         <f t="shared" si="10"/>
-        <v>-2.9372047578151039E-2</v>
+        <v>-7.4885978577744483E-2</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B130" s="12">
-        <v>44501</v>
-      </c>
-      <c r="C130" s="17">
-        <v>289.04998799999998</v>
+        <v>44508</v>
+      </c>
+      <c r="C130" s="18">
+        <v>280.55999800000001</v>
       </c>
       <c r="D130" s="127">
         <f t="shared" si="10"/>
-        <v>-1.2094195136714836E-3</v>
+        <v>-2.9372047578151039E-2</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B131" s="12">
-        <v>44494</v>
-      </c>
-      <c r="C131" s="17">
-        <v>289.39999399999999</v>
+        <v>44501</v>
+      </c>
+      <c r="C131" s="18">
+        <v>289.04998799999998</v>
       </c>
       <c r="D131" s="127">
         <f t="shared" ref="D131:D194" si="11">C131/C132-1</f>
-        <v>0.14405434057408129</v>
+        <v>-1.2094195136714836E-3</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B132" s="12">
-        <v>44487</v>
-      </c>
-      <c r="C132" s="17">
-        <v>252.96000699999999</v>
+        <v>44494</v>
+      </c>
+      <c r="C132" s="18">
+        <v>289.39999399999999</v>
       </c>
       <c r="D132" s="127">
         <f t="shared" si="11"/>
-        <v>2.2473779849808695E-2</v>
+        <v>0.14405434057408129</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B133" s="12">
-        <v>44480</v>
-      </c>
-      <c r="C133" s="17">
-        <v>247.39999399999999</v>
+        <v>44487</v>
+      </c>
+      <c r="C133" s="18">
+        <v>252.96000699999999</v>
       </c>
       <c r="D133" s="127">
         <f t="shared" si="11"/>
-        <v>6.2349659430829929E-2</v>
+        <v>2.2473779849808695E-2</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B134" s="12">
-        <v>44473</v>
-      </c>
-      <c r="C134" s="17">
-        <v>232.88000500000001</v>
+        <v>44480</v>
+      </c>
+      <c r="C134" s="18">
+        <v>247.39999399999999</v>
       </c>
       <c r="D134" s="127">
         <f t="shared" si="11"/>
-        <v>1.547988910757514E-2</v>
+        <v>6.2349659430829929E-2</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B135" s="12">
-        <v>44466</v>
-      </c>
-      <c r="C135" s="17">
-        <v>229.33000200000001</v>
+        <v>44473</v>
+      </c>
+      <c r="C135" s="18">
+        <v>232.88000500000001</v>
       </c>
       <c r="D135" s="127">
         <f t="shared" si="11"/>
-        <v>-3.7793006574191601E-3</v>
+        <v>1.547988910757514E-2</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B136" s="12">
-        <v>44459</v>
-      </c>
-      <c r="C136" s="17">
-        <v>230.199997</v>
+        <v>44466</v>
+      </c>
+      <c r="C136" s="18">
+        <v>229.33000200000001</v>
       </c>
       <c r="D136" s="127">
         <f t="shared" si="11"/>
-        <v>-7.2148361818258122E-2</v>
+        <v>-3.7793006574191601E-3</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B137" s="12">
-        <v>44452</v>
-      </c>
-      <c r="C137" s="17">
-        <v>248.10000600000001</v>
+        <v>44459</v>
+      </c>
+      <c r="C137" s="18">
+        <v>230.199997</v>
       </c>
       <c r="D137" s="127">
         <f t="shared" si="11"/>
-        <v>1.3723401955993975E-3</v>
+        <v>-7.2148361818258122E-2</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B138" s="12">
-        <v>44445</v>
-      </c>
-      <c r="C138" s="17">
-        <v>247.759995</v>
+        <v>44452</v>
+      </c>
+      <c r="C138" s="18">
+        <v>248.10000600000001</v>
       </c>
       <c r="D138" s="127">
         <f t="shared" si="11"/>
-        <v>-5.1397287021286431E-3</v>
+        <v>1.3723401955993975E-3</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B139" s="12">
-        <v>44438</v>
-      </c>
-      <c r="C139" s="17">
-        <v>249.03999300000001</v>
+        <v>44445</v>
+      </c>
+      <c r="C139" s="18">
+        <v>247.759995</v>
       </c>
       <c r="D139" s="127">
         <f t="shared" si="11"/>
-        <v>0.1018493433882075</v>
+        <v>-5.1397287021286431E-3</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B140" s="12">
-        <v>44431</v>
-      </c>
-      <c r="C140" s="17">
-        <v>226.020004</v>
+        <v>44438</v>
+      </c>
+      <c r="C140" s="18">
+        <v>249.03999300000001</v>
       </c>
       <c r="D140" s="127">
         <f t="shared" si="11"/>
-        <v>4.329765991182466E-2</v>
+        <v>0.1018493433882075</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B141" s="12">
-        <v>44424</v>
-      </c>
-      <c r="C141" s="17">
-        <v>216.63999899999999</v>
+        <v>44431</v>
+      </c>
+      <c r="C141" s="18">
+        <v>226.020004</v>
       </c>
       <c r="D141" s="127">
         <f t="shared" si="11"/>
-        <v>2.4399485046330271E-2</v>
+        <v>4.329765991182466E-2</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B142" s="12">
-        <v>44417</v>
-      </c>
-      <c r="C142" s="17">
-        <v>211.479996</v>
+        <v>44424</v>
+      </c>
+      <c r="C142" s="18">
+        <v>216.63999899999999</v>
       </c>
       <c r="D142" s="127">
         <f t="shared" si="11"/>
-        <v>-4.7258660867420588E-2</v>
+        <v>2.4399485046330271E-2</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B143" s="12">
-        <v>44410</v>
-      </c>
-      <c r="C143" s="17">
-        <v>221.970001</v>
+        <v>44417</v>
+      </c>
+      <c r="C143" s="18">
+        <v>211.479996</v>
       </c>
       <c r="D143" s="127">
         <f t="shared" si="11"/>
-        <v>-2.929985157038395E-2</v>
+        <v>-4.7258660867420588E-2</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B144" s="12">
-        <v>44403</v>
-      </c>
-      <c r="C144" s="17">
-        <v>228.66999799999999</v>
+        <v>44410</v>
+      </c>
+      <c r="C144" s="18">
+        <v>221.970001</v>
       </c>
       <c r="D144" s="127">
         <f t="shared" si="11"/>
-        <v>-6.1443117145965842E-2</v>
+        <v>-2.929985157038395E-2</v>
       </c>
     </row>
     <row r="145" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B145" s="12">
-        <v>44396</v>
-      </c>
-      <c r="C145" s="17">
-        <v>243.63999899999999</v>
+        <v>44403</v>
+      </c>
+      <c r="C145" s="18">
+        <v>228.66999799999999</v>
       </c>
       <c r="D145" s="127">
         <f t="shared" si="11"/>
-        <v>1.6444416698642161E-3</v>
+        <v>-6.1443117145965842E-2</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B146" s="12">
-        <v>44389</v>
-      </c>
-      <c r="C146" s="17">
-        <v>243.240005</v>
+        <v>44396</v>
+      </c>
+      <c r="C146" s="18">
+        <v>243.63999899999999</v>
       </c>
       <c r="D146" s="127">
         <f t="shared" si="11"/>
-        <v>-7.4534805649859148E-2</v>
+        <v>1.6444416698642161E-3</v>
       </c>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B147" s="12">
-        <v>44382</v>
-      </c>
-      <c r="C147" s="17">
-        <v>262.82998700000002</v>
+        <v>44389</v>
+      </c>
+      <c r="C147" s="18">
+        <v>243.240005</v>
       </c>
       <c r="D147" s="127">
         <f t="shared" si="11"/>
-        <v>-1.8668559320058509E-2</v>
+        <v>-7.4534805649859148E-2</v>
       </c>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B148" s="12">
-        <v>44375</v>
-      </c>
-      <c r="C148" s="17">
-        <v>267.82998700000002</v>
+        <v>44382</v>
+      </c>
+      <c r="C148" s="18">
+        <v>262.82998700000002</v>
       </c>
       <c r="D148" s="127">
         <f t="shared" si="11"/>
-        <v>5.443283928161291E-3</v>
+        <v>-1.8668559320058509E-2</v>
       </c>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B149" s="12">
-        <v>44368</v>
-      </c>
-      <c r="C149" s="17">
-        <v>266.38000499999998</v>
+        <v>44375</v>
+      </c>
+      <c r="C149" s="18">
+        <v>267.82998700000002</v>
       </c>
       <c r="D149" s="127">
         <f t="shared" si="11"/>
-        <v>7.5674390549484771E-2</v>
+        <v>5.443283928161291E-3</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B150" s="12">
-        <v>44361</v>
-      </c>
-      <c r="C150" s="17">
-        <v>247.63999899999999</v>
+        <v>44368</v>
+      </c>
+      <c r="C150" s="18">
+        <v>266.38000499999998</v>
       </c>
       <c r="D150" s="127">
         <f t="shared" si="11"/>
-        <v>1.633421544226854E-2</v>
+        <v>7.5674390549484771E-2</v>
       </c>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" s="12">
-        <v>44354</v>
-      </c>
-      <c r="C151" s="17">
-        <v>243.66000399999999</v>
+        <v>44361</v>
+      </c>
+      <c r="C151" s="18">
+        <v>247.63999899999999</v>
       </c>
       <c r="D151" s="127">
         <f t="shared" si="11"/>
-        <v>3.1714468659986172E-2</v>
+        <v>1.633421544226854E-2</v>
       </c>
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B152" s="12">
-        <v>44347</v>
-      </c>
-      <c r="C152" s="17">
-        <v>236.16999799999999</v>
+        <v>44354</v>
+      </c>
+      <c r="C152" s="18">
+        <v>243.66000399999999</v>
       </c>
       <c r="D152" s="127">
         <f t="shared" si="11"/>
-        <v>-2.235380570237766E-2</v>
+        <v>3.1714468659986172E-2</v>
       </c>
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B153" s="12">
-        <v>44340</v>
-      </c>
-      <c r="C153" s="17">
-        <v>241.570007</v>
+        <v>44347</v>
+      </c>
+      <c r="C153" s="18">
+        <v>236.16999799999999</v>
       </c>
       <c r="D153" s="127">
         <f t="shared" si="11"/>
-        <v>5.4246347448050791E-2</v>
+        <v>-2.235380570237766E-2</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B154" s="12">
-        <v>44333</v>
-      </c>
-      <c r="C154" s="17">
-        <v>229.13999899999999</v>
+        <v>44340</v>
+      </c>
+      <c r="C154" s="18">
+        <v>241.570007</v>
       </c>
       <c r="D154" s="127">
         <f t="shared" si="11"/>
-        <v>2.482223310205689E-2</v>
+        <v>5.4246347448050791E-2</v>
       </c>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B155" s="12">
-        <v>44326</v>
-      </c>
-      <c r="C155" s="17">
-        <v>223.58999600000001</v>
+        <v>44333</v>
+      </c>
+      <c r="C155" s="18">
+        <v>229.13999899999999</v>
       </c>
       <c r="D155" s="127">
         <f t="shared" si="11"/>
-        <v>-6.6079143459685907E-2</v>
+        <v>2.482223310205689E-2</v>
       </c>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B156" s="12">
-        <v>44319</v>
-      </c>
-      <c r="C156" s="17">
-        <v>239.41000399999999</v>
+        <v>44326</v>
+      </c>
+      <c r="C156" s="18">
+        <v>223.58999600000001</v>
       </c>
       <c r="D156" s="127">
         <f t="shared" si="11"/>
-        <v>-5.0412467285666951E-2</v>
+        <v>-6.6079143459685907E-2</v>
       </c>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B157" s="12">
-        <v>44312</v>
-      </c>
-      <c r="C157" s="17">
-        <v>252.11999499999999</v>
+        <v>44319</v>
+      </c>
+      <c r="C157" s="18">
+        <v>239.41000399999999</v>
       </c>
       <c r="D157" s="127">
         <f t="shared" si="11"/>
-        <v>-0.11259720421300934</v>
+        <v>-5.0412467285666951E-2</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B158" s="12">
-        <v>44305</v>
-      </c>
-      <c r="C158" s="17">
-        <v>284.10998499999999</v>
+        <v>44312</v>
+      </c>
+      <c r="C158" s="18">
+        <v>252.11999499999999</v>
       </c>
       <c r="D158" s="127">
         <f t="shared" si="11"/>
-        <v>-2.7087200527221467E-2</v>
+        <v>-0.11259720421300934</v>
       </c>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B159" s="12">
-        <v>44298</v>
-      </c>
-      <c r="C159" s="17">
-        <v>292.01998900000001</v>
+        <v>44305</v>
+      </c>
+      <c r="C159" s="18">
+        <v>284.10998499999999</v>
       </c>
       <c r="D159" s="127">
         <f t="shared" si="11"/>
-        <v>4.591682109240014E-2</v>
+        <v>-2.7087200527221467E-2</v>
       </c>
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B160" s="12">
-        <v>44291</v>
-      </c>
-      <c r="C160" s="17">
-        <v>279.20001200000002</v>
+        <v>44298</v>
+      </c>
+      <c r="C160" s="18">
+        <v>292.01998900000001</v>
       </c>
       <c r="D160" s="127">
         <f t="shared" si="11"/>
-        <v>2.2336162087085443E-2</v>
+        <v>4.591682109240014E-2</v>
       </c>
     </row>
     <row r="161" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B161" s="12">
-        <v>44284</v>
-      </c>
-      <c r="C161" s="17">
-        <v>273.10000600000001</v>
+        <v>44291</v>
+      </c>
+      <c r="C161" s="18">
+        <v>279.20001200000002</v>
       </c>
       <c r="D161" s="127">
         <f t="shared" si="11"/>
-        <v>4.5118855345136932E-2</v>
+        <v>2.2336162087085443E-2</v>
       </c>
     </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B162" s="12">
-        <v>44277</v>
-      </c>
-      <c r="C162" s="17">
-        <v>261.30999800000001</v>
+        <v>44284</v>
+      </c>
+      <c r="C162" s="18">
+        <v>273.10000600000001</v>
       </c>
       <c r="D162" s="127">
         <f t="shared" si="11"/>
-        <v>-3.968978573130999E-2</v>
+        <v>4.5118855345136932E-2</v>
       </c>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B163" s="12">
-        <v>44270</v>
-      </c>
-      <c r="C163" s="17">
-        <v>272.10998499999999</v>
+        <v>44277</v>
+      </c>
+      <c r="C163" s="18">
+        <v>261.30999800000001</v>
       </c>
       <c r="D163" s="127">
         <f t="shared" si="11"/>
-        <v>-2.779674008735189E-2</v>
+        <v>-3.968978573130999E-2</v>
       </c>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B164" s="12">
-        <v>44263</v>
-      </c>
-      <c r="C164" s="17">
-        <v>279.89001500000001</v>
+        <v>44270</v>
+      </c>
+      <c r="C164" s="18">
+        <v>272.10998499999999</v>
       </c>
       <c r="D164" s="127">
         <f t="shared" si="11"/>
-        <v>1.7855857893612548E-2</v>
+        <v>-2.779674008735189E-2</v>
       </c>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B165" s="12">
-        <v>44256</v>
-      </c>
-      <c r="C165" s="17">
-        <v>274.98001099999999</v>
+        <v>44263</v>
+      </c>
+      <c r="C165" s="18">
+        <v>279.89001500000001</v>
       </c>
       <c r="D165" s="127">
         <f t="shared" si="11"/>
-        <v>-0.10540696685849815</v>
+        <v>1.7855857893612548E-2</v>
       </c>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B166" s="12">
-        <v>44249</v>
-      </c>
-      <c r="C166" s="17">
-        <v>307.38000499999998</v>
+        <v>44256</v>
+      </c>
+      <c r="C166" s="18">
+        <v>274.98001099999999</v>
       </c>
       <c r="D166" s="127">
         <f t="shared" si="11"/>
-        <v>-0.15691596485823489</v>
+        <v>-0.10540696685849815</v>
       </c>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B167" s="12">
-        <v>44242</v>
-      </c>
-      <c r="C167" s="17">
-        <v>364.58999599999999</v>
+        <v>44249</v>
+      </c>
+      <c r="C167" s="18">
+        <v>307.38000499999998</v>
       </c>
       <c r="D167" s="127">
         <f t="shared" si="11"/>
-        <v>7.3270483134395548E-2</v>
+        <v>-0.15691596485823489</v>
       </c>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B168" s="12">
-        <v>44235</v>
-      </c>
-      <c r="C168" s="17">
-        <v>339.70001200000002</v>
+        <v>44242</v>
+      </c>
+      <c r="C168" s="18">
+        <v>364.58999599999999</v>
       </c>
       <c r="D168" s="127">
         <f t="shared" si="11"/>
-        <v>9.3091431039050487E-2</v>
+        <v>7.3270483134395548E-2</v>
       </c>
     </row>
     <row r="169" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B169" s="12">
-        <v>44228</v>
-      </c>
-      <c r="C169" s="17">
-        <v>310.76998900000001</v>
+        <v>44235</v>
+      </c>
+      <c r="C169" s="18">
+        <v>339.70001200000002</v>
       </c>
       <c r="D169" s="127">
         <f t="shared" si="11"/>
-        <v>-1.3428606349206285E-2</v>
+        <v>9.3091431039050487E-2</v>
       </c>
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B170" s="12">
-        <v>44221</v>
-      </c>
-      <c r="C170" s="17">
-        <v>315</v>
+        <v>44228</v>
+      </c>
+      <c r="C170" s="18">
+        <v>310.76998900000001</v>
       </c>
       <c r="D170" s="127">
         <f t="shared" si="11"/>
-        <v>-7.068678202791201E-2</v>
+        <v>-1.3428606349206285E-2</v>
       </c>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B171" s="12">
-        <v>44214</v>
-      </c>
-      <c r="C171" s="17">
-        <v>338.959991</v>
+        <v>44221</v>
+      </c>
+      <c r="C171" s="18">
+        <v>315</v>
       </c>
       <c r="D171" s="127">
         <f t="shared" si="11"/>
-        <v>5.9846112128938866E-2</v>
+        <v>-7.068678202791201E-2</v>
       </c>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B172" s="12">
-        <v>44207</v>
-      </c>
-      <c r="C172" s="17">
-        <v>319.82000699999998</v>
+        <v>44214</v>
+      </c>
+      <c r="C172" s="18">
+        <v>338.959991</v>
       </c>
       <c r="D172" s="127">
         <f t="shared" si="11"/>
-        <v>-9.4276512741490515E-2</v>
+        <v>5.9846112128938866E-2</v>
       </c>
     </row>
     <row r="173" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B173" s="12">
-        <v>44200</v>
-      </c>
-      <c r="C173" s="17">
-        <v>353.10998499999999</v>
+        <v>44207</v>
+      </c>
+      <c r="C173" s="18">
+        <v>319.82000699999998</v>
       </c>
       <c r="D173" s="127">
         <f t="shared" si="11"/>
-        <v>0.12219532355945684</v>
+        <v>-9.4276512741490515E-2</v>
       </c>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B174" s="12">
-        <v>44193</v>
-      </c>
-      <c r="C174" s="17">
-        <v>314.66000400000001</v>
+        <v>44200</v>
+      </c>
+      <c r="C174" s="18">
+        <v>353.10998499999999</v>
       </c>
       <c r="D174" s="127">
         <f t="shared" si="11"/>
-        <v>-4.1810074523733531E-2</v>
+        <v>0.12219532355945684</v>
       </c>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B175" s="12">
-        <v>44186</v>
-      </c>
-      <c r="C175" s="17">
-        <v>328.39001500000001</v>
+        <v>44193</v>
+      </c>
+      <c r="C175" s="18">
+        <v>314.66000400000001</v>
       </c>
       <c r="D175" s="127">
         <f t="shared" si="11"/>
-        <v>-2.2939574121876083E-2</v>
+        <v>-4.1810074523733531E-2</v>
       </c>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B176" s="12">
-        <v>44179</v>
-      </c>
-      <c r="C176" s="17">
-        <v>336.10000600000001</v>
+        <v>44186</v>
+      </c>
+      <c r="C176" s="18">
+        <v>328.39001500000001</v>
       </c>
       <c r="D176" s="127">
         <f t="shared" si="11"/>
-        <v>-1.5004967425693239E-2</v>
+        <v>-2.2939574121876083E-2</v>
       </c>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B177" s="12">
-        <v>44172</v>
-      </c>
-      <c r="C177" s="17">
-        <v>341.22000100000002</v>
+        <v>44179</v>
+      </c>
+      <c r="C177" s="18">
+        <v>336.10000600000001</v>
       </c>
       <c r="D177" s="127">
         <f t="shared" si="11"/>
-        <v>6.7079503198782087E-2</v>
+        <v>-1.5004967425693239E-2</v>
       </c>
     </row>
     <row r="178" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B178" s="12">
-        <v>44165</v>
-      </c>
-      <c r="C178" s="17">
-        <v>319.76998900000001</v>
+        <v>44172</v>
+      </c>
+      <c r="C178" s="18">
+        <v>341.22000100000002</v>
       </c>
       <c r="D178" s="127">
         <f t="shared" si="11"/>
-        <v>0.15182621842493726</v>
+        <v>6.7079503198782087E-2</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B179" s="12">
-        <v>44158</v>
-      </c>
-      <c r="C179" s="17">
-        <v>277.61999500000002</v>
+        <v>44165</v>
+      </c>
+      <c r="C179" s="18">
+        <v>319.76998900000001</v>
       </c>
       <c r="D179" s="127">
         <f t="shared" si="11"/>
-        <v>6.7769211538461605E-2</v>
+        <v>0.15182621842493726</v>
       </c>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B180" s="12">
-        <v>44151</v>
-      </c>
-      <c r="C180" s="17">
-        <v>260</v>
+        <v>44158</v>
+      </c>
+      <c r="C180" s="18">
+        <v>277.61999500000002</v>
       </c>
       <c r="D180" s="127">
         <f t="shared" si="11"/>
-        <v>2.564102564102555E-2</v>
+        <v>6.7769211538461605E-2</v>
       </c>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B181" s="12">
-        <v>44144</v>
-      </c>
-      <c r="C181" s="17">
-        <v>253.5</v>
+        <v>44151</v>
+      </c>
+      <c r="C181" s="18">
+        <v>260</v>
       </c>
       <c r="D181" s="127">
         <f t="shared" si="11"/>
-        <v>-8.1854420531957572E-2</v>
+        <v>2.564102564102555E-2</v>
       </c>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B182" s="12">
-        <v>44137</v>
-      </c>
-      <c r="C182" s="17">
-        <v>276.10000600000001</v>
+        <v>44144</v>
+      </c>
+      <c r="C182" s="18">
+        <v>253.5</v>
       </c>
       <c r="D182" s="127">
         <f t="shared" si="11"/>
-        <v>0.15094421255969093</v>
+        <v>-8.1854420531957572E-2</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B183" s="12">
-        <v>44130</v>
-      </c>
-      <c r="C183" s="17">
-        <v>239.88999899999999</v>
+        <v>44137</v>
+      </c>
+      <c r="C183" s="18">
+        <v>276.10000600000001</v>
       </c>
       <c r="D183" s="127">
         <f t="shared" si="11"/>
-        <v>-0.15379728575248808</v>
+        <v>0.15094421255969093</v>
       </c>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B184" s="12">
-        <v>44123</v>
-      </c>
-      <c r="C184" s="17">
-        <v>283.48998999999998</v>
+        <v>44130</v>
+      </c>
+      <c r="C184" s="18">
+        <v>239.88999899999999</v>
       </c>
       <c r="D184" s="127">
         <f t="shared" si="11"/>
-        <v>7.9756248170157917E-2</v>
+        <v>-0.15379728575248808</v>
       </c>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B185" s="12">
-        <v>44116</v>
-      </c>
-      <c r="C185" s="17">
-        <v>262.54998799999998</v>
+        <v>44123</v>
+      </c>
+      <c r="C185" s="18">
+        <v>283.48998999999998</v>
       </c>
       <c r="D185" s="127">
         <f t="shared" si="11"/>
-        <v>5.0199952000000048E-2</v>
+        <v>7.9756248170157917E-2</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B186" s="12">
-        <v>44109</v>
-      </c>
-      <c r="C186" s="17">
-        <v>250</v>
+        <v>44116</v>
+      </c>
+      <c r="C186" s="18">
+        <v>262.54998799999998</v>
       </c>
       <c r="D186" s="127">
         <f t="shared" si="11"/>
-        <v>4.0452809390930655E-2</v>
+        <v>5.0199952000000048E-2</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B187" s="12">
-        <v>44102</v>
-      </c>
-      <c r="C187" s="17">
-        <v>240.279999</v>
+        <v>44109</v>
+      </c>
+      <c r="C187" s="18">
+        <v>250</v>
       </c>
       <c r="D187" s="127">
         <f t="shared" si="11"/>
-        <v>1.8221896232255119E-2</v>
+        <v>4.0452809390930655E-2</v>
       </c>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B188" s="12">
-        <v>44095</v>
-      </c>
-      <c r="C188" s="17">
-        <v>235.979996</v>
+        <v>44102</v>
+      </c>
+      <c r="C188" s="18">
+        <v>240.279999</v>
       </c>
       <c r="D188" s="127">
         <f t="shared" si="11"/>
-        <v>8.935811744562816E-3</v>
+        <v>1.8221896232255119E-2</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B189" s="12">
-        <v>44088</v>
-      </c>
-      <c r="C189" s="17">
-        <v>233.88999899999999</v>
+        <v>44095</v>
+      </c>
+      <c r="C189" s="18">
+        <v>235.979996</v>
       </c>
       <c r="D189" s="127">
         <f t="shared" si="11"/>
-        <v>-3.1912279836615598E-2</v>
+        <v>8.935811744562816E-3</v>
       </c>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B190" s="12">
-        <v>44081</v>
-      </c>
-      <c r="C190" s="17">
-        <v>241.60000600000001</v>
+        <v>44088</v>
+      </c>
+      <c r="C190" s="18">
+        <v>233.88999899999999</v>
       </c>
       <c r="D190" s="127">
         <f t="shared" si="11"/>
-        <v>-2.6630678915374961E-2</v>
+        <v>-3.1912279836615598E-2</v>
       </c>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B191" s="12">
-        <v>44074</v>
-      </c>
-      <c r="C191" s="17">
-        <v>248.21000699999999</v>
+        <v>44081</v>
+      </c>
+      <c r="C191" s="18">
+        <v>241.60000600000001</v>
       </c>
       <c r="D191" s="127">
         <f t="shared" si="11"/>
-        <v>-0.11150479550605652</v>
+        <v>-2.6630678915374961E-2</v>
       </c>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B192" s="12">
-        <v>44067</v>
-      </c>
-      <c r="C192" s="17">
-        <v>279.35998499999999</v>
+        <v>44074</v>
+      </c>
+      <c r="C192" s="18">
+        <v>248.21000699999999</v>
       </c>
       <c r="D192" s="127">
         <f t="shared" si="11"/>
-        <v>3.0924694294148569E-2</v>
+        <v>-0.11150479550605652</v>
       </c>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B193" s="12">
-        <v>44060</v>
-      </c>
-      <c r="C193" s="17">
-        <v>270.98001099999999</v>
+        <v>44067</v>
+      </c>
+      <c r="C193" s="18">
+        <v>279.35998499999999</v>
       </c>
       <c r="D193" s="127">
         <f t="shared" si="11"/>
-        <v>7.8226975379640074E-2</v>
+        <v>3.0924694294148569E-2</v>
       </c>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B194" s="12">
-        <v>44053</v>
-      </c>
-      <c r="C194" s="17">
-        <v>251.320007</v>
+        <v>44060</v>
+      </c>
+      <c r="C194" s="18">
+        <v>270.98001099999999</v>
       </c>
       <c r="D194" s="127">
         <f t="shared" si="11"/>
-        <v>-3.173044644872336E-3</v>
+        <v>7.8226975379640074E-2</v>
       </c>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B195" s="12">
-        <v>44046</v>
-      </c>
-      <c r="C195" s="17">
-        <v>252.11999499999999</v>
+        <v>44053</v>
+      </c>
+      <c r="C195" s="18">
+        <v>251.320007</v>
       </c>
       <c r="D195" s="127">
         <f t="shared" ref="D195:D258" si="12">C195/C196-1</f>
-        <v>-2.2108493698085985E-2</v>
+        <v>-3.173044644872336E-3</v>
       </c>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B196" s="12">
-        <v>44039</v>
-      </c>
-      <c r="C196" s="17">
-        <v>257.82000699999998</v>
+        <v>44046</v>
+      </c>
+      <c r="C196" s="18">
+        <v>252.11999499999999</v>
       </c>
       <c r="D196" s="127">
         <f t="shared" si="12"/>
-        <v>-4.0634008358785723E-2</v>
+        <v>-2.2108493698085985E-2</v>
       </c>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B197" s="12">
-        <v>44032</v>
-      </c>
-      <c r="C197" s="17">
-        <v>268.73998999999998</v>
+        <v>44039</v>
+      </c>
+      <c r="C197" s="18">
+        <v>257.82000699999998</v>
       </c>
       <c r="D197" s="127">
         <f t="shared" si="12"/>
-        <v>2.0932183906644308E-2</v>
+        <v>-4.0634008358785723E-2</v>
       </c>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B198" s="12">
-        <v>44025</v>
-      </c>
-      <c r="C198" s="17">
-        <v>263.23001099999999</v>
+        <v>44032</v>
+      </c>
+      <c r="C198" s="18">
+        <v>268.73998999999998</v>
       </c>
       <c r="D198" s="127">
         <f t="shared" si="12"/>
-        <v>-5.3946159931934967E-2</v>
+        <v>2.0932183906644308E-2</v>
       </c>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B199" s="12">
-        <v>44018</v>
-      </c>
-      <c r="C199" s="17">
-        <v>278.23998999999998</v>
+        <v>44025</v>
+      </c>
+      <c r="C199" s="18">
+        <v>263.23001099999999</v>
       </c>
       <c r="D199" s="127">
         <f t="shared" si="12"/>
-        <v>2.486279512552203E-2</v>
+        <v>-5.3946159931934967E-2</v>
       </c>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B200" s="12">
-        <v>44011</v>
-      </c>
-      <c r="C200" s="17">
-        <v>271.48998999999998</v>
+        <v>44018</v>
+      </c>
+      <c r="C200" s="18">
+        <v>278.23998999999998</v>
       </c>
       <c r="D200" s="127">
         <f t="shared" si="12"/>
-        <v>2.4683818470632835E-2</v>
+        <v>2.486279512552203E-2</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201" s="12">
-        <v>44004</v>
-      </c>
-      <c r="C201" s="17">
-        <v>264.95001200000002</v>
+        <v>44011</v>
+      </c>
+      <c r="C201" s="18">
+        <v>271.48998999999998</v>
       </c>
       <c r="D201" s="127">
         <f t="shared" si="12"/>
-        <v>0.14553167027853209</v>
+        <v>2.4683818470632835E-2</v>
       </c>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B202" s="12">
-        <v>43997</v>
-      </c>
-      <c r="C202" s="17">
-        <v>231.28999300000001</v>
+        <v>44004</v>
+      </c>
+      <c r="C202" s="18">
+        <v>264.95001200000002</v>
       </c>
       <c r="D202" s="127">
         <f t="shared" si="12"/>
-        <v>0.28444484927464897</v>
+        <v>0.14553167027853209</v>
       </c>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B203" s="12">
-        <v>43990</v>
-      </c>
-      <c r="C203" s="17">
-        <v>180.070007</v>
+        <v>43997</v>
+      </c>
+      <c r="C203" s="18">
+        <v>231.28999300000001</v>
       </c>
       <c r="D203" s="127">
         <f t="shared" si="12"/>
-        <v>-2.2845626344940473E-2</v>
+        <v>0.28444484927464897</v>
       </c>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B204" s="12">
-        <v>43983</v>
-      </c>
-      <c r="C204" s="17">
-        <v>184.279999</v>
+        <v>43990</v>
+      </c>
+      <c r="C204" s="18">
+        <v>180.070007</v>
       </c>
       <c r="D204" s="127">
         <f t="shared" si="12"/>
-        <v>1.8515481841642423E-2</v>
+        <v>-2.2845626344940473E-2</v>
       </c>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B205" s="12">
-        <v>43976</v>
-      </c>
-      <c r="C205" s="17">
-        <v>180.929993</v>
+        <v>43983</v>
+      </c>
+      <c r="C205" s="18">
+        <v>184.279999</v>
       </c>
       <c r="D205" s="127">
         <f t="shared" si="12"/>
-        <v>-4.8588132182659005E-2</v>
+        <v>1.8515481841642423E-2</v>
       </c>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B206" s="12">
-        <v>43969</v>
-      </c>
-      <c r="C206" s="17">
-        <v>190.16999799999999</v>
+        <v>43976</v>
+      </c>
+      <c r="C206" s="18">
+        <v>180.929993</v>
       </c>
       <c r="D206" s="127">
         <f t="shared" si="12"/>
-        <v>0.19731785938024471</v>
+        <v>-4.8588132182659005E-2</v>
       </c>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B207" s="12">
-        <v>43962</v>
-      </c>
-      <c r="C207" s="17">
-        <v>158.83000200000001</v>
+        <v>43969</v>
+      </c>
+      <c r="C207" s="18">
+        <v>190.16999799999999</v>
       </c>
       <c r="D207" s="127">
         <f t="shared" si="12"/>
-        <v>4.3904096374791868E-2</v>
+        <v>0.19731785938024471</v>
       </c>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B208" s="12">
-        <v>43955</v>
-      </c>
-      <c r="C208" s="17">
-        <v>152.14999399999999</v>
+        <v>43962</v>
+      </c>
+      <c r="C208" s="18">
+        <v>158.83000200000001</v>
       </c>
       <c r="D208" s="127">
         <f t="shared" si="12"/>
-        <v>5.0469471153534062E-2</v>
+        <v>4.3904096374791868E-2</v>
       </c>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B209" s="12">
-        <v>43948</v>
-      </c>
-      <c r="C209" s="17">
-        <v>144.83999600000001</v>
+        <v>43955</v>
+      </c>
+      <c r="C209" s="18">
+        <v>152.14999399999999</v>
       </c>
       <c r="D209" s="127">
         <f t="shared" si="12"/>
-        <v>5.0783518594994748E-2</v>
+        <v>5.0469471153534062E-2</v>
       </c>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B210" s="12">
-        <v>43941</v>
-      </c>
-      <c r="C210" s="17">
-        <v>137.83999600000001</v>
+        <v>43948</v>
+      </c>
+      <c r="C210" s="18">
+        <v>144.83999600000001</v>
       </c>
       <c r="D210" s="127">
         <f t="shared" si="12"/>
-        <v>-2.8337832875103386E-2</v>
+        <v>5.0783518594994748E-2</v>
       </c>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B211" s="12">
-        <v>43934</v>
-      </c>
-      <c r="C211" s="17">
-        <v>141.86000100000001</v>
+        <v>43941</v>
+      </c>
+      <c r="C211" s="18">
+        <v>137.83999600000001</v>
       </c>
       <c r="D211" s="127">
         <f t="shared" si="12"/>
-        <v>7.5838009435476916E-2</v>
+        <v>-2.8337832875103386E-2</v>
       </c>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B212" s="12">
-        <v>43927</v>
-      </c>
-      <c r="C212" s="17">
-        <v>131.86000100000001</v>
+        <v>43934</v>
+      </c>
+      <c r="C212" s="18">
+        <v>141.86000100000001</v>
       </c>
       <c r="D212" s="127">
         <f t="shared" si="12"/>
-        <v>7.9757597123544244E-2</v>
+        <v>7.5838009435476916E-2</v>
       </c>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B213" s="12">
-        <v>43920</v>
-      </c>
-      <c r="C213" s="17">
-        <v>122.120003</v>
+        <v>43927</v>
+      </c>
+      <c r="C213" s="18">
+        <v>131.86000100000001</v>
       </c>
       <c r="D213" s="127">
         <f t="shared" si="12"/>
-        <v>-3.4274359113152242E-3</v>
+        <v>7.9757597123544244E-2</v>
       </c>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B214" s="12">
-        <v>43913</v>
-      </c>
-      <c r="C214" s="17">
-        <v>122.540001</v>
+        <v>43920</v>
+      </c>
+      <c r="C214" s="18">
+        <v>122.120003</v>
       </c>
       <c r="D214" s="127">
         <f t="shared" si="12"/>
-        <v>-1.4634930728249174E-2</v>
+        <v>-3.4274359113152242E-3</v>
       </c>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B215" s="12">
-        <v>43906</v>
-      </c>
-      <c r="C215" s="17">
-        <v>124.360001</v>
+        <v>43913</v>
+      </c>
+      <c r="C215" s="18">
+        <v>122.540001</v>
       </c>
       <c r="D215" s="127">
         <f t="shared" si="12"/>
-        <v>-5.4727858843537036E-2</v>
+        <v>-1.4634930728249174E-2</v>
       </c>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B216" s="12">
-        <v>43899</v>
-      </c>
-      <c r="C216" s="17">
-        <v>131.55999800000001</v>
+        <v>43906</v>
+      </c>
+      <c r="C216" s="18">
+        <v>124.360001</v>
       </c>
       <c r="D216" s="127">
         <f t="shared" si="12"/>
-        <v>-9.3564841487975947E-2</v>
+        <v>-5.4727858843537036E-2</v>
       </c>
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B217" s="12">
-        <v>43892</v>
-      </c>
-      <c r="C217" s="17">
-        <v>145.13999899999999</v>
+        <v>43899</v>
+      </c>
+      <c r="C217" s="18">
+        <v>131.55999800000001</v>
       </c>
       <c r="D217" s="127">
         <f t="shared" si="12"/>
-        <v>5.8488946123430141E-2</v>
+        <v>-9.3564841487975947E-2</v>
       </c>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B218" s="12">
-        <v>43885</v>
-      </c>
-      <c r="C218" s="17">
-        <v>137.11999499999999</v>
+        <v>43892</v>
+      </c>
+      <c r="C218" s="18">
+        <v>145.13999899999999</v>
       </c>
       <c r="D218" s="127">
         <f t="shared" si="12"/>
-        <v>-6.6893516166591005E-2</v>
+        <v>5.8488946123430141E-2</v>
       </c>
     </row>
     <row r="219" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B219" s="12">
-        <v>43878</v>
-      </c>
-      <c r="C219" s="17">
-        <v>146.949997</v>
+        <v>43885</v>
+      </c>
+      <c r="C219" s="18">
+        <v>137.11999499999999</v>
       </c>
       <c r="D219" s="127">
         <f t="shared" si="12"/>
-        <v>4.2198560283687847E-2</v>
+        <v>-6.6893516166591005E-2</v>
       </c>
     </row>
     <row r="220" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B220" s="12">
-        <v>43871</v>
-      </c>
-      <c r="C220" s="17">
-        <v>141</v>
+        <v>43878</v>
+      </c>
+      <c r="C220" s="18">
+        <v>146.949997</v>
       </c>
       <c r="D220" s="127">
         <f t="shared" si="12"/>
-        <v>-8.7673909653693149E-2</v>
+        <v>4.2198560283687847E-2</v>
       </c>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B221" s="12">
-        <v>43864</v>
-      </c>
-      <c r="C221" s="17">
-        <v>154.550003</v>
+        <v>43871</v>
+      </c>
+      <c r="C221" s="18">
+        <v>141</v>
       </c>
       <c r="D221" s="127">
         <f t="shared" si="12"/>
-        <v>9.3772114074194279E-2</v>
+        <v>-8.7673909653693149E-2</v>
       </c>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B222" s="12">
-        <v>43857</v>
-      </c>
-      <c r="C222" s="17">
-        <v>141.300003</v>
+        <v>43864</v>
+      </c>
+      <c r="C222" s="18">
+        <v>154.550003</v>
       </c>
       <c r="D222" s="127">
         <f t="shared" si="12"/>
-        <v>-3.6350008990315485E-2</v>
+        <v>9.3772114074194279E-2</v>
       </c>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B223" s="12">
-        <v>43850</v>
-      </c>
-      <c r="C223" s="17">
-        <v>146.63000500000001</v>
+        <v>43857</v>
+      </c>
+      <c r="C223" s="18">
+        <v>141.300003</v>
       </c>
       <c r="D223" s="127">
         <f t="shared" si="12"/>
-        <v>-1.1527511433935822E-2</v>
+        <v>-3.6350008990315485E-2</v>
       </c>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B224" s="12">
-        <v>43843</v>
-      </c>
-      <c r="C224" s="17">
-        <v>148.33999600000001</v>
+        <v>43850</v>
+      </c>
+      <c r="C224" s="18">
+        <v>146.63000500000001</v>
       </c>
       <c r="D224" s="127">
         <f t="shared" si="12"/>
-        <v>-4.934630444388699E-2</v>
+        <v>-1.1527511433935822E-2</v>
       </c>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B225" s="12">
-        <v>43836</v>
-      </c>
-      <c r="C225" s="17">
-        <v>156.03999300000001</v>
+        <v>43843</v>
+      </c>
+      <c r="C225" s="18">
+        <v>148.33999600000001</v>
       </c>
       <c r="D225" s="127">
         <f t="shared" si="12"/>
-        <v>2.3213068852458996E-2</v>
+        <v>-4.934630444388699E-2</v>
       </c>
     </row>
     <row r="226" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B226" s="12">
-        <v>43829</v>
-      </c>
-      <c r="C226" s="17">
-        <v>152.5</v>
+        <v>43836</v>
+      </c>
+      <c r="C226" s="18">
+        <v>156.03999300000001</v>
       </c>
       <c r="D226" s="127">
         <f t="shared" si="12"/>
-        <v>-4.3742117173625195E-3</v>
+        <v>2.3213068852458996E-2</v>
       </c>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B227" s="12">
-        <v>43822</v>
-      </c>
-      <c r="C227" s="17">
-        <v>153.16999799999999</v>
+        <v>43829</v>
+      </c>
+      <c r="C227" s="18">
+        <v>152.5</v>
       </c>
       <c r="D227" s="127">
         <f t="shared" si="12"/>
-        <v>1.9027343743295067E-2</v>
+        <v>-4.3742117173625195E-3</v>
       </c>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B228" s="12">
-        <v>43815</v>
-      </c>
-      <c r="C228" s="17">
-        <v>150.30999800000001</v>
+        <v>43822</v>
+      </c>
+      <c r="C228" s="18">
+        <v>153.16999799999999</v>
       </c>
       <c r="D228" s="127">
         <f t="shared" si="12"/>
-        <v>2.1127724615374932E-2</v>
+        <v>1.9027343743295067E-2</v>
       </c>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B229" s="12">
-        <v>43808</v>
-      </c>
-      <c r="C229" s="17">
-        <v>147.199997</v>
+        <v>43815</v>
+      </c>
+      <c r="C229" s="18">
+        <v>150.30999800000001</v>
       </c>
       <c r="D229" s="127">
         <f t="shared" si="12"/>
-        <v>-6.0098522792857434E-3</v>
+        <v>2.1127724615374932E-2</v>
       </c>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B230" s="12">
-        <v>43801</v>
-      </c>
-      <c r="C230" s="17">
-        <v>148.08999600000001</v>
+        <v>43808</v>
+      </c>
+      <c r="C230" s="18">
+        <v>147.199997</v>
       </c>
       <c r="D230" s="127">
         <f t="shared" si="12"/>
-        <v>3.8863506723321617E-2</v>
+        <v>-6.0098522792857434E-3</v>
       </c>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B231" s="12">
-        <v>43794</v>
-      </c>
-      <c r="C231" s="17">
-        <v>142.550003</v>
+        <v>43801</v>
+      </c>
+      <c r="C231" s="18">
+        <v>148.08999600000001</v>
       </c>
       <c r="D231" s="127">
         <f t="shared" si="12"/>
-        <v>1.1782269939543566E-2</v>
+        <v>3.8863506723321617E-2</v>
       </c>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B232" s="12">
-        <v>43787</v>
-      </c>
-      <c r="C232" s="17">
-        <v>140.88999899999999</v>
+        <v>43794</v>
+      </c>
+      <c r="C232" s="18">
+        <v>142.550003</v>
       </c>
       <c r="D232" s="127">
         <f t="shared" si="12"/>
-        <v>-4.4878287739078426E-2</v>
+        <v>1.1782269939543566E-2</v>
       </c>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B233" s="12">
-        <v>43780</v>
-      </c>
-      <c r="C233" s="17">
-        <v>147.509995</v>
+        <v>43787</v>
+      </c>
+      <c r="C233" s="18">
+        <v>140.88999899999999</v>
       </c>
       <c r="D233" s="127">
         <f t="shared" si="12"/>
-        <v>-2.299702307756446E-3</v>
+        <v>-4.4878287739078426E-2</v>
       </c>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B234" s="12">
-        <v>43773</v>
-      </c>
-      <c r="C234" s="17">
-        <v>147.85000600000001</v>
+        <v>43780</v>
+      </c>
+      <c r="C234" s="18">
+        <v>147.509995</v>
       </c>
       <c r="D234" s="127">
         <f t="shared" si="12"/>
-        <v>6.3300300344411031E-3</v>
+        <v>-2.299702307756446E-3</v>
       </c>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B235" s="12">
-        <v>43766</v>
-      </c>
-      <c r="C235" s="17">
-        <v>146.91999799999999</v>
+        <v>43773</v>
+      </c>
+      <c r="C235" s="18">
+        <v>147.85000600000001</v>
       </c>
       <c r="D235" s="127">
         <f t="shared" si="12"/>
-        <v>0.21733362801667688</v>
+        <v>6.3300300344411031E-3</v>
       </c>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B236" s="12">
-        <v>43759</v>
-      </c>
-      <c r="C236" s="17">
-        <v>120.69000200000001</v>
+        <v>43766</v>
+      </c>
+      <c r="C236" s="18">
+        <v>146.91999799999999</v>
       </c>
       <c r="D236" s="127">
         <f t="shared" si="12"/>
-        <v>4.6475330851030616E-2</v>
+        <v>0.21733362801667688</v>
       </c>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B237" s="12">
-        <v>43752</v>
-      </c>
-      <c r="C237" s="17">
-        <v>115.33000199999999</v>
+        <v>43759</v>
+      </c>
+      <c r="C237" s="18">
+        <v>120.69000200000001</v>
       </c>
       <c r="D237" s="127">
         <f t="shared" si="12"/>
-        <v>-1.3853667224066335E-3</v>
+        <v>4.6475330851030616E-2</v>
       </c>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B238" s="12">
-        <v>43745</v>
-      </c>
-      <c r="C238" s="17">
-        <v>115.489998</v>
+        <v>43752</v>
+      </c>
+      <c r="C238" s="18">
+        <v>115.33000199999999</v>
       </c>
       <c r="D238" s="127">
         <f t="shared" si="12"/>
-        <v>-7.9883182956248522E-3</v>
+        <v>-1.3853667224066335E-3</v>
       </c>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B239" s="12">
-        <v>43738</v>
-      </c>
-      <c r="C239" s="17">
-        <v>116.41999800000001</v>
+        <v>43745</v>
+      </c>
+      <c r="C239" s="18">
+        <v>115.489998</v>
       </c>
       <c r="D239" s="127">
         <f t="shared" si="12"/>
-        <v>3.7241625752701957E-2</v>
+        <v>-7.9883182956248522E-3</v>
       </c>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B240" s="12">
-        <v>43731</v>
-      </c>
-      <c r="C240" s="17">
-        <v>112.239998</v>
+        <v>43738</v>
+      </c>
+      <c r="C240" s="18">
+        <v>116.41999800000001</v>
       </c>
       <c r="D240" s="127">
         <f t="shared" si="12"/>
-        <v>-7.0091128502679179E-2</v>
+        <v>3.7241625752701957E-2</v>
       </c>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B241" s="12">
-        <v>43724</v>
-      </c>
-      <c r="C241" s="17">
-        <v>120.699997</v>
+        <v>43731</v>
+      </c>
+      <c r="C241" s="18">
+        <v>112.239998</v>
       </c>
       <c r="D241" s="127">
         <f t="shared" si="12"/>
-        <v>-7.6016287375936464E-2</v>
+        <v>-7.0091128502679179E-2</v>
       </c>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B242" s="12">
-        <v>43717</v>
-      </c>
-      <c r="C242" s="17">
-        <v>130.63000500000001</v>
+        <v>43724</v>
+      </c>
+      <c r="C242" s="18">
+        <v>120.699997</v>
       </c>
       <c r="D242" s="127">
         <f t="shared" si="12"/>
-        <v>-3.9908812875331656E-2</v>
+        <v>-7.6016287375936464E-2</v>
       </c>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B243" s="12">
-        <v>43710</v>
-      </c>
-      <c r="C243" s="17">
-        <v>136.05999800000001</v>
+        <v>43717</v>
+      </c>
+      <c r="C243" s="18">
+        <v>130.63000500000001</v>
       </c>
       <c r="D243" s="127">
         <f t="shared" si="12"/>
-        <v>8.2252762110102129E-3</v>
+        <v>-3.9908812875331656E-2</v>
       </c>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B244" s="12">
-        <v>43703</v>
-      </c>
-      <c r="C244" s="17">
-        <v>134.949997</v>
+        <v>43710</v>
+      </c>
+      <c r="C244" s="18">
+        <v>136.05999800000001</v>
       </c>
       <c r="D244" s="127">
         <f t="shared" si="12"/>
-        <v>-2.2243203238858089E-2</v>
+        <v>8.2252762110102129E-3</v>
       </c>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B245" s="12">
-        <v>43696</v>
-      </c>
-      <c r="C245" s="17">
-        <v>138.020004</v>
+        <v>43703</v>
+      </c>
+      <c r="C245" s="18">
+        <v>134.949997</v>
       </c>
       <c r="D245" s="127">
         <f t="shared" si="12"/>
-        <v>-6.5791259449327844E-2</v>
+        <v>-2.2243203238858089E-2</v>
       </c>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B246" s="12">
-        <v>43689</v>
-      </c>
-      <c r="C246" s="17">
-        <v>147.740005</v>
+        <v>43696</v>
+      </c>
+      <c r="C246" s="18">
+        <v>138.020004</v>
       </c>
       <c r="D246" s="127">
         <f t="shared" si="12"/>
-        <v>-4.690013698794071E-2</v>
+        <v>-6.5791259449327844E-2</v>
       </c>
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B247" s="12">
-        <v>43682</v>
-      </c>
-      <c r="C247" s="17">
-        <v>155.009995</v>
+        <v>43689</v>
+      </c>
+      <c r="C247" s="18">
+        <v>147.740005</v>
       </c>
       <c r="D247" s="127">
         <f t="shared" si="12"/>
-        <v>1.0034495275724975E-2</v>
+        <v>-4.690013698794071E-2</v>
       </c>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B248" s="12">
-        <v>43675</v>
-      </c>
-      <c r="C248" s="17">
-        <v>153.470001</v>
+        <v>43682</v>
+      </c>
+      <c r="C248" s="18">
+        <v>155.009995</v>
       </c>
       <c r="D248" s="127">
         <f t="shared" si="12"/>
-        <v>-1.2292469677807061E-2</v>
+        <v>1.0034495275724975E-2</v>
       </c>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B249" s="12">
-        <v>43668</v>
-      </c>
-      <c r="C249" s="17">
-        <v>155.38000500000001</v>
+        <v>43675</v>
+      </c>
+      <c r="C249" s="18">
+        <v>153.470001</v>
       </c>
       <c r="D249" s="127">
         <f t="shared" si="12"/>
-        <v>7.8204176821843108E-2</v>
+        <v>-1.2292469677807061E-2</v>
       </c>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B250" s="12">
-        <v>43661</v>
-      </c>
-      <c r="C250" s="17">
-        <v>144.11000100000001</v>
+        <v>43668</v>
+      </c>
+      <c r="C250" s="18">
+        <v>155.38000500000001</v>
       </c>
       <c r="D250" s="127">
         <f t="shared" si="12"/>
-        <v>-5.3775455276911521E-2</v>
+        <v>7.8204176821843108E-2</v>
       </c>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B251" s="12">
-        <v>43654</v>
-      </c>
-      <c r="C251" s="17">
-        <v>152.300003</v>
+        <v>43661</v>
+      </c>
+      <c r="C251" s="18">
+        <v>144.11000100000001</v>
       </c>
       <c r="D251" s="127">
         <f t="shared" si="12"/>
-        <v>4.0940503601127665E-2</v>
+        <v>-5.3775455276911521E-2</v>
       </c>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B252" s="12">
-        <v>43647</v>
-      </c>
-      <c r="C252" s="17">
-        <v>146.30999800000001</v>
+        <v>43654</v>
+      </c>
+      <c r="C252" s="18">
+        <v>152.300003</v>
       </c>
       <c r="D252" s="127">
         <f t="shared" si="12"/>
-        <v>6.1549035278707365E-4</v>
+        <v>4.0940503601127665E-2</v>
       </c>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B253" s="12">
-        <v>43640</v>
-      </c>
-      <c r="C253" s="17">
-        <v>146.220001</v>
+        <v>43647</v>
+      </c>
+      <c r="C253" s="18">
+        <v>146.30999800000001</v>
       </c>
       <c r="D253" s="127">
         <f t="shared" si="12"/>
-        <v>-1.4092084338103827E-2</v>
+        <v>6.1549035278707365E-4</v>
       </c>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B254" s="12">
-        <v>43633</v>
-      </c>
-      <c r="C254" s="17">
-        <v>148.30999800000001</v>
+        <v>43640</v>
+      </c>
+      <c r="C254" s="18">
+        <v>146.220001</v>
       </c>
       <c r="D254" s="127">
         <f t="shared" si="12"/>
-        <v>2.5727934870404034E-2</v>
+        <v>-1.4092084338103827E-2</v>
       </c>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B255" s="12">
-        <v>43626</v>
-      </c>
-      <c r="C255" s="17">
-        <v>144.58999600000001</v>
+        <v>43633</v>
+      </c>
+      <c r="C255" s="18">
+        <v>148.30999800000001</v>
       </c>
       <c r="D255" s="127">
         <f t="shared" si="12"/>
-        <v>3.2195844771618409E-2</v>
+        <v>2.5727934870404034E-2</v>
       </c>
     </row>
     <row r="256" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B256" s="12">
-        <v>43619</v>
-      </c>
-      <c r="C256" s="17">
-        <v>140.08000200000001</v>
+        <v>43626</v>
+      </c>
+      <c r="C256" s="18">
+        <v>144.58999600000001</v>
       </c>
       <c r="D256" s="127">
         <f t="shared" si="12"/>
-        <v>0.11546424406013323</v>
+        <v>3.2195844771618409E-2</v>
       </c>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B257" s="12">
-        <v>43612</v>
-      </c>
-      <c r="C257" s="17">
-        <v>125.58000199999999</v>
+        <v>43619</v>
+      </c>
+      <c r="C257" s="18">
+        <v>140.08000200000001</v>
       </c>
       <c r="D257" s="127">
         <f t="shared" si="12"/>
-        <v>7.4608903736719245E-3</v>
+        <v>0.11546424406013323</v>
       </c>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B258" s="12">
-        <v>43605</v>
-      </c>
-      <c r="C258" s="17">
-        <v>124.650002</v>
+        <v>43612</v>
+      </c>
+      <c r="C258" s="18">
+        <v>125.58000199999999</v>
       </c>
       <c r="D258" s="127">
         <f t="shared" si="12"/>
-        <v>-6.1087626585101917E-2</v>
+        <v>7.4608903736719245E-3</v>
       </c>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B259" s="12">
-        <v>43598</v>
-      </c>
-      <c r="C259" s="17">
-        <v>132.759995</v>
+        <v>43605</v>
+      </c>
+      <c r="C259" s="18">
+        <v>124.650002</v>
       </c>
       <c r="D259" s="127">
-        <f t="shared" ref="D259:D316" si="13">C259/C260-1</f>
-        <v>-3.692427115309671E-2</v>
+        <f t="shared" ref="D259:D317" si="13">C259/C260-1</f>
+        <v>-6.1087626585101917E-2</v>
       </c>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B260" s="12">
-        <v>43591</v>
-      </c>
-      <c r="C260" s="17">
-        <v>137.85000600000001</v>
+        <v>43598</v>
+      </c>
+      <c r="C260" s="18">
+        <v>132.759995</v>
       </c>
       <c r="D260" s="127">
         <f t="shared" si="13"/>
-        <v>1.2337578208674316E-2</v>
+        <v>-3.692427115309671E-2</v>
       </c>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B261" s="12">
-        <v>43584</v>
-      </c>
-      <c r="C261" s="17">
-        <v>136.16999799999999</v>
+        <v>43591</v>
+      </c>
+      <c r="C261" s="18">
+        <v>137.85000600000001</v>
       </c>
       <c r="D261" s="127">
         <f t="shared" si="13"/>
-        <v>-1.5045222423146543E-2</v>
+        <v>1.2337578208674316E-2</v>
       </c>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B262" s="12">
-        <v>43577</v>
-      </c>
-      <c r="C262" s="17">
-        <v>138.25</v>
+        <v>43584</v>
+      </c>
+      <c r="C262" s="18">
+        <v>136.16999799999999</v>
       </c>
       <c r="D262" s="127">
         <f t="shared" si="13"/>
-        <v>-1.0025020122807815E-2</v>
+        <v>-1.5045222423146543E-2</v>
       </c>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B263" s="12">
-        <v>43570</v>
-      </c>
-      <c r="C263" s="17">
-        <v>139.64999399999999</v>
+        <v>43577</v>
+      </c>
+      <c r="C263" s="18">
+        <v>138.25</v>
       </c>
       <c r="D263" s="127">
         <f t="shared" si="13"/>
-        <v>-3.6564353982014963E-2</v>
+        <v>-1.0025020122807815E-2</v>
       </c>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B264" s="12">
-        <v>43563</v>
-      </c>
-      <c r="C264" s="17">
-        <v>144.949997</v>
+        <v>43570</v>
+      </c>
+      <c r="C264" s="18">
+        <v>139.64999399999999</v>
       </c>
       <c r="D264" s="127">
         <f t="shared" si="13"/>
-        <v>2.7067185323206067E-2</v>
+        <v>-3.6564353982014963E-2</v>
       </c>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B265" s="12">
-        <v>43556</v>
-      </c>
-      <c r="C265" s="17">
-        <v>141.13000500000001</v>
+        <v>43563</v>
+      </c>
+      <c r="C265" s="18">
+        <v>144.949997</v>
       </c>
       <c r="D265" s="127">
         <f t="shared" si="13"/>
-        <v>1.6786757562246013E-2</v>
+        <v>2.7067185323206067E-2</v>
       </c>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B266" s="12">
-        <v>43549</v>
-      </c>
-      <c r="C266" s="17">
-        <v>138.800003</v>
+        <v>43556</v>
+      </c>
+      <c r="C266" s="18">
+        <v>141.13000500000001</v>
       </c>
       <c r="D266" s="127">
         <f t="shared" si="13"/>
-        <v>-1.4388273381295003E-3</v>
+        <v>1.6786757562246013E-2</v>
       </c>
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B267" s="12">
-        <v>43542</v>
-      </c>
-      <c r="C267" s="17">
-        <v>139</v>
+        <v>43549</v>
+      </c>
+      <c r="C267" s="18">
+        <v>138.800003</v>
       </c>
       <c r="D267" s="127">
         <f t="shared" si="13"/>
-        <v>-2.0505982087069663E-2</v>
+        <v>-1.4388273381295003E-3</v>
       </c>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B268" s="12">
-        <v>43535</v>
-      </c>
-      <c r="C268" s="17">
-        <v>141.91000399999999</v>
+        <v>43542</v>
+      </c>
+      <c r="C268" s="18">
+        <v>139</v>
       </c>
       <c r="D268" s="127">
         <f t="shared" si="13"/>
-        <v>1.2341354589737952E-2</v>
+        <v>-2.0505982087069663E-2</v>
       </c>
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B269" s="12">
-        <v>43528</v>
-      </c>
-      <c r="C269" s="17">
-        <v>140.179993</v>
+        <v>43535</v>
+      </c>
+      <c r="C269" s="18">
+        <v>141.91000399999999</v>
       </c>
       <c r="D269" s="127">
         <f t="shared" si="13"/>
-        <v>1.5797050724637662E-2</v>
+        <v>1.2341354589737952E-2</v>
       </c>
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B270" s="12">
-        <v>43521</v>
-      </c>
-      <c r="C270" s="17">
-        <v>138</v>
+        <v>43528</v>
+      </c>
+      <c r="C270" s="18">
+        <v>140.179993</v>
       </c>
       <c r="D270" s="127">
         <f t="shared" si="13"/>
-        <v>-8.7241231731711943E-2</v>
+        <v>1.5797050724637662E-2</v>
       </c>
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B271" s="12">
-        <v>43514</v>
-      </c>
-      <c r="C271" s="17">
-        <v>151.19000199999999</v>
+        <v>43521</v>
+      </c>
+      <c r="C271" s="18">
+        <v>138</v>
       </c>
       <c r="D271" s="127">
         <f t="shared" si="13"/>
-        <v>1.7977362833898169E-2</v>
+        <v>-8.7241231731711943E-2</v>
       </c>
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B272" s="12">
-        <v>43507</v>
-      </c>
-      <c r="C272" s="17">
-        <v>148.520004</v>
+        <v>43514</v>
+      </c>
+      <c r="C272" s="18">
+        <v>151.19000199999999</v>
       </c>
       <c r="D272" s="127">
         <f t="shared" si="13"/>
-        <v>0.10251648936518887</v>
+        <v>1.7977362833898169E-2</v>
       </c>
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B273" s="12">
-        <v>43500</v>
-      </c>
-      <c r="C273" s="17">
-        <v>134.71000699999999</v>
+        <v>43507</v>
+      </c>
+      <c r="C273" s="18">
+        <v>148.520004</v>
       </c>
       <c r="D273" s="127">
         <f t="shared" si="13"/>
-        <v>-1.8220245408193891E-2</v>
+        <v>0.10251648936518887</v>
       </c>
     </row>
     <row r="274" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B274" s="12">
-        <v>43493</v>
-      </c>
-      <c r="C274" s="17">
-        <v>137.21000699999999</v>
+        <v>43500</v>
+      </c>
+      <c r="C274" s="18">
+        <v>134.71000699999999</v>
       </c>
       <c r="D274" s="127">
         <f t="shared" si="13"/>
-        <v>1.8860986394311885E-2</v>
+        <v>-1.8220245408193891E-2</v>
       </c>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B275" s="12">
-        <v>43486</v>
-      </c>
-      <c r="C275" s="17">
-        <v>134.66999799999999</v>
+        <v>43493</v>
+      </c>
+      <c r="C275" s="18">
+        <v>137.21000699999999</v>
       </c>
       <c r="D275" s="127">
         <f t="shared" si="13"/>
-        <v>7.5564414916522438E-3</v>
+        <v>1.8860986394311885E-2</v>
       </c>
     </row>
     <row r="276" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B276" s="12">
-        <v>43479</v>
-      </c>
-      <c r="C276" s="17">
-        <v>133.66000399999999</v>
+        <v>43486</v>
+      </c>
+      <c r="C276" s="18">
+        <v>134.66999799999999</v>
       </c>
       <c r="D276" s="127">
         <f t="shared" si="13"/>
-        <v>0.10902760809063072</v>
+        <v>7.5564414916522438E-3</v>
       </c>
     </row>
     <row r="277" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B277" s="12">
-        <v>43472</v>
-      </c>
-      <c r="C277" s="17">
-        <v>120.519997</v>
+        <v>43479</v>
+      </c>
+      <c r="C277" s="18">
+        <v>133.66000399999999</v>
       </c>
       <c r="D277" s="127">
         <f t="shared" si="13"/>
-        <v>1.6960551565934567E-2</v>
+        <v>0.10902760809063072</v>
       </c>
     </row>
     <row r="278" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B278" s="12">
-        <v>43465</v>
-      </c>
-      <c r="C278" s="17">
-        <v>118.510002</v>
+        <v>43472</v>
+      </c>
+      <c r="C278" s="18">
+        <v>120.519997</v>
       </c>
       <c r="D278" s="127">
         <f t="shared" si="13"/>
-        <v>5.661552936463865E-2</v>
+        <v>1.6960551565934567E-2</v>
       </c>
     </row>
     <row r="279" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B279" s="12">
-        <v>43458</v>
-      </c>
-      <c r="C279" s="17">
-        <v>112.160004</v>
+        <v>43465</v>
+      </c>
+      <c r="C279" s="18">
+        <v>118.510002</v>
       </c>
       <c r="D279" s="127">
         <f t="shared" si="13"/>
-        <v>4.979416135507897E-2</v>
+        <v>5.661552936463865E-2</v>
       </c>
     </row>
     <row r="280" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B280" s="12">
-        <v>43451</v>
-      </c>
-      <c r="C280" s="17">
-        <v>106.839996</v>
+        <v>43458</v>
+      </c>
+      <c r="C280" s="18">
+        <v>112.160004</v>
       </c>
       <c r="D280" s="127">
         <f t="shared" si="13"/>
-        <v>-0.14990455124124769</v>
+        <v>4.979416135507897E-2</v>
       </c>
     </row>
     <row r="281" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B281" s="12">
-        <v>43444</v>
-      </c>
-      <c r="C281" s="17">
-        <v>125.68</v>
+        <v>43451</v>
+      </c>
+      <c r="C281" s="18">
+        <v>106.839996</v>
       </c>
       <c r="D281" s="127">
         <f t="shared" si="13"/>
-        <v>-7.1169892412532576E-2</v>
+        <v>-0.14990455124124769</v>
       </c>
     </row>
     <row r="282" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B282" s="12">
-        <v>43437</v>
-      </c>
-      <c r="C282" s="17">
-        <v>135.30999800000001</v>
+        <v>43444</v>
+      </c>
+      <c r="C282" s="18">
+        <v>125.68</v>
       </c>
       <c r="D282" s="127">
         <f t="shared" si="13"/>
-        <v>-7.84577621917526E-3</v>
+        <v>-7.1169892412532576E-2</v>
       </c>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B283" s="12">
-        <v>43430</v>
-      </c>
-      <c r="C283" s="17">
-        <v>136.38000500000001</v>
+        <v>43437</v>
+      </c>
+      <c r="C283" s="18">
+        <v>135.30999800000001</v>
       </c>
       <c r="D283" s="127">
         <f t="shared" si="13"/>
-        <v>5.3859831423852089E-2</v>
+        <v>-7.84577621917526E-3</v>
       </c>
     </row>
     <row r="284" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B284" s="12">
-        <v>43423</v>
-      </c>
-      <c r="C284" s="17">
-        <v>129.41000399999999</v>
+        <v>43430</v>
+      </c>
+      <c r="C284" s="18">
+        <v>136.38000500000001</v>
       </c>
       <c r="D284" s="127">
         <f t="shared" si="13"/>
-        <v>-3.5764866624289793E-2</v>
+        <v>5.3859831423852089E-2</v>
       </c>
     </row>
     <row r="285" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B285" s="12">
-        <v>43416</v>
-      </c>
-      <c r="C285" s="17">
-        <v>134.21000699999999</v>
+        <v>43423</v>
+      </c>
+      <c r="C285" s="18">
+        <v>129.41000399999999</v>
       </c>
       <c r="D285" s="127">
         <f t="shared" si="13"/>
-        <v>-2.7886361406437299E-2</v>
+        <v>-3.5764866624289793E-2</v>
       </c>
     </row>
     <row r="286" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B286" s="12">
-        <v>43409</v>
-      </c>
-      <c r="C286" s="17">
-        <v>138.05999800000001</v>
+        <v>43416</v>
+      </c>
+      <c r="C286" s="18">
+        <v>134.21000699999999</v>
       </c>
       <c r="D286" s="127">
         <f t="shared" si="13"/>
-        <v>-6.69117898081939E-3</v>
+        <v>-2.7886361406437299E-2</v>
       </c>
     </row>
     <row r="287" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B287" s="12">
-        <v>43402</v>
-      </c>
-      <c r="C287" s="17">
-        <v>138.990005</v>
+        <v>43409</v>
+      </c>
+      <c r="C287" s="18">
+        <v>138.05999800000001</v>
       </c>
       <c r="D287" s="127">
         <f t="shared" si="13"/>
-        <v>-4.9576037692285357E-2</v>
+        <v>-6.69117898081939E-3</v>
       </c>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B288" s="12">
-        <v>43395</v>
-      </c>
-      <c r="C288" s="17">
-        <v>146.240005</v>
+        <v>43402</v>
+      </c>
+      <c r="C288" s="18">
+        <v>138.990005</v>
       </c>
       <c r="D288" s="127">
         <f t="shared" si="13"/>
-        <v>-1.8062097135799871E-2</v>
+        <v>-4.9576037692285357E-2</v>
       </c>
     </row>
     <row r="289" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B289" s="12">
-        <v>43388</v>
-      </c>
-      <c r="C289" s="17">
-        <v>148.929993</v>
+        <v>43395</v>
+      </c>
+      <c r="C289" s="18">
+        <v>146.240005</v>
       </c>
       <c r="D289" s="127">
         <f t="shared" si="13"/>
-        <v>-6.0319336856604955E-2</v>
+        <v>-1.8062097135799871E-2</v>
       </c>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B290" s="12">
-        <v>43381</v>
-      </c>
-      <c r="C290" s="17">
-        <v>158.490005</v>
+        <v>43388</v>
+      </c>
+      <c r="C290" s="18">
+        <v>148.929993</v>
       </c>
       <c r="D290" s="127">
         <f t="shared" si="13"/>
-        <v>-3.5831608594974917E-2</v>
+        <v>-6.0319336856604955E-2</v>
       </c>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B291" s="12">
-        <v>43374</v>
-      </c>
-      <c r="C291" s="17">
-        <v>164.38000500000001</v>
+        <v>43381</v>
+      </c>
+      <c r="C291" s="18">
+        <v>158.490005</v>
       </c>
       <c r="D291" s="127">
         <f t="shared" si="13"/>
-        <v>-9.0969401194830435E-2</v>
+        <v>-3.5831608594974917E-2</v>
       </c>
     </row>
     <row r="292" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B292" s="12">
-        <v>43367</v>
-      </c>
-      <c r="C292" s="17">
-        <v>180.83000200000001</v>
+        <v>43374</v>
+      </c>
+      <c r="C292" s="18">
+        <v>164.38000500000001</v>
       </c>
       <c r="D292" s="127">
         <f t="shared" si="13"/>
-        <v>3.3196193961919862E-2</v>
+        <v>-9.0969401194830435E-2</v>
       </c>
     </row>
     <row r="293" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B293" s="12">
-        <v>43360</v>
-      </c>
-      <c r="C293" s="17">
-        <v>175.020004</v>
+        <v>43367</v>
+      </c>
+      <c r="C293" s="18">
+        <v>180.83000200000001</v>
       </c>
       <c r="D293" s="127">
         <f t="shared" si="13"/>
-        <v>-3.1057968469856423E-2</v>
+        <v>3.3196193961919862E-2</v>
       </c>
     </row>
     <row r="294" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B294" s="12">
-        <v>43353</v>
-      </c>
-      <c r="C294" s="17">
-        <v>180.63000500000001</v>
+        <v>43360</v>
+      </c>
+      <c r="C294" s="18">
+        <v>175.020004</v>
       </c>
       <c r="D294" s="127">
         <f t="shared" si="13"/>
-        <v>1.5916771384981487E-2</v>
+        <v>-3.1057968469856423E-2</v>
       </c>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B295" s="12">
-        <v>43346</v>
-      </c>
-      <c r="C295" s="17">
-        <v>177.800003</v>
+        <v>43353</v>
+      </c>
+      <c r="C295" s="18">
+        <v>180.63000500000001</v>
       </c>
       <c r="D295" s="127">
         <f t="shared" si="13"/>
-        <v>-6.1840442975085619E-2</v>
+        <v>1.5916771384981487E-2</v>
       </c>
     </row>
     <row r="296" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B296" s="12">
-        <v>43339</v>
-      </c>
-      <c r="C296" s="17">
-        <v>189.520004</v>
+        <v>43346</v>
+      </c>
+      <c r="C296" s="18">
+        <v>177.800003</v>
       </c>
       <c r="D296" s="127">
         <f t="shared" si="13"/>
-        <v>-1.4866415041417724E-2</v>
+        <v>-6.1840442975085619E-2</v>
       </c>
     </row>
     <row r="297" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B297" s="12">
-        <v>43332</v>
-      </c>
-      <c r="C297" s="17">
-        <v>192.38000500000001</v>
+        <v>43339</v>
+      </c>
+      <c r="C297" s="18">
+        <v>189.520004</v>
       </c>
       <c r="D297" s="127">
         <f t="shared" si="13"/>
-        <v>2.1287944505174572E-2</v>
+        <v>-1.4866415041417724E-2</v>
       </c>
     </row>
     <row r="298" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B298" s="12">
-        <v>43325</v>
-      </c>
-      <c r="C298" s="17">
-        <v>188.36999499999999</v>
+        <v>43332</v>
+      </c>
+      <c r="C298" s="18">
+        <v>192.38000500000001</v>
       </c>
       <c r="D298" s="127">
         <f t="shared" si="13"/>
-        <v>-3.6496509430832269E-3</v>
+        <v>2.1287944505174572E-2</v>
       </c>
     </row>
     <row r="299" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B299" s="12">
-        <v>43318</v>
-      </c>
-      <c r="C299" s="17">
-        <v>189.05999800000001</v>
+        <v>43325</v>
+      </c>
+      <c r="C299" s="18">
+        <v>188.36999499999999</v>
       </c>
       <c r="D299" s="127">
         <f t="shared" si="13"/>
-        <v>7.7264945868945833E-2</v>
+        <v>-3.6496509430832269E-3</v>
       </c>
     </row>
     <row r="300" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B300" s="12">
-        <v>43311</v>
-      </c>
-      <c r="C300" s="17">
-        <v>175.5</v>
+        <v>43318</v>
+      </c>
+      <c r="C300" s="18">
+        <v>189.05999800000001</v>
       </c>
       <c r="D300" s="127">
         <f t="shared" si="13"/>
-        <v>-5.7819314804975264E-2</v>
+        <v>7.7264945868945833E-2</v>
       </c>
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B301" s="12">
-        <v>43304</v>
-      </c>
-      <c r="C301" s="17">
-        <v>186.270004</v>
+        <v>43311</v>
+      </c>
+      <c r="C301" s="18">
+        <v>175.5</v>
       </c>
       <c r="D301" s="127">
         <f t="shared" si="13"/>
-        <v>1.9038301511396183E-2</v>
+        <v>-5.7819314804975264E-2</v>
       </c>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B302" s="12">
-        <v>43297</v>
-      </c>
-      <c r="C302" s="17">
-        <v>182.78999300000001</v>
+        <v>43304</v>
+      </c>
+      <c r="C302" s="18">
+        <v>186.270004</v>
       </c>
       <c r="D302" s="127">
         <f t="shared" si="13"/>
-        <v>-2.360992380070781E-2</v>
+        <v>1.9038301511396183E-2</v>
       </c>
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B303" s="12">
-        <v>43290</v>
-      </c>
-      <c r="C303" s="17">
-        <v>187.21000699999999</v>
+        <v>43297</v>
+      </c>
+      <c r="C303" s="18">
+        <v>182.78999300000001</v>
       </c>
       <c r="D303" s="127">
         <f t="shared" si="13"/>
-        <v>6.5509449041140311E-2</v>
+        <v>-2.360992380070781E-2</v>
       </c>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B304" s="12">
-        <v>43283</v>
-      </c>
-      <c r="C304" s="17">
-        <v>175.699997</v>
+        <v>43290</v>
+      </c>
+      <c r="C304" s="18">
+        <v>187.21000699999999</v>
       </c>
       <c r="D304" s="127">
         <f t="shared" si="13"/>
-        <v>4.4341368154381611E-2</v>
+        <v>6.5509449041140311E-2</v>
       </c>
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B305" s="12">
-        <v>43276</v>
-      </c>
-      <c r="C305" s="17">
-        <v>168.240005</v>
+        <v>43283</v>
+      </c>
+      <c r="C305" s="18">
+        <v>175.699997</v>
       </c>
       <c r="D305" s="127">
         <f t="shared" si="13"/>
-        <v>-7.0188995576555779E-2</v>
+        <v>4.4341368154381611E-2</v>
       </c>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B306" s="12">
-        <v>43269</v>
-      </c>
-      <c r="C306" s="17">
-        <v>180.94000199999999</v>
+        <v>43276</v>
+      </c>
+      <c r="C306" s="18">
+        <v>168.240005</v>
       </c>
       <c r="D306" s="127">
         <f t="shared" si="13"/>
-        <v>3.3824693547601425E-2</v>
+        <v>-7.0188995576555779E-2</v>
       </c>
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B307" s="12">
-        <v>43262</v>
-      </c>
-      <c r="C307" s="17">
-        <v>175.020004</v>
+        <v>43269</v>
+      </c>
+      <c r="C307" s="18">
+        <v>180.94000199999999</v>
       </c>
       <c r="D307" s="127">
         <f t="shared" si="13"/>
-        <v>2.0643853992158956E-2</v>
+        <v>3.3824693547601425E-2</v>
       </c>
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B308" s="12">
-        <v>43255</v>
-      </c>
-      <c r="C308" s="17">
-        <v>171.479996</v>
+        <v>43262</v>
+      </c>
+      <c r="C308" s="18">
+        <v>175.020004</v>
       </c>
       <c r="D308" s="127">
         <f t="shared" si="13"/>
-        <v>7.6865050337068253E-2</v>
+        <v>2.0643853992158956E-2</v>
       </c>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B309" s="12">
-        <v>43248</v>
-      </c>
-      <c r="C309" s="17">
-        <v>159.240005</v>
+        <v>43255</v>
+      </c>
+      <c r="C309" s="18">
+        <v>171.479996</v>
       </c>
       <c r="D309" s="127">
         <f t="shared" si="13"/>
-        <v>1.6858230516287431E-2</v>
+        <v>7.6865050337068253E-2</v>
       </c>
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B310" s="12">
-        <v>43241</v>
-      </c>
-      <c r="C310" s="17">
-        <v>156.60000600000001</v>
+        <v>43248</v>
+      </c>
+      <c r="C310" s="18">
+        <v>159.240005</v>
       </c>
       <c r="D310" s="127">
         <f t="shared" si="13"/>
-        <v>3.8461557590287354E-2</v>
+        <v>1.6858230516287431E-2</v>
       </c>
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B311" s="12">
-        <v>43234</v>
-      </c>
-      <c r="C311" s="17">
-        <v>150.800003</v>
+        <v>43241</v>
+      </c>
+      <c r="C311" s="18">
+        <v>156.60000600000001</v>
       </c>
       <c r="D311" s="127">
         <f t="shared" si="13"/>
-        <v>-3.8081270955379942E-2</v>
+        <v>3.8461557590287354E-2</v>
       </c>
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B312" s="12">
-        <v>43227</v>
-      </c>
-      <c r="C312" s="17">
-        <v>156.770004</v>
+        <v>43234</v>
+      </c>
+      <c r="C312" s="18">
+        <v>150.800003</v>
       </c>
       <c r="D312" s="127">
         <f t="shared" si="13"/>
-        <v>1.6271289260705535E-2</v>
+        <v>-3.8081270955379942E-2</v>
       </c>
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B313" s="12">
-        <v>43220</v>
-      </c>
-      <c r="C313" s="17">
-        <v>154.259995</v>
+        <v>43227</v>
+      </c>
+      <c r="C313" s="18">
+        <v>156.770004</v>
       </c>
       <c r="D313" s="127">
         <f t="shared" si="13"/>
-        <v>-3.575447645341856E-2</v>
+        <v>1.6271289260705535E-2</v>
       </c>
     </row>
     <row r="314" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B314" s="12">
-        <v>43213</v>
-      </c>
-      <c r="C314" s="17">
-        <v>159.979996</v>
+        <v>43220</v>
+      </c>
+      <c r="C314" s="18">
+        <v>154.259995</v>
       </c>
       <c r="D314" s="127">
         <f t="shared" si="13"/>
-        <v>9.6560367874289899E-3</v>
+        <v>-3.575447645341856E-2</v>
       </c>
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B315" s="12">
-        <v>43206</v>
-      </c>
-      <c r="C315" s="17">
-        <v>158.449997</v>
+        <v>43213</v>
+      </c>
+      <c r="C315" s="18">
+        <v>159.979996</v>
       </c>
       <c r="D315" s="127">
         <f t="shared" si="13"/>
-        <v>6.3422798657718049E-2</v>
+        <v>9.6560367874289899E-3</v>
       </c>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B316" s="12">
-        <v>43199</v>
-      </c>
-      <c r="C316" s="17">
-        <v>149</v>
+        <v>43206</v>
+      </c>
+      <c r="C316" s="18">
+        <v>158.449997</v>
       </c>
       <c r="D316" s="127">
         <f t="shared" si="13"/>
-        <v>7.3012575351711906E-3</v>
+        <v>6.3422798657718049E-2</v>
       </c>
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B317" s="12">
+        <v>43199</v>
+      </c>
+      <c r="C317" s="18">
+        <v>149</v>
+      </c>
+      <c r="D317" s="127">
+        <f t="shared" si="13"/>
+        <v>7.3012575351711906E-3</v>
+      </c>
+    </row>
+    <row r="318" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B318" s="12">
         <v>43192</v>
       </c>
-      <c r="C317" s="17">
+      <c r="C318" s="18">
         <v>147.91999799999999</v>
       </c>
     </row>

--- a/SPOT.xlsx
+++ b/SPOT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8A4B77-A4F8-4D1C-90A2-B50FBC6DC435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB7EBA2-6540-443B-A2D3-3ABCECA7C639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="211">
   <si>
     <t>Price</t>
   </si>
@@ -825,6 +825,132 @@
   </si>
   <si>
     <t>Rev per Ad-Support MAUs</t>
+  </si>
+  <si>
+    <t>Spotify Technology S.A., together with its subsidiaries, provides audio streaming subscription services worldwide. It operates through two segments, Premium and Ad-Supported. The Premium segment offers unlimited online and offline streaming access to its catalog of music and podcasts without commercial breaks to its subscribers. This segment sells directly to the end users. The Ad-Supported segment provides on-demand online access to its catalog of music and unlimited online access to the catalog of podcasts to its users on their computers, tablets, and compatible mobile devices. The company also offers sales, distribution and marketing, contract research and development, and customer and other support services. Spotify Technology S.A. was incorporated in 2006 and is based in Luxembourg City, Luxembourg.</t>
+  </si>
+  <si>
+    <t>Mr. Daniel G. Ek</t>
+  </si>
+  <si>
+    <t>Founder, CEO &amp; Chairman</t>
+  </si>
+  <si>
+    <t>Mr. Alex Norström</t>
+  </si>
+  <si>
+    <t>Chief Business Officer &amp; Co-President</t>
+  </si>
+  <si>
+    <t>Mr. Gustav Söderström</t>
+  </si>
+  <si>
+    <t>Co-President, Chief Product &amp; Technology Officer</t>
+  </si>
+  <si>
+    <t>Mr. Sven Martin Lorentzon</t>
+  </si>
+  <si>
+    <t>Co-Founder &amp; Director</t>
+  </si>
+  <si>
+    <t>Ms. Dustee Tucker Jenkins</t>
+  </si>
+  <si>
+    <t>Chief Public Affairs Officer</t>
+  </si>
+  <si>
+    <t>Ben Kung</t>
+  </si>
+  <si>
+    <t>Interim CFO and VP of Financial Planning &amp; Analysis</t>
+  </si>
+  <si>
+    <t>Mr. Paul Sawyer</t>
+  </si>
+  <si>
+    <t>Controller &amp; Chief Accounting Officer</t>
+  </si>
+  <si>
+    <t>Mr. Bryan Daniel Goldberg</t>
+  </si>
+  <si>
+    <t>Head of Investor Relations</t>
+  </si>
+  <si>
+    <t>Ms. Eve Konstan</t>
+  </si>
+  <si>
+    <t>General Counsel</t>
+  </si>
+  <si>
+    <t>Ms. Katarina Berg</t>
+  </si>
+  <si>
+    <t>Chief Human Resources Officer</t>
+  </si>
+  <si>
+    <t>Baillie Gifford and Company</t>
+  </si>
+  <si>
+    <t>8.09%</t>
+  </si>
+  <si>
+    <t>Morgan Stanley</t>
+  </si>
+  <si>
+    <t>4.14%</t>
+  </si>
+  <si>
+    <t>Price (T.Rowe) Associates Inc</t>
+  </si>
+  <si>
+    <t>2.80%</t>
+  </si>
+  <si>
+    <t>Wellington Management Group, LLP</t>
+  </si>
+  <si>
+    <t>2.37%</t>
+  </si>
+  <si>
+    <t>Blackrock Inc.</t>
+  </si>
+  <si>
+    <t>2.13%</t>
+  </si>
+  <si>
+    <t>JP Morgan Chase &amp; Company</t>
+  </si>
+  <si>
+    <t>2.12%</t>
+  </si>
+  <si>
+    <t>Massachusetts Financial Services Co.</t>
+  </si>
+  <si>
+    <t>1.70%</t>
+  </si>
+  <si>
+    <t>WCM Investment Management, LLC</t>
+  </si>
+  <si>
+    <t>1.64%</t>
+  </si>
+  <si>
+    <t>Arrowstreet Capital, Limited Partnership</t>
+  </si>
+  <si>
+    <t>1.12%</t>
+  </si>
+  <si>
+    <t>T. Rowe Price Investment Management, Inc.</t>
+  </si>
+  <si>
+    <t>1.04%</t>
+  </si>
+  <si>
+    <t>Q424</t>
   </si>
 </sst>
 </file>
@@ -1579,7 +1705,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1633,9 +1759,6 @@
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1649,12 +1772,6 @@
     <xf numFmtId="3" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -1742,15 +1859,6 @@
     <xf numFmtId="165" fontId="12" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="10" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1808,6 +1916,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2121,8 +2251,11 @@
                 <c:pt idx="12">
                   <c:v>3636</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="General">
-                  <c:v>3800</c:v>
+                <c:pt idx="13">
+                  <c:v>3807</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4410</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2263,7 +2396,10 @@
                   <c:v>0.19526627218934922</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1960969468051621</c:v>
+                  <c:v>0.19830028328611893</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.31367292225201071</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3131,10 +3267,10 @@
                   <c:v>13247</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16560</c:v>
+                  <c:v>17260</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18840</c:v>
+                  <c:v>19810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3269,10 +3405,10 @@
                   <c:v>0.12961541741280813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25009436098739335</c:v>
+                  <c:v>0.30293651392768184</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1376811594202898</c:v>
+                  <c:v>0.14774044032444955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4553,7 +4689,7 @@
                   <c:v>0.23720930232558146</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.4238884634586468</c:v>
+                  <c:v>-3.3353234953383462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6615,7 +6751,7 @@
                   <c:v>615</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>631</c:v>
+                  <c:v>626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6936,7 +7072,7 @@
                   <c:v>239</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>245</c:v>
+                  <c:v>246</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7016,7 +7152,7 @@
                   <c:v>388</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>411.59999999999997</c:v>
+                  <c:v>293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17158,10 +17294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:N54"/>
+  <dimension ref="B2:N43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17186,7 +17322,7 @@
       <c r="E2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="60" t="s">
         <v>50</v>
       </c>
       <c r="G2" s="25"/>
@@ -17216,8 +17352,12 @@
       <c r="C3" s="20">
         <v>45398</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="28"/>
+      <c r="E3" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>191</v>
+      </c>
       <c r="H3" t="s">
         <v>158</v>
       </c>
@@ -17226,9 +17366,14 @@
       </c>
       <c r="J3" s="38">
         <f>I3/($C$7*10000)</f>
-        <v>1.5740151506804259E-2</v>
-      </c>
-      <c r="L3" s="5"/>
+        <v>1.4970113674301075E-2</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="M3" t="s">
+        <v>171</v>
+      </c>
       <c r="N3" s="37"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -17236,8 +17381,12 @@
       <c r="C4" s="21">
         <v>0.94097222222222221</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="28"/>
+      <c r="E4" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>193</v>
+      </c>
       <c r="H4" t="s">
         <v>159</v>
       </c>
@@ -17246,16 +17395,25 @@
       </c>
       <c r="J4" s="38">
         <f>I4/($C$7*10000)</f>
-        <v>1.098174580924083E-2</v>
-      </c>
-      <c r="L4" s="5"/>
+        <v>1.0444498138124503E-2</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="M4" t="s">
+        <v>173</v>
+      </c>
       <c r="N4" s="13"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="13"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="28"/>
+      <c r="E5" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>195</v>
+      </c>
       <c r="H5" t="s">
         <v>160</v>
       </c>
@@ -17264,9 +17422,14 @@
       </c>
       <c r="J5" s="38">
         <f>I5/($C$7*10000)</f>
-        <v>1.2067724471944144E-2</v>
-      </c>
-      <c r="L5" s="5"/>
+        <v>1.1477348680986578E-2</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="M5" t="s">
+        <v>175</v>
+      </c>
       <c r="N5" s="13"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
@@ -17276,8 +17439,12 @@
       <c r="C6" s="13">
         <v>310</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="28"/>
+      <c r="E6" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>197</v>
+      </c>
       <c r="H6" t="s">
         <v>161</v>
       </c>
@@ -17286,9 +17453,14 @@
       </c>
       <c r="J6" s="38">
         <f>I6/($C$7*10000)</f>
-        <v>8.4841366956531685E-3</v>
-      </c>
-      <c r="L6" s="5"/>
+        <v>8.0690767625288071E-3</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="M6" t="s">
+        <v>177</v>
+      </c>
       <c r="N6" s="13"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
@@ -17296,13 +17468,23 @@
         <v>1</v>
       </c>
       <c r="C7" s="15">
-        <v>196.03608</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="28"/>
+        <f>Model!Y20</f>
+        <v>206.11985100000001</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>199</v>
+      </c>
       <c r="I7" s="10"/>
       <c r="J7" s="38"/>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="M7" t="s">
+        <v>179</v>
+      </c>
       <c r="N7" s="13"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
@@ -17311,13 +17493,22 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>60771.184800000003</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="28"/>
+        <v>63897.153810000003</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>201</v>
+      </c>
       <c r="I8" s="10"/>
       <c r="J8" s="38"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="M8" t="s">
+        <v>181</v>
+      </c>
       <c r="N8" s="13"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
@@ -17325,14 +17516,23 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!X42+Model!X43</f>
-        <v>4671</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="28"/>
+        <f>Model!Y42+Model!Y43</f>
+        <v>5398</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>203</v>
+      </c>
       <c r="I9" s="10"/>
       <c r="J9" s="38"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="M9" t="s">
+        <v>183</v>
+      </c>
       <c r="N9" s="13"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
@@ -17340,14 +17540,23 @@
         <v>4</v>
       </c>
       <c r="C10" s="15">
-        <f>Model!X56+Model!X63</f>
-        <v>2318</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="28"/>
+        <f>Model!Y63</f>
+        <v>1323</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>205</v>
+      </c>
       <c r="I10" s="10"/>
       <c r="J10" s="38"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="M10" t="s">
+        <v>185</v>
+      </c>
       <c r="N10" s="13"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
@@ -17356,13 +17565,22 @@
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>2353</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="28"/>
+        <v>4075</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>207</v>
+      </c>
       <c r="I11" s="10"/>
       <c r="J11" s="38"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="M11" t="s">
+        <v>187</v>
+      </c>
       <c r="N11" s="13"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
@@ -17371,12 +17589,21 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>58418.184800000003</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="28"/>
+        <v>59822.153810000003</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>209</v>
+      </c>
       <c r="J12" s="13"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="M12" t="s">
+        <v>189</v>
+      </c>
       <c r="N12" s="13"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
@@ -17398,7 +17625,7 @@
       </c>
       <c r="C14" s="36">
         <f>C6/Model!H22</f>
-        <v>79.691516709511561</v>
+        <v>48.589341692789972</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
@@ -17416,7 +17643,7 @@
       </c>
       <c r="C15" s="36">
         <f>C6/Model!I22</f>
-        <v>54.385964912280699</v>
+        <v>34.675615212527966</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -17433,44 +17660,46 @@
       </c>
       <c r="C17" s="6">
         <f>Model!I22/Model!H22-1</f>
-        <v>0.46529562982005146</v>
+        <v>0.40125391849529768</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="133"/>
-      <c r="M17" s="134"/>
-      <c r="N17" s="135"/>
+      <c r="L17" s="125" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" s="126"/>
+      <c r="N17" s="127"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="52">
+      <c r="C18" s="51">
         <f>C14/(C16*100)</f>
-        <v>0.79691516709511556</v>
+        <v>0.48589341692789972</v>
       </c>
       <c r="E18" t="s">
         <v>135</v>
       </c>
-      <c r="L18" s="136"/>
-      <c r="M18" s="137"/>
-      <c r="N18" s="138"/>
+      <c r="L18" s="128"/>
+      <c r="M18" s="129"/>
+      <c r="N18" s="130"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="52">
+      <c r="C19" s="51">
         <f>C15/(C17*100)</f>
-        <v>1.1688475331976347</v>
+        <v>0.86418134787472067</v>
       </c>
       <c r="E19" t="s">
         <v>136</v>
       </c>
-      <c r="L19" s="136"/>
-      <c r="M19" s="137"/>
-      <c r="N19" s="138"/>
+      <c r="L19" s="128"/>
+      <c r="M19" s="129"/>
+      <c r="N19" s="130"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
@@ -17478,11 +17707,11 @@
       </c>
       <c r="C20" s="6">
         <f>Model!H10/Model!G9-1</f>
-        <v>0.25009436098739335</v>
-      </c>
-      <c r="L20" s="136"/>
-      <c r="M20" s="137"/>
-      <c r="N20" s="138"/>
+        <v>0.30293651392768184</v>
+      </c>
+      <c r="L20" s="128"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="130"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
@@ -17490,11 +17719,11 @@
       </c>
       <c r="C21" s="6">
         <f>Model!I10/Model!H10-1</f>
-        <v>0.1376811594202898</v>
-      </c>
-      <c r="L21" s="136"/>
-      <c r="M21" s="137"/>
-      <c r="N21" s="138"/>
+        <v>0.14774044032444955</v>
+      </c>
+      <c r="L21" s="128"/>
+      <c r="M21" s="129"/>
+      <c r="N21" s="130"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -17504,9 +17733,9 @@
         <f>Model!G15</f>
         <v>-446</v>
       </c>
-      <c r="L22" s="136"/>
-      <c r="M22" s="137"/>
-      <c r="N22" s="138"/>
+      <c r="L22" s="128"/>
+      <c r="M22" s="129"/>
+      <c r="N22" s="130"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -17516,9 +17745,9 @@
         <f>Model!G17</f>
         <v>-505</v>
       </c>
-      <c r="L23" s="136"/>
-      <c r="M23" s="137"/>
-      <c r="N23" s="138"/>
+      <c r="L23" s="128"/>
+      <c r="M23" s="129"/>
+      <c r="N23" s="130"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
@@ -17528,9 +17757,9 @@
         <f>Model!X23</f>
         <v>0.27612761276127618</v>
       </c>
-      <c r="L24" s="136"/>
-      <c r="M24" s="137"/>
-      <c r="N24" s="138"/>
+      <c r="L24" s="128"/>
+      <c r="M24" s="129"/>
+      <c r="N24" s="130"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
@@ -17540,9 +17769,9 @@
         <f>Model!X24</f>
         <v>5.4180418041804179E-2</v>
       </c>
-      <c r="L25" s="136"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="138"/>
+      <c r="L25" s="128"/>
+      <c r="M25" s="129"/>
+      <c r="N25" s="130"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -17550,26 +17779,26 @@
       </c>
       <c r="C26" s="36">
         <f>C12/C23</f>
-        <v>-115.67957386138615</v>
-      </c>
-      <c r="L26" s="136"/>
-      <c r="M26" s="137"/>
-      <c r="N26" s="138"/>
+        <v>-118.45971051485149</v>
+      </c>
+      <c r="L26" s="128"/>
+      <c r="M26" s="129"/>
+      <c r="N26" s="130"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="123">
+      <c r="C27" s="120">
         <f>Main!C10/Model!X69</f>
-        <v>0.70051375037775765</v>
+        <v>0.39981867633726204</v>
       </c>
       <c r="E27" t="s">
         <v>75</v>
       </c>
-      <c r="L27" s="136"/>
-      <c r="M27" s="137"/>
-      <c r="N27" s="138"/>
+      <c r="L27" s="128"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="130"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
@@ -17578,9 +17807,9 @@
       <c r="C28" s="36">
         <v>0</v>
       </c>
-      <c r="L28" s="139"/>
-      <c r="M28" s="140"/>
-      <c r="N28" s="141"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="133"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
@@ -17615,7 +17844,7 @@
       </c>
       <c r="C32" s="36">
         <f>(Model!X55-Model!X68)/C7</f>
-        <v>16.879545846866556</v>
+        <v>16.053766699064806</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
@@ -17652,96 +17881,25 @@
       <c r="C36" s="23"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E41" s="59"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="59"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="59"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="59"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="59"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E47" s="59"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="E48" s="59"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-    </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E49" s="59"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-    </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
-    </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E51" s="59"/>
-      <c r="F51" s="59"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-    </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E52" s="60"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
-    </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E53" s="60"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
-    </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E54" s="60"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -17754,13 +17912,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:Z90"/>
+  <dimension ref="A1:AA90"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y13" sqref="Y13"/>
+      <selection pane="bottomRight" activeCell="Y56" sqref="Y56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17768,15 +17926,16 @@
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="13"/>
-    <col min="24" max="24" width="11.42578125" style="13"/>
+    <col min="24" max="24" width="11.42578125" style="144"/>
+    <col min="25" max="25" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>34</v>
       </c>
@@ -17834,17 +17993,20 @@
       <c r="W2" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="13" t="s">
         <v>68</v>
       </c>
       <c r="Z2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>140</v>
       </c>
@@ -17899,14 +18061,14 @@
       <c r="W3">
         <v>602</v>
       </c>
-      <c r="X3" s="13">
+      <c r="X3" s="144">
         <v>615</v>
       </c>
-      <c r="Y3" s="9">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y3" s="158">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>140</v>
       </c>
@@ -17961,14 +18123,14 @@
       <c r="W4">
         <v>236</v>
       </c>
-      <c r="X4" s="13">
+      <c r="X4" s="144">
         <v>239</v>
       </c>
-      <c r="Y4" s="9">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y4" s="158">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>140</v>
       </c>
@@ -18023,18 +18185,17 @@
       <c r="W5">
         <v>379</v>
       </c>
-      <c r="X5" s="13">
+      <c r="X5" s="144">
         <v>388</v>
       </c>
-      <c r="Y5" s="9">
-        <f>U5*1.2</f>
-        <v>411.59999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="Y6" s="9"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y5" s="158">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y6" s="41"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>137</v>
       </c>
@@ -18078,12 +18239,14 @@
       <c r="W7" s="10">
         <v>3170</v>
       </c>
-      <c r="X7" s="15">
+      <c r="X7" s="145">
         <v>3247</v>
       </c>
-      <c r="Y7" s="9"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y7" s="15">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>138</v>
       </c>
@@ -18127,12 +18290,14 @@
       <c r="W8" s="10">
         <v>501</v>
       </c>
-      <c r="X8" s="15">
+      <c r="X8" s="145">
         <v>389</v>
       </c>
-      <c r="Y8" s="9"/>
-    </row>
-    <row r="9" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y8" s="41">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
@@ -18153,13 +18318,13 @@
         <v>13247</v>
       </c>
       <c r="H9" s="43">
-        <v>16560</v>
+        <v>17260</v>
       </c>
       <c r="I9" s="43">
-        <v>18840</v>
+        <v>19810</v>
       </c>
       <c r="L9" s="11">
-        <f t="shared" ref="L9:X9" si="0">SUM(L7:L8)</f>
+        <f t="shared" ref="L9:AA9" si="0">SUM(L7:L8)</f>
         <v>2147</v>
       </c>
       <c r="M9" s="11">
@@ -18206,15 +18371,22 @@
         <f t="shared" si="0"/>
         <v>3671</v>
       </c>
-      <c r="X9" s="14">
+      <c r="X9" s="146">
         <f t="shared" si="0"/>
         <v>3636</v>
       </c>
-      <c r="Y9" s="128">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y9" s="14">
+        <f t="shared" si="0"/>
+        <v>3807</v>
+      </c>
+      <c r="Z9" s="146">
+        <v>4410</v>
+      </c>
+      <c r="AA9" s="146">
+        <v>4660</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>66</v>
       </c>
@@ -18224,10 +18396,10 @@
       <c r="F10" s="10"/>
       <c r="G10" s="15"/>
       <c r="H10" s="42">
-        <v>16560</v>
+        <v>17260</v>
       </c>
       <c r="I10" s="42">
-        <v>18840</v>
+        <v>19810</v>
       </c>
       <c r="L10" s="40"/>
       <c r="M10" s="40"/>
@@ -18241,12 +18413,18 @@
       <c r="U10" s="40"/>
       <c r="V10" s="40"/>
       <c r="W10" s="10"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="40">
+      <c r="X10" s="145"/>
+      <c r="Y10" s="154">
         <v>3800</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z10">
+        <v>4410</v>
+      </c>
+      <c r="AA10">
+        <v>4660</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>60</v>
       </c>
@@ -18303,12 +18481,14 @@
       <c r="W11" s="10">
         <v>2691</v>
       </c>
-      <c r="X11" s="15">
+      <c r="X11" s="145">
         <v>2632</v>
       </c>
-      <c r="Y11" s="40"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y11" s="159">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>74</v>
       </c>
@@ -18365,12 +18545,14 @@
       <c r="W12" s="10">
         <v>468</v>
       </c>
-      <c r="X12" s="13">
+      <c r="X12" s="144">
         <v>389</v>
       </c>
-      <c r="Y12" s="9"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y12" s="158">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>61</v>
       </c>
@@ -18427,12 +18609,14 @@
       <c r="W13" s="10">
         <v>432</v>
       </c>
-      <c r="X13" s="13">
+      <c r="X13" s="144">
         <v>324</v>
       </c>
-      <c r="Y13" s="9"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y13" s="158">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>134</v>
       </c>
@@ -18489,12 +18673,15 @@
       <c r="W14" s="10">
         <v>155</v>
       </c>
-      <c r="X14" s="13">
+      <c r="X14" s="144">
         <v>123</v>
       </c>
-      <c r="Y14" s="9"/>
-    </row>
-    <row r="15" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y14" s="158">
+        <v>124</v>
+      </c>
+      <c r="AA14" s="144"/>
+    </row>
+    <row r="15" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
@@ -18520,16 +18707,16 @@
       </c>
       <c r="H15" s="11">
         <f t="shared" si="1"/>
-        <v>16560</v>
+        <v>17260</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" si="1"/>
-        <v>18840</v>
+        <v>19810</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11">
-        <f t="shared" ref="L15:Y15" si="2">L9-SUM(L11:L14)</f>
+        <f t="shared" ref="L15:AA15" si="2">L9-SUM(L11:L14)</f>
         <v>14</v>
       </c>
       <c r="M15" s="11">
@@ -18576,16 +18763,24 @@
         <f t="shared" si="2"/>
         <v>-75</v>
       </c>
-      <c r="X15" s="132">
+      <c r="X15" s="147">
+        <f>X9-SUM(X11:X14)</f>
+        <v>168</v>
+      </c>
+      <c r="Y15" s="155">
+        <f>Y9-SUM(Y11:Y14)</f>
+        <v>266</v>
+      </c>
+      <c r="Z15" s="157">
         <f t="shared" si="2"/>
-        <v>168</v>
-      </c>
-      <c r="Y15" s="43">
+        <v>4410</v>
+      </c>
+      <c r="AA15" s="157">
         <f t="shared" si="2"/>
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+        <v>4660</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>141</v>
       </c>
@@ -18659,13 +18854,17 @@
         <f>46-102</f>
         <v>-56</v>
       </c>
-      <c r="X16" s="13">
+      <c r="X16" s="144">
         <f>59-53</f>
         <v>6</v>
       </c>
-      <c r="Y16" s="9"/>
-    </row>
-    <row r="17" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y16" s="41">
+        <f>76-72</f>
+        <v>4</v>
+      </c>
+      <c r="AA16" s="144"/>
+    </row>
+    <row r="17" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
@@ -18691,14 +18890,14 @@
       </c>
       <c r="H17" s="11">
         <f t="shared" si="3"/>
-        <v>16560</v>
+        <v>17260</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="3"/>
-        <v>18840</v>
+        <v>19810</v>
       </c>
       <c r="L17" s="11">
-        <f t="shared" ref="L17:Y17" si="4">L15+SUM(L16:L16)</f>
+        <f t="shared" ref="L17:AA17" si="4">L15+SUM(L16:L16)</f>
         <v>87</v>
       </c>
       <c r="M17" s="11">
@@ -18745,16 +18944,24 @@
         <f t="shared" si="4"/>
         <v>-131</v>
       </c>
-      <c r="X17" s="14">
+      <c r="X17" s="146">
         <f t="shared" si="4"/>
         <v>174</v>
       </c>
-      <c r="Y17" s="43">
+      <c r="Y17" s="155">
         <f t="shared" si="4"/>
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="Z17" s="157">
+        <f t="shared" si="4"/>
+        <v>4410</v>
+      </c>
+      <c r="AA17" s="157">
+        <f t="shared" si="4"/>
+        <v>4660</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>20</v>
       </c>
@@ -18811,12 +19018,15 @@
       <c r="W18" s="10">
         <v>-61</v>
       </c>
-      <c r="X18" s="13">
+      <c r="X18" s="144">
         <v>-23</v>
       </c>
-      <c r="Y18" s="9"/>
-    </row>
-    <row r="19" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y18" s="41">
+        <v>-4</v>
+      </c>
+      <c r="AA18" s="144"/>
+    </row>
+    <row r="19" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>21</v>
       </c>
@@ -18840,10 +19050,10 @@
         <f>G17-SUM(G18:G18)</f>
         <v>-532</v>
       </c>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
       <c r="L19" s="11">
-        <f t="shared" ref="L19:Y19" si="5">L17-SUM(L18:L18)</f>
+        <f t="shared" ref="L19:AA19" si="5">L17-SUM(L18:L18)</f>
         <v>23</v>
       </c>
       <c r="M19" s="11">
@@ -18890,16 +19100,24 @@
         <f t="shared" si="5"/>
         <v>-70</v>
       </c>
-      <c r="X19" s="14">
+      <c r="X19" s="146">
         <f t="shared" si="5"/>
         <v>197</v>
       </c>
-      <c r="Y19" s="43">
+      <c r="Y19" s="155">
         <f t="shared" si="5"/>
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="Z19" s="157">
+        <f t="shared" si="5"/>
+        <v>4410</v>
+      </c>
+      <c r="AA19" s="157">
+        <f t="shared" si="5"/>
+        <v>4660</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>1</v>
       </c>
@@ -18956,12 +19174,14 @@
       <c r="W20" s="10">
         <v>196.03608</v>
       </c>
-      <c r="X20" s="15">
+      <c r="X20" s="145">
         <v>198.02545599999999</v>
       </c>
-      <c r="Y20" s="40"/>
-    </row>
-    <row r="21" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y20" s="154">
+        <v>206.11985100000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>22</v>
       </c>
@@ -18985,63 +19205,72 @@
         <f>G19/G20</f>
         <v>-2.7319555567934941</v>
       </c>
-      <c r="H21" s="55"/>
-      <c r="I21" s="56"/>
-      <c r="L21" s="50">
+      <c r="H21" s="54"/>
+      <c r="I21" s="55"/>
+      <c r="L21" s="49">
         <f t="shared" ref="L21:V21" si="6">L19/L20</f>
         <v>0.1206934751118536</v>
       </c>
-      <c r="M21" s="50">
+      <c r="M21" s="49">
         <f t="shared" si="6"/>
         <v>-0.10461731337236389</v>
       </c>
-      <c r="N21" s="50">
+      <c r="N21" s="49">
         <f t="shared" si="6"/>
         <v>1.0444656551048131E-2</v>
       </c>
-      <c r="O21" s="50">
+      <c r="O21" s="49">
         <f t="shared" si="6"/>
         <v>-0.20317529329252246</v>
       </c>
-      <c r="P21" s="50">
+      <c r="P21" s="49">
         <f t="shared" si="6"/>
         <v>0.6806042572928902</v>
       </c>
-      <c r="Q21" s="50">
+      <c r="Q21" s="49">
         <f t="shared" si="6"/>
         <v>-0.64784283469654669</v>
       </c>
-      <c r="R21" s="50">
+      <c r="R21" s="49">
         <f t="shared" si="6"/>
         <v>-0.85975912636125373</v>
       </c>
-      <c r="S21" s="50">
+      <c r="S21" s="49">
         <f t="shared" si="6"/>
         <v>-1.3973113628237002</v>
       </c>
-      <c r="T21" s="50">
+      <c r="T21" s="49">
         <f t="shared" si="6"/>
         <v>-1.16241546875964</v>
       </c>
-      <c r="U21" s="50">
+      <c r="U21" s="49">
         <f t="shared" si="6"/>
         <v>-1.5533371112686438</v>
       </c>
-      <c r="V21" s="50">
+      <c r="V21" s="49">
         <f t="shared" si="6"/>
         <v>0.33353563894752719</v>
       </c>
-      <c r="W21" s="50">
+      <c r="W21" s="49">
         <f>W19/W20</f>
         <v>-0.35707712580255635</v>
       </c>
-      <c r="X21" s="49">
+      <c r="X21" s="148">
         <f>X19/X20</f>
         <v>0.99482159505796064</v>
       </c>
-      <c r="Y21" s="129"/>
-    </row>
-    <row r="22" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y21" s="148">
+        <f>Y19/Y20</f>
+        <v>1.3293236855677719</v>
+      </c>
+      <c r="Z21" s="148">
+        <v>1.91</v>
+      </c>
+      <c r="AA21" s="148">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>65</v>
       </c>
@@ -19051,31 +19280,37 @@
       <c r="F22" s="2"/>
       <c r="G22" s="35"/>
       <c r="H22" s="44">
-        <v>3.89</v>
+        <v>6.38</v>
       </c>
       <c r="I22" s="45">
-        <v>5.7</v>
-      </c>
-      <c r="L22" s="51"/>
-      <c r="M22" s="51"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="51"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="51"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="51"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="51"/>
-      <c r="V22" s="51"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="130">
+        <v>8.94</v>
+      </c>
+      <c r="L22" s="50"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="49"/>
+      <c r="X22" s="149">
         <v>0.73</v>
       </c>
-      <c r="Y22" s="129">
+      <c r="Y22" s="156">
         <v>0.81</v>
       </c>
-    </row>
-    <row r="23" spans="2:26" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Z22" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>2.09</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>29</v>
       </c>
@@ -19149,13 +19384,24 @@
         <f t="shared" si="7"/>
         <v>0.26695723236175428</v>
       </c>
-      <c r="X23" s="6">
+      <c r="X23" s="39">
         <f t="shared" si="7"/>
         <v>0.27612761276127618</v>
       </c>
-      <c r="Y23" s="128"/>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y23" s="6">
+        <f>1-Y11/Y9</f>
+        <v>0.29209351195166799</v>
+      </c>
+      <c r="Z23" s="39">
+        <f t="shared" ref="Y23:AA23" si="8">1-Z11/Z9</f>
+        <v>1</v>
+      </c>
+      <c r="AA23" s="39">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>30</v>
       </c>
@@ -19188,60 +19434,71 @@
         <v>0</v>
       </c>
       <c r="L24" s="4">
-        <f t="shared" ref="L24:X24" si="8">L19/L9</f>
+        <f t="shared" ref="L24:X24" si="9">L19/L9</f>
         <v>1.0712622263623661E-2</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8.5800085800085794E-3</v>
       </c>
       <c r="N24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.9968012794882047E-4</v>
       </c>
       <c r="O24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.4503532911863145E-2</v>
       </c>
       <c r="P24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.9229612927470877E-2</v>
       </c>
       <c r="Q24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-4.3645251396648044E-2</v>
       </c>
       <c r="R24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-5.4677206851119896E-2</v>
       </c>
       <c r="S24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-8.5281111813013261E-2</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-7.3964497041420121E-2</v>
       </c>
       <c r="U24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-9.5058231035568153E-2</v>
       </c>
       <c r="V24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9362526064938934E-2</v>
       </c>
       <c r="W24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.9068373740125308E-2</v>
       </c>
-      <c r="X24" s="7">
-        <f t="shared" si="8"/>
+      <c r="X24" s="150">
+        <f t="shared" si="9"/>
         <v>5.4180418041804179E-2</v>
       </c>
-      <c r="Y24" s="9"/>
-    </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y24" s="7">
+        <f t="shared" ref="Y24:AA24" si="10">Y19/Y9</f>
+        <v>7.1972681901759913E-2</v>
+      </c>
+      <c r="Z24" s="150">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AA24" s="150">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>31</v>
       </c>
@@ -19264,59 +19521,66 @@
       </c>
       <c r="H25" s="48">
         <f>H10/G9-1</f>
-        <v>0.25009436098739335</v>
+        <v>0.30293651392768184</v>
       </c>
       <c r="I25" s="48">
         <f>I10/H10-1</f>
-        <v>0.1376811594202898</v>
+        <v>0.14774044032444955</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4">
-        <f t="shared" ref="P25:W25" si="9">P9/L9-1</f>
+        <f t="shared" ref="P25:W25" si="11">P9/L9-1</f>
         <v>0.23940381928272014</v>
       </c>
       <c r="Q25" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.2286572286572286</v>
       </c>
       <c r="R25" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.21391443422630951</v>
       </c>
       <c r="S25" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.17738936407586459</v>
       </c>
       <c r="T25" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.14317925591882741</v>
       </c>
       <c r="U25" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.10928770949720668</v>
       </c>
       <c r="V25" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.10573122529644263</v>
       </c>
       <c r="W25" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.15950726468730259</v>
       </c>
-      <c r="X25" s="7">
+      <c r="X25" s="150">
         <f>X9/T9-1</f>
         <v>0.19526627218934922</v>
       </c>
-      <c r="Y25" s="47">
-        <f>Y10/U9-1</f>
-        <v>0.1960969468051621</v>
-      </c>
-      <c r="Z25" s="131"/>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y25" s="7">
+        <f t="shared" ref="Y25:AA25" si="12">Y9/U9-1</f>
+        <v>0.19830028328611893</v>
+      </c>
+      <c r="Z25" s="150">
+        <f t="shared" si="12"/>
+        <v>0.31367292225201071</v>
+      </c>
+      <c r="AA25" s="150">
+        <f t="shared" si="12"/>
+        <v>0.2694088804140562</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>132</v>
       </c>
@@ -19340,63 +19604,74 @@
         <f>G12/G9</f>
         <v>0.13021816260285349</v>
       </c>
-      <c r="H26" s="124"/>
-      <c r="I26" s="124"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
       <c r="L26" s="4">
-        <f t="shared" ref="L26:X26" si="10">L12/L9</f>
+        <f t="shared" ref="L26:X26" si="13">L12/L9</f>
         <v>9.1290172333488587E-2</v>
       </c>
       <c r="M26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.10939510939510939</v>
       </c>
       <c r="N26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>8.3166733306677329E-2</v>
       </c>
       <c r="O26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9.4087021197471185E-2</v>
       </c>
       <c r="P26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>9.3949642991356636E-2</v>
       </c>
       <c r="Q26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.11731843575418995</v>
       </c>
       <c r="R26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.12714097496706192</v>
       </c>
       <c r="S26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.13108022741629816</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.14299802761341224</v>
       </c>
       <c r="U26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.14258734655335223</v>
       </c>
       <c r="V26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.10991957104557641</v>
       </c>
       <c r="W26" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.1274856987196949</v>
       </c>
-      <c r="X26" s="7">
-        <f t="shared" si="10"/>
+      <c r="X26" s="150">
+        <f t="shared" si="13"/>
         <v>0.10698569856985699</v>
       </c>
-      <c r="Y26" s="9"/>
-    </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y26" s="7">
+        <f>Y12/Y9</f>
+        <v>9.9553454163383237E-2</v>
+      </c>
+      <c r="Z26" s="150">
+        <f t="shared" ref="Y26:AA26" si="14">Z12/Z9</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="150">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>67</v>
       </c>
@@ -19420,76 +19695,87 @@
         <f>G13/G9</f>
         <v>0.11572431493923152</v>
       </c>
-      <c r="H27" s="124"/>
-      <c r="I27" s="124"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
       <c r="L27" s="4">
-        <f t="shared" ref="L27:W27" si="11">L13/L9</f>
+        <f t="shared" ref="L27:W27" si="15">L13/L9</f>
         <v>0.10992081974848626</v>
       </c>
       <c r="M27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.11969111969111969</v>
       </c>
       <c r="N27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.11195521791283487</v>
       </c>
       <c r="O27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.12644105615470436</v>
       </c>
       <c r="P27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.11123637730176625</v>
       </c>
       <c r="Q27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.13652234636871508</v>
       </c>
       <c r="R27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.14229249011857709</v>
       </c>
       <c r="S27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.14308275426405559</v>
       </c>
       <c r="T27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.11406969099276791</v>
       </c>
       <c r="U27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.12559017941454201</v>
       </c>
       <c r="V27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.10574918081620495</v>
       </c>
       <c r="W27" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.1176791065104876</v>
       </c>
-      <c r="X27" s="7">
+      <c r="X27" s="150">
         <f>X13/X9</f>
         <v>8.9108910891089105E-2</v>
       </c>
-      <c r="Y27" s="9"/>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y27" s="7">
+        <f t="shared" ref="Y27:AA27" si="16">Y13/Y9</f>
+        <v>9.0097189387969526E-2</v>
+      </c>
+      <c r="Z27" s="150">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="150">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>133</v>
       </c>
       <c r="C28" s="4">
-        <f t="shared" ref="C28:E28" si="12">C14/C9</f>
+        <f t="shared" ref="C28:E28" si="17">C14/C9</f>
         <v>5.2335895919574216E-2</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>5.6091370558375632E-2</v>
       </c>
       <c r="E28" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>4.6545304095986763E-2</v>
       </c>
       <c r="F28" s="4">
@@ -19500,46 +19786,46 @@
         <f>G14/G9</f>
         <v>4.4160942100098133E-2</v>
       </c>
-      <c r="H28" s="124"/>
-      <c r="I28" s="124"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="121"/>
       <c r="L28" s="4">
-        <f t="shared" ref="L28:U28" si="13">L14/L9</f>
+        <f t="shared" ref="L28:U28" si="18">L14/L9</f>
         <v>4.7508150908244062E-2</v>
       </c>
       <c r="M28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>5.019305019305019E-2</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4.1983206717313072E-2</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4.6857567869096318E-2</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4.9229612927470877E-2</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>5.9706703910614528E-2</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>5.2700922266139656E-2</v>
       </c>
       <c r="S28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>5.1800379027163612E-2</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>4.6022353714661408E-2</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="18"/>
         <v>5.0676739062008182E-2</v>
       </c>
       <c r="V28" s="4">
@@ -19550,94 +19836,116 @@
         <f>W14/W9</f>
         <v>4.2222827567420324E-2</v>
       </c>
-      <c r="X28" s="7">
+      <c r="X28" s="150">
         <f>X14/X9</f>
         <v>3.3828382838283828E-2</v>
       </c>
-      <c r="Y28" s="9"/>
-    </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y28" s="7">
+        <f t="shared" ref="Y28:AA28" si="19">Y14/Y9</f>
+        <v>3.2571578670869454E-2</v>
+      </c>
+      <c r="Z28" s="150">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="150">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>163</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="e">
-        <f t="shared" ref="E29:G30" si="14">E7/D7-1</f>
+        <f t="shared" ref="E29:G30" si="20">E7/D7-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F29" s="4" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G29" s="7" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="124"/>
-      <c r="I29" s="124"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="121"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4">
-        <f t="shared" ref="P29:V29" si="15">P7/L7-1</f>
+        <f t="shared" ref="P29:V29" si="21">P7/L7-1</f>
         <v>0.2320041429311237</v>
       </c>
       <c r="Q29" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.21789883268482479</v>
       </c>
       <c r="R29" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.21717171717171713</v>
       </c>
       <c r="S29" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.18387799564270146</v>
       </c>
       <c r="T29" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.14039512400168142</v>
       </c>
       <c r="U29" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>0.10742811501597438</v>
       </c>
       <c r="V29" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>9.7698981516408878E-2</v>
       </c>
       <c r="W29" s="4">
         <f>W7/S7-1</f>
         <v>0.1667280088332721</v>
       </c>
-      <c r="X29" s="7">
+      <c r="X29" s="150">
         <f>X7/T7-1</f>
         <v>0.19683007740508662</v>
       </c>
-      <c r="Y29" s="9"/>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y29" s="7">
+        <f t="shared" ref="Y29:AA29" si="22">Y7/U7-1</f>
+        <v>0.20843851424450044</v>
+      </c>
+      <c r="Z29" s="150">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="AA29" s="150">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>164</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F30" s="4" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G30" s="7" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="124"/>
-      <c r="I30" s="124"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="121"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -19647,40 +19955,51 @@
         <v>0.30555555555555558</v>
       </c>
       <c r="Q30" s="4">
-        <f t="shared" ref="Q30:V30" si="16">Q8/M8-1</f>
+        <f t="shared" ref="Q30:V30" si="23">Q8/M8-1</f>
         <v>0.30909090909090908</v>
       </c>
       <c r="R30" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0.19195046439628483</v>
       </c>
       <c r="S30" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0.13959390862944154</v>
       </c>
       <c r="T30" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0.16666666666666674</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0.12222222222222223</v>
       </c>
       <c r="V30" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="23"/>
         <v>0.16103896103896109</v>
       </c>
       <c r="W30" s="4">
         <f>W8/S8-1</f>
         <v>0.11581291759465473</v>
       </c>
-      <c r="X30" s="7">
+      <c r="X30" s="150">
         <f>X8/T8-1</f>
         <v>0.18237082066869292</v>
       </c>
-      <c r="Y30" s="9"/>
-    </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y30" s="7">
+        <f t="shared" ref="Y30:AA30" si="24">Y8/U8-1</f>
+        <v>0.12871287128712861</v>
+      </c>
+      <c r="Z30" s="150">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="AA30" s="150">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>35</v>
       </c>
@@ -19701,36 +20020,36 @@
         <f>G19/F19-1</f>
         <v>0.23720930232558146</v>
       </c>
-      <c r="H31" s="57">
+      <c r="H31" s="56">
         <f>H22/G21-1</f>
-        <v>-2.4238884634586468</v>
-      </c>
-      <c r="I31" s="57">
+        <v>-3.3353234953383462</v>
+      </c>
+      <c r="I31" s="56">
         <f>I22/H22-1</f>
-        <v>0.46529562982005146</v>
+        <v>0.40125391849529768</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4">
-        <f t="shared" ref="P31:T31" si="17">P19/L19-1</f>
+        <f t="shared" ref="P31:T31" si="25">P19/L19-1</f>
         <v>4.6956521739130439</v>
       </c>
       <c r="Q31" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>5.25</v>
       </c>
       <c r="R31" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-84</v>
       </c>
       <c r="S31" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>5.9230769230769234</v>
       </c>
       <c r="T31" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>-2.717557251908397</v>
       </c>
       <c r="U31" s="4">
@@ -19744,19 +20063,29 @@
         <f>W19/S19-1</f>
         <v>-0.7407407407407407</v>
       </c>
-      <c r="X31" s="7">
+      <c r="X31" s="4">
         <v>1</v>
       </c>
-      <c r="Y31" s="9"/>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Y31" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="150">
+        <f>Z21/V21-1</f>
+        <v>4.7265244758461531</v>
+      </c>
+      <c r="AA31" s="150">
+        <f>AA21/W21-1</f>
+        <v>-6.8530772457142852</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="39"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
@@ -19769,10 +20098,10 @@
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="9"/>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="X32" s="150"/>
+      <c r="Y32" s="41"/>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>167</v>
       </c>
@@ -19780,63 +20109,75 @@
       <c r="D33" s="3"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
       <c r="L33" s="18">
         <f>SUM(L3:L4)/L7</f>
         <v>0.26618332470222683</v>
       </c>
       <c r="M33" s="18">
-        <f t="shared" ref="M33:O33" si="18">SUM(M3:M4)/M7</f>
+        <f t="shared" ref="M33:O33" si="26">SUM(M3:M4)/M7</f>
         <v>0.25778210116731515</v>
       </c>
       <c r="N33" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0.25390266299357206</v>
       </c>
       <c r="O33" s="18">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0.25533769063180828</v>
       </c>
       <c r="P33" s="18">
-        <f t="shared" ref="P33:V33" si="19">SUM(P3:P4)/P7</f>
+        <f t="shared" ref="P33:V33" si="27">SUM(P3:P4)/P7</f>
         <v>0.25388818831441784</v>
       </c>
       <c r="Q33" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.2480031948881789</v>
       </c>
       <c r="R33" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.24556771029800076</v>
       </c>
       <c r="S33" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.25542878174457123</v>
       </c>
       <c r="T33" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.26723184666420935</v>
       </c>
       <c r="U33" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.27803822574828707</v>
       </c>
       <c r="V33" s="18">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.27491408934707906</v>
       </c>
       <c r="W33" s="18">
         <f>SUM(W3:W4)/W7</f>
         <v>0.26435331230283909</v>
       </c>
-      <c r="X33" s="52">
+      <c r="X33" s="151">
         <f>SUM(X3:X4)/X7</f>
         <v>0.26301201108715738</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y33" s="51">
+        <f t="shared" ref="Y33:AA33" si="28">SUM(Y3:Y4)/Y7</f>
+        <v>0.26022082960310355</v>
+      </c>
+      <c r="Z33" s="151" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA33" s="151" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>168</v>
       </c>
@@ -19844,63 +20185,75 @@
       <c r="D34" s="3"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
       <c r="L34" s="18">
         <f>L8/L5</f>
         <v>1.0384615384615385</v>
       </c>
       <c r="M34" s="18">
-        <f t="shared" ref="M34:O34" si="20">M8/M5</f>
+        <f t="shared" ref="M34:O34" si="29">M8/M5</f>
         <v>1.3095238095238095</v>
       </c>
       <c r="N34" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>1.4681818181818183</v>
       </c>
       <c r="O34" s="18">
-        <f t="shared" si="20"/>
+        <f t="shared" si="29"/>
         <v>1.6694915254237288</v>
       </c>
       <c r="P34" s="18">
-        <f t="shared" ref="P34:V34" si="21">P8/P5</f>
+        <f t="shared" ref="P34:V34" si="30">P8/P5</f>
         <v>1.1190476190476191</v>
       </c>
       <c r="Q34" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1.40625</v>
       </c>
       <c r="R34" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1.4102564102564104</v>
       </c>
       <c r="S34" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1.5220338983050847</v>
       </c>
       <c r="T34" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1.0378548895899053</v>
       </c>
       <c r="U34" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1.1778425655976676</v>
       </c>
       <c r="V34" s="18">
-        <f t="shared" si="21"/>
+        <f t="shared" si="30"/>
         <v>1.2382271468144044</v>
       </c>
       <c r="W34" s="18">
         <f>W8/W5</f>
         <v>1.3218997361477574</v>
       </c>
-      <c r="X34" s="52">
+      <c r="X34" s="151">
         <f>X8/X5</f>
         <v>1.0025773195876289</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y34" s="51">
+        <f t="shared" ref="Y34:AA34" si="31">Y8/Y5</f>
+        <v>1.5563139931740615</v>
+      </c>
+      <c r="Z34" s="151" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA34" s="151" t="e">
+        <f t="shared" si="31"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>165</v>
       </c>
@@ -19908,15 +20261,15 @@
       <c r="D35" s="3"/>
       <c r="E35" s="39"/>
       <c r="F35" s="39">
-        <f t="shared" ref="F35:G37" si="22">F3/E3-1</f>
+        <f t="shared" ref="F35:G37" si="32">F3/E3-1</f>
         <v>0.19363395225464197</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.24555555555555553</v>
       </c>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
       <c r="L35" s="18"/>
       <c r="M35" s="18"/>
       <c r="N35" s="18"/>
@@ -19926,39 +20279,51 @@
         <v>0.18539325842696619</v>
       </c>
       <c r="Q35" s="39">
-        <f t="shared" ref="Q35:U35" si="23">Q3/M3-1</f>
+        <f t="shared" ref="Q35:U35" si="33">Q3/M3-1</f>
         <v>0.1863013698630136</v>
       </c>
       <c r="R35" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0.1968503937007875</v>
       </c>
       <c r="S35" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0.20443349753694573</v>
       </c>
       <c r="T35" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0.22037914691943139</v>
       </c>
       <c r="U35" s="39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0.27251732101616621</v>
       </c>
       <c r="V35" s="39">
-        <f t="shared" ref="V35:X37" si="24">V3/R3-1</f>
+        <f t="shared" ref="V35:X37" si="34">V3/R3-1</f>
         <v>0.25877192982456143</v>
       </c>
       <c r="W35" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.23108384458077702</v>
       </c>
-      <c r="X35" s="6">
-        <f t="shared" si="24"/>
+      <c r="X35" s="39">
+        <f t="shared" si="34"/>
         <v>0.19417475728155331</v>
       </c>
-    </row>
-    <row r="36" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y35" s="6">
+        <f t="shared" ref="Y35:Y37" si="35">Y3/U3-1</f>
+        <v>0.13611615245009068</v>
+      </c>
+      <c r="Z35" s="39">
+        <f t="shared" ref="Z35:Z37" si="36">Z3/V3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="AA35" s="39">
+        <f t="shared" ref="AA35:AA37" si="37">AA3/W3-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>166</v>
       </c>
@@ -19966,15 +20331,15 @@
       <c r="D36" s="3"/>
       <c r="E36" s="39"/>
       <c r="F36" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.14074074074074083</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.15844155844155838</v>
       </c>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
       <c r="L36" s="18"/>
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
@@ -19984,39 +20349,51 @@
         <v>0.15189873417721511</v>
       </c>
       <c r="Q36" s="39">
-        <f t="shared" ref="Q36:U36" si="25">Q4/M4-1</f>
+        <f t="shared" ref="Q36:U36" si="38">Q4/M4-1</f>
         <v>0.1393939393939394</v>
       </c>
       <c r="R36" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>0.13372093023255816</v>
       </c>
       <c r="S36" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>0.13888888888888884</v>
       </c>
       <c r="T36" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>0.15384615384615374</v>
       </c>
       <c r="U36" s="39">
-        <f t="shared" si="25"/>
+        <f t="shared" si="38"/>
         <v>0.17021276595744683</v>
       </c>
       <c r="V36" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.15897435897435908</v>
       </c>
       <c r="W36" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.15121951219512186</v>
       </c>
-      <c r="X36" s="6">
-        <f t="shared" si="24"/>
+      <c r="X36" s="39">
+        <f t="shared" si="34"/>
         <v>0.13809523809523805</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y36" s="6">
+        <f t="shared" si="35"/>
+        <v>0.11818181818181817</v>
+      </c>
+      <c r="Z36" s="39">
+        <f t="shared" si="36"/>
+        <v>-1</v>
+      </c>
+      <c r="AA36" s="39">
+        <f t="shared" si="37"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>139</v>
       </c>
@@ -20024,15 +20401,15 @@
       <c r="D37" s="3"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.23112128146453093</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>0.3011152416356877</v>
       </c>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="56"/>
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
@@ -20042,49 +20419,58 @@
         <v>0.21153846153846145</v>
       </c>
       <c r="Q37" s="39">
-        <f t="shared" ref="Q37:U37" si="26">Q5/M5-1</f>
+        <f t="shared" ref="Q37:U37" si="39">Q5/M5-1</f>
         <v>0.21904761904761916</v>
       </c>
       <c r="R37" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>0.24090909090909096</v>
       </c>
       <c r="S37" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>0.25</v>
       </c>
       <c r="T37" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>0.25793650793650791</v>
       </c>
       <c r="U37" s="39">
-        <f t="shared" si="26"/>
+        <f t="shared" si="39"/>
         <v>0.33984375</v>
       </c>
       <c r="V37" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.32234432234432231</v>
       </c>
       <c r="W37" s="39">
-        <f t="shared" si="24"/>
+        <f t="shared" si="34"/>
         <v>0.28474576271186436</v>
       </c>
-      <c r="X37" s="6">
-        <f t="shared" si="24"/>
+      <c r="X37" s="39">
+        <f t="shared" si="34"/>
         <v>0.22397476340694</v>
       </c>
-      <c r="Y37" s="4">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y37" s="6">
+        <f t="shared" si="35"/>
+        <v>-0.14577259475218662</v>
+      </c>
+      <c r="Z37" s="39">
+        <f t="shared" si="36"/>
+        <v>-1</v>
+      </c>
+      <c r="AA37" s="39">
+        <f t="shared" si="37"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" x14ac:dyDescent="0.25">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="39"/>
       <c r="G38" s="6"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="56"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
       <c r="N38" s="18"/>
@@ -20097,86 +20483,98 @@
       <c r="U38" s="18"/>
       <c r="V38" s="18"/>
       <c r="W38" s="18"/>
-      <c r="X38" s="52"/>
-    </row>
-    <row r="41" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X38" s="151"/>
+    </row>
+    <row r="41" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C41" s="11">
-        <f t="shared" ref="C41:G41" si="27">C42+C43-C56-C63</f>
+        <f t="shared" ref="C41:G41" si="40">C42+C43-C56-C63</f>
         <v>0</v>
       </c>
-      <c r="D41" s="11">
-        <f t="shared" si="27"/>
-        <v>1109</v>
-      </c>
-      <c r="E41" s="11">
-        <f t="shared" si="27"/>
-        <v>1505</v>
-      </c>
-      <c r="F41" s="11">
-        <f t="shared" si="27"/>
-        <v>1377</v>
+      <c r="D41" s="146">
+        <f t="shared" ref="D41:F41" si="41">D42+D43-D63</f>
+        <v>1747</v>
+      </c>
+      <c r="E41" s="146">
+        <f t="shared" si="41"/>
+        <v>2298</v>
+      </c>
+      <c r="F41" s="146">
+        <f t="shared" si="41"/>
+        <v>2222</v>
       </c>
       <c r="G41" s="14">
-        <f t="shared" si="27"/>
-        <v>2033</v>
-      </c>
-      <c r="L41" s="11">
-        <f t="shared" ref="L41:S41" si="28">L42+L43-L56-L63</f>
+        <f>G42+G43-G63</f>
+        <v>3011</v>
+      </c>
+      <c r="L41" s="146">
+        <f t="shared" ref="L41" si="42">L42+L43-L63</f>
         <v>0</v>
       </c>
-      <c r="M41" s="11">
-        <f t="shared" si="28"/>
+      <c r="M41" s="146">
+        <f t="shared" ref="M41" si="43">M42+M43-M63</f>
         <v>0</v>
       </c>
-      <c r="N41" s="11">
-        <f t="shared" si="28"/>
+      <c r="N41" s="146">
+        <f t="shared" ref="N41" si="44">N42+N43-N63</f>
         <v>0</v>
       </c>
-      <c r="O41" s="11">
-        <f t="shared" si="28"/>
-        <v>1505</v>
-      </c>
-      <c r="P41" s="11">
-        <f t="shared" si="28"/>
+      <c r="O41" s="146">
+        <f t="shared" ref="O41" si="45">O42+O43-O63</f>
+        <v>2298</v>
+      </c>
+      <c r="P41" s="146">
+        <f t="shared" ref="P41" si="46">P42+P43-P63</f>
         <v>0</v>
       </c>
-      <c r="Q41" s="11">
-        <f t="shared" si="28"/>
+      <c r="Q41" s="146">
+        <f t="shared" ref="Q41" si="47">Q42+Q43-Q63</f>
         <v>0</v>
       </c>
-      <c r="R41" s="11">
-        <f t="shared" si="28"/>
+      <c r="R41" s="146">
+        <f t="shared" ref="R41" si="48">R42+R43-R63</f>
         <v>0</v>
       </c>
-      <c r="S41" s="11">
-        <f t="shared" si="28"/>
-        <v>1377</v>
-      </c>
-      <c r="T41" s="11">
-        <f t="shared" ref="T41:X41" si="29">T42+T43-T56-T63</f>
-        <v>1432</v>
-      </c>
-      <c r="U41" s="11">
-        <f t="shared" si="29"/>
-        <v>1356</v>
-      </c>
-      <c r="V41" s="11">
-        <f t="shared" si="29"/>
-        <v>1561</v>
-      </c>
-      <c r="W41" s="11">
-        <f>W42+W43-W56-W63</f>
-        <v>2033</v>
-      </c>
-      <c r="X41" s="14">
-        <f t="shared" si="29"/>
-        <v>2353</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="S41" s="146">
+        <f t="shared" ref="S41" si="49">S42+S43-S63</f>
+        <v>2222</v>
+      </c>
+      <c r="T41" s="146">
+        <f t="shared" ref="T41" si="50">T42+T43-T63</f>
+        <v>2282</v>
+      </c>
+      <c r="U41" s="146">
+        <f t="shared" ref="U41" si="51">U42+U43-U63</f>
+        <v>2249</v>
+      </c>
+      <c r="V41" s="146">
+        <f t="shared" ref="V41" si="52">V42+V43-V63</f>
+        <v>2506</v>
+      </c>
+      <c r="W41" s="146">
+        <f t="shared" ref="W41" si="53">W42+W43-W63</f>
+        <v>3011</v>
+      </c>
+      <c r="X41" s="146">
+        <f t="shared" ref="X41" si="54">X42+X43-X63</f>
+        <v>3401</v>
+      </c>
+      <c r="Y41" s="14">
+        <f t="shared" ref="Y41" si="55">Y42+Y43-Y63</f>
+        <v>4075</v>
+      </c>
+      <c r="Z41" s="146">
+        <f t="shared" ref="Z41" si="56">Z42+Z43-Z63</f>
+        <v>0</v>
+      </c>
+      <c r="AA41" s="146">
+        <f t="shared" ref="AA41" si="57">AA42+AA43-AA63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>24</v>
       </c>
@@ -20220,11 +20618,16 @@
         <f>G42</f>
         <v>3114</v>
       </c>
-      <c r="X42" s="15">
+      <c r="X42" s="145">
         <v>3451</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y42" s="15">
+        <v>4054</v>
+      </c>
+      <c r="Z42" s="145"/>
+      <c r="AA42" s="145"/>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>142</v>
       </c>
@@ -20245,14 +20648,14 @@
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="10">
-        <f t="shared" ref="O43:O67" si="30">E43</f>
+        <f t="shared" ref="O43:O67" si="58">E43</f>
         <v>756</v>
       </c>
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
       <c r="S43" s="10">
-        <f t="shared" ref="S43:S67" si="31">F43</f>
+        <f t="shared" ref="S43:S67" si="59">F43</f>
         <v>867</v>
       </c>
       <c r="T43" s="10">
@@ -20265,14 +20668,19 @@
         <v>1097</v>
       </c>
       <c r="W43" s="10">
-        <f t="shared" ref="W43:W67" si="32">G43</f>
+        <f t="shared" ref="W43:W67" si="60">G43</f>
         <v>1100</v>
       </c>
-      <c r="X43" s="15">
+      <c r="X43" s="145">
         <v>1220</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y43" s="15">
+        <v>1344</v>
+      </c>
+      <c r="Z43" s="145"/>
+      <c r="AA43" s="145"/>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>143</v>
       </c>
@@ -20293,14 +20701,14 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>5</v>
       </c>
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
       <c r="S44" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>5</v>
       </c>
       <c r="T44" s="10">
@@ -20313,14 +20721,19 @@
         <v>8</v>
       </c>
       <c r="W44" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>20</v>
       </c>
-      <c r="X44" s="15">
+      <c r="X44" s="145">
         <v>21</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y44" s="15">
+        <v>35</v>
+      </c>
+      <c r="Z44" s="145"/>
+      <c r="AA44" s="145"/>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>144</v>
       </c>
@@ -20341,14 +20754,14 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>621</v>
       </c>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
       <c r="S45" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>690</v>
       </c>
       <c r="T45" s="10">
@@ -20361,14 +20774,19 @@
         <v>747</v>
       </c>
       <c r="W45" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>858</v>
       </c>
-      <c r="X45" s="15">
+      <c r="X45" s="145">
         <v>777</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y45" s="15">
+        <v>753</v>
+      </c>
+      <c r="Z45" s="145"/>
+      <c r="AA45" s="145"/>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>25</v>
       </c>
@@ -20389,14 +20807,14 @@
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
       <c r="O46" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>246</v>
       </c>
       <c r="P46" s="10"/>
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
       <c r="S46" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>307</v>
       </c>
       <c r="T46" s="10">
@@ -20409,14 +20827,19 @@
         <v>225</v>
       </c>
       <c r="W46" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>168</v>
       </c>
-      <c r="X46" s="15">
+      <c r="X46" s="145">
         <v>175</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y46" s="15">
+        <v>158</v>
+      </c>
+      <c r="Z46" s="145"/>
+      <c r="AA46" s="145"/>
+    </row>
+    <row r="47" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B47" s="1" t="s">
         <v>62</v>
       </c>
@@ -20441,59 +20864,71 @@
         <v>5260</v>
       </c>
       <c r="L47" s="11">
-        <f t="shared" ref="L47:W47" si="33">SUM(L42:L46)</f>
+        <f t="shared" ref="L47:W47" si="61">SUM(L42:L46)</f>
         <v>0</v>
       </c>
       <c r="M47" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="N47" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="O47" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="61"/>
         <v>4372</v>
       </c>
       <c r="P47" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="Q47" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="R47" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="S47" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="61"/>
         <v>4352</v>
       </c>
       <c r="T47" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="61"/>
         <v>4293</v>
       </c>
       <c r="U47" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="61"/>
         <v>4329</v>
       </c>
       <c r="V47" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="61"/>
         <v>4695</v>
       </c>
       <c r="W47" s="11">
-        <f t="shared" si="33"/>
+        <f t="shared" si="61"/>
         <v>5260</v>
       </c>
-      <c r="X47" s="14">
-        <f t="shared" ref="X47" si="34">SUM(X42:X46)</f>
+      <c r="X47" s="146">
+        <f t="shared" ref="X47:AA47" si="62">SUM(X42:X46)</f>
         <v>5644</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y47" s="14">
+        <f t="shared" si="62"/>
+        <v>6344</v>
+      </c>
+      <c r="Z47" s="146">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+      <c r="AA47" s="146">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>145</v>
       </c>
@@ -20514,14 +20949,14 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>437</v>
       </c>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
       <c r="S48" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>417</v>
       </c>
       <c r="T48" s="10">
@@ -20534,14 +20969,19 @@
         <v>343</v>
       </c>
       <c r="W48" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>300</v>
       </c>
-      <c r="X48" s="15">
+      <c r="X48" s="145">
         <v>274</v>
       </c>
-    </row>
-    <row r="49" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y48" s="15">
+        <v>254</v>
+      </c>
+      <c r="Z48" s="145"/>
+      <c r="AA48" s="145"/>
+    </row>
+    <row r="49" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>77</v>
       </c>
@@ -20562,14 +21002,14 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>372</v>
       </c>
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
       <c r="S49" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>348</v>
       </c>
       <c r="T49" s="10">
@@ -20582,14 +21022,19 @@
         <v>275</v>
       </c>
       <c r="W49" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>247</v>
       </c>
-      <c r="X49" s="15">
+      <c r="X49" s="145">
         <v>224</v>
       </c>
-    </row>
-    <row r="50" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y49" s="15">
+        <v>211</v>
+      </c>
+      <c r="Z49" s="145"/>
+      <c r="AA49" s="145"/>
+    </row>
+    <row r="50" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>26</v>
       </c>
@@ -20610,14 +21055,14 @@
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
       <c r="O50" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>894</v>
       </c>
       <c r="P50" s="10"/>
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
       <c r="S50" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>1168</v>
       </c>
       <c r="T50" s="10">
@@ -20630,14 +21075,19 @@
         <v>1180</v>
       </c>
       <c r="W50" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>1137</v>
       </c>
-      <c r="X50" s="15">
+      <c r="X50" s="145">
         <v>1159</v>
       </c>
-    </row>
-    <row r="51" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y50" s="15">
+        <v>1167</v>
+      </c>
+      <c r="Z50" s="145"/>
+      <c r="AA50" s="145"/>
+    </row>
+    <row r="51" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>78</v>
       </c>
@@ -20658,14 +21108,14 @@
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
       <c r="O51" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>89</v>
       </c>
       <c r="P51" s="10"/>
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
       <c r="S51" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>127</v>
       </c>
       <c r="T51" s="10">
@@ -20678,14 +21128,19 @@
         <v>98</v>
       </c>
       <c r="W51" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>84</v>
       </c>
-      <c r="X51" s="15">
+      <c r="X51" s="145">
         <v>76</v>
       </c>
-    </row>
-    <row r="52" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y51" s="15">
+        <v>68</v>
+      </c>
+      <c r="Z51" s="145"/>
+      <c r="AA51" s="145"/>
+    </row>
+    <row r="52" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>146</v>
       </c>
@@ -20706,14 +21161,14 @@
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
       <c r="O52" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>916</v>
       </c>
       <c r="P52" s="10"/>
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
       <c r="S52" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>1138</v>
       </c>
       <c r="T52" s="10">
@@ -20726,14 +21181,19 @@
         <v>903</v>
       </c>
       <c r="W52" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>1215</v>
       </c>
-      <c r="X52" s="15">
+      <c r="X52" s="145">
         <v>1534</v>
       </c>
-    </row>
-    <row r="53" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y52" s="15">
+        <v>1931</v>
+      </c>
+      <c r="Z52" s="145"/>
+      <c r="AA52" s="145"/>
+    </row>
+    <row r="53" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>76</v>
       </c>
@@ -20754,14 +21214,14 @@
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
       <c r="O53" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>77</v>
       </c>
       <c r="P53" s="10"/>
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
       <c r="S53" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>78</v>
       </c>
       <c r="T53" s="10">
@@ -20774,15 +21234,21 @@
         <v>75</v>
       </c>
       <c r="W53" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>75</v>
       </c>
-      <c r="X53" s="15">
+      <c r="X53" s="145">
         <f>72+51</f>
         <v>123</v>
       </c>
-    </row>
-    <row r="54" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y53" s="15">
+        <f>70+52</f>
+        <v>122</v>
+      </c>
+      <c r="Z53" s="145"/>
+      <c r="AA53" s="145"/>
+    </row>
+    <row r="54" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>147</v>
       </c>
@@ -20803,14 +21269,14 @@
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
       <c r="O54" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>13</v>
       </c>
       <c r="P54" s="10"/>
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
       <c r="S54" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>8</v>
       </c>
       <c r="T54" s="10">
@@ -20823,14 +21289,19 @@
         <v>23</v>
       </c>
       <c r="W54" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>28</v>
       </c>
-      <c r="X54" s="15">
+      <c r="X54" s="145">
         <v>41</v>
       </c>
-    </row>
-    <row r="55" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y54" s="15">
+        <v>49</v>
+      </c>
+      <c r="Z54" s="145"/>
+      <c r="AA54" s="145"/>
+    </row>
+    <row r="55" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>27</v>
       </c>
@@ -20855,59 +21326,71 @@
         <v>8346</v>
       </c>
       <c r="L55" s="11">
-        <f t="shared" ref="L55:W55" si="35">SUM(L47:L54)</f>
+        <f t="shared" ref="L55:W55" si="63">SUM(L47:L54)</f>
         <v>0</v>
       </c>
       <c r="M55" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="N55" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="O55" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="63"/>
         <v>7170</v>
       </c>
       <c r="P55" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="Q55" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="R55" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="63"/>
         <v>0</v>
       </c>
       <c r="S55" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="63"/>
         <v>7636</v>
       </c>
       <c r="T55" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="63"/>
         <v>7529</v>
       </c>
       <c r="U55" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="63"/>
         <v>7312</v>
       </c>
       <c r="V55" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="63"/>
         <v>7592</v>
       </c>
       <c r="W55" s="11">
-        <f t="shared" si="35"/>
+        <f t="shared" si="63"/>
         <v>8346</v>
       </c>
-      <c r="X55" s="14">
-        <f t="shared" ref="X55" si="36">SUM(X47:X54)</f>
+      <c r="X55" s="146">
+        <f t="shared" ref="X55:AA55" si="64">SUM(X47:X54)</f>
         <v>9075</v>
       </c>
-    </row>
-    <row r="56" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y55" s="14">
+        <f t="shared" si="64"/>
+        <v>10146</v>
+      </c>
+      <c r="Z55" s="146">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+      <c r="AA55" s="146">
+        <f t="shared" si="64"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>148</v>
       </c>
@@ -20928,14 +21411,14 @@
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
       <c r="O56" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>793</v>
       </c>
       <c r="P56" s="10"/>
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
       <c r="S56" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>845</v>
       </c>
       <c r="T56" s="10">
@@ -20948,14 +21431,19 @@
         <v>945</v>
       </c>
       <c r="W56" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>978</v>
       </c>
-      <c r="X56" s="15">
+      <c r="X56" s="145">
         <v>1048</v>
       </c>
-    </row>
-    <row r="57" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y56" s="15">
+        <v>1091</v>
+      </c>
+      <c r="Z56" s="145"/>
+      <c r="AA56" s="145"/>
+    </row>
+    <row r="57" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>149</v>
       </c>
@@ -20976,14 +21464,14 @@
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
       <c r="O57" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>23</v>
       </c>
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
       <c r="S57" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>11</v>
       </c>
       <c r="T57" s="10">
@@ -20996,14 +21484,19 @@
         <v>8</v>
       </c>
       <c r="W57" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>12</v>
       </c>
-      <c r="X57" s="15">
+      <c r="X57" s="145">
         <v>14</v>
       </c>
-    </row>
-    <row r="58" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y57" s="15">
+        <v>17</v>
+      </c>
+      <c r="Z57" s="145"/>
+      <c r="AA57" s="145"/>
+    </row>
+    <row r="58" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>150</v>
       </c>
@@ -21024,14 +21517,14 @@
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
       <c r="O58" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>458</v>
       </c>
       <c r="P58" s="10"/>
       <c r="Q58" s="10"/>
       <c r="R58" s="10"/>
       <c r="S58" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>520</v>
       </c>
       <c r="T58" s="10">
@@ -21044,14 +21537,19 @@
         <v>599</v>
       </c>
       <c r="W58" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>622</v>
       </c>
-      <c r="X58" s="15">
+      <c r="X58" s="145">
         <v>634</v>
       </c>
-    </row>
-    <row r="59" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y58" s="15">
+        <v>657</v>
+      </c>
+      <c r="Z58" s="145"/>
+      <c r="AA58" s="145"/>
+    </row>
+    <row r="59" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>151</v>
       </c>
@@ -21072,14 +21570,14 @@
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
       <c r="O59" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>1841</v>
       </c>
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
       <c r="S59" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>2093</v>
       </c>
       <c r="T59" s="10">
@@ -21092,14 +21590,19 @@
         <v>2108</v>
       </c>
       <c r="W59" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>2440</v>
       </c>
-      <c r="X59" s="15">
+      <c r="X59" s="145">
         <v>2228</v>
       </c>
-    </row>
-    <row r="60" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y59" s="15">
+        <v>2223</v>
+      </c>
+      <c r="Z59" s="145"/>
+      <c r="AA59" s="145"/>
+    </row>
+    <row r="60" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>152</v>
       </c>
@@ -21120,14 +21623,14 @@
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
       <c r="O60" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>22</v>
       </c>
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
       <c r="S60" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>26</v>
       </c>
       <c r="T60" s="10">
@@ -21140,14 +21643,19 @@
         <v>24</v>
       </c>
       <c r="W60" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>21</v>
       </c>
-      <c r="X60" s="15">
+      <c r="X60" s="145">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y60" s="15">
+        <v>24</v>
+      </c>
+      <c r="Z60" s="145"/>
+      <c r="AA60" s="145"/>
+    </row>
+    <row r="61" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>153</v>
       </c>
@@ -21168,14 +21676,14 @@
       <c r="M61" s="10"/>
       <c r="N61" s="10"/>
       <c r="O61" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>89</v>
       </c>
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
       <c r="S61" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>21</v>
       </c>
       <c r="T61" s="10">
@@ -21188,14 +21696,19 @@
         <v>17</v>
       </c>
       <c r="W61" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>17</v>
       </c>
-      <c r="X61" s="15">
+      <c r="X61" s="145">
         <v>22</v>
       </c>
-    </row>
-    <row r="62" spans="2:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y61" s="15">
+        <v>47</v>
+      </c>
+      <c r="Z61" s="145"/>
+      <c r="AA61" s="145"/>
+    </row>
+    <row r="62" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="1" t="s">
         <v>63</v>
       </c>
@@ -21220,60 +21733,71 @@
         <v>4090</v>
       </c>
       <c r="L62" s="11">
-        <f t="shared" ref="L62:W62" si="37">SUM(L56:L61)</f>
+        <f t="shared" ref="L62:W62" si="65">SUM(L56:L61)</f>
         <v>0</v>
       </c>
       <c r="M62" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="N62" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="O62" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="65"/>
         <v>3226</v>
       </c>
       <c r="P62" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="Q62" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="R62" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="S62" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="65"/>
         <v>3516</v>
       </c>
       <c r="T62" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="65"/>
         <v>3459</v>
       </c>
       <c r="U62" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="65"/>
         <v>3546</v>
       </c>
       <c r="V62" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="65"/>
         <v>3701</v>
       </c>
       <c r="W62" s="11">
-        <f t="shared" si="37"/>
+        <f t="shared" si="65"/>
         <v>4090</v>
       </c>
-      <c r="X62" s="14">
-        <f t="shared" ref="X62" si="38">SUM(X56:X61)</f>
+      <c r="X62" s="146">
+        <f t="shared" ref="X62:AA62" si="66">SUM(X56:X61)</f>
         <v>3966</v>
       </c>
-      <c r="Y62" s="11"/>
-    </row>
-    <row r="63" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y62" s="14">
+        <f t="shared" si="66"/>
+        <v>4059</v>
+      </c>
+      <c r="Z62" s="146">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+      <c r="AA62" s="146">
+        <f t="shared" si="66"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>154</v>
       </c>
@@ -21294,14 +21818,14 @@
       <c r="M63" s="10"/>
       <c r="N63" s="10"/>
       <c r="O63" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>1202</v>
       </c>
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
       <c r="R63" s="10"/>
       <c r="S63" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>1128</v>
       </c>
       <c r="T63" s="10">
@@ -21314,14 +21838,19 @@
         <v>1209</v>
       </c>
       <c r="W63" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>1203</v>
       </c>
-      <c r="X63" s="15">
+      <c r="X63" s="145">
         <v>1270</v>
       </c>
-    </row>
-    <row r="64" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="Y63" s="15">
+        <v>1323</v>
+      </c>
+      <c r="Z63" s="145"/>
+      <c r="AA63" s="145"/>
+    </row>
+    <row r="64" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>155</v>
       </c>
@@ -21342,14 +21871,14 @@
       <c r="M64" s="10"/>
       <c r="N64" s="10"/>
       <c r="O64" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>579</v>
       </c>
       <c r="P64" s="10"/>
       <c r="Q64" s="10"/>
       <c r="R64" s="10"/>
       <c r="S64" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>555</v>
       </c>
       <c r="T64" s="10">
@@ -21362,14 +21891,19 @@
         <v>520</v>
       </c>
       <c r="W64" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>493</v>
       </c>
-      <c r="X64" s="15">
+      <c r="X64" s="145">
         <v>493</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y64" s="15">
+        <v>472</v>
+      </c>
+      <c r="Z64" s="145"/>
+      <c r="AA64" s="145"/>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>156</v>
       </c>
@@ -21390,14 +21924,14 @@
       <c r="M65" s="10"/>
       <c r="N65" s="10"/>
       <c r="O65" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>37</v>
       </c>
       <c r="P65" s="10"/>
       <c r="Q65" s="10"/>
       <c r="R65" s="10"/>
       <c r="S65" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>28</v>
       </c>
       <c r="T65" s="10">
@@ -21410,14 +21944,19 @@
         <v>14</v>
       </c>
       <c r="W65" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>26</v>
       </c>
-      <c r="X65" s="15">
+      <c r="X65" s="145">
         <v>17</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y65" s="15">
+        <v>11</v>
+      </c>
+      <c r="Z65" s="145"/>
+      <c r="AA65" s="145"/>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>152</v>
       </c>
@@ -21438,14 +21977,14 @@
       <c r="M66" s="10"/>
       <c r="N66" s="10"/>
       <c r="O66" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>7</v>
       </c>
       <c r="P66" s="10"/>
       <c r="Q66" s="10"/>
       <c r="R66" s="10"/>
       <c r="S66" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>3</v>
       </c>
       <c r="T66" s="10">
@@ -21458,14 +21997,19 @@
         <v>3</v>
       </c>
       <c r="W66" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>3</v>
       </c>
-      <c r="X66" s="15">
+      <c r="X66" s="145">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y66" s="15">
+        <v>3</v>
+      </c>
+      <c r="Z66" s="145"/>
+      <c r="AA66" s="145"/>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>157</v>
       </c>
@@ -21482,14 +22026,14 @@
       <c r="M67" s="10"/>
       <c r="N67" s="10"/>
       <c r="O67" s="10">
-        <f t="shared" si="30"/>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="P67" s="10"/>
       <c r="Q67" s="10"/>
       <c r="R67" s="10"/>
       <c r="S67" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="59"/>
         <v>5</v>
       </c>
       <c r="T67" s="10">
@@ -21502,14 +22046,19 @@
         <v>6</v>
       </c>
       <c r="W67" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="60"/>
         <v>8</v>
       </c>
-      <c r="X67" s="15">
+      <c r="X67" s="145">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y67" s="15">
+        <v>19</v>
+      </c>
+      <c r="Z67" s="145"/>
+      <c r="AA67" s="145"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>28</v>
       </c>
@@ -21534,59 +22083,71 @@
         <v>5823</v>
       </c>
       <c r="L68" s="11">
-        <f t="shared" ref="L68:W68" si="39">SUM(L62:L67)</f>
+        <f t="shared" ref="L68:W68" si="67">SUM(L62:L67)</f>
         <v>0</v>
       </c>
       <c r="M68" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="N68" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="O68" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="67"/>
         <v>5051</v>
       </c>
       <c r="P68" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Q68" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="R68" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="S68" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="67"/>
         <v>5235</v>
       </c>
       <c r="T68" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="67"/>
         <v>5187</v>
       </c>
       <c r="U68" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="67"/>
         <v>5258</v>
       </c>
       <c r="V68" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="67"/>
         <v>5453</v>
       </c>
       <c r="W68" s="11">
-        <f t="shared" si="39"/>
+        <f t="shared" si="67"/>
         <v>5823</v>
       </c>
-      <c r="X68" s="14">
-        <f t="shared" ref="X68" si="40">SUM(X62:X67)</f>
+      <c r="X68" s="146">
+        <f t="shared" ref="X68:AA68" si="68">SUM(X62:X67)</f>
         <v>5766</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="Y68" s="14">
+        <f t="shared" si="68"/>
+        <v>5887</v>
+      </c>
+      <c r="Z68" s="146">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="AA68" s="146">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>79</v>
       </c>
@@ -21608,31 +22169,31 @@
         <v>2523</v>
       </c>
       <c r="O69" s="10">
-        <f t="shared" ref="O69:U69" si="41">O55-O68</f>
+        <f t="shared" ref="O69:U69" si="69">O55-O68</f>
         <v>2119</v>
       </c>
       <c r="P69" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="Q69" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="R69" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="S69" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="69"/>
         <v>2401</v>
       </c>
       <c r="T69" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="69"/>
         <v>2342</v>
       </c>
       <c r="U69" s="10">
-        <f t="shared" si="41"/>
+        <f t="shared" si="69"/>
         <v>2054</v>
       </c>
       <c r="V69" s="10">
@@ -21643,26 +22204,41 @@
         <f>W55-W68</f>
         <v>2523</v>
       </c>
-      <c r="X69" s="15">
+      <c r="X69" s="145">
         <f>X55-X68</f>
         <v>3309</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C71" s="53"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="54"/>
-      <c r="X71" s="16"/>
-    </row>
-    <row r="89" spans="7:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Y69" s="15">
+        <f t="shared" ref="Y69:AA69" si="70">Y55-Y68</f>
+        <v>4259</v>
+      </c>
+      <c r="Z69" s="145">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+      <c r="AA69" s="145">
+        <f t="shared" si="70"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="52"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="53"/>
+      <c r="X71" s="152"/>
+      <c r="Y71" s="16"/>
+    </row>
+    <row r="89" spans="7:25" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G89" s="41"/>
-      <c r="X89" s="41"/>
-    </row>
-    <row r="90" spans="7:24" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="X89" s="153"/>
+      <c r="Y89" s="41"/>
+    </row>
+    <row r="90" spans="7:25" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="G90" s="16"/>
-      <c r="X90" s="16"/>
+      <c r="X90" s="152"/>
+      <c r="Y90" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -31319,7 +31895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{366AC5E7-7FF6-4287-9F23-7D3A6FE15A5F}">
   <dimension ref="A1:M318"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -31348,14 +31924,14 @@
       <c r="D1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="142" t="s">
+      <c r="H1" s="134" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="143"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="L1" s="143"/>
-      <c r="M1" s="144"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="136"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
@@ -31364,16 +31940,16 @@
       <c r="C2" s="18">
         <v>281.23</v>
       </c>
-      <c r="D2" s="127">
+      <c r="D2" s="124">
         <f>C2/C3-1</f>
         <v>1.9577275858318588E-2</v>
       </c>
-      <c r="H2" s="64"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="63"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
@@ -31382,26 +31958,26 @@
       <c r="C3" s="18">
         <v>275.83</v>
       </c>
-      <c r="D3" s="127">
+      <c r="D3" s="124">
         <f t="shared" ref="D3:D66" si="0">C3/C4-1</f>
         <v>-8.1943787707354221E-2</v>
       </c>
-      <c r="H3" s="67" t="s">
+      <c r="H3" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="68" t="s">
+      <c r="I3" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="J3" s="69" t="s">
+      <c r="J3" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="K3" s="70" t="s">
+      <c r="K3" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="L3" s="70" t="s">
+      <c r="L3" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="M3" s="71" t="s">
+      <c r="M3" s="68" t="s">
         <v>99</v>
       </c>
     </row>
@@ -31412,31 +31988,31 @@
       <c r="C4" s="18">
         <v>300.45001200000002</v>
       </c>
-      <c r="D4" s="127">
+      <c r="D4" s="124">
         <f t="shared" si="0"/>
         <v>-3.1774632024585969E-2</v>
       </c>
-      <c r="H4" s="72">
+      <c r="H4" s="69">
         <f>$I$19-3*$I$23</f>
         <v>-0.1870086680028957</v>
       </c>
-      <c r="I4" s="73">
+      <c r="I4" s="70">
         <f>H4</f>
         <v>-0.1870086680028957</v>
       </c>
-      <c r="J4" s="74">
+      <c r="J4" s="71">
         <f>COUNTIF(D:D,"&lt;="&amp;H4)</f>
         <v>1</v>
       </c>
-      <c r="K4" s="74" t="str">
+      <c r="K4" s="71" t="str">
         <f>"Less than "&amp;TEXT(H4,"0,00%")</f>
         <v>Less than -18,70%</v>
       </c>
-      <c r="L4" s="75">
+      <c r="L4" s="72">
         <f>J4/$I$31</f>
         <v>3.1645569620253164E-3</v>
       </c>
-      <c r="M4" s="76">
+      <c r="M4" s="73">
         <f>L4</f>
         <v>3.1645569620253164E-3</v>
       </c>
@@ -31448,31 +32024,31 @@
       <c r="C5" s="18">
         <v>310.30999800000001</v>
       </c>
-      <c r="D5" s="127">
+      <c r="D5" s="124">
         <f t="shared" si="0"/>
         <v>0.17586208812115411</v>
       </c>
-      <c r="H5" s="77">
+      <c r="H5" s="74">
         <f>$I$19-2.4*$I$23</f>
         <v>-0.14880173910108965</v>
       </c>
-      <c r="I5" s="78">
+      <c r="I5" s="75">
         <f>H5</f>
         <v>-0.14880173910108965</v>
       </c>
-      <c r="J5" s="79">
+      <c r="J5" s="76">
         <f>COUNTIFS(D:D,"&lt;="&amp;H5,D:D,"&gt;"&amp;H4)</f>
         <v>3</v>
       </c>
-      <c r="K5" s="80" t="str">
+      <c r="K5" s="77" t="str">
         <f t="shared" ref="K5:K14" si="1">TEXT(H4,"0,00%")&amp;" to "&amp;TEXT(H5,"0,00%")</f>
         <v>-18,70% to -14,88%</v>
       </c>
-      <c r="L5" s="81">
+      <c r="L5" s="78">
         <f>J5/$I$31</f>
         <v>9.4936708860759497E-3</v>
       </c>
-      <c r="M5" s="82">
+      <c r="M5" s="79">
         <f>M4+L5</f>
         <v>1.2658227848101266E-2</v>
       </c>
@@ -31484,31 +32060,31 @@
       <c r="C6" s="18">
         <v>263.89999399999999</v>
       </c>
-      <c r="D6" s="127">
+      <c r="D6" s="124">
         <f t="shared" si="0"/>
         <v>-3.9630796468883567E-3</v>
       </c>
-      <c r="H6" s="77">
+      <c r="H6" s="74">
         <f>$I$19-1.8*$I$23</f>
         <v>-0.11059481019928361</v>
       </c>
-      <c r="I6" s="78">
+      <c r="I6" s="75">
         <f t="shared" ref="I6:I14" si="2">H6</f>
         <v>-0.11059481019928361</v>
       </c>
-      <c r="J6" s="79">
+      <c r="J6" s="76">
         <f t="shared" ref="J6:J14" si="3">COUNTIFS(D:D,"&lt;="&amp;H6,D:D,"&gt;"&amp;H5)</f>
         <v>5</v>
       </c>
-      <c r="K6" s="80" t="str">
+      <c r="K6" s="77" t="str">
         <f t="shared" si="1"/>
         <v>-14,88% to -11,06%</v>
       </c>
-      <c r="L6" s="81">
+      <c r="L6" s="78">
         <f t="shared" ref="L6:L15" si="4">J6/$I$31</f>
         <v>1.5822784810126583E-2</v>
       </c>
-      <c r="M6" s="82">
+      <c r="M6" s="79">
         <f t="shared" ref="M6:M15" si="5">M5+L6</f>
         <v>2.8481012658227847E-2</v>
       </c>
@@ -31520,31 +32096,31 @@
       <c r="C7" s="18">
         <v>264.95001200000002</v>
       </c>
-      <c r="D7" s="127">
+      <c r="D7" s="124">
         <f t="shared" si="0"/>
         <v>3.9468056963663178E-2</v>
       </c>
-      <c r="H7" s="77">
+      <c r="H7" s="74">
         <f>$I$19-1.2*$I$23</f>
         <v>-7.2387881297477544E-2</v>
       </c>
-      <c r="I7" s="78">
+      <c r="I7" s="75">
         <f t="shared" si="2"/>
         <v>-7.2387881297477544E-2</v>
       </c>
-      <c r="J7" s="79">
+      <c r="J7" s="76">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="K7" s="80" t="str">
+      <c r="K7" s="77" t="str">
         <f t="shared" si="1"/>
         <v>-11,06% to -7,24%</v>
       </c>
-      <c r="L7" s="81">
+      <c r="L7" s="78">
         <f t="shared" si="4"/>
         <v>7.2784810126582278E-2</v>
       </c>
-      <c r="M7" s="82">
+      <c r="M7" s="79">
         <f t="shared" si="5"/>
         <v>0.10126582278481013</v>
       </c>
@@ -31556,31 +32132,31 @@
       <c r="C8" s="18">
         <v>254.88999899999999</v>
       </c>
-      <c r="D8" s="127">
+      <c r="D8" s="124">
         <f t="shared" si="0"/>
         <v>-1.7386257148487072E-2</v>
       </c>
-      <c r="H8" s="77">
+      <c r="H8" s="74">
         <f>$I$19-0.6*$I$23</f>
         <v>-3.4180952395671475E-2</v>
       </c>
-      <c r="I8" s="78">
+      <c r="I8" s="75">
         <f t="shared" si="2"/>
         <v>-3.4180952395671475E-2</v>
       </c>
-      <c r="J8" s="79">
+      <c r="J8" s="76">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="K8" s="80" t="str">
+      <c r="K8" s="77" t="str">
         <f t="shared" si="1"/>
         <v>-7,24% to -3,42%</v>
       </c>
-      <c r="L8" s="81">
+      <c r="L8" s="78">
         <f t="shared" si="4"/>
         <v>0.14556962025316456</v>
       </c>
-      <c r="M8" s="82">
+      <c r="M8" s="79">
         <f t="shared" si="5"/>
         <v>0.24683544303797467</v>
       </c>
@@ -31592,31 +32168,31 @@
       <c r="C9" s="18">
         <v>259.39999399999999</v>
       </c>
-      <c r="D9" s="127">
+      <c r="D9" s="124">
         <f t="shared" si="0"/>
         <v>-1.649291374407591E-2</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="74">
         <f>$I$19</f>
         <v>4.0259765061345853E-3</v>
       </c>
-      <c r="I9" s="78">
+      <c r="I9" s="75">
         <f t="shared" si="2"/>
         <v>4.0259765061345853E-3</v>
       </c>
-      <c r="J9" s="79">
+      <c r="J9" s="76">
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="K9" s="80" t="str">
+      <c r="K9" s="77" t="str">
         <f t="shared" si="1"/>
         <v>-3,42% to 0,40%</v>
       </c>
-      <c r="L9" s="81">
+      <c r="L9" s="78">
         <f t="shared" si="4"/>
         <v>0.24367088607594936</v>
       </c>
-      <c r="M9" s="82">
+      <c r="M9" s="79">
         <f t="shared" si="5"/>
         <v>0.490506329113924</v>
       </c>
@@ -31628,31 +32204,31 @@
       <c r="C10" s="18">
         <v>263.75</v>
       </c>
-      <c r="D10" s="127">
+      <c r="D10" s="124">
         <f t="shared" si="0"/>
         <v>2.9871119956162762E-2</v>
       </c>
-      <c r="H10" s="77">
+      <c r="H10" s="74">
         <f>$I$19+0.6*$I$23</f>
         <v>4.2232905407940648E-2</v>
       </c>
-      <c r="I10" s="78">
+      <c r="I10" s="75">
         <f t="shared" si="2"/>
         <v>4.2232905407940648E-2</v>
       </c>
-      <c r="J10" s="79">
+      <c r="J10" s="76">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="K10" s="80" t="str">
+      <c r="K10" s="77" t="str">
         <f t="shared" si="1"/>
         <v>0,40% to 4,22%</v>
       </c>
-      <c r="L10" s="81">
+      <c r="L10" s="78">
         <f t="shared" si="4"/>
         <v>0.28164556962025317</v>
       </c>
-      <c r="M10" s="82">
+      <c r="M10" s="79">
         <f t="shared" si="5"/>
         <v>0.77215189873417711</v>
       </c>
@@ -31664,31 +32240,31 @@
       <c r="C11" s="18">
         <v>256.10000600000001</v>
       </c>
-      <c r="D11" s="127">
+      <c r="D11" s="124">
         <f t="shared" si="0"/>
         <v>4.0000024365482334E-2</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="74">
         <f>$I$19+1.2*$I$23</f>
         <v>8.0439834309746702E-2</v>
       </c>
-      <c r="I11" s="78">
+      <c r="I11" s="75">
         <f t="shared" si="2"/>
         <v>8.0439834309746702E-2</v>
       </c>
-      <c r="J11" s="79">
+      <c r="J11" s="76">
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="K11" s="80" t="str">
+      <c r="K11" s="77" t="str">
         <f t="shared" si="1"/>
         <v>4,22% to 8,04%</v>
       </c>
-      <c r="L11" s="81">
+      <c r="L11" s="78">
         <f t="shared" si="4"/>
         <v>0.14873417721518986</v>
       </c>
-      <c r="M11" s="82">
+      <c r="M11" s="79">
         <f t="shared" si="5"/>
         <v>0.920886075949367</v>
       </c>
@@ -31700,31 +32276,31 @@
       <c r="C12" s="18">
         <v>246.25</v>
       </c>
-      <c r="D12" s="127">
+      <c r="D12" s="124">
         <f t="shared" si="0"/>
         <v>2.2760293678443455E-2</v>
       </c>
-      <c r="H12" s="77">
+      <c r="H12" s="74">
         <f>$I$19+1.8*$I$23</f>
         <v>0.11864676321155276</v>
       </c>
-      <c r="I12" s="78">
+      <c r="I12" s="75">
         <f t="shared" si="2"/>
         <v>0.11864676321155276</v>
       </c>
-      <c r="J12" s="79">
+      <c r="J12" s="76">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="K12" s="80" t="str">
+      <c r="K12" s="77" t="str">
         <f t="shared" si="1"/>
         <v>8,04% to 11,86%</v>
       </c>
-      <c r="L12" s="81">
+      <c r="L12" s="78">
         <f t="shared" si="4"/>
         <v>3.7974683544303799E-2</v>
       </c>
-      <c r="M12" s="82">
+      <c r="M12" s="79">
         <f t="shared" si="5"/>
         <v>0.95886075949367078</v>
       </c>
@@ -31736,31 +32312,31 @@
       <c r="C13" s="18">
         <v>240.770004</v>
       </c>
-      <c r="D13" s="127">
+      <c r="D13" s="124">
         <f t="shared" si="0"/>
         <v>8.2258295130766879E-2</v>
       </c>
-      <c r="H13" s="77">
+      <c r="H13" s="74">
         <f>$I$19+2.4*$I$23</f>
         <v>0.15685369211335884</v>
       </c>
-      <c r="I13" s="78">
+      <c r="I13" s="75">
         <f t="shared" si="2"/>
         <v>0.15685369211335884</v>
       </c>
-      <c r="J13" s="79">
+      <c r="J13" s="76">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="K13" s="80" t="str">
+      <c r="K13" s="77" t="str">
         <f t="shared" si="1"/>
         <v>11,86% to 15,69%</v>
       </c>
-      <c r="L13" s="81">
+      <c r="L13" s="78">
         <f t="shared" si="4"/>
         <v>1.8987341772151899E-2</v>
       </c>
-      <c r="M13" s="82">
+      <c r="M13" s="79">
         <f t="shared" si="5"/>
         <v>0.97784810126582267</v>
       </c>
@@ -31772,31 +32348,31 @@
       <c r="C14" s="18">
         <v>222.470001</v>
       </c>
-      <c r="D14" s="127">
+      <c r="D14" s="124">
         <f t="shared" si="0"/>
         <v>3.8172608461469304E-2</v>
       </c>
-      <c r="H14" s="77">
+      <c r="H14" s="74">
         <f>$I$19+3*$I$23</f>
         <v>0.19506062101516489</v>
       </c>
-      <c r="I14" s="78">
+      <c r="I14" s="75">
         <f t="shared" si="2"/>
         <v>0.19506062101516489</v>
       </c>
-      <c r="J14" s="79">
+      <c r="J14" s="76">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="K14" s="80" t="str">
+      <c r="K14" s="77" t="str">
         <f t="shared" si="1"/>
         <v>15,69% to 19,51%</v>
       </c>
-      <c r="L14" s="81">
+      <c r="L14" s="78">
         <f t="shared" si="4"/>
         <v>1.2658227848101266E-2</v>
       </c>
-      <c r="M14" s="82">
+      <c r="M14" s="79">
         <f t="shared" si="5"/>
         <v>0.99050632911392389</v>
       </c>
@@ -31808,27 +32384,27 @@
       <c r="C15" s="18">
         <v>214.28999300000001</v>
       </c>
-      <c r="D15" s="127">
+      <c r="D15" s="124">
         <f t="shared" si="0"/>
         <v>4.6797839247790352E-2</v>
       </c>
-      <c r="H15" s="83"/>
-      <c r="I15" s="84" t="s">
+      <c r="H15" s="80"/>
+      <c r="I15" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="J15" s="84">
+      <c r="J15" s="81">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
         <v>3</v>
       </c>
-      <c r="K15" s="84" t="str">
+      <c r="K15" s="81" t="str">
         <f>"Greater than "&amp;TEXT(H14,"0,00%")</f>
         <v>Greater than 19,51%</v>
       </c>
-      <c r="L15" s="85">
+      <c r="L15" s="82">
         <f t="shared" si="4"/>
         <v>9.4936708860759497E-3</v>
       </c>
-      <c r="M15" s="85">
+      <c r="M15" s="82">
         <f t="shared" si="5"/>
         <v>0.99999999999999989</v>
       </c>
@@ -31840,12 +32416,12 @@
       <c r="C16" s="18">
         <v>204.71000699999999</v>
       </c>
-      <c r="D16" s="127">
+      <c r="D16" s="124">
         <f t="shared" si="0"/>
         <v>8.2746786596792354E-3</v>
       </c>
-      <c r="H16" s="86"/>
-      <c r="M16" s="87"/>
+      <c r="H16" s="83"/>
+      <c r="M16" s="84"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="12">
@@ -31854,15 +32430,15 @@
       <c r="C17" s="18">
         <v>203.029999</v>
       </c>
-      <c r="D17" s="127">
+      <c r="D17" s="124">
         <f t="shared" si="0"/>
         <v>4.9142180670893376E-2</v>
       </c>
-      <c r="H17" s="145" t="s">
+      <c r="H17" s="137" t="s">
         <v>131</v>
       </c>
-      <c r="I17" s="146"/>
-      <c r="M17" s="87"/>
+      <c r="I17" s="138"/>
+      <c r="M17" s="84"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="12">
@@ -31871,13 +32447,13 @@
       <c r="C18" s="18">
         <v>193.520004</v>
       </c>
-      <c r="D18" s="127">
+      <c r="D18" s="124">
         <f t="shared" si="0"/>
         <v>2.9854717048486856E-2</v>
       </c>
-      <c r="H18" s="147"/>
-      <c r="I18" s="148"/>
-      <c r="M18" s="87"/>
+      <c r="H18" s="139"/>
+      <c r="I18" s="140"/>
+      <c r="M18" s="84"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12">
@@ -31886,18 +32462,18 @@
       <c r="C19" s="18">
         <v>187.91000399999999</v>
       </c>
-      <c r="D19" s="127">
+      <c r="D19" s="124">
         <f t="shared" si="0"/>
         <v>-8.8611848485931066E-3</v>
       </c>
-      <c r="H19" s="88" t="s">
+      <c r="H19" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="I19" s="125">
+      <c r="I19" s="122">
         <f>AVERAGE(D:D)</f>
         <v>4.0259765061345853E-3</v>
       </c>
-      <c r="M19" s="87"/>
+      <c r="M19" s="84"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="12">
@@ -31906,18 +32482,18 @@
       <c r="C20" s="18">
         <v>189.58999600000001</v>
       </c>
-      <c r="D20" s="127">
+      <c r="D20" s="124">
         <f t="shared" si="0"/>
         <v>-1.3425623285899024E-2</v>
       </c>
-      <c r="H20" s="88" t="s">
+      <c r="H20" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="I20" s="125">
+      <c r="I20" s="122">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
         <v>3.5821794532469014E-3</v>
       </c>
-      <c r="M20" s="87"/>
+      <c r="M20" s="84"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12">
@@ -31926,18 +32502,18 @@
       <c r="C21" s="18">
         <v>192.16999799999999</v>
       </c>
-      <c r="D21" s="127">
+      <c r="D21" s="124">
         <f t="shared" si="0"/>
         <v>-2.9689497151888511E-2</v>
       </c>
-      <c r="H21" s="88" t="s">
+      <c r="H21" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="I21" s="125">
+      <c r="I21" s="122">
         <f>MEDIAN(D:D)</f>
         <v>5.8104574995698766E-3</v>
       </c>
-      <c r="M21" s="87"/>
+      <c r="M21" s="84"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="12">
@@ -31946,18 +32522,18 @@
       <c r="C22" s="18">
         <v>198.050003</v>
       </c>
-      <c r="D22" s="127">
+      <c r="D22" s="124">
         <f t="shared" si="0"/>
         <v>9.6076156997330742E-2</v>
       </c>
-      <c r="H22" s="88" t="s">
+      <c r="H22" s="85" t="s">
         <v>104</v>
       </c>
-      <c r="I22" s="125" t="e">
+      <c r="I22" s="122" t="e">
         <f>MODE(D:D)</f>
         <v>#N/A</v>
       </c>
-      <c r="M22" s="87"/>
+      <c r="M22" s="84"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12">
@@ -31966,18 +32542,18 @@
       <c r="C23" s="18">
         <v>180.69000199999999</v>
       </c>
-      <c r="D23" s="127">
+      <c r="D23" s="124">
         <f t="shared" si="0"/>
         <v>-5.5585856724037486E-3</v>
       </c>
-      <c r="H23" s="88" t="s">
+      <c r="H23" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="I23" s="125">
+      <c r="I23" s="122">
         <f>_xlfn.STDEV.S(D:D)</f>
         <v>6.3678214836343436E-2</v>
       </c>
-      <c r="M23" s="87"/>
+      <c r="M23" s="84"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="12">
@@ -31986,18 +32562,18 @@
       <c r="C24" s="18">
         <v>181.699997</v>
       </c>
-      <c r="D24" s="127">
+      <c r="D24" s="124">
         <f t="shared" si="0"/>
         <v>3.2093120725479318E-2</v>
       </c>
-      <c r="H24" s="88" t="s">
+      <c r="H24" s="85" t="s">
         <v>106</v>
       </c>
-      <c r="I24" s="125">
+      <c r="I24" s="122">
         <f>_xlfn.VAR.S(D:D)</f>
         <v>4.0549150447435093E-3</v>
       </c>
-      <c r="M24" s="87"/>
+      <c r="M24" s="84"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12">
@@ -32006,18 +32582,18 @@
       <c r="C25" s="18">
         <v>176.050003</v>
       </c>
-      <c r="D25" s="127">
+      <c r="D25" s="124">
         <f t="shared" si="0"/>
         <v>2.9652632580480454E-2</v>
       </c>
-      <c r="H25" s="88" t="s">
+      <c r="H25" s="85" t="s">
         <v>107</v>
       </c>
-      <c r="I25" s="126">
+      <c r="I25" s="123">
         <f>KURT(D:D)</f>
         <v>1.7662784441271935</v>
       </c>
-      <c r="M25" s="87"/>
+      <c r="M25" s="84"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="12">
@@ -32026,18 +32602,18 @@
       <c r="C26" s="18">
         <v>170.979996</v>
       </c>
-      <c r="D26" s="127">
+      <c r="D26" s="124">
         <f t="shared" si="0"/>
         <v>5.8830452025659952E-3</v>
       </c>
-      <c r="H26" s="88" t="s">
+      <c r="H26" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="I26" s="126">
+      <c r="I26" s="123">
         <f>SKEW(D:D)</f>
         <v>0.45156884074372483</v>
       </c>
-      <c r="M26" s="87"/>
+      <c r="M26" s="84"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12">
@@ -32046,18 +32622,18 @@
       <c r="C27" s="18">
         <v>169.979996</v>
       </c>
-      <c r="D27" s="127">
+      <c r="D27" s="124">
         <f t="shared" si="0"/>
         <v>6.6708438027921924E-2</v>
       </c>
-      <c r="H27" s="88" t="s">
+      <c r="H27" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="I27" s="125">
+      <c r="I27" s="122">
         <f>I29-I28</f>
         <v>0.47568286376828617</v>
       </c>
-      <c r="M27" s="87"/>
+      <c r="M27" s="84"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="12">
@@ -32066,18 +32642,18 @@
       <c r="C28" s="18">
         <v>159.35000600000001</v>
       </c>
-      <c r="D28" s="127">
+      <c r="D28" s="124">
         <f t="shared" si="0"/>
         <v>6.2900267648082542E-2</v>
       </c>
-      <c r="H28" s="88" t="s">
+      <c r="H28" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="I28" s="125">
+      <c r="I28" s="122">
         <f>MIN(D:D)</f>
         <v>-0.1912380144936372</v>
       </c>
-      <c r="M28" s="87"/>
+      <c r="M28" s="84"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" s="12">
@@ -32086,18 +32662,18 @@
       <c r="C29" s="18">
         <v>149.91999799999999</v>
       </c>
-      <c r="D29" s="127">
+      <c r="D29" s="124">
         <f t="shared" si="0"/>
         <v>-2.3704089915395854E-2</v>
       </c>
-      <c r="H29" s="88" t="s">
+      <c r="H29" s="85" t="s">
         <v>110</v>
       </c>
-      <c r="I29" s="125">
+      <c r="I29" s="122">
         <f>MAX(D:D)</f>
         <v>0.28444484927464897</v>
       </c>
-      <c r="M29" s="87"/>
+      <c r="M29" s="84"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="12">
@@ -32106,18 +32682,18 @@
       <c r="C30" s="18">
         <v>153.55999800000001</v>
       </c>
-      <c r="D30" s="127">
+      <c r="D30" s="124">
         <f t="shared" si="0"/>
         <v>-4.3418682136788678E-2</v>
       </c>
-      <c r="H30" s="88" t="s">
+      <c r="H30" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="I30" s="126">
+      <c r="I30" s="123">
         <f>SUM(D:D)</f>
         <v>1.2722085759385291</v>
       </c>
-      <c r="M30" s="87"/>
+      <c r="M30" s="84"/>
     </row>
     <row r="31" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
@@ -32126,18 +32702,18 @@
       <c r="C31" s="18">
         <v>160.529999</v>
       </c>
-      <c r="D31" s="127">
+      <c r="D31" s="124">
         <f t="shared" si="0"/>
         <v>3.8088463774498704E-2</v>
       </c>
-      <c r="H31" s="89" t="s">
+      <c r="H31" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="I31" s="66">
+      <c r="I31" s="63">
         <f>COUNT(D:D)</f>
         <v>316</v>
       </c>
-      <c r="M31" s="87"/>
+      <c r="M31" s="84"/>
     </row>
     <row r="32" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
@@ -32146,12 +32722,12 @@
       <c r="C32" s="18">
         <v>154.63999899999999</v>
       </c>
-      <c r="D32" s="127">
+      <c r="D32" s="124">
         <f t="shared" si="0"/>
         <v>-1.0937044671427865E-2</v>
       </c>
-      <c r="H32" s="91"/>
-      <c r="M32" s="87"/>
+      <c r="H32" s="88"/>
+      <c r="M32" s="84"/>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="12">
@@ -32160,24 +32736,24 @@
       <c r="C33" s="18">
         <v>156.35000600000001</v>
       </c>
-      <c r="D33" s="127">
+      <c r="D33" s="124">
         <f t="shared" si="0"/>
         <v>-1.4062277537365664E-2</v>
       </c>
-      <c r="H33" s="92"/>
-      <c r="I33" s="93" t="s">
+      <c r="H33" s="89"/>
+      <c r="I33" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="J33" s="93" t="s">
+      <c r="J33" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="K33" s="93" t="s">
+      <c r="K33" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="L33" s="94" t="s">
+      <c r="L33" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="M33" s="87"/>
+      <c r="M33" s="84"/>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="12">
@@ -32186,30 +32762,30 @@
       <c r="C34" s="18">
         <v>158.58000200000001</v>
       </c>
-      <c r="D34" s="127">
+      <c r="D34" s="124">
         <f t="shared" si="0"/>
         <v>2.0003865568895218E-2</v>
       </c>
-      <c r="H34" s="95" t="s">
+      <c r="H34" s="92" t="s">
         <v>116</v>
       </c>
-      <c r="I34" s="81">
+      <c r="I34" s="78">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
         <v>4.9370179966951318E-2</v>
       </c>
-      <c r="J34" s="79">
+      <c r="J34" s="76">
         <f>COUNTIF(D:D,"&gt;0")</f>
         <v>165</v>
       </c>
-      <c r="K34" s="81">
+      <c r="K34" s="78">
         <f>J34/$I$31</f>
         <v>0.52215189873417722</v>
       </c>
-      <c r="L34" s="82">
+      <c r="L34" s="79">
         <f>K34*I34</f>
         <v>2.5778733210591671E-2</v>
       </c>
-      <c r="M34" s="87"/>
+      <c r="M34" s="84"/>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="12">
@@ -32218,30 +32794,30 @@
       <c r="C35" s="18">
         <v>155.470001</v>
       </c>
-      <c r="D35" s="127">
+      <c r="D35" s="124">
         <f t="shared" si="0"/>
         <v>-1.3264769145275079E-2</v>
       </c>
-      <c r="H35" s="95" t="s">
+      <c r="H35" s="92" t="s">
         <v>117</v>
       </c>
-      <c r="I35" s="81">
+      <c r="I35" s="78">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
         <v>-4.5522325288797648E-2</v>
       </c>
-      <c r="J35" s="79">
+      <c r="J35" s="76">
         <f>COUNTIF(D:D,"&lt;0")</f>
         <v>151</v>
       </c>
-      <c r="K35" s="81">
+      <c r="K35" s="78">
         <f>J35/$I$31</f>
         <v>0.47784810126582278</v>
       </c>
-      <c r="L35" s="82">
+      <c r="L35" s="79">
         <f t="shared" ref="L35:L36" si="6">K35*I35</f>
         <v>-2.1752756704457102E-2</v>
       </c>
-      <c r="M35" s="87"/>
+      <c r="M35" s="84"/>
     </row>
     <row r="36" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
@@ -32250,29 +32826,29 @@
       <c r="C36" s="18">
         <v>157.55999800000001</v>
       </c>
-      <c r="D36" s="127">
+      <c r="D36" s="124">
         <f t="shared" si="0"/>
         <v>0.1482290981764387</v>
       </c>
-      <c r="H36" s="96" t="s">
+      <c r="H36" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="I36" s="84">
+      <c r="I36" s="81">
         <v>0</v>
       </c>
-      <c r="J36" s="84">
+      <c r="J36" s="81">
         <f>COUNTIF(D:D,"0")</f>
         <v>0</v>
       </c>
-      <c r="K36" s="97">
+      <c r="K36" s="94">
         <f>J36/$I$31</f>
         <v>0</v>
       </c>
-      <c r="L36" s="85">
+      <c r="L36" s="82">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M36" s="87"/>
+      <c r="M36" s="84"/>
     </row>
     <row r="37" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
@@ -32281,16 +32857,16 @@
       <c r="C37" s="18">
         <v>137.220001</v>
       </c>
-      <c r="D37" s="127">
+      <c r="D37" s="124">
         <f t="shared" si="0"/>
         <v>4.0570305625627689E-2</v>
       </c>
-      <c r="H37" s="91"/>
-      <c r="I37" s="98"/>
-      <c r="J37" s="98"/>
-      <c r="K37" s="98"/>
-      <c r="L37" s="98"/>
-      <c r="M37" s="87"/>
+      <c r="H37" s="88"/>
+      <c r="I37" s="95"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="95"/>
+      <c r="L37" s="95"/>
+      <c r="M37" s="84"/>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" s="12">
@@ -32299,26 +32875,26 @@
       <c r="C38" s="18">
         <v>131.86999499999999</v>
       </c>
-      <c r="D38" s="127">
+      <c r="D38" s="124">
         <f t="shared" si="0"/>
         <v>-4.9105843263202442E-2</v>
       </c>
-      <c r="H38" s="72" t="s">
+      <c r="H38" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="I38" s="93" t="s">
+      <c r="I38" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="J38" s="93" t="s">
+      <c r="J38" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="K38" s="93" t="s">
+      <c r="K38" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="L38" s="93" t="s">
+      <c r="L38" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="M38" s="94" t="s">
+      <c r="M38" s="91" t="s">
         <v>124</v>
       </c>
     </row>
@@ -32329,30 +32905,30 @@
       <c r="C39" s="18">
         <v>138.679993</v>
       </c>
-      <c r="D39" s="127">
+      <c r="D39" s="124">
         <f t="shared" si="0"/>
         <v>-3.7746337695890086E-2</v>
       </c>
-      <c r="H39" s="99">
+      <c r="H39" s="96">
         <v>1</v>
       </c>
-      <c r="I39" s="81">
+      <c r="I39" s="78">
         <f>$I$19+($H39*$I$23)</f>
         <v>6.7704191342478015E-2</v>
       </c>
-      <c r="J39" s="81">
+      <c r="J39" s="78">
         <f>$I$19-($H39*$I$23)</f>
         <v>-5.965223833020885E-2</v>
       </c>
-      <c r="K39" s="79">
+      <c r="K39" s="76">
         <f>COUNTIFS(D:D,"&lt;"&amp;I39,D:D,"&gt;"&amp;J39)</f>
         <v>230</v>
       </c>
-      <c r="L39" s="81">
+      <c r="L39" s="78">
         <f>K39/$I$31</f>
         <v>0.72784810126582278</v>
       </c>
-      <c r="M39" s="82">
+      <c r="M39" s="79">
         <v>0.68269999999999997</v>
       </c>
     </row>
@@ -32363,30 +32939,30 @@
       <c r="C40" s="18">
         <v>144.11999499999999</v>
       </c>
-      <c r="D40" s="127">
+      <c r="D40" s="124">
         <f t="shared" si="0"/>
         <v>-3.0148121259160776E-2</v>
       </c>
-      <c r="H40" s="99">
+      <c r="H40" s="96">
         <v>2</v>
       </c>
-      <c r="I40" s="81">
+      <c r="I40" s="78">
         <f>$I$19+($H40*$I$23)</f>
         <v>0.13138240617882146</v>
       </c>
-      <c r="J40" s="81">
+      <c r="J40" s="78">
         <f>$I$19-($H40*$I$23)</f>
         <v>-0.12333045316655229</v>
       </c>
-      <c r="K40" s="79">
+      <c r="K40" s="76">
         <f>COUNTIFS(D:D,"&lt;"&amp;I40,D:D,"&gt;"&amp;J40)</f>
         <v>298</v>
       </c>
-      <c r="L40" s="81">
+      <c r="L40" s="78">
         <f>K40/$I$31</f>
         <v>0.94303797468354433</v>
       </c>
-      <c r="M40" s="82">
+      <c r="M40" s="79">
         <v>0.95450000000000002</v>
       </c>
     </row>
@@ -32397,30 +32973,30 @@
       <c r="C41" s="18">
         <v>148.60000600000001</v>
       </c>
-      <c r="D41" s="127">
+      <c r="D41" s="124">
         <f t="shared" si="0"/>
         <v>-0.13458738604559017</v>
       </c>
-      <c r="H41" s="99">
+      <c r="H41" s="96">
         <v>3</v>
       </c>
-      <c r="I41" s="81">
+      <c r="I41" s="78">
         <f>$I$19+($H41*$I$23)</f>
         <v>0.19506062101516489</v>
       </c>
-      <c r="J41" s="81">
+      <c r="J41" s="78">
         <f>$I$19-($H41*$I$23)</f>
         <v>-0.1870086680028957</v>
       </c>
-      <c r="K41" s="79">
+      <c r="K41" s="76">
         <f>COUNTIFS(D:D,"&lt;"&amp;I41,D:D,"&gt;"&amp;J41)</f>
         <v>312</v>
       </c>
-      <c r="L41" s="81">
+      <c r="L41" s="78">
         <f>K41/$I$31</f>
         <v>0.98734177215189878</v>
       </c>
-      <c r="M41" s="100">
+      <c r="M41" s="97">
         <v>0.99729999999999996</v>
       </c>
     </row>
@@ -32431,12 +33007,12 @@
       <c r="C42" s="18">
         <v>171.71000699999999</v>
       </c>
-      <c r="D42" s="127">
+      <c r="D42" s="124">
         <f t="shared" si="0"/>
         <v>-1.860094180434313E-3</v>
       </c>
-      <c r="H42" s="77"/>
-      <c r="M42" s="100"/>
+      <c r="H42" s="74"/>
+      <c r="M42" s="97"/>
     </row>
     <row r="43" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
@@ -32445,18 +33021,18 @@
       <c r="C43" s="18">
         <v>172.029999</v>
       </c>
-      <c r="D43" s="127">
+      <c r="D43" s="124">
         <f t="shared" si="0"/>
         <v>9.5941886373562602E-2</v>
       </c>
-      <c r="H43" s="149" t="s">
+      <c r="H43" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="151"/>
+      <c r="I43" s="142"/>
+      <c r="J43" s="142"/>
+      <c r="K43" s="142"/>
+      <c r="L43" s="142"/>
+      <c r="M43" s="143"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
@@ -32465,28 +33041,28 @@
       <c r="C44" s="18">
         <v>156.970001</v>
       </c>
-      <c r="D44" s="127">
+      <c r="D44" s="124">
         <f t="shared" si="0"/>
         <v>-2.229836146437203E-2</v>
       </c>
-      <c r="H44" s="101">
+      <c r="H44" s="98">
         <v>0.01</v>
       </c>
-      <c r="I44" s="102">
+      <c r="I44" s="99">
         <f t="shared" ref="I44:I58" si="7">_xlfn.PERCENTILE.INC(D:D,H44)</f>
         <v>-0.14956977639873967</v>
       </c>
-      <c r="J44" s="103">
+      <c r="J44" s="100">
         <v>0.2</v>
       </c>
-      <c r="K44" s="102">
+      <c r="K44" s="99">
         <f t="shared" ref="K44:K56" si="8">_xlfn.PERCENTILE.INC(D:D,J44)</f>
         <v>-4.3878726976557036E-2</v>
       </c>
-      <c r="L44" s="103">
+      <c r="L44" s="100">
         <v>0.85</v>
       </c>
-      <c r="M44" s="104">
+      <c r="M44" s="101">
         <f t="shared" ref="M44:M58" si="9">_xlfn.PERCENTILE.INC(D:D,L44)</f>
         <v>5.8401238327260241E-2</v>
       </c>
@@ -32498,28 +33074,28 @@
       <c r="C45" s="18">
         <v>160.550003</v>
       </c>
-      <c r="D45" s="127">
+      <c r="D45" s="124">
         <f t="shared" si="0"/>
         <v>1.9429791750911418E-2</v>
       </c>
-      <c r="H45" s="105">
+      <c r="H45" s="102">
         <v>0.02</v>
       </c>
-      <c r="I45" s="106">
+      <c r="I45" s="103">
         <f t="shared" si="7"/>
         <v>-0.11450847226850219</v>
       </c>
-      <c r="J45" s="107">
+      <c r="J45" s="104">
         <v>0.25</v>
       </c>
-      <c r="K45" s="106">
+      <c r="K45" s="103">
         <f t="shared" si="8"/>
         <v>-3.3530858151328058E-2</v>
       </c>
-      <c r="L45" s="107">
+      <c r="L45" s="104">
         <v>0.86</v>
       </c>
-      <c r="M45" s="108">
+      <c r="M45" s="105">
         <f t="shared" si="9"/>
         <v>6.2214988123961215E-2</v>
       </c>
@@ -32531,28 +33107,28 @@
       <c r="C46" s="18">
         <v>157.490005</v>
       </c>
-      <c r="D46" s="127">
+      <c r="D46" s="124">
         <f t="shared" si="0"/>
         <v>-1.5625976135196673E-2</v>
       </c>
-      <c r="H46" s="105">
+      <c r="H46" s="102">
         <v>0.03</v>
       </c>
-      <c r="I46" s="106">
+      <c r="I46" s="103">
         <f t="shared" si="7"/>
         <v>-0.10994054726290062</v>
       </c>
-      <c r="J46" s="107">
+      <c r="J46" s="104">
         <v>0.3</v>
       </c>
-      <c r="K46" s="106">
+      <c r="K46" s="103">
         <f t="shared" si="8"/>
         <v>-2.3657006858051832E-2</v>
       </c>
-      <c r="L46" s="107">
+      <c r="L46" s="104">
         <v>0.87</v>
       </c>
-      <c r="M46" s="108">
+      <c r="M46" s="105">
         <f t="shared" si="9"/>
         <v>6.3428937742370267E-2</v>
       </c>
@@ -32564,28 +33140,28 @@
       <c r="C47" s="18">
         <v>159.990005</v>
       </c>
-      <c r="D47" s="127">
+      <c r="D47" s="124">
         <f t="shared" si="0"/>
         <v>6.3197828633647646E-2</v>
       </c>
-      <c r="H47" s="105">
+      <c r="H47" s="102">
         <v>0.04</v>
       </c>
-      <c r="I47" s="106">
+      <c r="I47" s="103">
         <f t="shared" si="7"/>
         <v>-0.10135752438170986</v>
       </c>
-      <c r="J47" s="107">
+      <c r="J47" s="104">
         <v>0.35</v>
       </c>
-      <c r="K47" s="106">
+      <c r="K47" s="103">
         <f t="shared" si="8"/>
         <v>-1.673027163315885E-2</v>
       </c>
-      <c r="L47" s="107">
+      <c r="L47" s="104">
         <v>0.88</v>
       </c>
-      <c r="M47" s="108">
+      <c r="M47" s="105">
         <f t="shared" si="9"/>
         <v>6.6782651062093953E-2</v>
       </c>
@@ -32597,28 +33173,28 @@
       <c r="C48" s="18">
         <v>150.479996</v>
       </c>
-      <c r="D48" s="127">
+      <c r="D48" s="124">
         <f t="shared" si="0"/>
         <v>-8.3037363811869769E-3</v>
       </c>
-      <c r="H48" s="105">
+      <c r="H48" s="102">
         <v>0.05</v>
       </c>
-      <c r="I48" s="106">
+      <c r="I48" s="103">
         <f t="shared" si="7"/>
         <v>-9.1618261268116813E-2</v>
       </c>
-      <c r="J48" s="107">
+      <c r="J48" s="104">
         <v>0.4</v>
       </c>
-      <c r="K48" s="106">
+      <c r="K48" s="103">
         <f t="shared" si="8"/>
         <v>-1.0025020122807815E-2</v>
       </c>
-      <c r="L48" s="107">
+      <c r="L48" s="104">
         <v>0.89</v>
       </c>
-      <c r="M48" s="108">
+      <c r="M48" s="105">
         <f t="shared" si="9"/>
         <v>7.0435489281333655E-2</v>
       </c>
@@ -32630,28 +33206,28 @@
       <c r="C49" s="18">
         <v>151.740005</v>
       </c>
-      <c r="D49" s="127">
+      <c r="D49" s="124">
         <f t="shared" si="0"/>
         <v>9.5137184420692744E-3</v>
       </c>
-      <c r="H49" s="105">
+      <c r="H49" s="102">
         <v>0.06</v>
       </c>
-      <c r="I49" s="106">
+      <c r="I49" s="103">
         <f t="shared" si="7"/>
         <v>-8.8648616297873101E-2</v>
       </c>
-      <c r="J49" s="107">
+      <c r="J49" s="104">
         <v>0.45</v>
       </c>
-      <c r="K49" s="106">
+      <c r="K49" s="103">
         <f t="shared" si="8"/>
         <v>-3.4829896692572249E-3</v>
       </c>
-      <c r="L49" s="107">
+      <c r="L49" s="104">
         <v>0.9</v>
       </c>
-      <c r="M49" s="108">
+      <c r="M49" s="105">
         <f t="shared" si="9"/>
         <v>7.6351529886272584E-2</v>
       </c>
@@ -32663,28 +33239,28 @@
       <c r="C50" s="18">
         <v>150.30999800000001</v>
       </c>
-      <c r="D50" s="127">
+      <c r="D50" s="124">
         <f t="shared" si="0"/>
         <v>5.8890787741656681E-3</v>
       </c>
-      <c r="H50" s="105">
+      <c r="H50" s="102">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="I50" s="106">
+      <c r="I50" s="103">
         <f t="shared" si="7"/>
         <v>-8.6976359530494055E-2</v>
       </c>
-      <c r="J50" s="107">
+      <c r="J50" s="104">
         <v>0.5</v>
       </c>
-      <c r="K50" s="106">
+      <c r="K50" s="103">
         <f t="shared" si="8"/>
         <v>5.8104574995698766E-3</v>
       </c>
-      <c r="L50" s="107">
+      <c r="L50" s="104">
         <v>0.91</v>
       </c>
-      <c r="M50" s="108">
+      <c r="M50" s="105">
         <f t="shared" si="9"/>
         <v>7.8086680198244482E-2</v>
       </c>
@@ -32696,28 +33272,28 @@
       <c r="C51" s="18">
         <v>149.429993</v>
       </c>
-      <c r="D51" s="127">
+      <c r="D51" s="124">
         <f t="shared" si="0"/>
         <v>4.8410819114648174E-2</v>
       </c>
-      <c r="H51" s="105">
+      <c r="H51" s="102">
         <v>0.08</v>
       </c>
-      <c r="I51" s="106">
+      <c r="I51" s="103">
         <f t="shared" si="7"/>
         <v>-8.074364644608141E-2</v>
       </c>
-      <c r="J51" s="107">
+      <c r="J51" s="104">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K51" s="106">
+      <c r="K51" s="103">
         <f t="shared" si="8"/>
         <v>1.0306531850069633E-2</v>
       </c>
-      <c r="L51" s="107">
+      <c r="L51" s="104">
         <v>0.92</v>
       </c>
-      <c r="M51" s="108">
+      <c r="M51" s="105">
         <f t="shared" si="9"/>
         <v>7.9757327332866973E-2</v>
       </c>
@@ -32729,28 +33305,28 @@
       <c r="C52" s="18">
         <v>142.529999</v>
       </c>
-      <c r="D52" s="127">
+      <c r="D52" s="124">
         <f t="shared" si="0"/>
         <v>5.5026384479717194E-3</v>
       </c>
-      <c r="H52" s="105">
+      <c r="H52" s="102">
         <v>0.09</v>
       </c>
-      <c r="I52" s="106">
+      <c r="I52" s="103">
         <f t="shared" si="7"/>
         <v>-7.7091120239371189E-2</v>
       </c>
-      <c r="J52" s="107">
+      <c r="J52" s="104">
         <v>0.6</v>
       </c>
-      <c r="K52" s="106">
+      <c r="K52" s="103">
         <f t="shared" si="8"/>
         <v>1.7059247193817795E-2</v>
       </c>
-      <c r="L52" s="107">
+      <c r="L52" s="104">
         <v>0.93</v>
       </c>
-      <c r="M52" s="108">
+      <c r="M52" s="105">
         <f t="shared" si="9"/>
         <v>9.0748219612762346E-2</v>
       </c>
@@ -32762,28 +33338,28 @@
       <c r="C53" s="18">
         <v>141.75</v>
       </c>
-      <c r="D53" s="127">
+      <c r="D53" s="124">
         <f t="shared" si="0"/>
         <v>6.1002946362143096E-2</v>
       </c>
-      <c r="H53" s="105">
+      <c r="H53" s="102">
         <v>0.1</v>
       </c>
-      <c r="I53" s="106">
+      <c r="I53" s="103">
         <f t="shared" si="7"/>
         <v>-7.3341583734058635E-2</v>
       </c>
-      <c r="J53" s="107">
+      <c r="J53" s="104">
         <v>0.65</v>
       </c>
-      <c r="K53" s="106">
+      <c r="K53" s="103">
         <f t="shared" si="8"/>
         <v>2.1078839438192276E-2</v>
       </c>
-      <c r="L53" s="107">
+      <c r="L53" s="104">
         <v>0.94</v>
       </c>
-      <c r="M53" s="108">
+      <c r="M53" s="105">
         <f t="shared" si="9"/>
         <v>9.595531343593941E-2</v>
       </c>
@@ -32795,28 +33371,28 @@
       <c r="C54" s="18">
         <v>133.60000600000001</v>
       </c>
-      <c r="D54" s="127">
+      <c r="D54" s="124">
         <f t="shared" si="0"/>
         <v>-1.1960900566719834E-3</v>
       </c>
-      <c r="H54" s="105">
+      <c r="H54" s="102">
         <v>0.11</v>
       </c>
-      <c r="I54" s="106">
+      <c r="I54" s="103">
         <f t="shared" si="7"/>
         <v>-7.0855870662529213E-2</v>
       </c>
-      <c r="J54" s="107">
+      <c r="J54" s="104">
         <v>0.7</v>
       </c>
-      <c r="K54" s="106">
+      <c r="K54" s="103">
         <f t="shared" si="8"/>
         <v>2.9831431029819999E-2</v>
       </c>
-      <c r="L54" s="107">
+      <c r="L54" s="104">
         <v>0.95</v>
       </c>
-      <c r="M54" s="108">
+      <c r="M54" s="105">
         <f t="shared" si="9"/>
         <v>0.10211939853844487</v>
       </c>
@@ -32828,28 +33404,28 @@
       <c r="C55" s="18">
         <v>133.759995</v>
       </c>
-      <c r="D55" s="127">
+      <c r="D55" s="124">
         <f t="shared" si="0"/>
         <v>-7.2733409799116133E-3</v>
       </c>
-      <c r="H55" s="105">
+      <c r="H55" s="102">
         <v>0.12</v>
       </c>
-      <c r="I55" s="106">
+      <c r="I55" s="103">
         <f t="shared" si="7"/>
         <v>-7.0110701917454499E-2</v>
       </c>
-      <c r="J55" s="107">
+      <c r="J55" s="104">
         <v>0.75</v>
       </c>
-      <c r="K55" s="106">
+      <c r="K55" s="103">
         <f t="shared" si="8"/>
         <v>3.9702967148447343E-2</v>
       </c>
-      <c r="L55" s="107">
+      <c r="L55" s="104">
         <v>0.96</v>
       </c>
-      <c r="M55" s="108">
+      <c r="M55" s="105">
         <f t="shared" si="9"/>
         <v>0.11815667585986252</v>
       </c>
@@ -32861,28 +33437,28 @@
       <c r="C56" s="18">
         <v>134.740005</v>
       </c>
-      <c r="D56" s="127">
+      <c r="D56" s="124">
         <f t="shared" si="0"/>
         <v>1.7059247193817795E-2</v>
       </c>
-      <c r="H56" s="105">
+      <c r="H56" s="102">
         <v>0.13</v>
       </c>
-      <c r="I56" s="106">
+      <c r="I56" s="103">
         <f t="shared" si="7"/>
         <v>-6.5805653649845752E-2</v>
       </c>
-      <c r="J56" s="107">
+      <c r="J56" s="104">
         <v>0.8</v>
       </c>
-      <c r="K56" s="106">
+      <c r="K56" s="103">
         <f t="shared" si="8"/>
         <v>4.6797839247790352E-2</v>
       </c>
-      <c r="L56" s="107">
+      <c r="L56" s="104">
         <v>0.97</v>
       </c>
-      <c r="M56" s="108">
+      <c r="M56" s="105">
         <f t="shared" si="9"/>
         <v>0.14701525562238077</v>
       </c>
@@ -32894,23 +33470,23 @@
       <c r="C57" s="18">
         <v>132.479996</v>
       </c>
-      <c r="D57" s="127">
+      <c r="D57" s="124">
         <f t="shared" si="0"/>
         <v>-8.5316497729249763E-3</v>
       </c>
-      <c r="H57" s="105">
+      <c r="H57" s="102">
         <v>0.14000000000000001</v>
       </c>
-      <c r="I57" s="106">
+      <c r="I57" s="103">
         <f t="shared" si="7"/>
         <v>-6.1407568089879447E-2</v>
       </c>
-      <c r="J57" s="107"/>
-      <c r="K57" s="106"/>
-      <c r="L57" s="107">
+      <c r="J57" s="104"/>
+      <c r="K57" s="103"/>
+      <c r="L57" s="104">
         <v>0.98</v>
       </c>
-      <c r="M57" s="108">
+      <c r="M57" s="105">
         <f t="shared" si="9"/>
         <v>0.16094732231886044</v>
       </c>
@@ -32922,23 +33498,23 @@
       <c r="C58" s="18">
         <v>133.61999499999999</v>
       </c>
-      <c r="D58" s="127">
+      <c r="D58" s="124">
         <f t="shared" si="0"/>
         <v>4.1465252342979264E-2</v>
       </c>
-      <c r="H58" s="109">
+      <c r="H58" s="106">
         <v>0.15</v>
       </c>
-      <c r="I58" s="110">
+      <c r="I58" s="107">
         <f t="shared" si="7"/>
         <v>-6.0066001453261408E-2</v>
       </c>
-      <c r="J58" s="111"/>
-      <c r="K58" s="90"/>
-      <c r="L58" s="112">
+      <c r="J58" s="108"/>
+      <c r="K58" s="87"/>
+      <c r="L58" s="109">
         <v>0.99</v>
       </c>
-      <c r="M58" s="113">
+      <c r="M58" s="110">
         <f t="shared" si="9"/>
         <v>0.18410734492088726</v>
       </c>
@@ -32950,7 +33526,7 @@
       <c r="C59" s="18">
         <v>128.300003</v>
       </c>
-      <c r="D59" s="127">
+      <c r="D59" s="124">
         <f t="shared" si="0"/>
         <v>9.5208674017110972E-3</v>
       </c>
@@ -32962,14 +33538,14 @@
       <c r="C60" s="18">
         <v>127.089996</v>
       </c>
-      <c r="D60" s="127">
+      <c r="D60" s="124">
         <f t="shared" si="0"/>
         <v>4.4632515382787563E-2</v>
       </c>
-      <c r="H60" s="114" t="s">
+      <c r="H60" s="111" t="s">
         <v>126</v>
       </c>
-      <c r="I60" s="115"/>
+      <c r="I60" s="112"/>
     </row>
     <row r="61" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="12">
@@ -32978,14 +33554,14 @@
       <c r="C61" s="18">
         <v>121.660004</v>
       </c>
-      <c r="D61" s="127">
+      <c r="D61" s="124">
         <f t="shared" si="0"/>
         <v>-1.680939092951983E-2</v>
       </c>
-      <c r="H61" s="116" t="s">
+      <c r="H61" s="113" t="s">
         <v>127</v>
       </c>
-      <c r="I61" s="117"/>
+      <c r="I61" s="114"/>
     </row>
     <row r="62" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="12">
@@ -32994,11 +33570,11 @@
       <c r="C62" s="18">
         <v>123.739998</v>
       </c>
-      <c r="D62" s="127">
+      <c r="D62" s="124">
         <f t="shared" si="0"/>
         <v>5.6342829574379527E-2</v>
       </c>
-      <c r="H62" s="118"/>
+      <c r="H62" s="115"/>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" s="12">
@@ -33007,14 +33583,14 @@
       <c r="C63" s="18">
         <v>117.139999</v>
       </c>
-      <c r="D63" s="127">
+      <c r="D63" s="124">
         <f t="shared" si="0"/>
         <v>-6.5347505539814721E-2</v>
       </c>
-      <c r="H63" s="114" t="s">
+      <c r="H63" s="111" t="s">
         <v>128</v>
       </c>
-      <c r="I63" s="119"/>
+      <c r="I63" s="116"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" s="12">
@@ -33023,14 +33599,14 @@
       <c r="C64" s="18">
         <v>125.33000199999999</v>
       </c>
-      <c r="D64" s="127">
+      <c r="D64" s="124">
         <f t="shared" si="0"/>
         <v>1.3582454024210211E-3</v>
       </c>
-      <c r="H64" s="120" t="s">
+      <c r="H64" s="117" t="s">
         <v>129</v>
       </c>
-      <c r="I64" s="121">
+      <c r="I64" s="118">
         <f>I63*(1-I60)</f>
         <v>0</v>
       </c>
@@ -33042,14 +33618,14 @@
       <c r="C65" s="18">
         <v>125.160004</v>
       </c>
-      <c r="D65" s="127">
+      <c r="D65" s="124">
         <f t="shared" si="0"/>
         <v>3.2928992868350049E-2</v>
       </c>
-      <c r="H65" s="116" t="s">
+      <c r="H65" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="I65" s="122">
+      <c r="I65" s="119">
         <f>I63*(1+I61)</f>
         <v>0</v>
       </c>
@@ -33061,7 +33637,7 @@
       <c r="C66" s="18">
         <v>121.16999800000001</v>
       </c>
-      <c r="D66" s="127">
+      <c r="D66" s="124">
         <f t="shared" si="0"/>
         <v>0.18515258578154525</v>
       </c>
@@ -33073,7 +33649,7 @@
       <c r="C67" s="18">
         <v>102.239998</v>
       </c>
-      <c r="D67" s="127">
+      <c r="D67" s="124">
         <f t="shared" ref="D67:D130" si="10">C67/C68-1</f>
         <v>4.4224224523573774E-2</v>
       </c>
@@ -33085,7 +33661,7 @@
       <c r="C68" s="18">
         <v>97.910004000000001</v>
       </c>
-      <c r="D68" s="127">
+      <c r="D68" s="124">
         <f t="shared" si="10"/>
         <v>6.3545580350762298E-2</v>
       </c>
@@ -33097,7 +33673,7 @@
       <c r="C69" s="18">
         <v>92.059997999999993</v>
       </c>
-      <c r="D69" s="127">
+      <c r="D69" s="124">
         <f t="shared" si="10"/>
         <v>0.10198703492953021</v>
       </c>
@@ -33109,7 +33685,7 @@
       <c r="C70" s="18">
         <v>83.540001000000004</v>
       </c>
-      <c r="D70" s="127">
+      <c r="D70" s="124">
         <f t="shared" si="10"/>
         <v>5.813811493875054E-2</v>
       </c>
@@ -33121,7 +33697,7 @@
       <c r="C71" s="18">
         <v>78.949996999999996</v>
       </c>
-      <c r="D71" s="127">
+      <c r="D71" s="124">
         <f t="shared" si="10"/>
         <v>1.6087516708655825E-2</v>
       </c>
@@ -33133,7 +33709,7 @@
       <c r="C72" s="18">
         <v>77.699996999999996</v>
       </c>
-      <c r="D72" s="127">
+      <c r="D72" s="124">
         <f t="shared" si="10"/>
         <v>3.9603948076102347E-2</v>
       </c>
@@ -33145,7 +33721,7 @@
       <c r="C73" s="18">
         <v>74.739998</v>
       </c>
-      <c r="D73" s="127">
+      <c r="D73" s="124">
         <f t="shared" si="10"/>
         <v>-4.3878726976557036E-2</v>
       </c>
@@ -33157,7 +33733,7 @@
       <c r="C74" s="18">
         <v>78.169998000000007</v>
       </c>
-      <c r="D74" s="127">
+      <c r="D74" s="124">
         <f t="shared" si="10"/>
         <v>-2.6646744531110378E-2</v>
       </c>
@@ -33169,7 +33745,7 @@
       <c r="C75" s="18">
         <v>80.309997999999993</v>
       </c>
-      <c r="D75" s="127">
+      <c r="D75" s="124">
         <f t="shared" si="10"/>
         <v>2.0068524575059365E-2</v>
       </c>
@@ -33181,7 +33757,7 @@
       <c r="C76" s="18">
         <v>78.730002999999996</v>
       </c>
-      <c r="D76" s="127">
+      <c r="D76" s="124">
         <f t="shared" si="10"/>
         <v>2.2600403236794353E-2</v>
       </c>
@@ -33193,7 +33769,7 @@
       <c r="C77" s="18">
         <v>76.989998</v>
       </c>
-      <c r="D77" s="127">
+      <c r="D77" s="124">
         <f t="shared" si="10"/>
         <v>-8.0277160199225372E-2</v>
       </c>
@@ -33205,7 +33781,7 @@
       <c r="C78" s="18">
         <v>83.709998999999996</v>
       </c>
-      <c r="D78" s="127">
+      <c r="D78" s="124">
         <f t="shared" si="10"/>
         <v>0.17818431337715768</v>
       </c>
@@ -33217,7 +33793,7 @@
       <c r="C79" s="18">
         <v>71.050003000000004</v>
       </c>
-      <c r="D79" s="127">
+      <c r="D79" s="124">
         <f t="shared" si="10"/>
         <v>-0.14767271895786083</v>
       </c>
@@ -33229,7 +33805,7 @@
       <c r="C80" s="18">
         <v>83.360000999999997</v>
       </c>
-      <c r="D80" s="127">
+      <c r="D80" s="124">
         <f t="shared" si="10"/>
         <v>-6.0202888169207047E-2</v>
       </c>
@@ -33241,7 +33817,7 @@
       <c r="C81" s="18">
         <v>88.699996999999996</v>
       </c>
-      <c r="D81" s="127">
+      <c r="D81" s="124">
         <f t="shared" si="10"/>
         <v>8.4484605887215958E-2</v>
       </c>
@@ -33253,7 +33829,7 @@
       <c r="C82" s="18">
         <v>81.790001000000004</v>
       </c>
-      <c r="D82" s="127">
+      <c r="D82" s="124">
         <f t="shared" si="10"/>
         <v>-7.0673796825956203E-2</v>
       </c>
@@ -33265,7 +33841,7 @@
       <c r="C83" s="18">
         <v>88.010002</v>
       </c>
-      <c r="D83" s="127">
+      <c r="D83" s="124">
         <f t="shared" si="10"/>
         <v>1.9814587955460317E-2</v>
       </c>
@@ -33277,7 +33853,7 @@
       <c r="C84" s="18">
         <v>86.300003000000004</v>
       </c>
-      <c r="D84" s="127">
+      <c r="D84" s="124">
         <f t="shared" si="10"/>
         <v>-3.4027234565804032E-2</v>
       </c>
@@ -33289,7 +33865,7 @@
       <c r="C85" s="18">
         <v>89.339995999999999</v>
       </c>
-      <c r="D85" s="127">
+      <c r="D85" s="124">
         <f t="shared" si="10"/>
         <v>-0.10962727166144193</v>
       </c>
@@ -33301,7 +33877,7 @@
       <c r="C86" s="18">
         <v>100.339996</v>
       </c>
-      <c r="D86" s="127">
+      <c r="D86" s="124">
         <f t="shared" si="10"/>
         <v>-9.0134231865562575E-2</v>
       </c>
@@ -33313,7 +33889,7 @@
       <c r="C87" s="18">
         <v>110.279999</v>
       </c>
-      <c r="D87" s="127">
+      <c r="D87" s="124">
         <f t="shared" si="10"/>
         <v>5.6119527985434292E-2</v>
       </c>
@@ -33325,7 +33901,7 @@
       <c r="C88" s="18">
         <v>104.41999800000001</v>
       </c>
-      <c r="D88" s="127">
+      <c r="D88" s="124">
         <f t="shared" si="10"/>
         <v>-4.473515771173997E-2</v>
       </c>
@@ -33337,7 +33913,7 @@
       <c r="C89" s="18">
         <v>109.30999799999999</v>
       </c>
-      <c r="D89" s="127">
+      <c r="D89" s="124">
         <f t="shared" si="10"/>
         <v>-1.9025415058781414E-2</v>
       </c>
@@ -33349,7 +33925,7 @@
       <c r="C90" s="18">
         <v>111.43</v>
       </c>
-      <c r="D90" s="127">
+      <c r="D90" s="124">
         <f t="shared" si="10"/>
         <v>-9.8681527914297296E-2</v>
       </c>
@@ -33361,7 +33937,7 @@
       <c r="C91" s="18">
         <v>123.629997</v>
       </c>
-      <c r="D91" s="127">
+      <c r="D91" s="124">
         <f t="shared" si="10"/>
         <v>4.12700570722635E-2</v>
       </c>
@@ -33373,7 +33949,7 @@
       <c r="C92" s="18">
         <v>118.730003</v>
       </c>
-      <c r="D92" s="127">
+      <c r="D92" s="124">
         <f t="shared" si="10"/>
         <v>5.0522085927855676E-2</v>
       </c>
@@ -33385,7 +33961,7 @@
       <c r="C93" s="18">
         <v>113.019997</v>
       </c>
-      <c r="D93" s="127">
+      <c r="D93" s="124">
         <f t="shared" si="10"/>
         <v>1.2270443129951847E-2</v>
       </c>
@@ -33397,7 +33973,7 @@
       <c r="C94" s="18">
         <v>111.650002</v>
       </c>
-      <c r="D94" s="127">
+      <c r="D94" s="124">
         <f t="shared" si="10"/>
         <v>9.1077883493054346E-2</v>
       </c>
@@ -33409,7 +33985,7 @@
       <c r="C95" s="18">
         <v>102.33000199999999</v>
       </c>
-      <c r="D95" s="127">
+      <c r="D95" s="124">
         <f t="shared" si="10"/>
         <v>-1.8323062515791744E-2</v>
       </c>
@@ -33421,7 +33997,7 @@
       <c r="C96" s="18">
         <v>104.239998</v>
       </c>
-      <c r="D96" s="127">
+      <c r="D96" s="124">
         <f t="shared" si="10"/>
         <v>6.8908954129684785E-2</v>
       </c>
@@ -33433,7 +34009,7 @@
       <c r="C97" s="18">
         <v>97.519997000000004</v>
       </c>
-      <c r="D97" s="127">
+      <c r="D97" s="124">
         <f t="shared" si="10"/>
         <v>-8.859815887850464E-2</v>
       </c>
@@ -33445,7 +34021,7 @@
       <c r="C98" s="18">
         <v>107</v>
       </c>
-      <c r="D98" s="127">
+      <c r="D98" s="124">
         <f t="shared" si="10"/>
         <v>7.7868472182989867E-2</v>
       </c>
@@ -33457,7 +34033,7 @@
       <c r="C99" s="18">
         <v>99.269997000000004</v>
       </c>
-      <c r="D99" s="127">
+      <c r="D99" s="124">
         <f t="shared" si="10"/>
         <v>-2.8954376534646054E-2</v>
       </c>
@@ -33469,7 +34045,7 @@
       <c r="C100" s="18">
         <v>102.230003</v>
       </c>
-      <c r="D100" s="127">
+      <c r="D100" s="124">
         <f t="shared" si="10"/>
         <v>-8.91027330721893E-2</v>
       </c>
@@ -33481,7 +34057,7 @@
       <c r="C101" s="18">
         <v>112.230003</v>
       </c>
-      <c r="D101" s="127">
+      <c r="D101" s="124">
         <f t="shared" si="10"/>
         <v>-6.550393851904146E-3</v>
       </c>
@@ -33493,7 +34069,7 @@
       <c r="C102" s="18">
         <v>112.970001</v>
       </c>
-      <c r="D102" s="127">
+      <c r="D102" s="124">
         <f t="shared" si="10"/>
         <v>5.3136982934752774E-2</v>
       </c>
@@ -33505,7 +34081,7 @@
       <c r="C103" s="18">
         <v>107.269997</v>
       </c>
-      <c r="D103" s="127">
+      <c r="D103" s="124">
         <f t="shared" si="10"/>
         <v>1.1122641573103609E-2</v>
       </c>
@@ -33517,7 +34093,7 @@
       <c r="C104" s="18">
         <v>106.089996</v>
       </c>
-      <c r="D104" s="127">
+      <c r="D104" s="124">
         <f t="shared" si="10"/>
         <v>1.3469583492548676E-2</v>
       </c>
@@ -33529,7 +34105,7 @@
       <c r="C105" s="18">
         <v>104.68</v>
       </c>
-      <c r="D105" s="127">
+      <c r="D105" s="124">
         <f t="shared" si="10"/>
         <v>2.9808145011153142E-2</v>
       </c>
@@ -33541,7 +34117,7 @@
       <c r="C106" s="18">
         <v>101.650002</v>
       </c>
-      <c r="D106" s="127">
+      <c r="D106" s="124">
         <f t="shared" si="10"/>
         <v>-7.7669876396605275E-2</v>
       </c>
@@ -33553,7 +34129,7 @@
       <c r="C107" s="18">
         <v>110.209999</v>
       </c>
-      <c r="D107" s="127">
+      <c r="D107" s="124">
         <f t="shared" si="10"/>
         <v>-0.1912380144936372</v>
       </c>
@@ -33565,7 +34141,7 @@
       <c r="C108" s="18">
         <v>136.270004</v>
       </c>
-      <c r="D108" s="127">
+      <c r="D108" s="124">
         <f t="shared" si="10"/>
         <v>-3.5461459764025038E-2</v>
       </c>
@@ -33577,7 +34153,7 @@
       <c r="C109" s="18">
         <v>141.279999</v>
       </c>
-      <c r="D109" s="127">
+      <c r="D109" s="124">
         <f t="shared" si="10"/>
         <v>-8.0806754992974961E-2</v>
       </c>
@@ -33589,7 +34165,7 @@
       <c r="C110" s="18">
         <v>153.699997</v>
       </c>
-      <c r="D110" s="127">
+      <c r="D110" s="124">
         <f t="shared" si="10"/>
         <v>5.2451413086550769E-2</v>
       </c>
@@ -33601,7 +34177,7 @@
       <c r="C111" s="18">
         <v>146.03999300000001</v>
       </c>
-      <c r="D111" s="127">
+      <c r="D111" s="124">
         <f t="shared" si="10"/>
         <v>8.7028181289046103E-3</v>
       </c>
@@ -33613,7 +34189,7 @@
       <c r="C112" s="18">
         <v>144.779999</v>
       </c>
-      <c r="D112" s="127">
+      <c r="D112" s="124">
         <f t="shared" si="10"/>
         <v>0.16485636684482774</v>
       </c>
@@ -33625,7 +34201,7 @@
       <c r="C113" s="18">
         <v>124.290001</v>
       </c>
-      <c r="D113" s="127">
+      <c r="D113" s="124">
         <f t="shared" si="10"/>
         <v>-8.0491212258507194E-2</v>
       </c>
@@ -33637,7 +34213,7 @@
       <c r="C114" s="18">
         <v>135.16999799999999</v>
       </c>
-      <c r="D114" s="127">
+      <c r="D114" s="124">
         <f t="shared" si="10"/>
         <v>-0.11019686366409409</v>
       </c>
@@ -33649,7 +34225,7 @@
       <c r="C115" s="18">
         <v>151.91000399999999</v>
       </c>
-      <c r="D115" s="127">
+      <c r="D115" s="124">
         <f t="shared" si="10"/>
         <v>-2.3642213866363893E-3</v>
       </c>
@@ -33661,7 +34237,7 @@
       <c r="C116" s="18">
         <v>152.270004</v>
       </c>
-      <c r="D116" s="127">
+      <c r="D116" s="124">
         <f t="shared" si="10"/>
         <v>-5.9655341305424492E-2</v>
       </c>
@@ -33673,7 +34249,7 @@
       <c r="C117" s="18">
         <v>161.929993</v>
       </c>
-      <c r="D117" s="127">
+      <c r="D117" s="124">
         <f t="shared" si="10"/>
         <v>-7.1661987626176149E-2</v>
       </c>
@@ -33685,7 +34261,7 @@
       <c r="C118" s="18">
         <v>174.429993</v>
       </c>
-      <c r="D118" s="127">
+      <c r="D118" s="124">
         <f t="shared" si="10"/>
         <v>8.3824548128674792E-3</v>
       </c>
@@ -33697,7 +34273,7 @@
       <c r="C119" s="18">
         <v>172.979996</v>
       </c>
-      <c r="D119" s="127">
+      <c r="D119" s="124">
         <f t="shared" si="10"/>
         <v>-0.1153275871494277</v>
       </c>
@@ -33709,7 +34285,7 @@
       <c r="C120" s="18">
         <v>195.529999</v>
       </c>
-      <c r="D120" s="127">
+      <c r="D120" s="124">
         <f t="shared" si="10"/>
         <v>-0.10537151908282871</v>
       </c>
@@ -33721,7 +34297,7 @@
       <c r="C121" s="18">
         <v>218.55999800000001</v>
       </c>
-      <c r="D121" s="127">
+      <c r="D121" s="124">
         <f t="shared" si="10"/>
         <v>-2.2452831000511431E-2</v>
       </c>
@@ -33733,7 +34309,7 @@
       <c r="C122" s="18">
         <v>223.58000200000001</v>
       </c>
-      <c r="D122" s="127">
+      <c r="D122" s="124">
         <f t="shared" si="10"/>
         <v>-4.4652382364023357E-2</v>
       </c>
@@ -33745,7 +34321,7 @@
       <c r="C123" s="18">
         <v>234.029999</v>
       </c>
-      <c r="D123" s="127">
+      <c r="D123" s="124">
         <f t="shared" si="10"/>
         <v>-1.0987642923812713E-2</v>
       </c>
@@ -33757,7 +34333,7 @@
       <c r="C124" s="18">
         <v>236.63000500000001</v>
       </c>
-      <c r="D124" s="127">
+      <c r="D124" s="124">
         <f t="shared" si="10"/>
         <v>5.737869796573758E-3</v>
       </c>
@@ -33769,7 +34345,7 @@
       <c r="C125" s="18">
         <v>235.279999</v>
       </c>
-      <c r="D125" s="127">
+      <c r="D125" s="124">
         <f t="shared" si="10"/>
         <v>8.6598818627257046E-3</v>
       </c>
@@ -33781,7 +34357,7 @@
       <c r="C126" s="18">
         <v>233.259995</v>
       </c>
-      <c r="D126" s="127">
+      <c r="D126" s="124">
         <f t="shared" si="10"/>
         <v>1.9492971772382406E-2</v>
       </c>
@@ -33793,7 +34369,7 @@
       <c r="C127" s="18">
         <v>228.800003</v>
       </c>
-      <c r="D127" s="127">
+      <c r="D127" s="124">
         <f t="shared" si="10"/>
         <v>-8.8046538674504848E-2</v>
       </c>
@@ -33805,7 +34381,7 @@
       <c r="C128" s="18">
         <v>250.88999899999999</v>
       </c>
-      <c r="D128" s="127">
+      <c r="D128" s="124">
         <f t="shared" si="10"/>
         <v>-3.3365399346502733E-2</v>
       </c>
@@ -33817,7 +34393,7 @@
       <c r="C129" s="18">
         <v>259.54998799999998</v>
       </c>
-      <c r="D129" s="127">
+      <c r="D129" s="124">
         <f t="shared" si="10"/>
         <v>-7.4885978577744483E-2</v>
       </c>
@@ -33829,7 +34405,7 @@
       <c r="C130" s="18">
         <v>280.55999800000001</v>
       </c>
-      <c r="D130" s="127">
+      <c r="D130" s="124">
         <f t="shared" si="10"/>
         <v>-2.9372047578151039E-2</v>
       </c>
@@ -33841,7 +34417,7 @@
       <c r="C131" s="18">
         <v>289.04998799999998</v>
       </c>
-      <c r="D131" s="127">
+      <c r="D131" s="124">
         <f t="shared" ref="D131:D194" si="11">C131/C132-1</f>
         <v>-1.2094195136714836E-3</v>
       </c>
@@ -33853,7 +34429,7 @@
       <c r="C132" s="18">
         <v>289.39999399999999</v>
       </c>
-      <c r="D132" s="127">
+      <c r="D132" s="124">
         <f t="shared" si="11"/>
         <v>0.14405434057408129</v>
       </c>
@@ -33865,7 +34441,7 @@
       <c r="C133" s="18">
         <v>252.96000699999999</v>
       </c>
-      <c r="D133" s="127">
+      <c r="D133" s="124">
         <f t="shared" si="11"/>
         <v>2.2473779849808695E-2</v>
       </c>
@@ -33877,7 +34453,7 @@
       <c r="C134" s="18">
         <v>247.39999399999999</v>
       </c>
-      <c r="D134" s="127">
+      <c r="D134" s="124">
         <f t="shared" si="11"/>
         <v>6.2349659430829929E-2</v>
       </c>
@@ -33889,7 +34465,7 @@
       <c r="C135" s="18">
         <v>232.88000500000001</v>
       </c>
-      <c r="D135" s="127">
+      <c r="D135" s="124">
         <f t="shared" si="11"/>
         <v>1.547988910757514E-2</v>
       </c>
@@ -33901,7 +34477,7 @@
       <c r="C136" s="18">
         <v>229.33000200000001</v>
       </c>
-      <c r="D136" s="127">
+      <c r="D136" s="124">
         <f t="shared" si="11"/>
         <v>-3.7793006574191601E-3</v>
       </c>
@@ -33913,7 +34489,7 @@
       <c r="C137" s="18">
         <v>230.199997</v>
       </c>
-      <c r="D137" s="127">
+      <c r="D137" s="124">
         <f t="shared" si="11"/>
         <v>-7.2148361818258122E-2</v>
       </c>
@@ -33925,7 +34501,7 @@
       <c r="C138" s="18">
         <v>248.10000600000001</v>
       </c>
-      <c r="D138" s="127">
+      <c r="D138" s="124">
         <f t="shared" si="11"/>
         <v>1.3723401955993975E-3</v>
       </c>
@@ -33937,7 +34513,7 @@
       <c r="C139" s="18">
         <v>247.759995</v>
       </c>
-      <c r="D139" s="127">
+      <c r="D139" s="124">
         <f t="shared" si="11"/>
         <v>-5.1397287021286431E-3</v>
       </c>
@@ -33949,7 +34525,7 @@
       <c r="C140" s="18">
         <v>249.03999300000001</v>
       </c>
-      <c r="D140" s="127">
+      <c r="D140" s="124">
         <f t="shared" si="11"/>
         <v>0.1018493433882075</v>
       </c>
@@ -33961,7 +34537,7 @@
       <c r="C141" s="18">
         <v>226.020004</v>
       </c>
-      <c r="D141" s="127">
+      <c r="D141" s="124">
         <f t="shared" si="11"/>
         <v>4.329765991182466E-2</v>
       </c>
@@ -33973,7 +34549,7 @@
       <c r="C142" s="18">
         <v>216.63999899999999</v>
       </c>
-      <c r="D142" s="127">
+      <c r="D142" s="124">
         <f t="shared" si="11"/>
         <v>2.4399485046330271E-2</v>
       </c>
@@ -33985,7 +34561,7 @@
       <c r="C143" s="18">
         <v>211.479996</v>
       </c>
-      <c r="D143" s="127">
+      <c r="D143" s="124">
         <f t="shared" si="11"/>
         <v>-4.7258660867420588E-2</v>
       </c>
@@ -33997,7 +34573,7 @@
       <c r="C144" s="18">
         <v>221.970001</v>
       </c>
-      <c r="D144" s="127">
+      <c r="D144" s="124">
         <f t="shared" si="11"/>
         <v>-2.929985157038395E-2</v>
       </c>
@@ -34009,7 +34585,7 @@
       <c r="C145" s="18">
         <v>228.66999799999999</v>
       </c>
-      <c r="D145" s="127">
+      <c r="D145" s="124">
         <f t="shared" si="11"/>
         <v>-6.1443117145965842E-2</v>
       </c>
@@ -34021,7 +34597,7 @@
       <c r="C146" s="18">
         <v>243.63999899999999</v>
       </c>
-      <c r="D146" s="127">
+      <c r="D146" s="124">
         <f t="shared" si="11"/>
         <v>1.6444416698642161E-3</v>
       </c>
@@ -34033,7 +34609,7 @@
       <c r="C147" s="18">
         <v>243.240005</v>
       </c>
-      <c r="D147" s="127">
+      <c r="D147" s="124">
         <f t="shared" si="11"/>
         <v>-7.4534805649859148E-2</v>
       </c>
@@ -34045,7 +34621,7 @@
       <c r="C148" s="18">
         <v>262.82998700000002</v>
       </c>
-      <c r="D148" s="127">
+      <c r="D148" s="124">
         <f t="shared" si="11"/>
         <v>-1.8668559320058509E-2</v>
       </c>
@@ -34057,7 +34633,7 @@
       <c r="C149" s="18">
         <v>267.82998700000002</v>
       </c>
-      <c r="D149" s="127">
+      <c r="D149" s="124">
         <f t="shared" si="11"/>
         <v>5.443283928161291E-3</v>
       </c>
@@ -34069,7 +34645,7 @@
       <c r="C150" s="18">
         <v>266.38000499999998</v>
       </c>
-      <c r="D150" s="127">
+      <c r="D150" s="124">
         <f t="shared" si="11"/>
         <v>7.5674390549484771E-2</v>
       </c>
@@ -34081,7 +34657,7 @@
       <c r="C151" s="18">
         <v>247.63999899999999</v>
       </c>
-      <c r="D151" s="127">
+      <c r="D151" s="124">
         <f t="shared" si="11"/>
         <v>1.633421544226854E-2</v>
       </c>
@@ -34093,7 +34669,7 @@
       <c r="C152" s="18">
         <v>243.66000399999999</v>
       </c>
-      <c r="D152" s="127">
+      <c r="D152" s="124">
         <f t="shared" si="11"/>
         <v>3.1714468659986172E-2</v>
       </c>
@@ -34105,7 +34681,7 @@
       <c r="C153" s="18">
         <v>236.16999799999999</v>
       </c>
-      <c r="D153" s="127">
+      <c r="D153" s="124">
         <f t="shared" si="11"/>
         <v>-2.235380570237766E-2</v>
       </c>
@@ -34117,7 +34693,7 @@
       <c r="C154" s="18">
         <v>241.570007</v>
       </c>
-      <c r="D154" s="127">
+      <c r="D154" s="124">
         <f t="shared" si="11"/>
         <v>5.4246347448050791E-2</v>
       </c>
@@ -34129,7 +34705,7 @@
       <c r="C155" s="18">
         <v>229.13999899999999</v>
       </c>
-      <c r="D155" s="127">
+      <c r="D155" s="124">
         <f t="shared" si="11"/>
         <v>2.482223310205689E-2</v>
       </c>
@@ -34141,7 +34717,7 @@
       <c r="C156" s="18">
         <v>223.58999600000001</v>
       </c>
-      <c r="D156" s="127">
+      <c r="D156" s="124">
         <f t="shared" si="11"/>
         <v>-6.6079143459685907E-2</v>
       </c>
@@ -34153,7 +34729,7 @@
       <c r="C157" s="18">
         <v>239.41000399999999</v>
       </c>
-      <c r="D157" s="127">
+      <c r="D157" s="124">
         <f t="shared" si="11"/>
         <v>-5.0412467285666951E-2</v>
       </c>
@@ -34165,7 +34741,7 @@
       <c r="C158" s="18">
         <v>252.11999499999999</v>
       </c>
-      <c r="D158" s="127">
+      <c r="D158" s="124">
         <f t="shared" si="11"/>
         <v>-0.11259720421300934</v>
       </c>
@@ -34177,7 +34753,7 @@
       <c r="C159" s="18">
         <v>284.10998499999999</v>
       </c>
-      <c r="D159" s="127">
+      <c r="D159" s="124">
         <f t="shared" si="11"/>
         <v>-2.7087200527221467E-2</v>
       </c>
@@ -34189,7 +34765,7 @@
       <c r="C160" s="18">
         <v>292.01998900000001</v>
       </c>
-      <c r="D160" s="127">
+      <c r="D160" s="124">
         <f t="shared" si="11"/>
         <v>4.591682109240014E-2</v>
       </c>
@@ -34201,7 +34777,7 @@
       <c r="C161" s="18">
         <v>279.20001200000002</v>
       </c>
-      <c r="D161" s="127">
+      <c r="D161" s="124">
         <f t="shared" si="11"/>
         <v>2.2336162087085443E-2</v>
       </c>
@@ -34213,7 +34789,7 @@
       <c r="C162" s="18">
         <v>273.10000600000001</v>
       </c>
-      <c r="D162" s="127">
+      <c r="D162" s="124">
         <f t="shared" si="11"/>
         <v>4.5118855345136932E-2</v>
       </c>
@@ -34225,7 +34801,7 @@
       <c r="C163" s="18">
         <v>261.30999800000001</v>
       </c>
-      <c r="D163" s="127">
+      <c r="D163" s="124">
         <f t="shared" si="11"/>
         <v>-3.968978573130999E-2</v>
       </c>
@@ -34237,7 +34813,7 @@
       <c r="C164" s="18">
         <v>272.10998499999999</v>
       </c>
-      <c r="D164" s="127">
+      <c r="D164" s="124">
         <f t="shared" si="11"/>
         <v>-2.779674008735189E-2</v>
       </c>
@@ -34249,7 +34825,7 @@
       <c r="C165" s="18">
         <v>279.89001500000001</v>
       </c>
-      <c r="D165" s="127">
+      <c r="D165" s="124">
         <f t="shared" si="11"/>
         <v>1.7855857893612548E-2</v>
       </c>
@@ -34261,7 +34837,7 @@
       <c r="C166" s="18">
         <v>274.98001099999999</v>
       </c>
-      <c r="D166" s="127">
+      <c r="D166" s="124">
         <f t="shared" si="11"/>
         <v>-0.10540696685849815</v>
       </c>
@@ -34273,7 +34849,7 @@
       <c r="C167" s="18">
         <v>307.38000499999998</v>
       </c>
-      <c r="D167" s="127">
+      <c r="D167" s="124">
         <f t="shared" si="11"/>
         <v>-0.15691596485823489</v>
       </c>
@@ -34285,7 +34861,7 @@
       <c r="C168" s="18">
         <v>364.58999599999999</v>
       </c>
-      <c r="D168" s="127">
+      <c r="D168" s="124">
         <f t="shared" si="11"/>
         <v>7.3270483134395548E-2</v>
       </c>
@@ -34297,7 +34873,7 @@
       <c r="C169" s="18">
         <v>339.70001200000002</v>
       </c>
-      <c r="D169" s="127">
+      <c r="D169" s="124">
         <f t="shared" si="11"/>
         <v>9.3091431039050487E-2</v>
       </c>
@@ -34309,7 +34885,7 @@
       <c r="C170" s="18">
         <v>310.76998900000001</v>
       </c>
-      <c r="D170" s="127">
+      <c r="D170" s="124">
         <f t="shared" si="11"/>
         <v>-1.3428606349206285E-2</v>
       </c>
@@ -34321,7 +34897,7 @@
       <c r="C171" s="18">
         <v>315</v>
       </c>
-      <c r="D171" s="127">
+      <c r="D171" s="124">
         <f t="shared" si="11"/>
         <v>-7.068678202791201E-2</v>
       </c>
@@ -34333,7 +34909,7 @@
       <c r="C172" s="18">
         <v>338.959991</v>
       </c>
-      <c r="D172" s="127">
+      <c r="D172" s="124">
         <f t="shared" si="11"/>
         <v>5.9846112128938866E-2</v>
       </c>
@@ -34345,7 +34921,7 @@
       <c r="C173" s="18">
         <v>319.82000699999998</v>
       </c>
-      <c r="D173" s="127">
+      <c r="D173" s="124">
         <f t="shared" si="11"/>
         <v>-9.4276512741490515E-2</v>
       </c>
@@ -34357,7 +34933,7 @@
       <c r="C174" s="18">
         <v>353.10998499999999</v>
       </c>
-      <c r="D174" s="127">
+      <c r="D174" s="124">
         <f t="shared" si="11"/>
         <v>0.12219532355945684</v>
       </c>
@@ -34369,7 +34945,7 @@
       <c r="C175" s="18">
         <v>314.66000400000001</v>
       </c>
-      <c r="D175" s="127">
+      <c r="D175" s="124">
         <f t="shared" si="11"/>
         <v>-4.1810074523733531E-2</v>
       </c>
@@ -34381,7 +34957,7 @@
       <c r="C176" s="18">
         <v>328.39001500000001</v>
       </c>
-      <c r="D176" s="127">
+      <c r="D176" s="124">
         <f t="shared" si="11"/>
         <v>-2.2939574121876083E-2</v>
       </c>
@@ -34393,7 +34969,7 @@
       <c r="C177" s="18">
         <v>336.10000600000001</v>
       </c>
-      <c r="D177" s="127">
+      <c r="D177" s="124">
         <f t="shared" si="11"/>
         <v>-1.5004967425693239E-2</v>
       </c>
@@ -34405,7 +34981,7 @@
       <c r="C178" s="18">
         <v>341.22000100000002</v>
       </c>
-      <c r="D178" s="127">
+      <c r="D178" s="124">
         <f t="shared" si="11"/>
         <v>6.7079503198782087E-2</v>
       </c>
@@ -34417,7 +34993,7 @@
       <c r="C179" s="18">
         <v>319.76998900000001</v>
       </c>
-      <c r="D179" s="127">
+      <c r="D179" s="124">
         <f t="shared" si="11"/>
         <v>0.15182621842493726</v>
       </c>
@@ -34429,7 +35005,7 @@
       <c r="C180" s="18">
         <v>277.61999500000002</v>
       </c>
-      <c r="D180" s="127">
+      <c r="D180" s="124">
         <f t="shared" si="11"/>
         <v>6.7769211538461605E-2</v>
       </c>
@@ -34441,7 +35017,7 @@
       <c r="C181" s="18">
         <v>260</v>
       </c>
-      <c r="D181" s="127">
+      <c r="D181" s="124">
         <f t="shared" si="11"/>
         <v>2.564102564102555E-2</v>
       </c>
@@ -34453,7 +35029,7 @@
       <c r="C182" s="18">
         <v>253.5</v>
       </c>
-      <c r="D182" s="127">
+      <c r="D182" s="124">
         <f t="shared" si="11"/>
         <v>-8.1854420531957572E-2</v>
       </c>
@@ -34465,7 +35041,7 @@
       <c r="C183" s="18">
         <v>276.10000600000001</v>
       </c>
-      <c r="D183" s="127">
+      <c r="D183" s="124">
         <f t="shared" si="11"/>
         <v>0.15094421255969093</v>
       </c>
@@ -34477,7 +35053,7 @@
       <c r="C184" s="18">
         <v>239.88999899999999</v>
       </c>
-      <c r="D184" s="127">
+      <c r="D184" s="124">
         <f t="shared" si="11"/>
         <v>-0.15379728575248808</v>
       </c>
@@ -34489,7 +35065,7 @@
       <c r="C185" s="18">
         <v>283.48998999999998</v>
       </c>
-      <c r="D185" s="127">
+      <c r="D185" s="124">
         <f t="shared" si="11"/>
         <v>7.9756248170157917E-2</v>
       </c>
@@ -34501,7 +35077,7 @@
       <c r="C186" s="18">
         <v>262.54998799999998</v>
       </c>
-      <c r="D186" s="127">
+      <c r="D186" s="124">
         <f t="shared" si="11"/>
         <v>5.0199952000000048E-2</v>
       </c>
@@ -34513,7 +35089,7 @@
       <c r="C187" s="18">
         <v>250</v>
       </c>
-      <c r="D187" s="127">
+      <c r="D187" s="124">
         <f t="shared" si="11"/>
         <v>4.0452809390930655E-2</v>
       </c>
@@ -34525,7 +35101,7 @@
       <c r="C188" s="18">
         <v>240.279999</v>
       </c>
-      <c r="D188" s="127">
+      <c r="D188" s="124">
         <f t="shared" si="11"/>
         <v>1.8221896232255119E-2</v>
       </c>
@@ -34537,7 +35113,7 @@
       <c r="C189" s="18">
         <v>235.979996</v>
       </c>
-      <c r="D189" s="127">
+      <c r="D189" s="124">
         <f t="shared" si="11"/>
         <v>8.935811744562816E-3</v>
       </c>
@@ -34549,7 +35125,7 @@
       <c r="C190" s="18">
         <v>233.88999899999999</v>
       </c>
-      <c r="D190" s="127">
+      <c r="D190" s="124">
         <f t="shared" si="11"/>
         <v>-3.1912279836615598E-2</v>
       </c>
@@ -34561,7 +35137,7 @@
       <c r="C191" s="18">
         <v>241.60000600000001</v>
       </c>
-      <c r="D191" s="127">
+      <c r="D191" s="124">
         <f t="shared" si="11"/>
         <v>-2.6630678915374961E-2</v>
       </c>
@@ -34573,7 +35149,7 @@
       <c r="C192" s="18">
         <v>248.21000699999999</v>
       </c>
-      <c r="D192" s="127">
+      <c r="D192" s="124">
         <f t="shared" si="11"/>
         <v>-0.11150479550605652</v>
       </c>
@@ -34585,7 +35161,7 @@
       <c r="C193" s="18">
         <v>279.35998499999999</v>
       </c>
-      <c r="D193" s="127">
+      <c r="D193" s="124">
         <f t="shared" si="11"/>
         <v>3.0924694294148569E-2</v>
       </c>
@@ -34597,7 +35173,7 @@
       <c r="C194" s="18">
         <v>270.98001099999999</v>
       </c>
-      <c r="D194" s="127">
+      <c r="D194" s="124">
         <f t="shared" si="11"/>
         <v>7.8226975379640074E-2</v>
       </c>
@@ -34609,7 +35185,7 @@
       <c r="C195" s="18">
         <v>251.320007</v>
       </c>
-      <c r="D195" s="127">
+      <c r="D195" s="124">
         <f t="shared" ref="D195:D258" si="12">C195/C196-1</f>
         <v>-3.173044644872336E-3</v>
       </c>
@@ -34621,7 +35197,7 @@
       <c r="C196" s="18">
         <v>252.11999499999999</v>
       </c>
-      <c r="D196" s="127">
+      <c r="D196" s="124">
         <f t="shared" si="12"/>
         <v>-2.2108493698085985E-2</v>
       </c>
@@ -34633,7 +35209,7 @@
       <c r="C197" s="18">
         <v>257.82000699999998</v>
       </c>
-      <c r="D197" s="127">
+      <c r="D197" s="124">
         <f t="shared" si="12"/>
         <v>-4.0634008358785723E-2</v>
       </c>
@@ -34645,7 +35221,7 @@
       <c r="C198" s="18">
         <v>268.73998999999998</v>
       </c>
-      <c r="D198" s="127">
+      <c r="D198" s="124">
         <f t="shared" si="12"/>
         <v>2.0932183906644308E-2</v>
       </c>
@@ -34657,7 +35233,7 @@
       <c r="C199" s="18">
         <v>263.23001099999999</v>
       </c>
-      <c r="D199" s="127">
+      <c r="D199" s="124">
         <f t="shared" si="12"/>
         <v>-5.3946159931934967E-2</v>
       </c>
@@ -34669,7 +35245,7 @@
       <c r="C200" s="18">
         <v>278.23998999999998</v>
       </c>
-      <c r="D200" s="127">
+      <c r="D200" s="124">
         <f t="shared" si="12"/>
         <v>2.486279512552203E-2</v>
       </c>
@@ -34681,7 +35257,7 @@
       <c r="C201" s="18">
         <v>271.48998999999998</v>
       </c>
-      <c r="D201" s="127">
+      <c r="D201" s="124">
         <f t="shared" si="12"/>
         <v>2.4683818470632835E-2</v>
       </c>
@@ -34693,7 +35269,7 @@
       <c r="C202" s="18">
         <v>264.95001200000002</v>
       </c>
-      <c r="D202" s="127">
+      <c r="D202" s="124">
         <f t="shared" si="12"/>
         <v>0.14553167027853209</v>
       </c>
@@ -34705,7 +35281,7 @@
       <c r="C203" s="18">
         <v>231.28999300000001</v>
       </c>
-      <c r="D203" s="127">
+      <c r="D203" s="124">
         <f t="shared" si="12"/>
         <v>0.28444484927464897</v>
       </c>
@@ -34717,7 +35293,7 @@
       <c r="C204" s="18">
         <v>180.070007</v>
       </c>
-      <c r="D204" s="127">
+      <c r="D204" s="124">
         <f t="shared" si="12"/>
         <v>-2.2845626344940473E-2</v>
       </c>
@@ -34729,7 +35305,7 @@
       <c r="C205" s="18">
         <v>184.279999</v>
       </c>
-      <c r="D205" s="127">
+      <c r="D205" s="124">
         <f t="shared" si="12"/>
         <v>1.8515481841642423E-2</v>
       </c>
@@ -34741,7 +35317,7 @@
       <c r="C206" s="18">
         <v>180.929993</v>
       </c>
-      <c r="D206" s="127">
+      <c r="D206" s="124">
         <f t="shared" si="12"/>
         <v>-4.8588132182659005E-2</v>
       </c>
@@ -34753,7 +35329,7 @@
       <c r="C207" s="18">
         <v>190.16999799999999</v>
       </c>
-      <c r="D207" s="127">
+      <c r="D207" s="124">
         <f t="shared" si="12"/>
         <v>0.19731785938024471</v>
       </c>
@@ -34765,7 +35341,7 @@
       <c r="C208" s="18">
         <v>158.83000200000001</v>
       </c>
-      <c r="D208" s="127">
+      <c r="D208" s="124">
         <f t="shared" si="12"/>
         <v>4.3904096374791868E-2</v>
       </c>
@@ -34777,7 +35353,7 @@
       <c r="C209" s="18">
         <v>152.14999399999999</v>
       </c>
-      <c r="D209" s="127">
+      <c r="D209" s="124">
         <f t="shared" si="12"/>
         <v>5.0469471153534062E-2</v>
       </c>
@@ -34789,7 +35365,7 @@
       <c r="C210" s="18">
         <v>144.83999600000001</v>
       </c>
-      <c r="D210" s="127">
+      <c r="D210" s="124">
         <f t="shared" si="12"/>
         <v>5.0783518594994748E-2</v>
       </c>
@@ -34801,7 +35377,7 @@
       <c r="C211" s="18">
         <v>137.83999600000001</v>
       </c>
-      <c r="D211" s="127">
+      <c r="D211" s="124">
         <f t="shared" si="12"/>
         <v>-2.8337832875103386E-2</v>
       </c>
@@ -34813,7 +35389,7 @@
       <c r="C212" s="18">
         <v>141.86000100000001</v>
       </c>
-      <c r="D212" s="127">
+      <c r="D212" s="124">
         <f t="shared" si="12"/>
         <v>7.5838009435476916E-2</v>
       </c>
@@ -34825,7 +35401,7 @@
       <c r="C213" s="18">
         <v>131.86000100000001</v>
       </c>
-      <c r="D213" s="127">
+      <c r="D213" s="124">
         <f t="shared" si="12"/>
         <v>7.9757597123544244E-2</v>
       </c>
@@ -34837,7 +35413,7 @@
       <c r="C214" s="18">
         <v>122.120003</v>
       </c>
-      <c r="D214" s="127">
+      <c r="D214" s="124">
         <f t="shared" si="12"/>
         <v>-3.4274359113152242E-3</v>
       </c>
@@ -34849,7 +35425,7 @@
       <c r="C215" s="18">
         <v>122.540001</v>
       </c>
-      <c r="D215" s="127">
+      <c r="D215" s="124">
         <f t="shared" si="12"/>
         <v>-1.4634930728249174E-2</v>
       </c>
@@ -34861,7 +35437,7 @@
       <c r="C216" s="18">
         <v>124.360001</v>
       </c>
-      <c r="D216" s="127">
+      <c r="D216" s="124">
         <f t="shared" si="12"/>
         <v>-5.4727858843537036E-2</v>
       </c>
@@ -34873,7 +35449,7 @@
       <c r="C217" s="18">
         <v>131.55999800000001</v>
       </c>
-      <c r="D217" s="127">
+      <c r="D217" s="124">
         <f t="shared" si="12"/>
         <v>-9.3564841487975947E-2</v>
       </c>
@@ -34885,7 +35461,7 @@
       <c r="C218" s="18">
         <v>145.13999899999999</v>
       </c>
-      <c r="D218" s="127">
+      <c r="D218" s="124">
         <f t="shared" si="12"/>
         <v>5.8488946123430141E-2</v>
       </c>
@@ -34897,7 +35473,7 @@
       <c r="C219" s="18">
         <v>137.11999499999999</v>
       </c>
-      <c r="D219" s="127">
+      <c r="D219" s="124">
         <f t="shared" si="12"/>
         <v>-6.6893516166591005E-2</v>
       </c>
@@ -34909,7 +35485,7 @@
       <c r="C220" s="18">
         <v>146.949997</v>
       </c>
-      <c r="D220" s="127">
+      <c r="D220" s="124">
         <f t="shared" si="12"/>
         <v>4.2198560283687847E-2</v>
       </c>
@@ -34921,7 +35497,7 @@
       <c r="C221" s="18">
         <v>141</v>
       </c>
-      <c r="D221" s="127">
+      <c r="D221" s="124">
         <f t="shared" si="12"/>
         <v>-8.7673909653693149E-2</v>
       </c>
@@ -34933,7 +35509,7 @@
       <c r="C222" s="18">
         <v>154.550003</v>
       </c>
-      <c r="D222" s="127">
+      <c r="D222" s="124">
         <f t="shared" si="12"/>
         <v>9.3772114074194279E-2</v>
       </c>
@@ -34945,7 +35521,7 @@
       <c r="C223" s="18">
         <v>141.300003</v>
       </c>
-      <c r="D223" s="127">
+      <c r="D223" s="124">
         <f t="shared" si="12"/>
         <v>-3.6350008990315485E-2</v>
       </c>
@@ -34957,7 +35533,7 @@
       <c r="C224" s="18">
         <v>146.63000500000001</v>
       </c>
-      <c r="D224" s="127">
+      <c r="D224" s="124">
         <f t="shared" si="12"/>
         <v>-1.1527511433935822E-2</v>
       </c>
@@ -34969,7 +35545,7 @@
       <c r="C225" s="18">
         <v>148.33999600000001</v>
       </c>
-      <c r="D225" s="127">
+      <c r="D225" s="124">
         <f t="shared" si="12"/>
         <v>-4.934630444388699E-2</v>
       </c>
@@ -34981,7 +35557,7 @@
       <c r="C226" s="18">
         <v>156.03999300000001</v>
       </c>
-      <c r="D226" s="127">
+      <c r="D226" s="124">
         <f t="shared" si="12"/>
         <v>2.3213068852458996E-2</v>
       </c>
@@ -34993,7 +35569,7 @@
       <c r="C227" s="18">
         <v>152.5</v>
       </c>
-      <c r="D227" s="127">
+      <c r="D227" s="124">
         <f t="shared" si="12"/>
         <v>-4.3742117173625195E-3</v>
       </c>
@@ -35005,7 +35581,7 @@
       <c r="C228" s="18">
         <v>153.16999799999999</v>
       </c>
-      <c r="D228" s="127">
+      <c r="D228" s="124">
         <f t="shared" si="12"/>
         <v>1.9027343743295067E-2</v>
       </c>
@@ -35017,7 +35593,7 @@
       <c r="C229" s="18">
         <v>150.30999800000001</v>
       </c>
-      <c r="D229" s="127">
+      <c r="D229" s="124">
         <f t="shared" si="12"/>
         <v>2.1127724615374932E-2</v>
       </c>
@@ -35029,7 +35605,7 @@
       <c r="C230" s="18">
         <v>147.199997</v>
       </c>
-      <c r="D230" s="127">
+      <c r="D230" s="124">
         <f t="shared" si="12"/>
         <v>-6.0098522792857434E-3</v>
       </c>
@@ -35041,7 +35617,7 @@
       <c r="C231" s="18">
         <v>148.08999600000001</v>
       </c>
-      <c r="D231" s="127">
+      <c r="D231" s="124">
         <f t="shared" si="12"/>
         <v>3.8863506723321617E-2</v>
       </c>
@@ -35053,7 +35629,7 @@
       <c r="C232" s="18">
         <v>142.550003</v>
       </c>
-      <c r="D232" s="127">
+      <c r="D232" s="124">
         <f t="shared" si="12"/>
         <v>1.1782269939543566E-2</v>
       </c>
@@ -35065,7 +35641,7 @@
       <c r="C233" s="18">
         <v>140.88999899999999</v>
       </c>
-      <c r="D233" s="127">
+      <c r="D233" s="124">
         <f t="shared" si="12"/>
         <v>-4.4878287739078426E-2</v>
       </c>
@@ -35077,7 +35653,7 @@
       <c r="C234" s="18">
         <v>147.509995</v>
       </c>
-      <c r="D234" s="127">
+      <c r="D234" s="124">
         <f t="shared" si="12"/>
         <v>-2.299702307756446E-3</v>
       </c>
@@ -35089,7 +35665,7 @@
       <c r="C235" s="18">
         <v>147.85000600000001</v>
       </c>
-      <c r="D235" s="127">
+      <c r="D235" s="124">
         <f t="shared" si="12"/>
         <v>6.3300300344411031E-3</v>
       </c>
@@ -35101,7 +35677,7 @@
       <c r="C236" s="18">
         <v>146.91999799999999</v>
       </c>
-      <c r="D236" s="127">
+      <c r="D236" s="124">
         <f t="shared" si="12"/>
         <v>0.21733362801667688</v>
       </c>
@@ -35113,7 +35689,7 @@
       <c r="C237" s="18">
         <v>120.69000200000001</v>
       </c>
-      <c r="D237" s="127">
+      <c r="D237" s="124">
         <f t="shared" si="12"/>
         <v>4.6475330851030616E-2</v>
       </c>
@@ -35125,7 +35701,7 @@
       <c r="C238" s="18">
         <v>115.33000199999999</v>
       </c>
-      <c r="D238" s="127">
+      <c r="D238" s="124">
         <f t="shared" si="12"/>
         <v>-1.3853667224066335E-3</v>
       </c>
@@ -35137,7 +35713,7 @@
       <c r="C239" s="18">
         <v>115.489998</v>
       </c>
-      <c r="D239" s="127">
+      <c r="D239" s="124">
         <f t="shared" si="12"/>
         <v>-7.9883182956248522E-3</v>
       </c>
@@ -35149,7 +35725,7 @@
       <c r="C240" s="18">
         <v>116.41999800000001</v>
       </c>
-      <c r="D240" s="127">
+      <c r="D240" s="124">
         <f t="shared" si="12"/>
         <v>3.7241625752701957E-2</v>
       </c>
@@ -35161,7 +35737,7 @@
       <c r="C241" s="18">
         <v>112.239998</v>
       </c>
-      <c r="D241" s="127">
+      <c r="D241" s="124">
         <f t="shared" si="12"/>
         <v>-7.0091128502679179E-2</v>
       </c>
@@ -35173,7 +35749,7 @@
       <c r="C242" s="18">
         <v>120.699997</v>
       </c>
-      <c r="D242" s="127">
+      <c r="D242" s="124">
         <f t="shared" si="12"/>
         <v>-7.6016287375936464E-2</v>
       </c>
@@ -35185,7 +35761,7 @@
       <c r="C243" s="18">
         <v>130.63000500000001</v>
       </c>
-      <c r="D243" s="127">
+      <c r="D243" s="124">
         <f t="shared" si="12"/>
         <v>-3.9908812875331656E-2</v>
       </c>
@@ -35197,7 +35773,7 @@
       <c r="C244" s="18">
         <v>136.05999800000001</v>
       </c>
-      <c r="D244" s="127">
+      <c r="D244" s="124">
         <f t="shared" si="12"/>
         <v>8.2252762110102129E-3</v>
       </c>
@@ -35209,7 +35785,7 @@
       <c r="C245" s="18">
         <v>134.949997</v>
       </c>
-      <c r="D245" s="127">
+      <c r="D245" s="124">
         <f t="shared" si="12"/>
         <v>-2.2243203238858089E-2</v>
       </c>
@@ -35221,7 +35797,7 @@
       <c r="C246" s="18">
         <v>138.020004</v>
       </c>
-      <c r="D246" s="127">
+      <c r="D246" s="124">
         <f t="shared" si="12"/>
         <v>-6.5791259449327844E-2</v>
       </c>
@@ -35233,7 +35809,7 @@
       <c r="C247" s="18">
         <v>147.740005</v>
       </c>
-      <c r="D247" s="127">
+      <c r="D247" s="124">
         <f t="shared" si="12"/>
         <v>-4.690013698794071E-2</v>
       </c>
@@ -35245,7 +35821,7 @@
       <c r="C248" s="18">
         <v>155.009995</v>
       </c>
-      <c r="D248" s="127">
+      <c r="D248" s="124">
         <f t="shared" si="12"/>
         <v>1.0034495275724975E-2</v>
       </c>
@@ -35257,7 +35833,7 @@
       <c r="C249" s="18">
         <v>153.470001</v>
       </c>
-      <c r="D249" s="127">
+      <c r="D249" s="124">
         <f t="shared" si="12"/>
         <v>-1.2292469677807061E-2</v>
       </c>
@@ -35269,7 +35845,7 @@
       <c r="C250" s="18">
         <v>155.38000500000001</v>
       </c>
-      <c r="D250" s="127">
+      <c r="D250" s="124">
         <f t="shared" si="12"/>
         <v>7.8204176821843108E-2</v>
       </c>
@@ -35281,7 +35857,7 @@
       <c r="C251" s="18">
         <v>144.11000100000001</v>
       </c>
-      <c r="D251" s="127">
+      <c r="D251" s="124">
         <f t="shared" si="12"/>
         <v>-5.3775455276911521E-2</v>
       </c>
@@ -35293,7 +35869,7 @@
       <c r="C252" s="18">
         <v>152.300003</v>
       </c>
-      <c r="D252" s="127">
+      <c r="D252" s="124">
         <f t="shared" si="12"/>
         <v>4.0940503601127665E-2</v>
       </c>
@@ -35305,7 +35881,7 @@
       <c r="C253" s="18">
         <v>146.30999800000001</v>
       </c>
-      <c r="D253" s="127">
+      <c r="D253" s="124">
         <f t="shared" si="12"/>
         <v>6.1549035278707365E-4</v>
       </c>
@@ -35317,7 +35893,7 @@
       <c r="C254" s="18">
         <v>146.220001</v>
       </c>
-      <c r="D254" s="127">
+      <c r="D254" s="124">
         <f t="shared" si="12"/>
         <v>-1.4092084338103827E-2</v>
       </c>
@@ -35329,7 +35905,7 @@
       <c r="C255" s="18">
         <v>148.30999800000001</v>
       </c>
-      <c r="D255" s="127">
+      <c r="D255" s="124">
         <f t="shared" si="12"/>
         <v>2.5727934870404034E-2</v>
       </c>
@@ -35341,7 +35917,7 @@
       <c r="C256" s="18">
         <v>144.58999600000001</v>
       </c>
-      <c r="D256" s="127">
+      <c r="D256" s="124">
         <f t="shared" si="12"/>
         <v>3.2195844771618409E-2</v>
       </c>
@@ -35353,7 +35929,7 @@
       <c r="C257" s="18">
         <v>140.08000200000001</v>
       </c>
-      <c r="D257" s="127">
+      <c r="D257" s="124">
         <f t="shared" si="12"/>
         <v>0.11546424406013323</v>
       </c>
@@ -35365,7 +35941,7 @@
       <c r="C258" s="18">
         <v>125.58000199999999</v>
       </c>
-      <c r="D258" s="127">
+      <c r="D258" s="124">
         <f t="shared" si="12"/>
         <v>7.4608903736719245E-3</v>
       </c>
@@ -35377,7 +35953,7 @@
       <c r="C259" s="18">
         <v>124.650002</v>
       </c>
-      <c r="D259" s="127">
+      <c r="D259" s="124">
         <f t="shared" ref="D259:D317" si="13">C259/C260-1</f>
         <v>-6.1087626585101917E-2</v>
       </c>
@@ -35389,7 +35965,7 @@
       <c r="C260" s="18">
         <v>132.759995</v>
       </c>
-      <c r="D260" s="127">
+      <c r="D260" s="124">
         <f t="shared" si="13"/>
         <v>-3.692427115309671E-2</v>
       </c>
@@ -35401,7 +35977,7 @@
       <c r="C261" s="18">
         <v>137.85000600000001</v>
       </c>
-      <c r="D261" s="127">
+      <c r="D261" s="124">
         <f t="shared" si="13"/>
         <v>1.2337578208674316E-2</v>
       </c>
@@ -35413,7 +35989,7 @@
       <c r="C262" s="18">
         <v>136.16999799999999</v>
       </c>
-      <c r="D262" s="127">
+      <c r="D262" s="124">
         <f t="shared" si="13"/>
         <v>-1.5045222423146543E-2</v>
       </c>
@@ -35425,7 +36001,7 @@
       <c r="C263" s="18">
         <v>138.25</v>
       </c>
-      <c r="D263" s="127">
+      <c r="D263" s="124">
         <f t="shared" si="13"/>
         <v>-1.0025020122807815E-2</v>
       </c>
@@ -35437,7 +36013,7 @@
       <c r="C264" s="18">
         <v>139.64999399999999</v>
       </c>
-      <c r="D264" s="127">
+      <c r="D264" s="124">
         <f t="shared" si="13"/>
         <v>-3.6564353982014963E-2</v>
       </c>
@@ -35449,7 +36025,7 @@
       <c r="C265" s="18">
         <v>144.949997</v>
       </c>
-      <c r="D265" s="127">
+      <c r="D265" s="124">
         <f t="shared" si="13"/>
         <v>2.7067185323206067E-2</v>
       </c>
@@ -35461,7 +36037,7 @@
       <c r="C266" s="18">
         <v>141.13000500000001</v>
       </c>
-      <c r="D266" s="127">
+      <c r="D266" s="124">
         <f t="shared" si="13"/>
         <v>1.6786757562246013E-2</v>
       </c>
@@ -35473,7 +36049,7 @@
       <c r="C267" s="18">
         <v>138.800003</v>
       </c>
-      <c r="D267" s="127">
+      <c r="D267" s="124">
         <f t="shared" si="13"/>
         <v>-1.4388273381295003E-3</v>
       </c>
@@ -35485,7 +36061,7 @@
       <c r="C268" s="18">
         <v>139</v>
       </c>
-      <c r="D268" s="127">
+      <c r="D268" s="124">
         <f t="shared" si="13"/>
         <v>-2.0505982087069663E-2</v>
       </c>
@@ -35497,7 +36073,7 @@
       <c r="C269" s="18">
         <v>141.91000399999999</v>
       </c>
-      <c r="D269" s="127">
+      <c r="D269" s="124">
         <f t="shared" si="13"/>
         <v>1.2341354589737952E-2</v>
       </c>
@@ -35509,7 +36085,7 @@
       <c r="C270" s="18">
         <v>140.179993</v>
       </c>
-      <c r="D270" s="127">
+      <c r="D270" s="124">
         <f t="shared" si="13"/>
         <v>1.5797050724637662E-2</v>
       </c>
@@ -35521,7 +36097,7 @@
       <c r="C271" s="18">
         <v>138</v>
       </c>
-      <c r="D271" s="127">
+      <c r="D271" s="124">
         <f t="shared" si="13"/>
         <v>-8.7241231731711943E-2</v>
       </c>
@@ -35533,7 +36109,7 @@
       <c r="C272" s="18">
         <v>151.19000199999999</v>
       </c>
-      <c r="D272" s="127">
+      <c r="D272" s="124">
         <f t="shared" si="13"/>
         <v>1.7977362833898169E-2</v>
       </c>
@@ -35545,7 +36121,7 @@
       <c r="C273" s="18">
         <v>148.520004</v>
       </c>
-      <c r="D273" s="127">
+      <c r="D273" s="124">
         <f t="shared" si="13"/>
         <v>0.10251648936518887</v>
       </c>
@@ -35557,7 +36133,7 @@
       <c r="C274" s="18">
         <v>134.71000699999999</v>
       </c>
-      <c r="D274" s="127">
+      <c r="D274" s="124">
         <f t="shared" si="13"/>
         <v>-1.8220245408193891E-2</v>
       </c>
@@ -35569,7 +36145,7 @@
       <c r="C275" s="18">
         <v>137.21000699999999</v>
       </c>
-      <c r="D275" s="127">
+      <c r="D275" s="124">
         <f t="shared" si="13"/>
         <v>1.8860986394311885E-2</v>
       </c>
@@ -35581,7 +36157,7 @@
       <c r="C276" s="18">
         <v>134.66999799999999</v>
       </c>
-      <c r="D276" s="127">
+      <c r="D276" s="124">
         <f t="shared" si="13"/>
         <v>7.5564414916522438E-3</v>
       </c>
@@ -35593,7 +36169,7 @@
       <c r="C277" s="18">
         <v>133.66000399999999</v>
       </c>
-      <c r="D277" s="127">
+      <c r="D277" s="124">
         <f t="shared" si="13"/>
         <v>0.10902760809063072</v>
       </c>
@@ -35605,7 +36181,7 @@
       <c r="C278" s="18">
         <v>120.519997</v>
       </c>
-      <c r="D278" s="127">
+      <c r="D278" s="124">
         <f t="shared" si="13"/>
         <v>1.6960551565934567E-2</v>
       </c>
@@ -35617,7 +36193,7 @@
       <c r="C279" s="18">
         <v>118.510002</v>
       </c>
-      <c r="D279" s="127">
+      <c r="D279" s="124">
         <f t="shared" si="13"/>
         <v>5.661552936463865E-2</v>
       </c>
@@ -35629,7 +36205,7 @@
       <c r="C280" s="18">
         <v>112.160004</v>
       </c>
-      <c r="D280" s="127">
+      <c r="D280" s="124">
         <f t="shared" si="13"/>
         <v>4.979416135507897E-2</v>
       </c>
@@ -35641,7 +36217,7 @@
       <c r="C281" s="18">
         <v>106.839996</v>
       </c>
-      <c r="D281" s="127">
+      <c r="D281" s="124">
         <f t="shared" si="13"/>
         <v>-0.14990455124124769</v>
       </c>
@@ -35653,7 +36229,7 @@
       <c r="C282" s="18">
         <v>125.68</v>
       </c>
-      <c r="D282" s="127">
+      <c r="D282" s="124">
         <f t="shared" si="13"/>
         <v>-7.1169892412532576E-2</v>
       </c>
@@ -35665,7 +36241,7 @@
       <c r="C283" s="18">
         <v>135.30999800000001</v>
       </c>
-      <c r="D283" s="127">
+      <c r="D283" s="124">
         <f t="shared" si="13"/>
         <v>-7.84577621917526E-3</v>
       </c>
@@ -35677,7 +36253,7 @@
       <c r="C284" s="18">
         <v>136.38000500000001</v>
       </c>
-      <c r="D284" s="127">
+      <c r="D284" s="124">
         <f t="shared" si="13"/>
         <v>5.3859831423852089E-2</v>
       </c>
@@ -35689,7 +36265,7 @@
       <c r="C285" s="18">
         <v>129.41000399999999</v>
       </c>
-      <c r="D285" s="127">
+      <c r="D285" s="124">
         <f t="shared" si="13"/>
         <v>-3.5764866624289793E-2</v>
       </c>
@@ -35701,7 +36277,7 @@
       <c r="C286" s="18">
         <v>134.21000699999999</v>
       </c>
-      <c r="D286" s="127">
+      <c r="D286" s="124">
         <f t="shared" si="13"/>
         <v>-2.7886361406437299E-2</v>
       </c>
@@ -35713,7 +36289,7 @@
       <c r="C287" s="18">
         <v>138.05999800000001</v>
       </c>
-      <c r="D287" s="127">
+      <c r="D287" s="124">
         <f t="shared" si="13"/>
         <v>-6.69117898081939E-3</v>
       </c>
@@ -35725,7 +36301,7 @@
       <c r="C288" s="18">
         <v>138.990005</v>
       </c>
-      <c r="D288" s="127">
+      <c r="D288" s="124">
         <f t="shared" si="13"/>
         <v>-4.9576037692285357E-2</v>
       </c>
@@ -35737,7 +36313,7 @@
       <c r="C289" s="18">
         <v>146.240005</v>
       </c>
-      <c r="D289" s="127">
+      <c r="D289" s="124">
         <f t="shared" si="13"/>
         <v>-1.8062097135799871E-2</v>
       </c>
@@ -35749,7 +36325,7 @@
       <c r="C290" s="18">
         <v>148.929993</v>
       </c>
-      <c r="D290" s="127">
+      <c r="D290" s="124">
         <f t="shared" si="13"/>
         <v>-6.0319336856604955E-2</v>
       </c>
@@ -35761,7 +36337,7 @@
       <c r="C291" s="18">
         <v>158.490005</v>
       </c>
-      <c r="D291" s="127">
+      <c r="D291" s="124">
         <f t="shared" si="13"/>
         <v>-3.5831608594974917E-2</v>
       </c>
@@ -35773,7 +36349,7 @@
       <c r="C292" s="18">
         <v>164.38000500000001</v>
       </c>
-      <c r="D292" s="127">
+      <c r="D292" s="124">
         <f t="shared" si="13"/>
         <v>-9.0969401194830435E-2</v>
       </c>
@@ -35785,7 +36361,7 @@
       <c r="C293" s="18">
         <v>180.83000200000001</v>
       </c>
-      <c r="D293" s="127">
+      <c r="D293" s="124">
         <f t="shared" si="13"/>
         <v>3.3196193961919862E-2</v>
       </c>
@@ -35797,7 +36373,7 @@
       <c r="C294" s="18">
         <v>175.020004</v>
       </c>
-      <c r="D294" s="127">
+      <c r="D294" s="124">
         <f t="shared" si="13"/>
         <v>-3.1057968469856423E-2</v>
       </c>
@@ -35809,7 +36385,7 @@
       <c r="C295" s="18">
         <v>180.63000500000001</v>
       </c>
-      <c r="D295" s="127">
+      <c r="D295" s="124">
         <f t="shared" si="13"/>
         <v>1.5916771384981487E-2</v>
       </c>
@@ -35821,7 +36397,7 @@
       <c r="C296" s="18">
         <v>177.800003</v>
       </c>
-      <c r="D296" s="127">
+      <c r="D296" s="124">
         <f t="shared" si="13"/>
         <v>-6.1840442975085619E-2</v>
       </c>
@@ -35833,7 +36409,7 @@
       <c r="C297" s="18">
         <v>189.520004</v>
       </c>
-      <c r="D297" s="127">
+      <c r="D297" s="124">
         <f t="shared" si="13"/>
         <v>-1.4866415041417724E-2</v>
       </c>
@@ -35845,7 +36421,7 @@
       <c r="C298" s="18">
         <v>192.38000500000001</v>
       </c>
-      <c r="D298" s="127">
+      <c r="D298" s="124">
         <f t="shared" si="13"/>
         <v>2.1287944505174572E-2</v>
       </c>
@@ -35857,7 +36433,7 @@
       <c r="C299" s="18">
         <v>188.36999499999999</v>
       </c>
-      <c r="D299" s="127">
+      <c r="D299" s="124">
         <f t="shared" si="13"/>
         <v>-3.6496509430832269E-3</v>
       </c>
@@ -35869,7 +36445,7 @@
       <c r="C300" s="18">
         <v>189.05999800000001</v>
       </c>
-      <c r="D300" s="127">
+      <c r="D300" s="124">
         <f t="shared" si="13"/>
         <v>7.7264945868945833E-2</v>
       </c>
@@ -35881,7 +36457,7 @@
       <c r="C301" s="18">
         <v>175.5</v>
       </c>
-      <c r="D301" s="127">
+      <c r="D301" s="124">
         <f t="shared" si="13"/>
         <v>-5.7819314804975264E-2</v>
       </c>
@@ -35893,7 +36469,7 @@
       <c r="C302" s="18">
         <v>186.270004</v>
       </c>
-      <c r="D302" s="127">
+      <c r="D302" s="124">
         <f t="shared" si="13"/>
         <v>1.9038301511396183E-2</v>
       </c>
@@ -35905,7 +36481,7 @@
       <c r="C303" s="18">
         <v>182.78999300000001</v>
       </c>
-      <c r="D303" s="127">
+      <c r="D303" s="124">
         <f t="shared" si="13"/>
         <v>-2.360992380070781E-2</v>
       </c>
@@ -35917,7 +36493,7 @@
       <c r="C304" s="18">
         <v>187.21000699999999</v>
       </c>
-      <c r="D304" s="127">
+      <c r="D304" s="124">
         <f t="shared" si="13"/>
         <v>6.5509449041140311E-2</v>
       </c>
@@ -35929,7 +36505,7 @@
       <c r="C305" s="18">
         <v>175.699997</v>
       </c>
-      <c r="D305" s="127">
+      <c r="D305" s="124">
         <f t="shared" si="13"/>
         <v>4.4341368154381611E-2</v>
       </c>
@@ -35941,7 +36517,7 @@
       <c r="C306" s="18">
         <v>168.240005</v>
       </c>
-      <c r="D306" s="127">
+      <c r="D306" s="124">
         <f t="shared" si="13"/>
         <v>-7.0188995576555779E-2</v>
       </c>
@@ -35953,7 +36529,7 @@
       <c r="C307" s="18">
         <v>180.94000199999999</v>
       </c>
-      <c r="D307" s="127">
+      <c r="D307" s="124">
         <f t="shared" si="13"/>
         <v>3.3824693547601425E-2</v>
       </c>
@@ -35965,7 +36541,7 @@
       <c r="C308" s="18">
         <v>175.020004</v>
       </c>
-      <c r="D308" s="127">
+      <c r="D308" s="124">
         <f t="shared" si="13"/>
         <v>2.0643853992158956E-2</v>
       </c>
@@ -35977,7 +36553,7 @@
       <c r="C309" s="18">
         <v>171.479996</v>
       </c>
-      <c r="D309" s="127">
+      <c r="D309" s="124">
         <f t="shared" si="13"/>
         <v>7.6865050337068253E-2</v>
       </c>
@@ -35989,7 +36565,7 @@
       <c r="C310" s="18">
         <v>159.240005</v>
       </c>
-      <c r="D310" s="127">
+      <c r="D310" s="124">
         <f t="shared" si="13"/>
         <v>1.6858230516287431E-2</v>
       </c>
@@ -36001,7 +36577,7 @@
       <c r="C311" s="18">
         <v>156.60000600000001</v>
       </c>
-      <c r="D311" s="127">
+      <c r="D311" s="124">
         <f t="shared" si="13"/>
         <v>3.8461557590287354E-2</v>
       </c>
@@ -36013,7 +36589,7 @@
       <c r="C312" s="18">
         <v>150.800003</v>
       </c>
-      <c r="D312" s="127">
+      <c r="D312" s="124">
         <f t="shared" si="13"/>
         <v>-3.8081270955379942E-2</v>
       </c>
@@ -36025,7 +36601,7 @@
       <c r="C313" s="18">
         <v>156.770004</v>
       </c>
-      <c r="D313" s="127">
+      <c r="D313" s="124">
         <f t="shared" si="13"/>
         <v>1.6271289260705535E-2</v>
       </c>
@@ -36037,7 +36613,7 @@
       <c r="C314" s="18">
         <v>154.259995</v>
       </c>
-      <c r="D314" s="127">
+      <c r="D314" s="124">
         <f t="shared" si="13"/>
         <v>-3.575447645341856E-2</v>
       </c>
@@ -36049,7 +36625,7 @@
       <c r="C315" s="18">
         <v>159.979996</v>
       </c>
-      <c r="D315" s="127">
+      <c r="D315" s="124">
         <f t="shared" si="13"/>
         <v>9.6560367874289899E-3</v>
       </c>
@@ -36061,7 +36637,7 @@
       <c r="C316" s="18">
         <v>158.449997</v>
       </c>
-      <c r="D316" s="127">
+      <c r="D316" s="124">
         <f t="shared" si="13"/>
         <v>6.3422798657718049E-2</v>
       </c>
@@ -36073,7 +36649,7 @@
       <c r="C317" s="18">
         <v>149</v>
       </c>
-      <c r="D317" s="127">
+      <c r="D317" s="124">
         <f t="shared" si="13"/>
         <v>7.3012575351711906E-3</v>
       </c>
